--- a/site316_gcs_analysis/0_SFE_316_RiverBuilder_metrics_v3.xlsx
+++ b/site316_gcs_analysis/0_SFE_316_RiverBuilder_metrics_v3.xlsx
@@ -13,15 +13,14 @@
   </bookViews>
   <sheets>
     <sheet name="SFE_316_classmetrics" sheetId="1" r:id="rId1"/>
-    <sheet name="baseflow" sheetId="2" r:id="rId2"/>
-    <sheet name="bankfull" sheetId="3" r:id="rId3"/>
+    <sheet name="spatial_series" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="84">
   <si>
     <t>SFE Site 316 River Builder Input data</t>
   </si>
@@ -86,9 +85,6 @@
     <t>TIN</t>
   </si>
   <si>
-    <t>METER</t>
-  </si>
-  <si>
     <t>FEET</t>
   </si>
   <si>
@@ -123,9 +119,6 @@
   </si>
   <si>
     <t>TIN width</t>
-  </si>
-  <si>
-    <t>Wall lat offset</t>
   </si>
   <si>
     <t>Wall Z offset</t>
@@ -221,13 +214,64 @@
     <t>Z (m)</t>
   </si>
   <si>
-    <t>W (m)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Z_fit </t>
   </si>
   <si>
     <t>Zd (m)</t>
+  </si>
+  <si>
+    <t>Wbf (m)</t>
+  </si>
+  <si>
+    <t>Wbase (m)</t>
+  </si>
+  <si>
+    <t>Centerline length</t>
+  </si>
+  <si>
+    <t>RB centerline length</t>
+  </si>
+  <si>
+    <t>RB Valley slope</t>
+  </si>
+  <si>
+    <t>Assumed to be the same as the site value</t>
+  </si>
+  <si>
+    <t>Bed slope / straight line length * RB centerline length</t>
+  </si>
+  <si>
+    <t>from down</t>
+  </si>
+  <si>
+    <t>station (m)</t>
+  </si>
+  <si>
+    <t>Metric 5x</t>
+  </si>
+  <si>
+    <t>1x case</t>
+  </si>
+  <si>
+    <t>5x case</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> amplitude</t>
+  </si>
+  <si>
+    <t>Thalweg peak-to-peak</t>
+  </si>
+  <si>
+    <t>Wall lat offset (L-R)</t>
+  </si>
+  <si>
+    <t>From bf to wall</t>
+  </si>
+  <si>
+    <t>max bf w</t>
+  </si>
+  <si>
+    <t>min Wall lat offset</t>
   </si>
 </sst>
 </file>
@@ -239,7 +283,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,8 +310,40 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -286,8 +362,50 @@
         <bgColor rgb="FFDEEAF6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFBE4D5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor rgb="FFFBE4D5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFDEEAF6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor rgb="FFDEEAF6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -322,13 +440,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -345,9 +474,6 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -356,7 +482,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -380,6 +505,54 @@
     <xf numFmtId="2" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,7 +594,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>baseflow!$C$3</c:f>
+              <c:f>spatial_series!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -465,7 +638,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>baseflow!$C$4:$C$96</c:f>
+              <c:f>spatial_series!$B$4:$B$96</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="93"/>
@@ -753,7 +926,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>baseflow!$D$4:$D$96</c:f>
+              <c:f>spatial_series!$D$4:$D$96</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="93"/>
@@ -1215,7 +1388,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>baseflow!$F$3</c:f>
+              <c:f>spatial_series!$F$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1245,7 +1418,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>baseflow!$C$4:$C$96</c:f>
+              <c:f>spatial_series!$B$4:$B$96</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="93"/>
@@ -1533,7 +1706,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>baseflow!$F$4:$F$96</c:f>
+              <c:f>spatial_series!$F$4:$F$96</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="93"/>
@@ -2013,7 +2186,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>baseflow!$C$4:$C$496</c:f>
+              <c:f>spatial_series!$B$4:$B$496</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="493"/>
@@ -2301,7 +2474,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>baseflow!$G$4:$G$96</c:f>
+              <c:f>spatial_series!$G$4:$G$96</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="93"/>
@@ -2726,499 +2899,11 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="1"/>
-  <c:style val="2"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>W (ft)</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>bankfull!#REF!</c:f>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>bankfull!$C$4:$C$96</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="93"/>
-                <c:pt idx="0">
-                  <c:v>18.249503516160001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>18.144316914240001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>17.254728182880001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>17.6403</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>17.136313321919999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>17.6403</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>18.144316914240001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>21.672377127600001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>20.664373565759998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>21.168359055120003</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>22.680410956079999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>22.680410956079999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22.176395200080002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>22.680410956079999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>21.672377127600001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>20.160355493280001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>23.201346617280002</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>22.661788834320003</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>22.70763023616</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>23.201346617280002</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>24.820047794400004</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>24.820047794400004</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>25.20001065144</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24.820047794400004</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>23.740902053280003</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>24.28049004192</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>24.883383466560002</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>24.013027279919999</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>24.28049004192</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>23.897873870399998</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>23.897873870399998</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>23.3547512076</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>22.811628544800001</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>21.095482137120001</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>20.095952442000002</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>17.92339784376</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>17.224948613280002</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>17.727259805759999</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>16.370320533360001</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>15.342077489520001</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>16.224960803760002</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>16.825874125680002</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>15.624017245680001</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>16.224960803760002</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>15.323576281919999</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>14.422190601840001</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>14.060027851440001</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>13.038978544800001</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>13.979499020880001</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>11.437772796240001</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>11.978304902880001</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>10.50029861328</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>10.65449732952</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>11.35764044952</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>11.35255007616</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>9.64838316192</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>10.93485230856</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>11.578072358160002</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>11.578072358160002</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>11.830294175279999</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>12.84930174864</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>12.487656365759999</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>13.72154732952</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>12.864511268640001</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>12.864511268640001</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>12.835372358160001</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>11.621567379120002</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>12.864511268640001</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>13.388828106720002</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>13.154131984800001</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>12.781726796160001</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>13.154131984800001</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>12.232051055279999</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>12.32531976384</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>10.866455340960002</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>11.474226358080001</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>12.582205264800001</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>12.0102785448</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>11.347338758159999</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>11.399368148640001</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>10.956005672400002</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>11.42579327232</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>10.88172533328</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>11.969892636239999</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>12.45357939048</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>11.282476434239999</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>9.7935591885599997</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>10.337627127600001</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>9.7935591885599997</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>10.079523127680002</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>9.2494610133600013</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>8.0597655923999998</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>3.8085980419199998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5769-4744-8B84-6708D603218E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1084060312"/>
-        <c:axId val="338860520"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1084060312"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="B7B7B7"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr sz="900" b="0" i="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="338860520"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="338860520"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="B7B7B7"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr sz="900" b="0" i="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1084060312"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -3243,7 +2928,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
@@ -3268,7 +2953,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -3286,36 +2971,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="4371975" cy="2876550"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="748743141" name="Chart 4"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3522,57 +3177,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1000"/>
+  <dimension ref="A1:K1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.125" customWidth="1"/>
-    <col min="2" max="2" width="7.625" customWidth="1"/>
-    <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="26" width="7.625" customWidth="1"/>
+    <col min="1" max="1" width="17.375" customWidth="1"/>
+    <col min="2" max="2" width="7" customWidth="1"/>
+    <col min="3" max="27" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
+      <c r="C3" s="3">
         <v>0.30480000000000002</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="35" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
@@ -3582,461 +3242,666 @@
       <c r="C7" s="7">
         <v>2.4E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="7">
+        <f>C7</f>
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="8">
+        <f>C8/0.3048</f>
+        <v>3.4448818897637796</v>
+      </c>
+      <c r="C8" s="7">
         <v>1.05</v>
       </c>
-      <c r="C8" s="8">
-        <f t="shared" ref="C8:C11" si="0">B8/0.3048</f>
-        <v>3.4448818897637796</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="8">
+        <f>C9/0.3048</f>
+        <v>37.237532808398946</v>
+      </c>
+      <c r="C9" s="1">
         <v>11.35</v>
       </c>
-      <c r="C9" s="8">
-        <f t="shared" si="0"/>
-        <v>37.237532808398946</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="8">
+        <f>C10/0.3048</f>
+        <v>37.696850393700785</v>
+      </c>
+      <c r="C10" s="1">
         <v>11.49</v>
       </c>
-      <c r="C10" s="8">
-        <f t="shared" si="0"/>
-        <v>37.696850393700785</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="9">
+        <f>C11/0.3048</f>
+        <v>19.685039370078741</v>
+      </c>
+      <c r="C11" s="1">
         <v>6</v>
       </c>
-      <c r="C11" s="9">
-        <f t="shared" si="0"/>
-        <v>19.685039370078741</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="10"/>
+      <c r="C12" s="1">
         <v>0.19</v>
       </c>
-      <c r="C12" s="10"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="10"/>
+      <c r="C13" s="1">
         <v>0.28999999999999998</v>
       </c>
-      <c r="C13" s="10"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="10"/>
+      <c r="C14" s="1">
         <v>190</v>
       </c>
-      <c r="C14" s="10"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="10"/>
+      <c r="C15" s="1">
         <v>2000</v>
       </c>
-      <c r="C15" s="10"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="11">
+        <f>C16/0.3048</f>
+        <v>426.50918635170603</v>
+      </c>
+      <c r="C16" s="1">
         <v>130</v>
       </c>
-      <c r="C16" s="11">
-        <f>B16/0.3048</f>
-        <v>426.50918635170603</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="9"/>
+      <c r="C17" s="1">
         <v>4</v>
       </c>
-      <c r="C17" s="9"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="1">
+      <c r="C18" s="1">
         <v>39.729188450000002</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5">
         <v>-123.646468</v>
       </c>
-      <c r="C19" s="5"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="1" t="s">
+    </row>
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
+      <c r="B21" s="1">
+        <v>607.38</v>
+      </c>
+      <c r="C21" s="1">
+        <f>B21*$C$3</f>
+        <v>185.129424</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="F21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="1">
-        <f t="shared" ref="B21:B23" si="1">C21*$B$3</f>
-        <v>185.129424</v>
-      </c>
-      <c r="C21" s="1">
-        <v>607.38</v>
-      </c>
-      <c r="E21" s="1" t="s">
+    </row>
+    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+      <c r="B22" s="1">
+        <v>592.06399999999996</v>
+      </c>
+      <c r="C22" s="1">
+        <f>B22*$C$3</f>
+        <v>180.46110719999999</v>
+      </c>
+      <c r="D22" s="33">
+        <f>C22*5</f>
+        <v>902.30553599999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="1">
-        <f t="shared" si="1"/>
-        <v>180.46110719999999</v>
-      </c>
-      <c r="C22" s="1">
-        <v>592.06399999999996</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="1">
-        <f t="shared" si="1"/>
-        <v>0.31268481785752894</v>
-      </c>
-      <c r="C23" s="14">
-        <f>C21/C22</f>
+      <c r="B23" s="13">
+        <f>B21/B22</f>
         <v>1.0258688249918928</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="17">
+      <c r="C23" s="27">
+        <f>B23</f>
+        <v>1.0258688249918928</v>
+      </c>
+      <c r="D23" s="27"/>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="28">
         <f>217.98*SIN(RADIANS(13))</f>
         <v>49.034830825875694</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="C25" s="15">
+        <f>B25*C3</f>
+        <v>14.945816435726913</v>
+      </c>
+      <c r="D25" s="46">
+        <f>C25*5</f>
+        <v>74.72908217863457</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="28"/>
+      <c r="C26" s="15">
+        <f>C25/2</f>
+        <v>7.4729082178634565</v>
+      </c>
+      <c r="D26" s="40">
+        <f>C26*5</f>
+        <v>37.364541089317285</v>
+      </c>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
+      <c r="B27" s="15">
+        <v>0</v>
+      </c>
+      <c r="C27" s="49">
+        <v>0</v>
+      </c>
+      <c r="D27" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
+      <c r="B28" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="18" t="s">
+      <c r="C28" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D28" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
+      <c r="B29" s="17">
+        <f>85046.2/B21</f>
+        <v>140.02140340478778</v>
+      </c>
+      <c r="C29">
+        <f>B29*C3</f>
+        <v>42.678523757779317</v>
+      </c>
+      <c r="D29">
+        <f>C29*5</f>
+        <v>213.39261878889658</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="20">
+        <f>(B29-B43)/2</f>
+        <v>43.669449109289076</v>
+      </c>
+      <c r="C30" s="19">
+        <f>B30*C3</f>
+        <v>13.310448088511311</v>
+      </c>
+      <c r="D30" s="50">
+        <f>C30*5</f>
+        <v>66.552240442556553</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K30" s="48" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" s="20">
+        <f>(B29-B44)/2</f>
+        <v>30.010701702393888</v>
+      </c>
+      <c r="C31" s="19">
+        <f>B31*C3</f>
+        <v>9.1472618788896582</v>
+      </c>
+      <c r="D31" s="44">
+        <f>C31*5</f>
+        <v>45.736309394448291</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="K31" s="48"/>
+    </row>
+    <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="19">
-        <f>85046.2/C21</f>
-        <v>140.02140340478778</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
+      <c r="B32" s="19">
+        <f>1004.6-B48</f>
+        <v>5.5600000000000591</v>
+      </c>
+      <c r="C32" s="19">
+        <f>B32*C3</f>
+        <v>1.6946880000000182</v>
+      </c>
+      <c r="D32" s="19">
+        <f>C32*5</f>
+        <v>8.4734400000000907</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="21"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="21"/>
-      <c r="C28" s="22">
-        <f>(C27-C40)/2</f>
-        <v>43.669449109289076</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
+      <c r="B34" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="34" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21">
-        <f>1004.6-C44</f>
-        <v>5.5600000000000591</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="23"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="24" t="s">
+      <c r="B35" s="19">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="C35" s="19">
+        <v>2</v>
+      </c>
+      <c r="D35" s="19"/>
+      <c r="F35" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="20" t="s">
+    </row>
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21">
-        <v>0.13100000000000001</v>
-      </c>
-      <c r="E32" s="1" t="s">
+      <c r="B36" s="19">
+        <v>0.05</v>
+      </c>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="F36" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="20" t="s">
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21">
-        <v>0.05</v>
-      </c>
-      <c r="E33" s="1" t="s">
+      <c r="B37" s="24">
+        <f>(10793.5+13.4548)/B21</f>
+        <v>17.792740623662286</v>
+      </c>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="F37" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="20" t="s">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="21"/>
-      <c r="C34" s="26">
-        <f>(10793.5+13.4548)/C21</f>
-        <v>17.792740623662286</v>
-      </c>
-      <c r="E34" s="1" t="s">
+      <c r="B38" s="24">
+        <v>5</v>
+      </c>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="F38" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="20" t="s">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="21"/>
-      <c r="C35" s="26">
+      <c r="B39" s="24"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="19">
+        <v>0.94</v>
+      </c>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="F40" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" s="19">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="F41" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="19">
+        <v>0.9395</v>
+      </c>
+      <c r="C42" s="19">
+        <f>B42*C3</f>
+        <v>0.28635959999999999</v>
+      </c>
+      <c r="D42" s="45">
+        <f>C42*5</f>
+        <v>1.4317979999999999</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="24">
+        <f>31998.3/B21</f>
+        <v>52.682505186209617</v>
+      </c>
+      <c r="C43" s="19">
+        <f>B43*C3</f>
+        <v>16.057627580756691</v>
+      </c>
+      <c r="D43" s="19">
+        <f>C43*5</f>
+        <v>80.288137903783451</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" s="19">
+        <v>80</v>
+      </c>
+      <c r="C44" s="19">
+        <f>B44*C3</f>
+        <v>24.384</v>
+      </c>
+      <c r="D44" s="51">
+        <f>C44*5</f>
+        <v>121.92</v>
+      </c>
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" s="24">
+        <f>(B43-B37)/2</f>
+        <v>17.444882281273664</v>
+      </c>
+      <c r="C45" s="19">
+        <f>B45*C3</f>
+        <v>5.3172001193322131</v>
+      </c>
+      <c r="D45" s="44">
+        <f>C45*5</f>
+        <v>26.586000596661066</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" s="24">
+        <v>3</v>
+      </c>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="F46" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" s="19">
+        <f>(1000.761-995.863)/B21</f>
+        <v>8.0641443577330676E-3</v>
+      </c>
+      <c r="C47" s="19">
+        <f>B47</f>
+        <v>8.0641443577330676E-3</v>
+      </c>
+      <c r="D47" s="19">
+        <f>C47</f>
+        <v>8.0641443577330676E-3</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" s="1">
+        <v>999.04</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B36" s="21"/>
-      <c r="C36" s="26"/>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21">
-        <v>0.94</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21">
-        <v>0.67400000000000004</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21">
-        <v>0.9395</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="B40" s="21"/>
-      <c r="C40" s="26">
-        <f>31998.3/C21</f>
-        <v>52.682505186209617</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="B41" s="21"/>
-      <c r="C41" s="26">
-        <f>(C40-C34)/2</f>
-        <v>17.444882281273664</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="B42" s="21"/>
-      <c r="C42" s="26">
-        <v>3</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="B43" s="21"/>
-      <c r="C43" s="21">
-        <f>(1000.761-995.863)/C21</f>
-        <v>8.0641443577330676E-3</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C44" s="1">
-        <v>999.04</v>
-      </c>
-      <c r="E44" s="1" t="s">
+      <c r="D50" s="43" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="12" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="24" t="s">
+      <c r="B51" s="1">
+        <f>C51</f>
+        <v>6.9340000000000001E-3</v>
+      </c>
+      <c r="C51" s="1">
+        <v>6.9340000000000001E-3</v>
+      </c>
+      <c r="D51" s="1">
+        <f>C51</f>
+        <v>6.9340000000000001E-3</v>
+      </c>
+      <c r="F51" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B46" s="25"/>
-      <c r="C46" s="25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B47" s="1">
-        <v>6.9340000000000001E-3</v>
-      </c>
-      <c r="C47" s="1">
-        <f>B47</f>
-        <v>6.9340000000000001E-3</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="7"/>
-    </row>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    </row>
+    <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52">
+        <v>186.2</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C53">
+        <f>C52</f>
+        <v>186.2</v>
+      </c>
+      <c r="F53" s="32" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C54">
+        <f>C51/C22*C53</f>
+        <v>7.1545100217583054E-3</v>
+      </c>
+      <c r="F54" s="32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4973,2101 +4838,4298 @@
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G1000"/>
+  <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5" customWidth="1"/>
-    <col min="2" max="2" width="3.375" customWidth="1"/>
-    <col min="3" max="7" width="10.25" customWidth="1"/>
-    <col min="8" max="16" width="7.625" customWidth="1"/>
+    <col min="1" max="1" width="3.375" customWidth="1"/>
+    <col min="2" max="3" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.25" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.75" customWidth="1"/>
+    <col min="8" max="8" width="10.25" customWidth="1"/>
+    <col min="9" max="15" width="7.625" customWidth="1"/>
+    <col min="16" max="16" width="4.875" customWidth="1"/>
+    <col min="17" max="17" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.875" customWidth="1"/>
+    <col min="20" max="20" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C2" s="1" t="s">
-        <v>62</v>
+    <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="Q1" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>60</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="1"/>
+      <c r="Q2" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="B3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="37" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="Q3" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="R3" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="S3" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="T3" s="33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
       <c r="B4" s="1">
         <v>0</v>
       </c>
       <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="27">
+        <f>$B$96-B4</f>
+        <v>184</v>
+      </c>
+      <c r="D4" s="25">
         <v>999.66061196478802</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E35" si="0">-0.0227478712*C4+999.747562975</f>
+        <f t="shared" ref="E4:E35" si="0">-0.0227478712*B4+999.747562975</f>
         <v>999.74756297500005</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="26">
         <f>D4-E4</f>
         <v>-8.6951010212032998E-2</v>
       </c>
       <c r="G4" s="1">
         <v>1.6796673950400003</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="1">
+        <v>18.249503516160001</v>
+      </c>
+      <c r="Q4" s="1">
+        <f>C4*5</f>
+        <v>920</v>
+      </c>
+      <c r="R4" s="26">
+        <f>F4*5</f>
+        <v>-0.43475505106016499</v>
+      </c>
+      <c r="S4" s="1">
+        <f>G4*5</f>
+        <v>8.3983369752000012</v>
+      </c>
+      <c r="T4" s="1">
+        <f>H4*5</f>
+        <v>91.247517580800007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
       <c r="B5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>2</v>
-      </c>
-      <c r="D5" s="27">
+        <f t="shared" ref="C5:C68" si="1">$B$96-B5</f>
+        <v>182</v>
+      </c>
+      <c r="D5" s="25">
         <v>999.56727082240297</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
         <v>999.70206723260003</v>
       </c>
-      <c r="F5" s="28">
-        <f t="shared" ref="F5:F68" si="1">D5-E5</f>
+      <c r="F5" s="26">
+        <f t="shared" ref="F5:F68" si="2">D5-E5</f>
         <v>-0.13479641019705468</v>
       </c>
       <c r="G5" s="1">
         <v>2.38781545296</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="1">
+        <v>18.144316914240001</v>
+      </c>
+      <c r="Q5" s="1">
+        <f t="shared" ref="Q5:Q68" si="3">C5*5</f>
+        <v>910</v>
+      </c>
+      <c r="R5" s="26">
+        <f t="shared" ref="R5:R68" si="4">F5*5</f>
+        <v>-0.67398205098527342</v>
+      </c>
+      <c r="S5" s="1">
+        <f t="shared" ref="S5:S68" si="5">G5*5</f>
+        <v>11.9390772648</v>
+      </c>
+      <c r="T5" s="1">
+        <f t="shared" ref="T5:T68" si="6">H5*5</f>
+        <v>90.721584571199998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
       <c r="B6" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1">
-        <v>4</v>
-      </c>
-      <c r="D6" s="27">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="D6" s="25">
         <v>999.543398433069</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
         <v>999.65657149020001</v>
       </c>
-      <c r="F6" s="28">
-        <f t="shared" si="1"/>
+      <c r="F6" s="26">
+        <f t="shared" si="2"/>
         <v>-0.11317305713100723</v>
       </c>
       <c r="G6" s="1">
         <v>3.8727888914399999</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="1">
+        <v>17.254728182880001</v>
+      </c>
+      <c r="Q6" s="1">
+        <f t="shared" si="3"/>
+        <v>900</v>
+      </c>
+      <c r="R6" s="26">
+        <f t="shared" si="4"/>
+        <v>-0.56586528565503613</v>
+      </c>
+      <c r="S6" s="1">
+        <f t="shared" si="5"/>
+        <v>19.363944457199999</v>
+      </c>
+      <c r="T6" s="1">
+        <f t="shared" si="6"/>
+        <v>86.273640914400005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
       <c r="B7" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1">
-        <v>6</v>
-      </c>
-      <c r="D7" s="27">
+        <f t="shared" si="1"/>
+        <v>178</v>
+      </c>
+      <c r="D7" s="25">
         <v>999.52015472412097</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
         <v>999.6110757478001</v>
       </c>
-      <c r="F7" s="28">
-        <f t="shared" si="1"/>
+      <c r="F7" s="26">
+        <f t="shared" si="2"/>
         <v>-9.0921023679129576E-2</v>
       </c>
       <c r="G7" s="1">
         <v>4.2696687580799999</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="1">
+        <v>17.6403</v>
+      </c>
+      <c r="Q7" s="1">
+        <f t="shared" si="3"/>
+        <v>890</v>
+      </c>
+      <c r="R7" s="26">
+        <f t="shared" si="4"/>
+        <v>-0.45460511839564788</v>
+      </c>
+      <c r="S7" s="1">
+        <f t="shared" si="5"/>
+        <v>21.348343790400001</v>
+      </c>
+      <c r="T7" s="1">
+        <f t="shared" si="6"/>
+        <v>88.201499999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
       <c r="B8" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C8" s="1">
-        <v>8</v>
-      </c>
-      <c r="D8" s="27">
+        <f t="shared" si="1"/>
+        <v>176</v>
+      </c>
+      <c r="D8" s="25">
         <v>999.57449000506404</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="0"/>
         <v>999.56558000540008</v>
       </c>
-      <c r="F8" s="28">
-        <f t="shared" si="1"/>
+      <c r="F8" s="26">
+        <f t="shared" si="2"/>
         <v>8.9099996639561141E-3</v>
       </c>
       <c r="G8" s="1">
         <v>4.4473366780800001</v>
       </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="1">
+        <v>17.136313321919999</v>
+      </c>
+      <c r="Q8" s="1">
+        <f t="shared" si="3"/>
+        <v>880</v>
+      </c>
+      <c r="R8" s="26">
+        <f t="shared" si="4"/>
+        <v>4.454999831978057E-2</v>
+      </c>
+      <c r="S8" s="1">
+        <f t="shared" si="5"/>
+        <v>22.2366833904</v>
+      </c>
+      <c r="T8" s="1">
+        <f t="shared" si="6"/>
+        <v>85.681566609599997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>5</v>
+      </c>
       <c r="B9" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1">
-        <v>10</v>
-      </c>
-      <c r="D9" s="27">
+        <f t="shared" si="1"/>
+        <v>174</v>
+      </c>
+      <c r="D9" s="25">
         <v>999.50409837516895</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="0"/>
         <v>999.52008426300006</v>
       </c>
-      <c r="F9" s="28">
-        <f t="shared" si="1"/>
+      <c r="F9" s="26">
+        <f t="shared" si="2"/>
         <v>-1.5985887831106993E-2</v>
       </c>
       <c r="G9" s="1">
         <v>4.1706698399999995</v>
       </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="1">
+        <v>17.6403</v>
+      </c>
+      <c r="Q9" s="1">
+        <f t="shared" si="3"/>
+        <v>870</v>
+      </c>
+      <c r="R9" s="26">
+        <f t="shared" si="4"/>
+        <v>-7.9929439155534965E-2</v>
+      </c>
+      <c r="S9" s="1">
+        <f t="shared" si="5"/>
+        <v>20.853349199999997</v>
+      </c>
+      <c r="T9" s="1">
+        <f t="shared" si="6"/>
+        <v>88.201499999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>6</v>
+      </c>
       <c r="B10" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1">
-        <v>12</v>
-      </c>
-      <c r="D10" s="27">
+        <f t="shared" si="1"/>
+        <v>172</v>
+      </c>
+      <c r="D10" s="25">
         <v>999.351141662597</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="0"/>
         <v>999.47458852060004</v>
       </c>
-      <c r="F10" s="28">
-        <f t="shared" si="1"/>
+      <c r="F10" s="26">
+        <f t="shared" si="2"/>
         <v>-0.12344685800303523</v>
       </c>
       <c r="G10" s="1">
         <v>4.80337368</v>
       </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="1">
+        <v>18.144316914240001</v>
+      </c>
+      <c r="Q10" s="1">
+        <f t="shared" si="3"/>
+        <v>860</v>
+      </c>
+      <c r="R10" s="26">
+        <f t="shared" si="4"/>
+        <v>-0.61723429001517616</v>
+      </c>
+      <c r="S10" s="1">
+        <f t="shared" si="5"/>
+        <v>24.0168684</v>
+      </c>
+      <c r="T10" s="1">
+        <f t="shared" si="6"/>
+        <v>90.721584571199998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>7</v>
+      </c>
       <c r="B11" s="1">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1">
-        <v>14</v>
-      </c>
-      <c r="D11" s="27">
+        <f t="shared" si="1"/>
+        <v>170</v>
+      </c>
+      <c r="D11" s="25">
         <v>999.28977981525804</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="0"/>
         <v>999.42909277820002</v>
       </c>
-      <c r="F11" s="28">
-        <f t="shared" si="1"/>
+      <c r="F11" s="26">
+        <f t="shared" si="2"/>
         <v>-0.13931296294197182</v>
       </c>
       <c r="G11" s="1">
         <v>4.80337368</v>
       </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="1">
+        <v>21.672377127600001</v>
+      </c>
+      <c r="Q11" s="1">
+        <f t="shared" si="3"/>
+        <v>850</v>
+      </c>
+      <c r="R11" s="26">
+        <f t="shared" si="4"/>
+        <v>-0.69656481470985909</v>
+      </c>
+      <c r="S11" s="1">
+        <f t="shared" si="5"/>
+        <v>24.0168684</v>
+      </c>
+      <c r="T11" s="1">
+        <f t="shared" si="6"/>
+        <v>108.361885638</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>8</v>
+      </c>
       <c r="B12" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C12" s="1">
-        <v>16</v>
-      </c>
-      <c r="D12" s="27">
+        <f t="shared" si="1"/>
+        <v>168</v>
+      </c>
+      <c r="D12" s="25">
         <v>999.31188740002005</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="0"/>
         <v>999.38359703579999</v>
       </c>
-      <c r="F12" s="28">
-        <f t="shared" si="1"/>
+      <c r="F12" s="26">
+        <f t="shared" si="2"/>
         <v>-7.1709635779939163E-2</v>
       </c>
       <c r="G12" s="1">
         <v>4.2696687580799999</v>
       </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="1">
+        <v>20.664373565759998</v>
+      </c>
+      <c r="Q12" s="1">
+        <f t="shared" si="3"/>
+        <v>840</v>
+      </c>
+      <c r="R12" s="26">
+        <f t="shared" si="4"/>
+        <v>-0.35854817889969581</v>
+      </c>
+      <c r="S12" s="1">
+        <f t="shared" si="5"/>
+        <v>21.348343790400001</v>
+      </c>
+      <c r="T12" s="1">
+        <f t="shared" si="6"/>
+        <v>103.32186782879999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>9</v>
+      </c>
       <c r="B13" s="1">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C13" s="1">
-        <v>18</v>
-      </c>
-      <c r="D13" s="27">
+        <f t="shared" si="1"/>
+        <v>166</v>
+      </c>
+      <c r="D13" s="25">
         <v>999.31527822538203</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="0"/>
         <v>999.33810129340009</v>
       </c>
-      <c r="F13" s="28">
-        <f t="shared" si="1"/>
+      <c r="F13" s="26">
+        <f t="shared" si="2"/>
         <v>-2.2823068018055892E-2</v>
       </c>
       <c r="G13" s="1">
         <v>4.6909633790400003</v>
       </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="1">
+        <v>21.168359055120003</v>
+      </c>
+      <c r="Q13" s="1">
+        <f t="shared" si="3"/>
+        <v>830</v>
+      </c>
+      <c r="R13" s="26">
+        <f t="shared" si="4"/>
+        <v>-0.11411534009027946</v>
+      </c>
+      <c r="S13" s="1">
+        <f t="shared" si="5"/>
+        <v>23.4548168952</v>
+      </c>
+      <c r="T13" s="1">
+        <f t="shared" si="6"/>
+        <v>105.84179527560002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>10</v>
+      </c>
       <c r="B14" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C14" s="1">
-        <v>20</v>
-      </c>
-      <c r="D14" s="27">
+        <f t="shared" si="1"/>
+        <v>164</v>
+      </c>
+      <c r="D14" s="25">
         <v>999.33774626771003</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" si="0"/>
         <v>999.29260555100007</v>
       </c>
-      <c r="F14" s="28">
-        <f t="shared" si="1"/>
+      <c r="F14" s="26">
+        <f t="shared" si="2"/>
         <v>4.5140716709966E-2</v>
       </c>
       <c r="G14" s="1">
         <v>4.9747934438400003</v>
       </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="1">
+        <v>22.680410956079999</v>
+      </c>
+      <c r="Q14" s="1">
+        <f t="shared" si="3"/>
+        <v>820</v>
+      </c>
+      <c r="R14" s="26">
+        <f t="shared" si="4"/>
+        <v>0.22570358354983</v>
+      </c>
+      <c r="S14" s="1">
+        <f t="shared" si="5"/>
+        <v>24.873967219200001</v>
+      </c>
+      <c r="T14" s="1">
+        <f t="shared" si="6"/>
+        <v>113.40205478039999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>11</v>
+      </c>
       <c r="B15" s="1">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C15" s="1">
-        <v>22</v>
-      </c>
-      <c r="D15" s="27">
+        <f t="shared" si="1"/>
+        <v>162</v>
+      </c>
+      <c r="D15" s="25">
         <v>999.24864593505799</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" si="0"/>
         <v>999.24710980860004</v>
       </c>
-      <c r="F15" s="28">
-        <f t="shared" si="1"/>
+      <c r="F15" s="26">
+        <f t="shared" si="2"/>
         <v>1.5361264579496492E-3</v>
       </c>
       <c r="G15" s="1">
         <v>4.9747934438400003</v>
       </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="1">
+        <v>22.680410956079999</v>
+      </c>
+      <c r="Q15" s="1">
+        <f t="shared" si="3"/>
+        <v>810</v>
+      </c>
+      <c r="R15" s="26">
+        <f t="shared" si="4"/>
+        <v>7.680632289748246E-3</v>
+      </c>
+      <c r="S15" s="1">
+        <f t="shared" si="5"/>
+        <v>24.873967219200001</v>
+      </c>
+      <c r="T15" s="1">
+        <f t="shared" si="6"/>
+        <v>113.40205478039999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>12</v>
+      </c>
       <c r="B16" s="1">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C16" s="1">
-        <v>24</v>
-      </c>
-      <c r="D16" s="27">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
+      <c r="D16" s="25">
         <v>999.16178088826302</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" si="0"/>
         <v>999.20161406620002</v>
       </c>
-      <c r="F16" s="28">
-        <f t="shared" si="1"/>
+      <c r="F16" s="26">
+        <f t="shared" si="2"/>
         <v>-3.9833177936998254E-2</v>
       </c>
       <c r="G16" s="1">
         <v>4.4220385219200002</v>
       </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="1">
+        <v>22.176395200080002</v>
+      </c>
+      <c r="Q16" s="1">
+        <f t="shared" si="3"/>
+        <v>800</v>
+      </c>
+      <c r="R16" s="26">
+        <f t="shared" si="4"/>
+        <v>-0.19916588968499127</v>
+      </c>
+      <c r="S16" s="1">
+        <f t="shared" si="5"/>
+        <v>22.110192609600002</v>
+      </c>
+      <c r="T16" s="1">
+        <f t="shared" si="6"/>
+        <v>110.88197600040002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>13</v>
+      </c>
       <c r="B17" s="1">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C17" s="1">
-        <v>26</v>
-      </c>
-      <c r="D17" s="27">
+        <f t="shared" si="1"/>
+        <v>158</v>
+      </c>
+      <c r="D17" s="25">
         <v>999.24412804859105</v>
       </c>
       <c r="E17" s="1">
         <f t="shared" si="0"/>
         <v>999.1561183238</v>
       </c>
-      <c r="F17" s="28">
-        <f t="shared" si="1"/>
+      <c r="F17" s="26">
+        <f t="shared" si="2"/>
         <v>8.8009724791049848E-2</v>
       </c>
       <c r="G17" s="1">
         <v>3.8692836000000002</v>
       </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="1">
+        <v>22.680410956079999</v>
+      </c>
+      <c r="Q17" s="1">
+        <f t="shared" si="3"/>
+        <v>790</v>
+      </c>
+      <c r="R17" s="26">
+        <f t="shared" si="4"/>
+        <v>0.44004862395524924</v>
+      </c>
+      <c r="S17" s="1">
+        <f t="shared" si="5"/>
+        <v>19.346418</v>
+      </c>
+      <c r="T17" s="1">
+        <f t="shared" si="6"/>
+        <v>113.40205478039999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>14</v>
+      </c>
       <c r="B18" s="1">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C18" s="1">
-        <v>28</v>
-      </c>
-      <c r="D18" s="27">
+        <f t="shared" si="1"/>
+        <v>156</v>
+      </c>
+      <c r="D18" s="25">
         <v>999.11982727050702</v>
       </c>
       <c r="E18" s="1">
         <f t="shared" si="0"/>
         <v>999.11062258140009</v>
       </c>
-      <c r="F18" s="28">
-        <f t="shared" si="1"/>
+      <c r="F18" s="26">
+        <f t="shared" si="2"/>
         <v>9.2046891069230696E-3</v>
       </c>
       <c r="G18" s="1">
         <v>6.0803027085599997</v>
       </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="1">
+        <v>21.672377127600001</v>
+      </c>
+      <c r="Q18" s="1">
+        <f t="shared" si="3"/>
+        <v>780</v>
+      </c>
+      <c r="R18" s="26">
+        <f t="shared" si="4"/>
+        <v>4.6023445534615348E-2</v>
+      </c>
+      <c r="S18" s="1">
+        <f t="shared" si="5"/>
+        <v>30.401513542799997</v>
+      </c>
+      <c r="T18" s="1">
+        <f t="shared" si="6"/>
+        <v>108.361885638</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>15</v>
+      </c>
       <c r="B19" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C19" s="1">
-        <v>30</v>
-      </c>
-      <c r="D19" s="27">
+        <f t="shared" si="1"/>
+        <v>154</v>
+      </c>
+      <c r="D19" s="25">
         <v>999.04429662149505</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" si="0"/>
         <v>999.06512683900007</v>
       </c>
-      <c r="F19" s="28">
-        <f t="shared" si="1"/>
+      <c r="F19" s="26">
+        <f t="shared" si="2"/>
         <v>-2.0830217505022119E-2</v>
       </c>
       <c r="G19" s="1">
         <v>6.0887155543200002</v>
       </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="1">
+        <v>20.160355493280001</v>
+      </c>
+      <c r="Q19" s="1">
+        <f t="shared" si="3"/>
+        <v>770</v>
+      </c>
+      <c r="R19" s="26">
+        <f t="shared" si="4"/>
+        <v>-0.1041510875251106</v>
+      </c>
+      <c r="S19" s="1">
+        <f t="shared" si="5"/>
+        <v>30.443577771600001</v>
+      </c>
+      <c r="T19" s="1">
+        <f t="shared" si="6"/>
+        <v>100.80177746640001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>16</v>
+      </c>
       <c r="B20" s="1">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C20" s="1">
-        <v>32</v>
-      </c>
-      <c r="D20" s="27">
+        <f t="shared" si="1"/>
+        <v>152</v>
+      </c>
+      <c r="D20" s="25">
         <v>998.98729680379199</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" si="0"/>
         <v>999.01963109660005</v>
       </c>
-      <c r="F20" s="28">
-        <f t="shared" si="1"/>
+      <c r="F20" s="26">
+        <f t="shared" si="2"/>
         <v>-3.2334292808059217E-2</v>
       </c>
       <c r="G20" s="1">
         <v>4.9896977676000009</v>
       </c>
-    </row>
-    <row r="21" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H20" s="1">
+        <v>23.201346617280002</v>
+      </c>
+      <c r="Q20" s="1">
+        <f t="shared" si="3"/>
+        <v>760</v>
+      </c>
+      <c r="R20" s="26">
+        <f t="shared" si="4"/>
+        <v>-0.16167146404029609</v>
+      </c>
+      <c r="S20" s="1">
+        <f t="shared" si="5"/>
+        <v>24.948488838000003</v>
+      </c>
+      <c r="T20" s="1">
+        <f t="shared" si="6"/>
+        <v>116.0067330864</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>17</v>
+      </c>
       <c r="B21" s="1">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C21" s="1">
-        <v>34</v>
-      </c>
-      <c r="D21" s="27">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="D21" s="25">
         <v>998.95935638364006</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" si="0"/>
         <v>998.97413535420003</v>
       </c>
-      <c r="F21" s="28">
-        <f t="shared" si="1"/>
+      <c r="F21" s="26">
+        <f t="shared" si="2"/>
         <v>-1.4778970559973459E-2</v>
       </c>
       <c r="G21" s="1">
         <v>4.8709782590400001</v>
       </c>
-    </row>
-    <row r="22" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H21" s="1">
+        <v>22.661788834320003</v>
+      </c>
+      <c r="Q21" s="1">
+        <f t="shared" si="3"/>
+        <v>750</v>
+      </c>
+      <c r="R21" s="26">
+        <f t="shared" si="4"/>
+        <v>-7.3894852799867294E-2</v>
+      </c>
+      <c r="S21" s="1">
+        <f t="shared" si="5"/>
+        <v>24.354891295200002</v>
+      </c>
+      <c r="T21" s="1">
+        <f t="shared" si="6"/>
+        <v>113.30894417160002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>18</v>
+      </c>
       <c r="B22" s="1">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C22" s="1">
-        <v>36</v>
-      </c>
-      <c r="D22" s="27">
+        <f t="shared" si="1"/>
+        <v>148</v>
+      </c>
+      <c r="D22" s="25">
         <v>998.88643423338601</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" si="0"/>
         <v>998.92863961180001</v>
       </c>
-      <c r="F22" s="28">
-        <f t="shared" si="1"/>
+      <c r="F22" s="26">
+        <f t="shared" si="2"/>
         <v>-4.2205378413996186E-2</v>
       </c>
       <c r="G22" s="1">
         <v>5.6148427504800003</v>
       </c>
-    </row>
-    <row r="23" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H22" s="1">
+        <v>22.70763023616</v>
+      </c>
+      <c r="Q22" s="1">
+        <f t="shared" si="3"/>
+        <v>740</v>
+      </c>
+      <c r="R22" s="26">
+        <f t="shared" si="4"/>
+        <v>-0.21102689206998093</v>
+      </c>
+      <c r="S22" s="1">
+        <f t="shared" si="5"/>
+        <v>28.074213752400002</v>
+      </c>
+      <c r="T22" s="1">
+        <f t="shared" si="6"/>
+        <v>113.5381511808</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>19</v>
+      </c>
       <c r="B23" s="1">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C23" s="1">
-        <v>38</v>
-      </c>
-      <c r="D23" s="27">
+        <f t="shared" si="1"/>
+        <v>146</v>
+      </c>
+      <c r="D23" s="25">
         <v>998.79184621047</v>
       </c>
       <c r="E23" s="1">
         <f t="shared" si="0"/>
         <v>998.8831438694001</v>
       </c>
-      <c r="F23" s="28">
-        <f t="shared" si="1"/>
+      <c r="F23" s="26">
+        <f t="shared" si="2"/>
         <v>-9.1297658930102443E-2</v>
       </c>
       <c r="G23" s="1">
         <v>7.0285965600000004</v>
       </c>
-    </row>
-    <row r="24" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H23" s="1">
+        <v>23.201346617280002</v>
+      </c>
+      <c r="Q23" s="1">
+        <f t="shared" si="3"/>
+        <v>730</v>
+      </c>
+      <c r="R23" s="26">
+        <f t="shared" si="4"/>
+        <v>-0.45648829465051222</v>
+      </c>
+      <c r="S23" s="1">
+        <f t="shared" si="5"/>
+        <v>35.142982799999999</v>
+      </c>
+      <c r="T23" s="1">
+        <f t="shared" si="6"/>
+        <v>116.0067330864</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>20</v>
+      </c>
       <c r="B24" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C24" s="1">
-        <v>40</v>
-      </c>
-      <c r="D24" s="27">
+        <f t="shared" si="1"/>
+        <v>144</v>
+      </c>
+      <c r="D24" s="25">
         <v>998.65169795511804</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" si="0"/>
         <v>998.83764812700008</v>
       </c>
-      <c r="F24" s="28">
-        <f t="shared" si="1"/>
+      <c r="F24" s="26">
+        <f t="shared" si="2"/>
         <v>-0.1859501718820411</v>
       </c>
       <c r="G24" s="1">
         <v>5.84581991616</v>
       </c>
-    </row>
-    <row r="25" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H24" s="1">
+        <v>24.820047794400004</v>
+      </c>
+      <c r="Q24" s="1">
+        <f t="shared" si="3"/>
+        <v>720</v>
+      </c>
+      <c r="R24" s="26">
+        <f t="shared" si="4"/>
+        <v>-0.92975085941020552</v>
+      </c>
+      <c r="S24" s="1">
+        <f t="shared" si="5"/>
+        <v>29.2290995808</v>
+      </c>
+      <c r="T24" s="1">
+        <f t="shared" si="6"/>
+        <v>124.10023897200003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>21</v>
+      </c>
       <c r="B25" s="1">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="C25" s="1">
-        <v>42</v>
-      </c>
-      <c r="D25" s="27">
+        <f t="shared" si="1"/>
+        <v>142</v>
+      </c>
+      <c r="D25" s="25">
         <v>998.47884085695796</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" si="0"/>
         <v>998.79215238460006</v>
       </c>
-      <c r="F25" s="28">
-        <f t="shared" si="1"/>
+      <c r="F25" s="26">
+        <f t="shared" si="2"/>
         <v>-0.31331152764209946</v>
       </c>
       <c r="G25" s="1">
         <v>5.0294133599999995</v>
       </c>
-    </row>
-    <row r="26" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H25" s="1">
+        <v>24.820047794400004</v>
+      </c>
+      <c r="Q25" s="1">
+        <f t="shared" si="3"/>
+        <v>710</v>
+      </c>
+      <c r="R25" s="26">
+        <f t="shared" si="4"/>
+        <v>-1.5665576382104973</v>
+      </c>
+      <c r="S25" s="1">
+        <f t="shared" si="5"/>
+        <v>25.147066799999997</v>
+      </c>
+      <c r="T25" s="1">
+        <f t="shared" si="6"/>
+        <v>124.10023897200003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>22</v>
+      </c>
       <c r="B26" s="1">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C26" s="1">
-        <v>44</v>
-      </c>
-      <c r="D26" s="27">
+        <f t="shared" si="1"/>
+        <v>140</v>
+      </c>
+      <c r="D26" s="25">
         <v>998.50846389244305</v>
       </c>
       <c r="E26" s="1">
         <f t="shared" si="0"/>
         <v>998.74665664220004</v>
       </c>
-      <c r="F26" s="28">
-        <f t="shared" si="1"/>
+      <c r="F26" s="26">
+        <f t="shared" si="2"/>
         <v>-0.23819274975699045</v>
       </c>
       <c r="G26" s="1">
         <v>5.86234041144</v>
       </c>
-    </row>
-    <row r="27" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H26" s="1">
+        <v>25.20001065144</v>
+      </c>
+      <c r="Q26" s="1">
+        <f t="shared" si="3"/>
+        <v>700</v>
+      </c>
+      <c r="R26" s="26">
+        <f t="shared" si="4"/>
+        <v>-1.1909637487849523</v>
+      </c>
+      <c r="S26" s="1">
+        <f t="shared" si="5"/>
+        <v>29.311702057200002</v>
+      </c>
+      <c r="T26" s="1">
+        <f t="shared" si="6"/>
+        <v>126.00005325719999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>23</v>
+      </c>
       <c r="B27" s="1">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="C27" s="1">
-        <v>46</v>
-      </c>
-      <c r="D27" s="27">
+        <f t="shared" si="1"/>
+        <v>138</v>
+      </c>
+      <c r="D27" s="25">
         <v>998.58378222792203</v>
       </c>
       <c r="E27" s="1">
         <f t="shared" si="0"/>
         <v>998.70116089980002</v>
       </c>
-      <c r="F27" s="28">
-        <f t="shared" si="1"/>
+      <c r="F27" s="26">
+        <f t="shared" si="2"/>
         <v>-0.11737867187798656</v>
       </c>
       <c r="G27" s="1">
         <v>4.4186855085600003</v>
       </c>
-    </row>
-    <row r="28" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H27" s="1">
+        <v>24.820047794400004</v>
+      </c>
+      <c r="Q27" s="1">
+        <f t="shared" si="3"/>
+        <v>690</v>
+      </c>
+      <c r="R27" s="26">
+        <f t="shared" si="4"/>
+        <v>-0.58689335938993281</v>
+      </c>
+      <c r="S27" s="1">
+        <f t="shared" si="5"/>
+        <v>22.093427542800001</v>
+      </c>
+      <c r="T27" s="1">
+        <f t="shared" si="6"/>
+        <v>124.10023897200003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>24</v>
+      </c>
       <c r="B28" s="1">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C28" s="1">
-        <v>48</v>
-      </c>
-      <c r="D28" s="27">
+        <f t="shared" si="1"/>
+        <v>136</v>
+      </c>
+      <c r="D28" s="25">
         <v>998.56421222566496</v>
       </c>
       <c r="E28" s="1">
         <f t="shared" si="0"/>
         <v>998.65566515739999</v>
       </c>
-      <c r="F28" s="28">
-        <f t="shared" si="1"/>
+      <c r="F28" s="26">
+        <f t="shared" si="2"/>
         <v>-9.1452931735034326E-2</v>
       </c>
       <c r="G28" s="1">
         <v>4.9940568038400004</v>
       </c>
-    </row>
-    <row r="29" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H28" s="1">
+        <v>23.740902053280003</v>
+      </c>
+      <c r="Q28" s="1">
+        <f t="shared" si="3"/>
+        <v>680</v>
+      </c>
+      <c r="R28" s="26">
+        <f t="shared" si="4"/>
+        <v>-0.45726465867517163</v>
+      </c>
+      <c r="S28" s="1">
+        <f t="shared" si="5"/>
+        <v>24.970284019200001</v>
+      </c>
+      <c r="T28" s="1">
+        <f t="shared" si="6"/>
+        <v>118.70451026640001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>25</v>
+      </c>
       <c r="B29" s="1">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="C29" s="1">
-        <v>50</v>
-      </c>
-      <c r="D29" s="27">
+        <f t="shared" si="1"/>
+        <v>134</v>
+      </c>
+      <c r="D29" s="25">
         <v>998.62833667116104</v>
       </c>
       <c r="E29" s="1">
         <f t="shared" si="0"/>
         <v>998.61016941500009</v>
       </c>
-      <c r="F29" s="28">
-        <f t="shared" si="1"/>
+      <c r="F29" s="26">
+        <f t="shared" si="2"/>
         <v>1.8167256160950274E-2</v>
       </c>
       <c r="G29" s="1">
         <v>5.4481168761600003</v>
       </c>
-    </row>
-    <row r="30" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H29" s="1">
+        <v>24.28049004192</v>
+      </c>
+      <c r="Q29" s="1">
+        <f t="shared" si="3"/>
+        <v>670</v>
+      </c>
+      <c r="R29" s="26">
+        <f t="shared" si="4"/>
+        <v>9.0836280804751368E-2</v>
+      </c>
+      <c r="S29" s="1">
+        <f t="shared" si="5"/>
+        <v>27.240584380800001</v>
+      </c>
+      <c r="T29" s="1">
+        <f t="shared" si="6"/>
+        <v>121.4024502096</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>26</v>
+      </c>
       <c r="B30" s="1">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C30" s="1">
-        <v>52</v>
-      </c>
-      <c r="D30" s="27">
+        <f t="shared" si="1"/>
+        <v>132</v>
+      </c>
+      <c r="D30" s="25">
         <v>998.617656173196</v>
       </c>
       <c r="E30" s="1">
         <f t="shared" si="0"/>
         <v>998.56467367260007</v>
       </c>
-      <c r="F30" s="28">
-        <f t="shared" si="1"/>
+      <c r="F30" s="26">
+        <f t="shared" si="2"/>
         <v>5.2982500595931015E-2</v>
       </c>
       <c r="G30" s="1">
         <v>5.2628595885600005</v>
       </c>
-    </row>
-    <row r="31" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H30" s="1">
+        <v>24.883383466560002</v>
+      </c>
+      <c r="Q30" s="1">
+        <f t="shared" si="3"/>
+        <v>660</v>
+      </c>
+      <c r="R30" s="26">
+        <f t="shared" si="4"/>
+        <v>0.26491250297965507</v>
+      </c>
+      <c r="S30" s="1">
+        <f t="shared" si="5"/>
+        <v>26.314297942800003</v>
+      </c>
+      <c r="T30" s="1">
+        <f t="shared" si="6"/>
+        <v>124.41691733280001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>27</v>
+      </c>
       <c r="B31" s="1">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="C31" s="1">
-        <v>54</v>
-      </c>
-      <c r="D31" s="27">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+      <c r="D31" s="25">
         <v>998.63808150210605</v>
       </c>
       <c r="E31" s="1">
         <f t="shared" si="0"/>
         <v>998.51917793020004</v>
       </c>
-      <c r="F31" s="28">
-        <f t="shared" si="1"/>
+      <c r="F31" s="26">
+        <f t="shared" si="2"/>
         <v>0.11890357190600298</v>
       </c>
       <c r="G31" s="1">
         <v>5.03057141712</v>
       </c>
-    </row>
-    <row r="32" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H31" s="1">
+        <v>24.013027279919999</v>
+      </c>
+      <c r="Q31" s="1">
+        <f t="shared" si="3"/>
+        <v>650</v>
+      </c>
+      <c r="R31" s="26">
+        <f t="shared" si="4"/>
+        <v>0.5945178595300149</v>
+      </c>
+      <c r="S31" s="1">
+        <f t="shared" si="5"/>
+        <v>25.152857085600001</v>
+      </c>
+      <c r="T31" s="1">
+        <f t="shared" si="6"/>
+        <v>120.06513639959999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>28</v>
+      </c>
       <c r="B32" s="1">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="C32" s="1">
-        <v>56</v>
-      </c>
-      <c r="D32" s="27">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+      <c r="D32" s="25">
         <v>998.65929742586798</v>
       </c>
       <c r="E32" s="1">
         <f t="shared" si="0"/>
         <v>998.47368218780002</v>
       </c>
-      <c r="F32" s="28">
-        <f t="shared" si="1"/>
+      <c r="F32" s="26">
+        <f t="shared" si="2"/>
         <v>0.18561523806795321</v>
       </c>
       <c r="G32" s="1">
         <v>3.9435633600000002</v>
       </c>
-    </row>
-    <row r="33" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H32" s="1">
+        <v>24.28049004192</v>
+      </c>
+      <c r="Q32" s="1">
+        <f t="shared" si="3"/>
+        <v>640</v>
+      </c>
+      <c r="R32" s="26">
+        <f t="shared" si="4"/>
+        <v>0.92807619033976607</v>
+      </c>
+      <c r="S32" s="1">
+        <f t="shared" si="5"/>
+        <v>19.717816800000001</v>
+      </c>
+      <c r="T32" s="1">
+        <f t="shared" si="6"/>
+        <v>121.4024502096</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>29</v>
+      </c>
       <c r="B33" s="1">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="C33" s="1">
-        <v>58</v>
-      </c>
-      <c r="D33" s="27">
+        <f t="shared" si="1"/>
+        <v>126</v>
+      </c>
+      <c r="D33" s="25">
         <v>998.60582315282795</v>
       </c>
       <c r="E33" s="1">
         <f t="shared" si="0"/>
         <v>998.4281864454</v>
       </c>
-      <c r="F33" s="28">
-        <f t="shared" si="1"/>
+      <c r="F33" s="26">
+        <f t="shared" si="2"/>
         <v>0.17763670742795057</v>
       </c>
       <c r="G33" s="1">
         <v>5.2580744114400009</v>
       </c>
-    </row>
-    <row r="34" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H33" s="1">
+        <v>23.897873870399998</v>
+      </c>
+      <c r="Q33" s="1">
+        <f t="shared" si="3"/>
+        <v>630</v>
+      </c>
+      <c r="R33" s="26">
+        <f t="shared" si="4"/>
+        <v>0.88818353713975284</v>
+      </c>
+      <c r="S33" s="1">
+        <f t="shared" si="5"/>
+        <v>26.290372057200003</v>
+      </c>
+      <c r="T33" s="1">
+        <f t="shared" si="6"/>
+        <v>119.48936935199998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>30</v>
+      </c>
       <c r="B34" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C34" s="1">
-        <v>60</v>
-      </c>
-      <c r="D34" s="27">
+        <f t="shared" si="1"/>
+        <v>124</v>
+      </c>
+      <c r="D34" s="25">
         <v>998.57585281200602</v>
       </c>
       <c r="E34" s="1">
         <f t="shared" si="0"/>
         <v>998.38269070300009</v>
       </c>
-      <c r="F34" s="28">
-        <f t="shared" si="1"/>
+      <c r="F34" s="26">
+        <f t="shared" si="2"/>
         <v>0.19316210900592523</v>
       </c>
       <c r="G34" s="1">
         <v>5.2580744114400009</v>
       </c>
-    </row>
-    <row r="35" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H34" s="1">
+        <v>23.897873870399998</v>
+      </c>
+      <c r="Q34" s="1">
+        <f t="shared" si="3"/>
+        <v>620</v>
+      </c>
+      <c r="R34" s="26">
+        <f t="shared" si="4"/>
+        <v>0.96581054502962616</v>
+      </c>
+      <c r="S34" s="1">
+        <f t="shared" si="5"/>
+        <v>26.290372057200003</v>
+      </c>
+      <c r="T34" s="1">
+        <f t="shared" si="6"/>
+        <v>119.48936935199998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>31</v>
+      </c>
       <c r="B35" s="1">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="C35" s="1">
-        <v>62</v>
-      </c>
-      <c r="D35" s="27">
+        <f t="shared" si="1"/>
+        <v>122</v>
+      </c>
+      <c r="D35" s="25">
         <v>998.57847712590103</v>
       </c>
       <c r="E35" s="1">
         <f t="shared" si="0"/>
         <v>998.33719496060007</v>
       </c>
-      <c r="F35" s="28">
-        <f t="shared" si="1"/>
+      <c r="F35" s="26">
+        <f t="shared" si="2"/>
         <v>0.2412821653009587</v>
       </c>
       <c r="G35" s="1">
         <v>6.1743638361600004</v>
       </c>
-    </row>
-    <row r="36" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H35" s="1">
+        <v>23.3547512076</v>
+      </c>
+      <c r="Q35" s="1">
+        <f t="shared" si="3"/>
+        <v>610</v>
+      </c>
+      <c r="R35" s="26">
+        <f t="shared" si="4"/>
+        <v>1.2064108265047935</v>
+      </c>
+      <c r="S35" s="1">
+        <f t="shared" si="5"/>
+        <v>30.871819180800003</v>
+      </c>
+      <c r="T35" s="1">
+        <f t="shared" si="6"/>
+        <v>116.773756038</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>32</v>
+      </c>
       <c r="B36" s="1">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="C36" s="1">
-        <v>64</v>
-      </c>
-      <c r="D36" s="27">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="D36" s="25">
         <v>998.50897193170294</v>
       </c>
       <c r="E36" s="1">
-        <f t="shared" ref="E36:E67" si="2">-0.0227478712*C36+999.747562975</f>
+        <f t="shared" ref="E36:E67" si="7">-0.0227478712*B36+999.747562975</f>
         <v>998.29169921820005</v>
       </c>
-      <c r="F36" s="28">
-        <f t="shared" si="1"/>
+      <c r="F36" s="26">
+        <f t="shared" si="2"/>
         <v>0.21727271350289357</v>
       </c>
       <c r="G36" s="1">
         <v>5.6001512075999997</v>
       </c>
-    </row>
-    <row r="37" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H36" s="1">
+        <v>22.811628544800001</v>
+      </c>
+      <c r="Q36" s="1">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="R36" s="26">
+        <f t="shared" si="4"/>
+        <v>1.0863635675144678</v>
+      </c>
+      <c r="S36" s="1">
+        <f t="shared" si="5"/>
+        <v>28.000756037999999</v>
+      </c>
+      <c r="T36" s="1">
+        <f t="shared" si="6"/>
+        <v>114.05814272400001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>33</v>
+      </c>
       <c r="B37" s="1">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="C37" s="1">
-        <v>66</v>
-      </c>
-      <c r="D37" s="27">
+        <f t="shared" si="1"/>
+        <v>118</v>
+      </c>
+      <c r="D37" s="25">
         <v>998.48091299606904</v>
       </c>
       <c r="E37" s="1">
+        <f t="shared" si="7"/>
+        <v>998.24620347580003</v>
+      </c>
+      <c r="F37" s="26">
         <f t="shared" si="2"/>
-        <v>998.24620347580003</v>
-      </c>
-      <c r="F37" s="28">
-        <f t="shared" si="1"/>
         <v>0.23470952026900704</v>
       </c>
       <c r="G37" s="1">
         <v>3.9381378285600004</v>
       </c>
-    </row>
-    <row r="38" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H37" s="1">
+        <v>21.095482137120001</v>
+      </c>
+      <c r="Q37" s="1">
+        <f t="shared" si="3"/>
+        <v>590</v>
+      </c>
+      <c r="R37" s="26">
+        <f t="shared" si="4"/>
+        <v>1.1735476013450352</v>
+      </c>
+      <c r="S37" s="1">
+        <f t="shared" si="5"/>
+        <v>19.690689142800004</v>
+      </c>
+      <c r="T37" s="1">
+        <f t="shared" si="6"/>
+        <v>105.47741068560001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>34</v>
+      </c>
       <c r="B38" s="1">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="C38" s="1">
-        <v>68</v>
-      </c>
-      <c r="D38" s="27">
+        <f t="shared" si="1"/>
+        <v>116</v>
+      </c>
+      <c r="D38" s="25">
         <v>998.43793274045197</v>
       </c>
       <c r="E38" s="1">
+        <f t="shared" si="7"/>
+        <v>998.20070773340001</v>
+      </c>
+      <c r="F38" s="26">
         <f t="shared" si="2"/>
-        <v>998.20070773340001</v>
-      </c>
-      <c r="F38" s="28">
-        <f t="shared" si="1"/>
         <v>0.23722500705196126</v>
       </c>
       <c r="G38" s="1">
         <v>6.2947297219199996</v>
       </c>
-    </row>
-    <row r="39" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H38" s="1">
+        <v>20.095952442000002</v>
+      </c>
+      <c r="Q38" s="1">
+        <f t="shared" si="3"/>
+        <v>580</v>
+      </c>
+      <c r="R38" s="26">
+        <f t="shared" si="4"/>
+        <v>1.1861250352598063</v>
+      </c>
+      <c r="S38" s="1">
+        <f t="shared" si="5"/>
+        <v>31.473648609599998</v>
+      </c>
+      <c r="T38" s="1">
+        <f t="shared" si="6"/>
+        <v>100.47976221</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>35</v>
+      </c>
       <c r="B39" s="1">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="C39" s="1">
-        <v>70</v>
-      </c>
-      <c r="D39" s="27">
+        <f t="shared" si="1"/>
+        <v>114</v>
+      </c>
+      <c r="D39" s="25">
         <v>998.32268503914804</v>
       </c>
       <c r="E39" s="1">
+        <f t="shared" si="7"/>
+        <v>998.1552119910001</v>
+      </c>
+      <c r="F39" s="26">
         <f t="shared" si="2"/>
-        <v>998.1552119910001</v>
-      </c>
-      <c r="F39" s="28">
-        <f t="shared" si="1"/>
         <v>0.16747304814794006</v>
       </c>
       <c r="G39" s="1">
         <v>6.5265911733599999</v>
       </c>
-    </row>
-    <row r="40" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H39" s="1">
+        <v>17.92339784376</v>
+      </c>
+      <c r="Q39" s="1">
+        <f t="shared" si="3"/>
+        <v>570</v>
+      </c>
+      <c r="R39" s="26">
+        <f t="shared" si="4"/>
+        <v>0.83736524073970031</v>
+      </c>
+      <c r="S39" s="1">
+        <f t="shared" si="5"/>
+        <v>32.632955866800003</v>
+      </c>
+      <c r="T39" s="1">
+        <f t="shared" si="6"/>
+        <v>89.616989218800001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>36</v>
+      </c>
       <c r="B40" s="1">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="C40" s="1">
-        <v>72</v>
-      </c>
-      <c r="D40" s="27">
+        <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
+      <c r="D40" s="25">
         <v>998.36567817215803</v>
       </c>
       <c r="E40" s="1">
+        <f t="shared" si="7"/>
+        <v>998.10971624860008</v>
+      </c>
+      <c r="F40" s="26">
         <f t="shared" si="2"/>
-        <v>998.10971624860008</v>
-      </c>
-      <c r="F40" s="28">
-        <f t="shared" si="1"/>
         <v>0.25596192355794756</v>
       </c>
       <c r="G40" s="1">
         <v>5.5903064419200001</v>
       </c>
-    </row>
-    <row r="41" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H40" s="1">
+        <v>17.224948613280002</v>
+      </c>
+      <c r="Q40" s="1">
+        <f t="shared" si="3"/>
+        <v>560</v>
+      </c>
+      <c r="R40" s="26">
+        <f t="shared" si="4"/>
+        <v>1.2798096177897378</v>
+      </c>
+      <c r="S40" s="1">
+        <f t="shared" si="5"/>
+        <v>27.9515322096</v>
+      </c>
+      <c r="T40" s="1">
+        <f t="shared" si="6"/>
+        <v>86.124743066400015</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>37</v>
+      </c>
       <c r="B41" s="1">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="C41" s="1">
-        <v>74</v>
-      </c>
-      <c r="D41" s="27">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="D41" s="25">
         <v>998.40657596852304</v>
       </c>
       <c r="E41" s="1">
+        <f t="shared" si="7"/>
+        <v>998.06422050620006</v>
+      </c>
+      <c r="F41" s="26">
         <f t="shared" si="2"/>
-        <v>998.06422050620006</v>
-      </c>
-      <c r="F41" s="28">
-        <f t="shared" si="1"/>
         <v>0.34235546232298475</v>
       </c>
       <c r="G41" s="1">
         <v>5.2508504380799996</v>
       </c>
-    </row>
-    <row r="42" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H41" s="1">
+        <v>17.727259805759999</v>
+      </c>
+      <c r="Q41" s="1">
+        <f t="shared" si="3"/>
+        <v>550</v>
+      </c>
+      <c r="R41" s="26">
+        <f t="shared" si="4"/>
+        <v>1.7117773116149237</v>
+      </c>
+      <c r="S41" s="1">
+        <f t="shared" si="5"/>
+        <v>26.254252190399999</v>
+      </c>
+      <c r="T41" s="1">
+        <f t="shared" si="6"/>
+        <v>88.636299028799996</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>38</v>
+      </c>
       <c r="B42" s="1">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="C42" s="1">
-        <v>76</v>
-      </c>
-      <c r="D42" s="27">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+      <c r="D42" s="25">
         <v>998.359410484406</v>
       </c>
       <c r="E42" s="1">
+        <f t="shared" si="7"/>
+        <v>998.01872476380004</v>
+      </c>
+      <c r="F42" s="26">
         <f t="shared" si="2"/>
-        <v>998.01872476380004</v>
-      </c>
-      <c r="F42" s="28">
-        <f t="shared" si="1"/>
         <v>0.34068572060596125</v>
       </c>
       <c r="G42" s="1">
         <v>6.4513056343200006</v>
       </c>
-    </row>
-    <row r="43" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H42" s="1">
+        <v>16.370320533360001</v>
+      </c>
+      <c r="Q42" s="1">
+        <f t="shared" si="3"/>
+        <v>540</v>
+      </c>
+      <c r="R42" s="26">
+        <f t="shared" si="4"/>
+        <v>1.7034286030298063</v>
+      </c>
+      <c r="S42" s="1">
+        <f t="shared" si="5"/>
+        <v>32.256528171600003</v>
+      </c>
+      <c r="T42" s="1">
+        <f t="shared" si="6"/>
+        <v>81.851602666800005</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>39</v>
+      </c>
       <c r="B43" s="1">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="C43" s="1">
-        <v>78</v>
-      </c>
-      <c r="D43" s="27">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+      <c r="D43" s="25">
         <v>998.34677527273595</v>
       </c>
       <c r="E43" s="1">
+        <f t="shared" si="7"/>
+        <v>997.97322902140002</v>
+      </c>
+      <c r="F43" s="26">
         <f t="shared" si="2"/>
-        <v>997.97322902140002</v>
-      </c>
-      <c r="F43" s="28">
-        <f t="shared" si="1"/>
         <v>0.373546251335938</v>
       </c>
       <c r="G43" s="1">
         <v>4.6768816800000002</v>
       </c>
-    </row>
-    <row r="44" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H43" s="1">
+        <v>15.342077489520001</v>
+      </c>
+      <c r="Q43" s="1">
+        <f t="shared" si="3"/>
+        <v>530</v>
+      </c>
+      <c r="R43" s="26">
+        <f t="shared" si="4"/>
+        <v>1.86773125667969</v>
+      </c>
+      <c r="S43" s="1">
+        <f t="shared" si="5"/>
+        <v>23.384408400000002</v>
+      </c>
+      <c r="T43" s="1">
+        <f t="shared" si="6"/>
+        <v>76.710387447599999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>40</v>
+      </c>
       <c r="B44" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C44" s="1">
-        <v>80</v>
-      </c>
-      <c r="D44" s="27">
+        <f t="shared" si="1"/>
+        <v>104</v>
+      </c>
+      <c r="D44" s="25">
         <v>998.25138199935304</v>
       </c>
       <c r="E44" s="1">
+        <f t="shared" si="7"/>
+        <v>997.92773327899999</v>
+      </c>
+      <c r="F44" s="26">
         <f t="shared" si="2"/>
-        <v>997.92773327899999</v>
-      </c>
-      <c r="F44" s="28">
-        <f t="shared" si="1"/>
         <v>0.3236487203530487</v>
       </c>
       <c r="G44" s="1">
         <v>2.2041490384800002</v>
       </c>
-    </row>
-    <row r="45" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H44" s="1">
+        <v>16.224960803760002</v>
+      </c>
+      <c r="Q44" s="1">
+        <f t="shared" si="3"/>
+        <v>520</v>
+      </c>
+      <c r="R44" s="26">
+        <f t="shared" si="4"/>
+        <v>1.6182436017652435</v>
+      </c>
+      <c r="S44" s="1">
+        <f t="shared" si="5"/>
+        <v>11.020745192400001</v>
+      </c>
+      <c r="T44" s="1">
+        <f t="shared" si="6"/>
+        <v>81.124804018800006</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>41</v>
+      </c>
       <c r="B45" s="1">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="C45" s="1">
-        <v>82</v>
-      </c>
-      <c r="D45" s="27">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+      <c r="D45" s="25">
         <v>998.21662362720701</v>
       </c>
       <c r="E45" s="1">
+        <f t="shared" si="7"/>
+        <v>997.88223753660009</v>
+      </c>
+      <c r="F45" s="26">
         <f t="shared" si="2"/>
-        <v>997.88223753660009</v>
-      </c>
-      <c r="F45" s="28">
-        <f t="shared" si="1"/>
         <v>0.3343860906069267</v>
       </c>
       <c r="G45" s="1">
         <v>2.4360072590400002</v>
       </c>
-    </row>
-    <row r="46" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H45" s="1">
+        <v>16.825874125680002</v>
+      </c>
+      <c r="Q45" s="1">
+        <f t="shared" si="3"/>
+        <v>510</v>
+      </c>
+      <c r="R45" s="26">
+        <f t="shared" si="4"/>
+        <v>1.6719304530346335</v>
+      </c>
+      <c r="S45" s="1">
+        <f t="shared" si="5"/>
+        <v>12.180036295200001</v>
+      </c>
+      <c r="T45" s="1">
+        <f t="shared" si="6"/>
+        <v>84.129370628400011</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>42</v>
+      </c>
       <c r="B46" s="1">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="C46" s="1">
-        <v>84</v>
-      </c>
-      <c r="D46" s="27">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="D46" s="25">
         <v>998.15137273320204</v>
       </c>
       <c r="E46" s="1">
+        <f t="shared" si="7"/>
+        <v>997.83674179420007</v>
+      </c>
+      <c r="F46" s="26">
         <f t="shared" si="2"/>
-        <v>997.83674179420007</v>
-      </c>
-      <c r="F46" s="28">
-        <f t="shared" si="1"/>
         <v>0.31463093900197237</v>
       </c>
       <c r="G46" s="1">
         <v>4.4606870400000007</v>
       </c>
-    </row>
-    <row r="47" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H46" s="1">
+        <v>15.624017245680001</v>
+      </c>
+      <c r="Q46" s="1">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+      <c r="R46" s="26">
+        <f t="shared" si="4"/>
+        <v>1.5731546950098618</v>
+      </c>
+      <c r="S46" s="1">
+        <f t="shared" si="5"/>
+        <v>22.303435200000003</v>
+      </c>
+      <c r="T46" s="1">
+        <f t="shared" si="6"/>
+        <v>78.120086228399998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>43</v>
+      </c>
       <c r="B47" s="1">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="C47" s="1">
-        <v>86</v>
-      </c>
-      <c r="D47" s="27">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="D47" s="25">
         <v>998.06839658030901</v>
       </c>
       <c r="E47" s="1">
+        <f t="shared" si="7"/>
+        <v>997.79124605180004</v>
+      </c>
+      <c r="F47" s="26">
         <f t="shared" si="2"/>
-        <v>997.79124605180004</v>
-      </c>
-      <c r="F47" s="28">
-        <f t="shared" si="1"/>
         <v>0.27715052850896882</v>
       </c>
       <c r="G47" s="1">
         <v>6.22596647616</v>
       </c>
-    </row>
-    <row r="48" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H47" s="1">
+        <v>16.224960803760002</v>
+      </c>
+      <c r="Q47" s="1">
+        <f t="shared" si="3"/>
+        <v>490</v>
+      </c>
+      <c r="R47" s="26">
+        <f t="shared" si="4"/>
+        <v>1.3857526425448441</v>
+      </c>
+      <c r="S47" s="1">
+        <f t="shared" si="5"/>
+        <v>31.1298323808</v>
+      </c>
+      <c r="T47" s="1">
+        <f t="shared" si="6"/>
+        <v>81.124804018800006</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>44</v>
+      </c>
       <c r="B48" s="1">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="C48" s="1">
-        <v>88</v>
-      </c>
-      <c r="D48" s="27">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="D48" s="25">
         <v>997.99487307974198</v>
       </c>
       <c r="E48" s="1">
+        <f t="shared" si="7"/>
+        <v>997.74575030940002</v>
+      </c>
+      <c r="F48" s="26">
         <f t="shared" si="2"/>
-        <v>997.74575030940002</v>
-      </c>
-      <c r="F48" s="28">
-        <f t="shared" si="1"/>
         <v>0.2491227703419554</v>
       </c>
       <c r="G48" s="1">
         <v>5.6599836000000003</v>
       </c>
-    </row>
-    <row r="49" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H48" s="1">
+        <v>15.323576281919999</v>
+      </c>
+      <c r="Q48" s="1">
+        <f t="shared" si="3"/>
+        <v>480</v>
+      </c>
+      <c r="R48" s="26">
+        <f t="shared" si="4"/>
+        <v>1.245613851709777</v>
+      </c>
+      <c r="S48" s="1">
+        <f t="shared" si="5"/>
+        <v>28.299918000000002</v>
+      </c>
+      <c r="T48" s="1">
+        <f t="shared" si="6"/>
+        <v>76.617881409600002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>45</v>
+      </c>
       <c r="B49" s="1">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="C49" s="1">
-        <v>90</v>
-      </c>
-      <c r="D49" s="27">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="D49" s="25">
         <v>997.87972164733299</v>
       </c>
       <c r="E49" s="1">
+        <f t="shared" si="7"/>
+        <v>997.700254567</v>
+      </c>
+      <c r="F49" s="26">
         <f t="shared" si="2"/>
-        <v>997.700254567</v>
-      </c>
-      <c r="F49" s="28">
-        <f t="shared" si="1"/>
         <v>0.17946708033298364</v>
       </c>
       <c r="G49" s="1">
         <v>7.3579636838399995</v>
       </c>
-    </row>
-    <row r="50" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H49" s="1">
+        <v>14.422190601840001</v>
+      </c>
+      <c r="Q49" s="1">
+        <f t="shared" si="3"/>
+        <v>470</v>
+      </c>
+      <c r="R49" s="26">
+        <f t="shared" si="4"/>
+        <v>0.89733540166491821</v>
+      </c>
+      <c r="S49" s="1">
+        <f t="shared" si="5"/>
+        <v>36.789818419199996</v>
+      </c>
+      <c r="T49" s="1">
+        <f t="shared" si="6"/>
+        <v>72.110953009200003</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>46</v>
+      </c>
       <c r="B50" s="1">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="C50" s="1">
+        <f t="shared" si="1"/>
         <v>92</v>
       </c>
-      <c r="D50" s="27">
+      <c r="D50" s="25">
         <v>997.80386437664697</v>
       </c>
       <c r="E50" s="1">
+        <f t="shared" si="7"/>
+        <v>997.65475882460009</v>
+      </c>
+      <c r="F50" s="26">
         <f t="shared" si="2"/>
-        <v>997.65475882460009</v>
-      </c>
-      <c r="F50" s="28">
-        <f t="shared" si="1"/>
         <v>0.14910555204687626</v>
       </c>
       <c r="G50" s="1">
         <v>7.1752969219200011</v>
       </c>
-    </row>
-    <row r="51" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H50" s="1">
+        <v>14.060027851440001</v>
+      </c>
+      <c r="Q50" s="1">
+        <f t="shared" si="3"/>
+        <v>460</v>
+      </c>
+      <c r="R50" s="26">
+        <f t="shared" si="4"/>
+        <v>0.74552776023438128</v>
+      </c>
+      <c r="S50" s="1">
+        <f t="shared" si="5"/>
+        <v>35.876484609600006</v>
+      </c>
+      <c r="T50" s="1">
+        <f t="shared" si="6"/>
+        <v>70.300139257200001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>47</v>
+      </c>
       <c r="B51" s="1">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="C51" s="1">
-        <v>94</v>
-      </c>
-      <c r="D51" s="27">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="D51" s="25">
         <v>997.71900235609803</v>
       </c>
       <c r="E51" s="1">
+        <f t="shared" si="7"/>
+        <v>997.60926308220007</v>
+      </c>
+      <c r="F51" s="26">
         <f t="shared" si="2"/>
-        <v>997.60926308220007</v>
-      </c>
-      <c r="F51" s="28">
-        <f t="shared" si="1"/>
         <v>0.1097392738979579</v>
       </c>
       <c r="G51" s="1">
         <v>9.0559431580799998</v>
       </c>
-    </row>
-    <row r="52" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H51" s="1">
+        <v>13.038978544800001</v>
+      </c>
+      <c r="Q51" s="1">
+        <f t="shared" si="3"/>
+        <v>450</v>
+      </c>
+      <c r="R51" s="26">
+        <f t="shared" si="4"/>
+        <v>0.5486963694897895</v>
+      </c>
+      <c r="S51" s="1">
+        <f t="shared" si="5"/>
+        <v>45.279715790399997</v>
+      </c>
+      <c r="T51" s="1">
+        <f t="shared" si="6"/>
+        <v>65.194892723999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>48</v>
+      </c>
       <c r="B52" s="1">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="C52" s="1">
-        <v>96</v>
-      </c>
-      <c r="D52" s="27">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="D52" s="25">
         <v>997.61845375013797</v>
       </c>
       <c r="E52" s="1">
+        <f t="shared" si="7"/>
+        <v>997.56376733980005</v>
+      </c>
+      <c r="F52" s="26">
         <f t="shared" si="2"/>
-        <v>997.56376733980005</v>
-      </c>
-      <c r="F52" s="28">
-        <f t="shared" si="1"/>
         <v>5.4686410337922098E-2</v>
       </c>
       <c r="G52" s="1">
         <v>9.2788132838400017</v>
       </c>
-    </row>
-    <row r="53" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H52" s="1">
+        <v>13.979499020880001</v>
+      </c>
+      <c r="Q52" s="1">
+        <f t="shared" si="3"/>
+        <v>440</v>
+      </c>
+      <c r="R52" s="26">
+        <f t="shared" si="4"/>
+        <v>0.27343205168961049</v>
+      </c>
+      <c r="S52" s="1">
+        <f t="shared" si="5"/>
+        <v>46.394066419200009</v>
+      </c>
+      <c r="T52" s="1">
+        <f t="shared" si="6"/>
+        <v>69.897495104400008</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>49</v>
+      </c>
       <c r="B53" s="1">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="C53" s="1">
-        <v>98</v>
-      </c>
-      <c r="D53" s="27">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="D53" s="25">
         <v>997.41253044899895</v>
       </c>
       <c r="E53" s="1">
+        <f t="shared" si="7"/>
+        <v>997.51827159740003</v>
+      </c>
+      <c r="F53" s="26">
         <f t="shared" si="2"/>
-        <v>997.51827159740003</v>
-      </c>
-      <c r="F53" s="28">
-        <f t="shared" si="1"/>
         <v>-0.10574114840107995</v>
       </c>
       <c r="G53" s="1">
         <v>9.9360528228000007</v>
       </c>
-    </row>
-    <row r="54" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H53" s="1">
+        <v>11.437772796240001</v>
+      </c>
+      <c r="Q53" s="1">
+        <f t="shared" si="3"/>
+        <v>430</v>
+      </c>
+      <c r="R53" s="26">
+        <f t="shared" si="4"/>
+        <v>-0.52870574200539977</v>
+      </c>
+      <c r="S53" s="1">
+        <f t="shared" si="5"/>
+        <v>49.680264114000003</v>
+      </c>
+      <c r="T53" s="1">
+        <f t="shared" si="6"/>
+        <v>57.188863981200001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>50</v>
+      </c>
       <c r="B54" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C54" s="1">
-        <v>100</v>
-      </c>
-      <c r="D54" s="27">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="D54" s="25">
         <v>997.18064394553096</v>
       </c>
       <c r="E54" s="1">
+        <f t="shared" si="7"/>
+        <v>997.47277585500001</v>
+      </c>
+      <c r="F54" s="26">
         <f t="shared" si="2"/>
-        <v>997.47277585500001</v>
-      </c>
-      <c r="F54" s="28">
-        <f t="shared" si="1"/>
         <v>-0.29213190946904888</v>
       </c>
       <c r="G54" s="1">
         <v>9.4131079809600013</v>
       </c>
-    </row>
-    <row r="55" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H54" s="1">
+        <v>11.978304902880001</v>
+      </c>
+      <c r="Q54" s="1">
+        <f t="shared" si="3"/>
+        <v>420</v>
+      </c>
+      <c r="R54" s="26">
+        <f t="shared" si="4"/>
+        <v>-1.4606595473452444</v>
+      </c>
+      <c r="S54" s="1">
+        <f t="shared" si="5"/>
+        <v>47.065539904800005</v>
+      </c>
+      <c r="T54" s="1">
+        <f t="shared" si="6"/>
+        <v>59.891524514400004</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>51</v>
+      </c>
       <c r="B55" s="1">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="C55" s="1">
-        <v>102</v>
-      </c>
-      <c r="D55" s="27">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="D55" s="25">
         <v>996.88817521392298</v>
       </c>
       <c r="E55" s="1">
+        <f t="shared" si="7"/>
+        <v>997.4272801126001</v>
+      </c>
+      <c r="F55" s="26">
         <f t="shared" si="2"/>
-        <v>997.4272801126001</v>
-      </c>
-      <c r="F55" s="28">
-        <f t="shared" si="1"/>
         <v>-0.53910489867712386</v>
       </c>
       <c r="G55" s="1">
         <v>8.8901625904799992</v>
       </c>
-    </row>
-    <row r="56" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H55" s="1">
+        <v>10.50029861328</v>
+      </c>
+      <c r="Q55" s="1">
+        <f t="shared" si="3"/>
+        <v>410</v>
+      </c>
+      <c r="R55" s="26">
+        <f t="shared" si="4"/>
+        <v>-2.6955244933856193</v>
+      </c>
+      <c r="S55" s="1">
+        <f t="shared" si="5"/>
+        <v>44.4508129524</v>
+      </c>
+      <c r="T55" s="1">
+        <f t="shared" si="6"/>
+        <v>52.501493066400002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>52</v>
+      </c>
       <c r="B56" s="1">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="C56" s="1">
-        <v>104</v>
-      </c>
-      <c r="D56" s="27">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="D56" s="25">
         <v>996.81473311166906</v>
       </c>
       <c r="E56" s="1">
+        <f t="shared" si="7"/>
+        <v>997.38178437020008</v>
+      </c>
+      <c r="F56" s="26">
         <f t="shared" si="2"/>
-        <v>997.38178437020008</v>
-      </c>
-      <c r="F56" s="28">
-        <f t="shared" si="1"/>
         <v>-0.56705125853102345</v>
       </c>
       <c r="G56" s="1">
         <v>9.9360528228000007</v>
       </c>
-    </row>
-    <row r="57" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H56" s="1">
+        <v>10.65449732952</v>
+      </c>
+      <c r="Q56" s="1">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="R56" s="26">
+        <f t="shared" si="4"/>
+        <v>-2.8352562926551172</v>
+      </c>
+      <c r="S56" s="1">
+        <f t="shared" si="5"/>
+        <v>49.680264114000003</v>
+      </c>
+      <c r="T56" s="1">
+        <f t="shared" si="6"/>
+        <v>53.272486647599997</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>53</v>
+      </c>
       <c r="B57" s="1">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="C57" s="1">
-        <v>106</v>
-      </c>
-      <c r="D57" s="27">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="D57" s="25">
         <v>996.79623203971903</v>
       </c>
       <c r="E57" s="1">
+        <f t="shared" si="7"/>
+        <v>997.33628862780006</v>
+      </c>
+      <c r="F57" s="26">
         <f t="shared" si="2"/>
-        <v>997.33628862780006</v>
-      </c>
-      <c r="F57" s="28">
-        <f t="shared" si="1"/>
         <v>-0.54005658808102908</v>
       </c>
       <c r="G57" s="1">
         <v>6.1463527466400008</v>
       </c>
-    </row>
-    <row r="58" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H57" s="1">
+        <v>11.35764044952</v>
+      </c>
+      <c r="Q57" s="1">
+        <f t="shared" si="3"/>
+        <v>390</v>
+      </c>
+      <c r="R57" s="26">
+        <f t="shared" si="4"/>
+        <v>-2.7002829404051454</v>
+      </c>
+      <c r="S57" s="1">
+        <f t="shared" si="5"/>
+        <v>30.731763733200005</v>
+      </c>
+      <c r="T57" s="1">
+        <f t="shared" si="6"/>
+        <v>56.788202247599997</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>54</v>
+      </c>
       <c r="B58" s="1">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="C58" s="1">
-        <v>108</v>
-      </c>
-      <c r="D58" s="27">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="D58" s="25">
         <v>996.79130575490501</v>
       </c>
       <c r="E58" s="1">
+        <f t="shared" si="7"/>
+        <v>997.29079288540004</v>
+      </c>
+      <c r="F58" s="26">
         <f t="shared" si="2"/>
-        <v>997.29079288540004</v>
-      </c>
-      <c r="F58" s="28">
-        <f t="shared" si="1"/>
         <v>-0.49948713049502658</v>
       </c>
       <c r="G58" s="1">
         <v>6.1463527466400008</v>
       </c>
-    </row>
-    <row r="59" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H58" s="1">
+        <v>11.35255007616</v>
+      </c>
+      <c r="Q58" s="1">
+        <f t="shared" si="3"/>
+        <v>380</v>
+      </c>
+      <c r="R58" s="26">
+        <f t="shared" si="4"/>
+        <v>-2.4974356524751329</v>
+      </c>
+      <c r="S58" s="1">
+        <f t="shared" si="5"/>
+        <v>30.731763733200005</v>
+      </c>
+      <c r="T58" s="1">
+        <f t="shared" si="6"/>
+        <v>56.7627503808</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>55</v>
+      </c>
       <c r="B59" s="1">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="C59" s="1">
-        <v>110</v>
-      </c>
-      <c r="D59" s="27">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="D59" s="25">
         <v>996.70813517252498</v>
       </c>
       <c r="E59" s="1">
+        <f t="shared" si="7"/>
+        <v>997.24529714300002</v>
+      </c>
+      <c r="F59" s="26">
         <f t="shared" si="2"/>
-        <v>997.24529714300002</v>
-      </c>
-      <c r="F59" s="28">
-        <f t="shared" si="1"/>
         <v>-0.53716197047504011</v>
       </c>
       <c r="G59" s="1">
         <v>6.1463527466400008</v>
       </c>
-    </row>
-    <row r="60" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H59" s="1">
+        <v>9.64838316192</v>
+      </c>
+      <c r="Q59" s="1">
+        <f t="shared" si="3"/>
+        <v>370</v>
+      </c>
+      <c r="R59" s="26">
+        <f t="shared" si="4"/>
+        <v>-2.6858098523752005</v>
+      </c>
+      <c r="S59" s="1">
+        <f t="shared" si="5"/>
+        <v>30.731763733200005</v>
+      </c>
+      <c r="T59" s="1">
+        <f t="shared" si="6"/>
+        <v>48.241915809600002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>56</v>
+      </c>
       <c r="B60" s="1">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="C60" s="1">
-        <v>112</v>
-      </c>
-      <c r="D60" s="27">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="D60" s="25">
         <v>996.65623580577699</v>
       </c>
       <c r="E60" s="1">
+        <f t="shared" si="7"/>
+        <v>997.19980140059999</v>
+      </c>
+      <c r="F60" s="26">
         <f t="shared" si="2"/>
-        <v>997.19980140059999</v>
-      </c>
-      <c r="F60" s="28">
-        <f t="shared" si="1"/>
         <v>-0.54356559482300781</v>
       </c>
       <c r="G60" s="1">
         <v>6.1463527466400008</v>
       </c>
-    </row>
-    <row r="61" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H60" s="1">
+        <v>10.93485230856</v>
+      </c>
+      <c r="Q60" s="1">
+        <f t="shared" si="3"/>
+        <v>360</v>
+      </c>
+      <c r="R60" s="26">
+        <f t="shared" si="4"/>
+        <v>-2.7178279741150391</v>
+      </c>
+      <c r="S60" s="1">
+        <f t="shared" si="5"/>
+        <v>30.731763733200005</v>
+      </c>
+      <c r="T60" s="1">
+        <f t="shared" si="6"/>
+        <v>54.674261542799997</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>57</v>
+      </c>
       <c r="B61" s="1">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="C61" s="1">
-        <v>114</v>
-      </c>
-      <c r="D61" s="27">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="D61" s="25">
         <v>996.64210770997897</v>
       </c>
       <c r="E61" s="1">
+        <f t="shared" si="7"/>
+        <v>997.15430565820009</v>
+      </c>
+      <c r="F61" s="26">
         <f t="shared" si="2"/>
-        <v>997.15430565820009</v>
-      </c>
-      <c r="F61" s="28">
-        <f t="shared" si="1"/>
         <v>-0.51219794822111453</v>
       </c>
       <c r="G61" s="1">
         <v>5.6341671314399999</v>
       </c>
-    </row>
-    <row r="62" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H61" s="1">
+        <v>11.578072358160002</v>
+      </c>
+      <c r="Q61" s="1">
+        <f t="shared" si="3"/>
+        <v>350</v>
+      </c>
+      <c r="R61" s="26">
+        <f t="shared" si="4"/>
+        <v>-2.5609897411055726</v>
+      </c>
+      <c r="S61" s="1">
+        <f t="shared" si="5"/>
+        <v>28.170835657200001</v>
+      </c>
+      <c r="T61" s="1">
+        <f t="shared" si="6"/>
+        <v>57.890361790800007</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>58</v>
+      </c>
       <c r="B62" s="1">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="C62" s="1">
-        <v>116</v>
-      </c>
-      <c r="D62" s="27">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="D62" s="25">
         <v>996.72446267731698</v>
       </c>
       <c r="E62" s="1">
+        <f t="shared" si="7"/>
+        <v>997.10880991580007</v>
+      </c>
+      <c r="F62" s="26">
         <f t="shared" si="2"/>
-        <v>997.10880991580007</v>
-      </c>
-      <c r="F62" s="28">
-        <f t="shared" si="1"/>
         <v>-0.38434723848308749</v>
       </c>
       <c r="G62" s="1">
         <v>5.121950731440001</v>
       </c>
-    </row>
-    <row r="63" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H62" s="1">
+        <v>11.578072358160002</v>
+      </c>
+      <c r="Q62" s="1">
+        <f t="shared" si="3"/>
+        <v>340</v>
+      </c>
+      <c r="R62" s="26">
+        <f t="shared" si="4"/>
+        <v>-1.9217361924154375</v>
+      </c>
+      <c r="S62" s="1">
+        <f t="shared" si="5"/>
+        <v>25.609753657200006</v>
+      </c>
+      <c r="T62" s="1">
+        <f t="shared" si="6"/>
+        <v>57.890361790800007</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>59</v>
+      </c>
       <c r="B63" s="1">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="C63" s="1">
-        <v>118</v>
-      </c>
-      <c r="D63" s="27">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="D63" s="25">
         <v>996.78911073871302</v>
       </c>
       <c r="E63" s="1">
+        <f t="shared" si="7"/>
+        <v>997.06331417340004</v>
+      </c>
+      <c r="F63" s="26">
         <f t="shared" si="2"/>
-        <v>997.06331417340004</v>
-      </c>
-      <c r="F63" s="28">
-        <f t="shared" si="1"/>
         <v>-0.27420343468702413</v>
       </c>
       <c r="G63" s="1">
         <v>4.0844724914399997</v>
       </c>
-    </row>
-    <row r="64" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H63" s="1">
+        <v>11.830294175279999</v>
+      </c>
+      <c r="Q63" s="1">
+        <f t="shared" si="3"/>
+        <v>330</v>
+      </c>
+      <c r="R63" s="26">
+        <f t="shared" si="4"/>
+        <v>-1.3710171734351206</v>
+      </c>
+      <c r="S63" s="1">
+        <f t="shared" si="5"/>
+        <v>20.422362457199998</v>
+      </c>
+      <c r="T63" s="1">
+        <f t="shared" si="6"/>
+        <v>59.151470876399998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>60</v>
+      </c>
       <c r="B64" s="1">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="C64" s="1">
-        <v>120</v>
-      </c>
-      <c r="D64" s="27">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="D64" s="25">
         <v>996.78133163452105</v>
       </c>
       <c r="E64" s="1">
+        <f t="shared" si="7"/>
+        <v>997.01781843100002</v>
+      </c>
+      <c r="F64" s="26">
         <f t="shared" si="2"/>
-        <v>997.01781843100002</v>
-      </c>
-      <c r="F64" s="28">
-        <f t="shared" si="1"/>
         <v>-0.23648679647897097</v>
       </c>
       <c r="G64" s="1">
         <v>3.8826644724000001</v>
       </c>
-    </row>
-    <row r="65" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H64" s="1">
+        <v>12.84930174864</v>
+      </c>
+      <c r="Q64" s="1">
+        <f t="shared" si="3"/>
+        <v>320</v>
+      </c>
+      <c r="R64" s="26">
+        <f t="shared" si="4"/>
+        <v>-1.1824339823948549</v>
+      </c>
+      <c r="S64" s="1">
+        <f t="shared" si="5"/>
+        <v>19.413322362000002</v>
+      </c>
+      <c r="T64" s="1">
+        <f t="shared" si="6"/>
+        <v>64.246508743199996</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>61</v>
+      </c>
       <c r="B65" s="1">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="C65" s="1">
-        <v>122</v>
-      </c>
-      <c r="D65" s="27">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="D65" s="25">
         <v>996.784529194078</v>
       </c>
       <c r="E65" s="1">
+        <f t="shared" si="7"/>
+        <v>996.9723226886</v>
+      </c>
+      <c r="F65" s="26">
         <f t="shared" si="2"/>
-        <v>996.9723226886</v>
-      </c>
-      <c r="F65" s="28">
-        <f t="shared" si="1"/>
         <v>-0.18779349452199767</v>
       </c>
       <c r="G65" s="1">
         <v>4.0844724914399997</v>
       </c>
-    </row>
-    <row r="66" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H65" s="1">
+        <v>12.487656365759999</v>
+      </c>
+      <c r="Q65" s="1">
+        <f t="shared" si="3"/>
+        <v>310</v>
+      </c>
+      <c r="R65" s="26">
+        <f t="shared" si="4"/>
+        <v>-0.93896747260998836</v>
+      </c>
+      <c r="S65" s="1">
+        <f t="shared" si="5"/>
+        <v>20.422362457199998</v>
+      </c>
+      <c r="T65" s="1">
+        <f t="shared" si="6"/>
+        <v>62.438281828800001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>62</v>
+      </c>
       <c r="B66" s="1">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="C66" s="1">
-        <v>124</v>
-      </c>
-      <c r="D66" s="27">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="D66" s="25">
         <v>996.81885398023405</v>
       </c>
       <c r="E66" s="1">
+        <f t="shared" si="7"/>
+        <v>996.92682694620009</v>
+      </c>
+      <c r="F66" s="26">
         <f t="shared" si="2"/>
-        <v>996.92682694620009</v>
-      </c>
-      <c r="F66" s="28">
-        <f t="shared" si="1"/>
         <v>-0.10797296596604156</v>
       </c>
       <c r="G66" s="1">
         <v>3.5739019200000004</v>
       </c>
-    </row>
-    <row r="67" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H66" s="1">
+        <v>13.72154732952</v>
+      </c>
+      <c r="Q66" s="1">
+        <f t="shared" si="3"/>
+        <v>300</v>
+      </c>
+      <c r="R66" s="26">
+        <f t="shared" si="4"/>
+        <v>-0.53986482983020778</v>
+      </c>
+      <c r="S66" s="1">
+        <f t="shared" si="5"/>
+        <v>17.869509600000001</v>
+      </c>
+      <c r="T66" s="1">
+        <f t="shared" si="6"/>
+        <v>68.607736647600007</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>63</v>
+      </c>
       <c r="B67" s="1">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="C67" s="1">
-        <v>126</v>
-      </c>
-      <c r="D67" s="27">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="D67" s="25">
         <v>996.911396988452</v>
       </c>
       <c r="E67" s="1">
+        <f t="shared" si="7"/>
+        <v>996.88133120380007</v>
+      </c>
+      <c r="F67" s="26">
         <f t="shared" si="2"/>
-        <v>996.88133120380007</v>
-      </c>
-      <c r="F67" s="28">
-        <f t="shared" si="1"/>
         <v>3.0065784651924332E-2</v>
       </c>
       <c r="G67" s="1">
         <v>3.82377705144</v>
       </c>
-    </row>
-    <row r="68" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H67" s="1">
+        <v>12.864511268640001</v>
+      </c>
+      <c r="Q67" s="1">
+        <f t="shared" si="3"/>
+        <v>290</v>
+      </c>
+      <c r="R67" s="26">
+        <f t="shared" si="4"/>
+        <v>0.15032892325962166</v>
+      </c>
+      <c r="S67" s="1">
+        <f t="shared" si="5"/>
+        <v>19.118885257199999</v>
+      </c>
+      <c r="T67" s="1">
+        <f t="shared" si="6"/>
+        <v>64.322556343200006</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>64</v>
+      </c>
       <c r="B68" s="1">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="C68" s="1">
-        <v>128</v>
-      </c>
-      <c r="D68" s="27">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="D68" s="25">
         <v>996.88809644481796</v>
       </c>
       <c r="E68" s="1">
-        <f t="shared" ref="E68:E96" si="3">-0.0227478712*C68+999.747562975</f>
+        <f t="shared" ref="E68:E96" si="8">-0.0227478712*B68+999.747562975</f>
         <v>996.83583546140005</v>
       </c>
-      <c r="F68" s="28">
-        <f t="shared" si="1"/>
+      <c r="F68" s="26">
+        <f t="shared" si="2"/>
         <v>5.2260983417909301E-2</v>
       </c>
       <c r="G68" s="1">
         <v>4.7173286400000007</v>
       </c>
-    </row>
-    <row r="69" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H68" s="1">
+        <v>12.864511268640001</v>
+      </c>
+      <c r="Q68" s="1">
+        <f t="shared" si="3"/>
+        <v>280</v>
+      </c>
+      <c r="R68" s="26">
+        <f t="shared" si="4"/>
+        <v>0.26130491708954651</v>
+      </c>
+      <c r="S68" s="1">
+        <f t="shared" si="5"/>
+        <v>23.586643200000005</v>
+      </c>
+      <c r="T68" s="1">
+        <f t="shared" si="6"/>
+        <v>64.322556343200006</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>65</v>
+      </c>
       <c r="B69" s="1">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="C69" s="1">
-        <v>130</v>
-      </c>
-      <c r="D69" s="27">
+        <f t="shared" ref="C69:C96" si="9">$B$96-B69</f>
+        <v>54</v>
+      </c>
+      <c r="D69" s="25">
         <v>996.90540322839502</v>
       </c>
       <c r="E69" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>996.79033971900003</v>
       </c>
-      <c r="F69" s="28">
-        <f t="shared" ref="F69:F96" si="4">D69-E69</f>
+      <c r="F69" s="26">
+        <f t="shared" ref="F69:F96" si="10">D69-E69</f>
         <v>0.11506350939498589</v>
       </c>
       <c r="G69" s="1">
         <v>4.7173286400000007</v>
       </c>
-    </row>
-    <row r="70" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H69" s="1">
+        <v>12.835372358160001</v>
+      </c>
+      <c r="Q69" s="1">
+        <f t="shared" ref="Q69:Q96" si="11">C69*5</f>
+        <v>270</v>
+      </c>
+      <c r="R69" s="26">
+        <f t="shared" ref="R69:R96" si="12">F69*5</f>
+        <v>0.57531754697492943</v>
+      </c>
+      <c r="S69" s="1">
+        <f t="shared" ref="S69:S96" si="13">G69*5</f>
+        <v>23.586643200000005</v>
+      </c>
+      <c r="T69" s="1">
+        <f t="shared" ref="T69:T96" si="14">H69*5</f>
+        <v>64.176861790800004</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>66</v>
+      </c>
       <c r="B70" s="1">
-        <v>66</v>
+        <v>132</v>
       </c>
       <c r="C70" s="1">
-        <v>132</v>
-      </c>
-      <c r="D70" s="27">
+        <f t="shared" si="9"/>
+        <v>52</v>
+      </c>
+      <c r="D70" s="25">
         <v>996.91490232752005</v>
       </c>
       <c r="E70" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>996.74484397660001</v>
       </c>
-      <c r="F70" s="28">
-        <f t="shared" si="4"/>
+      <c r="F70" s="26">
+        <f t="shared" si="10"/>
         <v>0.17005835092004418</v>
       </c>
       <c r="G70" s="1">
         <v>5.2414626285600008</v>
       </c>
-    </row>
-    <row r="71" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H70" s="1">
+        <v>11.621567379120002</v>
+      </c>
+      <c r="Q70" s="1">
+        <f t="shared" si="11"/>
+        <v>260</v>
+      </c>
+      <c r="R70" s="26">
+        <f t="shared" si="12"/>
+        <v>0.85029175460022088</v>
+      </c>
+      <c r="S70" s="1">
+        <f t="shared" si="13"/>
+        <v>26.207313142800004</v>
+      </c>
+      <c r="T70" s="1">
+        <f t="shared" si="14"/>
+        <v>58.107836895600009</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>67</v>
+      </c>
       <c r="B71" s="1">
-        <v>67</v>
+        <v>134</v>
       </c>
       <c r="C71" s="1">
-        <v>134</v>
-      </c>
-      <c r="D71" s="27">
+        <f t="shared" si="9"/>
+        <v>50</v>
+      </c>
+      <c r="D71" s="25">
         <v>996.93001384210095</v>
       </c>
       <c r="E71" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>996.6993482342001</v>
       </c>
-      <c r="F71" s="28">
-        <f t="shared" si="4"/>
+      <c r="F71" s="26">
+        <f t="shared" si="10"/>
         <v>0.23066560790084623</v>
       </c>
       <c r="G71" s="1">
         <v>4.9291648228800007</v>
       </c>
-    </row>
-    <row r="72" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H71" s="1">
+        <v>12.864511268640001</v>
+      </c>
+      <c r="Q71" s="1">
+        <f t="shared" si="11"/>
+        <v>250</v>
+      </c>
+      <c r="R71" s="26">
+        <f t="shared" si="12"/>
+        <v>1.1533280395042311</v>
+      </c>
+      <c r="S71" s="1">
+        <f t="shared" si="13"/>
+        <v>24.645824114400003</v>
+      </c>
+      <c r="T71" s="1">
+        <f t="shared" si="14"/>
+        <v>64.322556343200006</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>68</v>
+      </c>
       <c r="B72" s="1">
-        <v>68</v>
+        <v>136</v>
       </c>
       <c r="C72" s="1">
-        <v>136</v>
-      </c>
-      <c r="D72" s="27">
+        <f t="shared" si="9"/>
+        <v>48</v>
+      </c>
+      <c r="D72" s="25">
         <v>996.90236093524902</v>
       </c>
       <c r="E72" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>996.65385249180008</v>
       </c>
-      <c r="F72" s="28">
-        <f t="shared" si="4"/>
+      <c r="F72" s="26">
+        <f t="shared" si="10"/>
         <v>0.24850844344894085</v>
       </c>
       <c r="G72" s="1">
         <v>5.5453179009599998</v>
       </c>
-    </row>
-    <row r="73" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H72" s="1">
+        <v>13.388828106720002</v>
+      </c>
+      <c r="Q72" s="1">
+        <f t="shared" si="11"/>
+        <v>240</v>
+      </c>
+      <c r="R72" s="26">
+        <f t="shared" si="12"/>
+        <v>1.2425422172447043</v>
+      </c>
+      <c r="S72" s="1">
+        <f t="shared" si="13"/>
+        <v>27.7265895048</v>
+      </c>
+      <c r="T72" s="1">
+        <f t="shared" si="14"/>
+        <v>66.944140533600006</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>69</v>
+      </c>
       <c r="B73" s="1">
-        <v>69</v>
+        <v>138</v>
       </c>
       <c r="C73" s="1">
-        <v>138</v>
-      </c>
-      <c r="D73" s="27">
+        <f t="shared" si="9"/>
+        <v>46</v>
+      </c>
+      <c r="D73" s="25">
         <v>996.89474024707897</v>
       </c>
       <c r="E73" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>996.60835674940006</v>
       </c>
-      <c r="F73" s="28">
-        <f t="shared" si="4"/>
+      <c r="F73" s="26">
+        <f t="shared" si="10"/>
         <v>0.28638349767891214</v>
       </c>
       <c r="G73" s="1">
         <v>5.3842922743199999</v>
       </c>
-    </row>
-    <row r="74" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H73" s="1">
+        <v>13.154131984800001</v>
+      </c>
+      <c r="Q73" s="1">
+        <f t="shared" si="11"/>
+        <v>230</v>
+      </c>
+      <c r="R73" s="26">
+        <f t="shared" si="12"/>
+        <v>1.4319174883945607</v>
+      </c>
+      <c r="S73" s="1">
+        <f t="shared" si="13"/>
+        <v>26.9214613716</v>
+      </c>
+      <c r="T73" s="1">
+        <f t="shared" si="14"/>
+        <v>65.770659924</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>70</v>
+      </c>
       <c r="B74" s="1">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="C74" s="1">
-        <v>140</v>
-      </c>
-      <c r="D74" s="27">
+        <f t="shared" si="9"/>
+        <v>44</v>
+      </c>
+      <c r="D74" s="25">
         <v>996.90924566582703</v>
       </c>
       <c r="E74" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>996.56286100700004</v>
       </c>
-      <c r="F74" s="28">
-        <f t="shared" si="4"/>
+      <c r="F74" s="26">
+        <f t="shared" si="10"/>
         <v>0.34638465882699165</v>
       </c>
       <c r="G74" s="1">
         <v>5.8026603580800007</v>
       </c>
-    </row>
-    <row r="75" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H74" s="1">
+        <v>12.781726796160001</v>
+      </c>
+      <c r="Q74" s="1">
+        <f t="shared" si="11"/>
+        <v>220</v>
+      </c>
+      <c r="R74" s="26">
+        <f t="shared" si="12"/>
+        <v>1.7319232941349583</v>
+      </c>
+      <c r="S74" s="1">
+        <f t="shared" si="13"/>
+        <v>29.013301790400003</v>
+      </c>
+      <c r="T74" s="1">
+        <f t="shared" si="14"/>
+        <v>63.908633980800005</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>71</v>
+      </c>
       <c r="B75" s="1">
-        <v>71</v>
+        <v>142</v>
       </c>
       <c r="C75" s="1">
-        <v>142</v>
-      </c>
-      <c r="D75" s="27">
+        <f t="shared" si="9"/>
+        <v>42</v>
+      </c>
+      <c r="D75" s="25">
         <v>996.84478887428804</v>
       </c>
       <c r="E75" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>996.51736526460002</v>
       </c>
-      <c r="F75" s="28">
-        <f t="shared" si="4"/>
+      <c r="F75" s="26">
+        <f t="shared" si="10"/>
         <v>0.32742360968802586</v>
       </c>
       <c r="G75" s="1">
         <v>4.9291648228800007</v>
       </c>
-    </row>
-    <row r="76" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H75" s="1">
+        <v>13.154131984800001</v>
+      </c>
+      <c r="Q75" s="1">
+        <f t="shared" si="11"/>
+        <v>210</v>
+      </c>
+      <c r="R75" s="26">
+        <f t="shared" si="12"/>
+        <v>1.6371180484401293</v>
+      </c>
+      <c r="S75" s="1">
+        <f t="shared" si="13"/>
+        <v>24.645824114400003</v>
+      </c>
+      <c r="T75" s="1">
+        <f t="shared" si="14"/>
+        <v>65.770659924</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>72</v>
+      </c>
       <c r="B76" s="1">
-        <v>72</v>
+        <v>144</v>
       </c>
       <c r="C76" s="1">
-        <v>144</v>
-      </c>
-      <c r="D76" s="27">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="D76" s="25">
         <v>996.75371275445696</v>
       </c>
       <c r="E76" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>996.4718695222</v>
       </c>
-      <c r="F76" s="28">
-        <f t="shared" si="4"/>
+      <c r="F76" s="26">
+        <f t="shared" si="10"/>
         <v>0.28184323225696062</v>
       </c>
       <c r="G76" s="1">
         <v>5.5453179009599998</v>
       </c>
-    </row>
-    <row r="77" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H76" s="1">
+        <v>12.232051055279999</v>
+      </c>
+      <c r="Q76" s="1">
+        <f t="shared" si="11"/>
+        <v>200</v>
+      </c>
+      <c r="R76" s="26">
+        <f t="shared" si="12"/>
+        <v>1.4092161612848031</v>
+      </c>
+      <c r="S76" s="1">
+        <f t="shared" si="13"/>
+        <v>27.7265895048</v>
+      </c>
+      <c r="T76" s="1">
+        <f t="shared" si="14"/>
+        <v>61.160255276399994</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>73</v>
+      </c>
       <c r="B77" s="1">
-        <v>73</v>
+        <v>146</v>
       </c>
       <c r="C77" s="1">
-        <v>146</v>
-      </c>
-      <c r="D77" s="27">
+        <f t="shared" si="9"/>
+        <v>38</v>
+      </c>
+      <c r="D77" s="25">
         <v>996.61583071493806</v>
       </c>
       <c r="E77" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>996.42637377980009</v>
       </c>
-      <c r="F77" s="28">
-        <f t="shared" si="4"/>
+      <c r="F77" s="26">
+        <f t="shared" si="10"/>
         <v>0.18945693513796869</v>
       </c>
       <c r="G77" s="1">
         <v>3.9692885409600001</v>
       </c>
-    </row>
-    <row r="78" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H77" s="1">
+        <v>12.32531976384</v>
+      </c>
+      <c r="Q77" s="1">
+        <f t="shared" si="11"/>
+        <v>190</v>
+      </c>
+      <c r="R77" s="26">
+        <f t="shared" si="12"/>
+        <v>0.94728467568984343</v>
+      </c>
+      <c r="S77" s="1">
+        <f t="shared" si="13"/>
+        <v>19.846442704800001</v>
+      </c>
+      <c r="T77" s="1">
+        <f t="shared" si="14"/>
+        <v>61.626598819199998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>74</v>
+      </c>
       <c r="B78" s="1">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="C78" s="1">
-        <v>148</v>
-      </c>
-      <c r="D78" s="27">
+        <f t="shared" si="9"/>
+        <v>36</v>
+      </c>
+      <c r="D78" s="25">
         <v>996.53121111995301</v>
       </c>
       <c r="E78" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>996.38087803740007</v>
       </c>
-      <c r="F78" s="28">
-        <f t="shared" si="4"/>
+      <c r="F78" s="26">
+        <f t="shared" si="10"/>
         <v>0.15033308255294742</v>
       </c>
       <c r="G78" s="1">
         <v>4.2227904876000002</v>
       </c>
-    </row>
-    <row r="79" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H78" s="1">
+        <v>10.866455340960002</v>
+      </c>
+      <c r="Q78" s="1">
+        <f t="shared" si="11"/>
+        <v>180</v>
+      </c>
+      <c r="R78" s="26">
+        <f t="shared" si="12"/>
+        <v>0.75166541276473708</v>
+      </c>
+      <c r="S78" s="1">
+        <f t="shared" si="13"/>
+        <v>21.113952438000002</v>
+      </c>
+      <c r="T78" s="1">
+        <f t="shared" si="14"/>
+        <v>54.332276704800009</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>75</v>
+      </c>
       <c r="B79" s="1">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="C79" s="1">
-        <v>150</v>
-      </c>
-      <c r="D79" s="27">
+        <f t="shared" si="9"/>
+        <v>34</v>
+      </c>
+      <c r="D79" s="25">
         <v>996.45930624789798</v>
       </c>
       <c r="E79" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>996.33538229500004</v>
       </c>
-      <c r="F79" s="28">
-        <f t="shared" si="4"/>
+      <c r="F79" s="26">
+        <f t="shared" si="10"/>
         <v>0.12392395289793967</v>
       </c>
       <c r="G79" s="1">
         <v>4.7896271085600004</v>
       </c>
-    </row>
-    <row r="80" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H79" s="1">
+        <v>11.474226358080001</v>
+      </c>
+      <c r="Q79" s="1">
+        <f t="shared" si="11"/>
+        <v>170</v>
+      </c>
+      <c r="R79" s="26">
+        <f t="shared" si="12"/>
+        <v>0.61961976448969835</v>
+      </c>
+      <c r="S79" s="1">
+        <f t="shared" si="13"/>
+        <v>23.948135542800003</v>
+      </c>
+      <c r="T79" s="1">
+        <f t="shared" si="14"/>
+        <v>57.371131790400007</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>76</v>
+      </c>
       <c r="B80" s="1">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="C80" s="1">
-        <v>152</v>
-      </c>
-      <c r="D80" s="27">
+        <f t="shared" si="9"/>
+        <v>32</v>
+      </c>
+      <c r="D80" s="25">
         <v>996.37945960279899</v>
       </c>
       <c r="E80" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>996.28988655260002</v>
       </c>
-      <c r="F80" s="28">
-        <f t="shared" si="4"/>
+      <c r="F80" s="26">
+        <f t="shared" si="10"/>
         <v>8.9573050198964665E-2</v>
       </c>
       <c r="G80" s="1">
         <v>4.80233739048</v>
       </c>
-    </row>
-    <row r="81" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H80" s="1">
+        <v>12.582205264800001</v>
+      </c>
+      <c r="Q80" s="1">
+        <f t="shared" si="11"/>
+        <v>160</v>
+      </c>
+      <c r="R80" s="26">
+        <f t="shared" si="12"/>
+        <v>0.44786525099482333</v>
+      </c>
+      <c r="S80" s="1">
+        <f t="shared" si="13"/>
+        <v>24.011686952399998</v>
+      </c>
+      <c r="T80" s="1">
+        <f t="shared" si="14"/>
+        <v>62.911026324000005</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>77</v>
+      </c>
       <c r="B81" s="1">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="C81" s="1">
-        <v>154</v>
-      </c>
-      <c r="D81" s="27">
+        <f t="shared" si="9"/>
+        <v>30</v>
+      </c>
+      <c r="D81" s="25">
         <v>996.30197912127005</v>
       </c>
       <c r="E81" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>996.2443908102</v>
       </c>
-      <c r="F81" s="28">
-        <f t="shared" si="4"/>
+      <c r="F81" s="26">
+        <f t="shared" si="10"/>
         <v>5.7588311070048803E-2</v>
       </c>
       <c r="G81" s="1">
         <v>5.3359504761600007</v>
       </c>
-    </row>
-    <row r="82" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H81" s="1">
+        <v>12.0102785448</v>
+      </c>
+      <c r="Q81" s="1">
+        <f t="shared" si="11"/>
+        <v>150</v>
+      </c>
+      <c r="R81" s="26">
+        <f t="shared" si="12"/>
+        <v>0.28794155535024402</v>
+      </c>
+      <c r="S81" s="1">
+        <f t="shared" si="13"/>
+        <v>26.679752380800004</v>
+      </c>
+      <c r="T81" s="1">
+        <f t="shared" si="14"/>
+        <v>60.051392724000003</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>78</v>
+      </c>
       <c r="B82" s="1">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="C82" s="1">
-        <v>156</v>
-      </c>
-      <c r="D82" s="27">
+        <f t="shared" si="9"/>
+        <v>28</v>
+      </c>
+      <c r="D82" s="25">
         <v>996.288694483585</v>
       </c>
       <c r="E82" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>996.19889506780009</v>
       </c>
-      <c r="F82" s="28">
-        <f t="shared" si="4"/>
+      <c r="F82" s="26">
+        <f t="shared" si="10"/>
         <v>8.9799415784909797E-2</v>
       </c>
       <c r="G82" s="1">
         <v>4.80233739048</v>
       </c>
-    </row>
-    <row r="83" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H82" s="1">
+        <v>11.347338758159999</v>
+      </c>
+      <c r="Q82" s="1">
+        <f t="shared" si="11"/>
+        <v>140</v>
+      </c>
+      <c r="R82" s="26">
+        <f t="shared" si="12"/>
+        <v>0.44899707892454899</v>
+      </c>
+      <c r="S82" s="1">
+        <f t="shared" si="13"/>
+        <v>24.011686952399998</v>
+      </c>
+      <c r="T82" s="1">
+        <f t="shared" si="14"/>
+        <v>56.736693790799997</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>79</v>
+      </c>
       <c r="B83" s="1">
-        <v>79</v>
+        <v>158</v>
       </c>
       <c r="C83" s="1">
-        <v>158</v>
-      </c>
-      <c r="D83" s="27">
+        <f t="shared" si="9"/>
+        <v>26</v>
+      </c>
+      <c r="D83" s="25">
         <v>996.225505873271</v>
       </c>
       <c r="E83" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>996.15339932540007</v>
       </c>
-      <c r="F83" s="28">
-        <f t="shared" si="4"/>
+      <c r="F83" s="26">
+        <f t="shared" si="10"/>
         <v>7.2106547870930626E-2</v>
       </c>
       <c r="G83" s="1">
         <v>6.9367300838400006</v>
       </c>
-    </row>
-    <row r="84" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H83" s="1">
+        <v>11.399368148640001</v>
+      </c>
+      <c r="Q83" s="1">
+        <f t="shared" si="11"/>
+        <v>130</v>
+      </c>
+      <c r="R83" s="26">
+        <f t="shared" si="12"/>
+        <v>0.36053273935465313</v>
+      </c>
+      <c r="S83" s="1">
+        <f t="shared" si="13"/>
+        <v>34.683650419200006</v>
+      </c>
+      <c r="T83" s="1">
+        <f t="shared" si="14"/>
+        <v>56.996840743200003</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>80</v>
+      </c>
       <c r="B84" s="1">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="C84" s="1">
-        <v>160</v>
-      </c>
-      <c r="D84" s="27">
+        <f t="shared" si="9"/>
+        <v>24</v>
+      </c>
+      <c r="D84" s="25">
         <v>996.15964052017102</v>
       </c>
       <c r="E84" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>996.10790358300005</v>
       </c>
-      <c r="F84" s="28">
-        <f t="shared" si="4"/>
+      <c r="F84" s="26">
+        <f t="shared" si="10"/>
         <v>5.1736937170971942E-2</v>
       </c>
       <c r="G84" s="1">
         <v>5.8695336000000005</v>
       </c>
-    </row>
-    <row r="85" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H84" s="1">
+        <v>10.956005672400002</v>
+      </c>
+      <c r="Q84" s="1">
+        <f t="shared" si="11"/>
+        <v>120</v>
+      </c>
+      <c r="R84" s="26">
+        <f t="shared" si="12"/>
+        <v>0.25868468585485971</v>
+      </c>
+      <c r="S84" s="1">
+        <f t="shared" si="13"/>
+        <v>29.347668000000002</v>
+      </c>
+      <c r="T84" s="1">
+        <f t="shared" si="14"/>
+        <v>54.78002836200001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>81</v>
+      </c>
       <c r="B85" s="1">
-        <v>81</v>
+        <v>162</v>
       </c>
       <c r="C85" s="1">
-        <v>162</v>
-      </c>
-      <c r="D85" s="27">
+        <f t="shared" si="9"/>
+        <v>22</v>
+      </c>
+      <c r="D85" s="25">
         <v>996.06469064735495</v>
       </c>
       <c r="E85" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>996.06240784060003</v>
       </c>
-      <c r="F85" s="28">
-        <f t="shared" si="4"/>
+      <c r="F85" s="26">
+        <f t="shared" si="10"/>
         <v>2.2828067549198749E-3</v>
       </c>
       <c r="G85" s="1">
         <v>8.0038957524000001</v>
       </c>
-    </row>
-    <row r="86" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H85" s="1">
+        <v>11.42579327232</v>
+      </c>
+      <c r="Q85" s="1">
+        <f t="shared" si="11"/>
+        <v>110</v>
+      </c>
+      <c r="R85" s="26">
+        <f t="shared" si="12"/>
+        <v>1.1414033774599375E-2</v>
+      </c>
+      <c r="S85" s="1">
+        <f t="shared" si="13"/>
+        <v>40.019478761999999</v>
+      </c>
+      <c r="T85" s="1">
+        <f t="shared" si="14"/>
+        <v>57.1289663616</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>82</v>
+      </c>
       <c r="B86" s="1">
-        <v>82</v>
+        <v>164</v>
       </c>
       <c r="C86" s="1">
-        <v>164</v>
-      </c>
-      <c r="D86" s="27">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="D86" s="25">
         <v>996.04185432057602</v>
       </c>
       <c r="E86" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>996.01691209820001</v>
       </c>
-      <c r="F86" s="28">
-        <f t="shared" si="4"/>
+      <c r="F86" s="26">
+        <f t="shared" si="10"/>
         <v>2.4942222376012069E-2</v>
       </c>
       <c r="G86" s="1">
         <v>9.0129359085600012</v>
       </c>
-    </row>
-    <row r="87" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H86" s="1">
+        <v>10.88172533328</v>
+      </c>
+      <c r="Q86" s="1">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+      <c r="R86" s="26">
+        <f t="shared" si="12"/>
+        <v>0.12471111188006034</v>
+      </c>
+      <c r="S86" s="1">
+        <f t="shared" si="13"/>
+        <v>45.064679542800008</v>
+      </c>
+      <c r="T86" s="1">
+        <f t="shared" si="14"/>
+        <v>54.408626666400004</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>83</v>
+      </c>
       <c r="B87" s="1">
-        <v>83</v>
+        <v>166</v>
       </c>
       <c r="C87" s="1">
-        <v>166</v>
-      </c>
-      <c r="D87" s="27">
+        <f t="shared" si="9"/>
+        <v>18</v>
+      </c>
+      <c r="D87" s="25">
         <v>995.99366267877599</v>
       </c>
       <c r="E87" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>995.9714163558001</v>
       </c>
-      <c r="F87" s="28">
-        <f t="shared" si="4"/>
+      <c r="F87" s="26">
+        <f t="shared" si="10"/>
         <v>2.2246322975888688E-2</v>
       </c>
       <c r="G87" s="1">
         <v>5.0071931961600002</v>
       </c>
-    </row>
-    <row r="88" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H87" s="1">
+        <v>11.969892636239999</v>
+      </c>
+      <c r="Q87" s="1">
+        <f t="shared" si="11"/>
+        <v>90</v>
+      </c>
+      <c r="R87" s="26">
+        <f t="shared" si="12"/>
+        <v>0.11123161487944344</v>
+      </c>
+      <c r="S87" s="1">
+        <f t="shared" si="13"/>
+        <v>25.0359659808</v>
+      </c>
+      <c r="T87" s="1">
+        <f t="shared" si="14"/>
+        <v>59.849463181199994</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>84</v>
+      </c>
       <c r="B88" s="1">
-        <v>84</v>
+        <v>168</v>
       </c>
       <c r="C88" s="1">
-        <v>168</v>
-      </c>
-      <c r="D88" s="27">
+        <f t="shared" si="9"/>
+        <v>16</v>
+      </c>
+      <c r="D88" s="25">
         <v>995.93178982204802</v>
       </c>
       <c r="E88" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>995.92592061340008</v>
       </c>
-      <c r="F88" s="28">
-        <f t="shared" si="4"/>
+      <c r="F88" s="26">
+        <f t="shared" si="10"/>
         <v>5.8692086479368299E-3</v>
       </c>
       <c r="G88" s="1">
         <v>6.5093393104799997</v>
       </c>
-    </row>
-    <row r="89" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H88" s="1">
+        <v>12.45357939048</v>
+      </c>
+      <c r="Q88" s="1">
+        <f t="shared" si="11"/>
+        <v>80</v>
+      </c>
+      <c r="R88" s="26">
+        <f t="shared" si="12"/>
+        <v>2.934604323968415E-2</v>
+      </c>
+      <c r="S88" s="1">
+        <f t="shared" si="13"/>
+        <v>32.5466965524</v>
+      </c>
+      <c r="T88" s="1">
+        <f t="shared" si="14"/>
+        <v>62.267896952400001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>85</v>
+      </c>
       <c r="B89" s="1">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="C89" s="1">
-        <v>170</v>
-      </c>
-      <c r="D89" s="27">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="D89" s="25">
         <v>995.85402439934205</v>
       </c>
       <c r="E89" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>995.88042487100006</v>
       </c>
-      <c r="F89" s="28">
-        <f t="shared" si="4"/>
+      <c r="F89" s="26">
+        <f t="shared" si="10"/>
         <v>-2.6400471658007518E-2</v>
       </c>
       <c r="G89" s="1">
         <v>5.5100526323999999</v>
       </c>
-    </row>
-    <row r="90" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H89" s="1">
+        <v>11.282476434239999</v>
+      </c>
+      <c r="Q89" s="1">
+        <f t="shared" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="R89" s="26">
+        <f t="shared" si="12"/>
+        <v>-0.13200235829003759</v>
+      </c>
+      <c r="S89" s="1">
+        <f t="shared" si="13"/>
+        <v>27.550263162</v>
+      </c>
+      <c r="T89" s="1">
+        <f t="shared" si="14"/>
+        <v>56.412382171199994</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>86</v>
+      </c>
       <c r="B90" s="1">
-        <v>86</v>
+        <v>172</v>
       </c>
       <c r="C90" s="1">
-        <v>172</v>
-      </c>
-      <c r="D90" s="27">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="D90" s="25">
         <v>995.705319471091</v>
       </c>
       <c r="E90" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>995.83492912860004</v>
       </c>
-      <c r="F90" s="28">
-        <f t="shared" si="4"/>
+      <c r="F90" s="26">
+        <f t="shared" si="10"/>
         <v>-0.12960965750903597</v>
       </c>
       <c r="G90" s="1">
         <v>4.0073274895200006</v>
       </c>
-    </row>
-    <row r="91" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H90" s="1">
+        <v>9.7935591885599997</v>
+      </c>
+      <c r="Q90" s="1">
+        <f t="shared" si="11"/>
+        <v>60</v>
+      </c>
+      <c r="R90" s="26">
+        <f t="shared" si="12"/>
+        <v>-0.64804828754517985</v>
+      </c>
+      <c r="S90" s="1">
+        <f t="shared" si="13"/>
+        <v>20.036637447600004</v>
+      </c>
+      <c r="T90" s="1">
+        <f t="shared" si="14"/>
+        <v>48.967795942799995</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>87</v>
+      </c>
       <c r="B91" s="1">
-        <v>87</v>
+        <v>174</v>
       </c>
       <c r="C91" s="1">
-        <v>174</v>
-      </c>
-      <c r="D91" s="27">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="D91" s="25">
         <v>995.62142258055405</v>
       </c>
       <c r="E91" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>995.78943338620002</v>
       </c>
-      <c r="F91" s="28">
-        <f t="shared" si="4"/>
+      <c r="F91" s="26">
+        <f t="shared" si="10"/>
         <v>-0.16801080564596305</v>
       </c>
       <c r="G91" s="1">
         <v>5.5100526323999999</v>
       </c>
-    </row>
-    <row r="92" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H91" s="1">
+        <v>10.337627127600001</v>
+      </c>
+      <c r="Q91" s="1">
+        <f t="shared" si="11"/>
+        <v>50</v>
+      </c>
+      <c r="R91" s="26">
+        <f t="shared" si="12"/>
+        <v>-0.84005402822981523</v>
+      </c>
+      <c r="S91" s="1">
+        <f t="shared" si="13"/>
+        <v>27.550263162</v>
+      </c>
+      <c r="T91" s="1">
+        <f t="shared" si="14"/>
+        <v>51.688135638000006</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>88</v>
+      </c>
       <c r="B92" s="1">
-        <v>88</v>
+        <v>176</v>
       </c>
       <c r="C92" s="1">
-        <v>176</v>
-      </c>
-      <c r="D92" s="27">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="D92" s="25">
         <v>995.57916754088603</v>
       </c>
       <c r="E92" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>995.7439376438</v>
       </c>
-      <c r="F92" s="28">
-        <f t="shared" si="4"/>
+      <c r="F92" s="26">
+        <f t="shared" si="10"/>
         <v>-0.16477010291396255</v>
       </c>
       <c r="G92" s="1">
         <v>5.5100526323999999</v>
       </c>
-    </row>
-    <row r="93" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H92" s="1">
+        <v>9.7935591885599997</v>
+      </c>
+      <c r="Q92" s="1">
+        <f t="shared" si="11"/>
+        <v>40</v>
+      </c>
+      <c r="R92" s="26">
+        <f t="shared" si="12"/>
+        <v>-0.82385051456981273</v>
+      </c>
+      <c r="S92" s="1">
+        <f t="shared" si="13"/>
+        <v>27.550263162</v>
+      </c>
+      <c r="T92" s="1">
+        <f t="shared" si="14"/>
+        <v>48.967795942799995</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>89</v>
+      </c>
       <c r="B93" s="1">
-        <v>89</v>
+        <v>178</v>
       </c>
       <c r="C93" s="1">
-        <v>178</v>
-      </c>
-      <c r="D93" s="27">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="D93" s="25">
         <v>995.52607544802902</v>
       </c>
       <c r="E93" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>995.69844190140009</v>
       </c>
-      <c r="F93" s="28">
-        <f t="shared" si="4"/>
+      <c r="F93" s="26">
+        <f t="shared" si="10"/>
         <v>-0.17236645337106893</v>
       </c>
       <c r="G93" s="1">
         <v>4.0073274895200006</v>
       </c>
-    </row>
-    <row r="94" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H93" s="1">
+        <v>10.079523127680002</v>
+      </c>
+      <c r="Q93" s="1">
+        <f t="shared" si="11"/>
+        <v>30</v>
+      </c>
+      <c r="R93" s="26">
+        <f t="shared" si="12"/>
+        <v>-0.86183226685534464</v>
+      </c>
+      <c r="S93" s="1">
+        <f t="shared" si="13"/>
+        <v>20.036637447600004</v>
+      </c>
+      <c r="T93" s="1">
+        <f t="shared" si="14"/>
+        <v>50.397615638400012</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>90</v>
+      </c>
       <c r="B94" s="1">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="C94" s="1">
-        <v>180</v>
-      </c>
-      <c r="D94" s="27">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="D94" s="25">
         <v>995.53788775089902</v>
       </c>
       <c r="E94" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>995.65294615900007</v>
       </c>
-      <c r="F94" s="28">
-        <f t="shared" si="4"/>
+      <c r="F94" s="26">
+        <f t="shared" si="10"/>
         <v>-0.11505840810104928</v>
       </c>
       <c r="G94" s="1">
         <v>5.5100526323999999</v>
       </c>
-    </row>
-    <row r="95" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H94" s="1">
+        <v>9.2494610133600013</v>
+      </c>
+      <c r="Q94" s="1">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="R94" s="26">
+        <f t="shared" si="12"/>
+        <v>-0.5752920405052464</v>
+      </c>
+      <c r="S94" s="1">
+        <f t="shared" si="13"/>
+        <v>27.550263162</v>
+      </c>
+      <c r="T94" s="1">
+        <f t="shared" si="14"/>
+        <v>46.24730506680001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>91</v>
+      </c>
       <c r="B95" s="1">
-        <v>91</v>
+        <v>182</v>
       </c>
       <c r="C95" s="1">
-        <v>182</v>
-      </c>
-      <c r="D95" s="27">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D95" s="25">
         <v>995.46713930765702</v>
       </c>
       <c r="E95" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>995.60745041660005</v>
       </c>
-      <c r="F95" s="28">
-        <f t="shared" si="4"/>
+      <c r="F95" s="26">
+        <f t="shared" si="10"/>
         <v>-0.14031110894302401</v>
       </c>
       <c r="G95" s="1">
         <v>5.5100526323999999</v>
       </c>
-    </row>
-    <row r="96" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H95" s="1">
+        <v>8.0597655923999998</v>
+      </c>
+      <c r="Q95" s="1">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="R95" s="26">
+        <f t="shared" si="12"/>
+        <v>-0.70155554471512005</v>
+      </c>
+      <c r="S95" s="1">
+        <f t="shared" si="13"/>
+        <v>27.550263162</v>
+      </c>
+      <c r="T95" s="1">
+        <f t="shared" si="14"/>
+        <v>40.298827961999997</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>92</v>
+      </c>
       <c r="B96" s="1">
-        <v>92</v>
+        <v>184</v>
       </c>
       <c r="C96" s="1">
-        <v>184</v>
-      </c>
-      <c r="D96" s="27">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D96" s="25">
         <v>995.52223561909295</v>
       </c>
       <c r="E96" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>995.56195467420002</v>
       </c>
-      <c r="F96" s="28">
-        <f t="shared" si="4"/>
+      <c r="F96" s="26">
+        <f t="shared" si="10"/>
         <v>-3.9719055107070744E-2</v>
       </c>
       <c r="G96" s="1">
         <v>3.5063885980800005</v>
+      </c>
+      <c r="H96" s="1">
+        <v>3.8085980419199998</v>
+      </c>
+      <c r="Q96" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R96" s="26">
+        <f t="shared" si="12"/>
+        <v>-0.19859527553535372</v>
+      </c>
+      <c r="S96" s="1">
+        <f t="shared" si="13"/>
+        <v>17.531942990400001</v>
+      </c>
+      <c r="T96" s="1">
+        <f t="shared" si="14"/>
+        <v>19.042990209599999</v>
       </c>
     </row>
     <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7975,1692 +10037,12 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="Q1:T1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C1000"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="7.625" customWidth="1"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="5.375" customWidth="1"/>
-    <col min="4" max="23" width="7.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="7">
-        <v>18.249503516160001</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="1">
-        <v>2</v>
-      </c>
-      <c r="C5" s="7">
-        <v>18.144316914240001</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="1">
-        <v>4</v>
-      </c>
-      <c r="C6" s="7">
-        <v>17.254728182880001</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="1">
-        <v>6</v>
-      </c>
-      <c r="C7" s="7">
-        <v>17.6403</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="1">
-        <v>8</v>
-      </c>
-      <c r="C8" s="7">
-        <v>17.136313321919999</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="1">
-        <v>10</v>
-      </c>
-      <c r="C9" s="7">
-        <v>17.6403</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="1">
-        <v>12</v>
-      </c>
-      <c r="C10" s="7">
-        <v>18.144316914240001</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="1">
-        <v>14</v>
-      </c>
-      <c r="C11" s="7">
-        <v>21.672377127600001</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="1">
-        <v>16</v>
-      </c>
-      <c r="C12" s="7">
-        <v>20.664373565759998</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="1">
-        <v>18</v>
-      </c>
-      <c r="C13" s="7">
-        <v>21.168359055120003</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="1">
-        <v>20</v>
-      </c>
-      <c r="C14" s="7">
-        <v>22.680410956079999</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="1">
-        <v>22</v>
-      </c>
-      <c r="C15" s="7">
-        <v>22.680410956079999</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="1">
-        <v>24</v>
-      </c>
-      <c r="C16" s="7">
-        <v>22.176395200080002</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="1">
-        <v>26</v>
-      </c>
-      <c r="C17" s="7">
-        <v>22.680410956079999</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="1">
-        <v>28</v>
-      </c>
-      <c r="C18" s="7">
-        <v>21.672377127600001</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="1">
-        <v>30</v>
-      </c>
-      <c r="C19" s="7">
-        <v>20.160355493280001</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="1">
-        <v>32</v>
-      </c>
-      <c r="C20" s="7">
-        <v>23.201346617280002</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="1">
-        <v>34</v>
-      </c>
-      <c r="C21" s="7">
-        <v>22.661788834320003</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="1">
-        <v>36</v>
-      </c>
-      <c r="C22" s="7">
-        <v>22.70763023616</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="1">
-        <v>38</v>
-      </c>
-      <c r="C23" s="7">
-        <v>23.201346617280002</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="1">
-        <v>40</v>
-      </c>
-      <c r="C24" s="7">
-        <v>24.820047794400004</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="1">
-        <v>42</v>
-      </c>
-      <c r="C25" s="7">
-        <v>24.820047794400004</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="1">
-        <v>44</v>
-      </c>
-      <c r="C26" s="7">
-        <v>25.20001065144</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="1">
-        <v>46</v>
-      </c>
-      <c r="C27" s="7">
-        <v>24.820047794400004</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="1">
-        <v>48</v>
-      </c>
-      <c r="C28" s="7">
-        <v>23.740902053280003</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="1">
-        <v>50</v>
-      </c>
-      <c r="C29" s="7">
-        <v>24.28049004192</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="1">
-        <v>52</v>
-      </c>
-      <c r="C30" s="7">
-        <v>24.883383466560002</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="1">
-        <v>54</v>
-      </c>
-      <c r="C31" s="7">
-        <v>24.013027279919999</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="1">
-        <v>56</v>
-      </c>
-      <c r="C32" s="7">
-        <v>24.28049004192</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="1">
-        <v>58</v>
-      </c>
-      <c r="C33" s="7">
-        <v>23.897873870399998</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="1">
-        <v>60</v>
-      </c>
-      <c r="C34" s="7">
-        <v>23.897873870399998</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="1">
-        <v>62</v>
-      </c>
-      <c r="C35" s="7">
-        <v>23.3547512076</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="1">
-        <v>64</v>
-      </c>
-      <c r="C36" s="7">
-        <v>22.811628544800001</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="1">
-        <v>66</v>
-      </c>
-      <c r="C37" s="7">
-        <v>21.095482137120001</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="1">
-        <v>68</v>
-      </c>
-      <c r="C38" s="7">
-        <v>20.095952442000002</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="1">
-        <v>70</v>
-      </c>
-      <c r="C39" s="7">
-        <v>17.92339784376</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="1">
-        <v>72</v>
-      </c>
-      <c r="C40" s="7">
-        <v>17.224948613280002</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="1">
-        <v>74</v>
-      </c>
-      <c r="C41" s="7">
-        <v>17.727259805759999</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="1">
-        <v>76</v>
-      </c>
-      <c r="C42" s="7">
-        <v>16.370320533360001</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="1">
-        <v>78</v>
-      </c>
-      <c r="C43" s="7">
-        <v>15.342077489520001</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="1">
-        <v>80</v>
-      </c>
-      <c r="C44" s="7">
-        <v>16.224960803760002</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="1">
-        <v>82</v>
-      </c>
-      <c r="C45" s="7">
-        <v>16.825874125680002</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="1">
-        <v>84</v>
-      </c>
-      <c r="C46" s="7">
-        <v>15.624017245680001</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="1">
-        <v>86</v>
-      </c>
-      <c r="C47" s="7">
-        <v>16.224960803760002</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="1">
-        <v>88</v>
-      </c>
-      <c r="C48" s="7">
-        <v>15.323576281919999</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="1">
-        <v>90</v>
-      </c>
-      <c r="C49" s="7">
-        <v>14.422190601840001</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="1">
-        <v>92</v>
-      </c>
-      <c r="C50" s="7">
-        <v>14.060027851440001</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="1">
-        <v>94</v>
-      </c>
-      <c r="C51" s="7">
-        <v>13.038978544800001</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="1">
-        <v>96</v>
-      </c>
-      <c r="C52" s="7">
-        <v>13.979499020880001</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="1">
-        <v>98</v>
-      </c>
-      <c r="C53" s="7">
-        <v>11.437772796240001</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="1">
-        <v>100</v>
-      </c>
-      <c r="C54" s="7">
-        <v>11.978304902880001</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="1">
-        <v>102</v>
-      </c>
-      <c r="C55" s="7">
-        <v>10.50029861328</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="1">
-        <v>104</v>
-      </c>
-      <c r="C56" s="7">
-        <v>10.65449732952</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="1">
-        <v>106</v>
-      </c>
-      <c r="C57" s="7">
-        <v>11.35764044952</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="1">
-        <v>108</v>
-      </c>
-      <c r="C58" s="7">
-        <v>11.35255007616</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="1">
-        <v>110</v>
-      </c>
-      <c r="C59" s="7">
-        <v>9.64838316192</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="1">
-        <v>112</v>
-      </c>
-      <c r="C60" s="7">
-        <v>10.93485230856</v>
-      </c>
-    </row>
-    <row r="61" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="1">
-        <v>114</v>
-      </c>
-      <c r="C61" s="7">
-        <v>11.578072358160002</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="1">
-        <v>116</v>
-      </c>
-      <c r="C62" s="7">
-        <v>11.578072358160002</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="1">
-        <v>118</v>
-      </c>
-      <c r="C63" s="7">
-        <v>11.830294175279999</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="1">
-        <v>120</v>
-      </c>
-      <c r="C64" s="7">
-        <v>12.84930174864</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="1">
-        <v>122</v>
-      </c>
-      <c r="C65" s="7">
-        <v>12.487656365759999</v>
-      </c>
-    </row>
-    <row r="66" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="1">
-        <v>124</v>
-      </c>
-      <c r="C66" s="7">
-        <v>13.72154732952</v>
-      </c>
-    </row>
-    <row r="67" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="1">
-        <v>126</v>
-      </c>
-      <c r="C67" s="7">
-        <v>12.864511268640001</v>
-      </c>
-    </row>
-    <row r="68" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="1">
-        <v>128</v>
-      </c>
-      <c r="C68" s="7">
-        <v>12.864511268640001</v>
-      </c>
-    </row>
-    <row r="69" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="1">
-        <v>130</v>
-      </c>
-      <c r="C69" s="7">
-        <v>12.835372358160001</v>
-      </c>
-    </row>
-    <row r="70" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="1">
-        <v>132</v>
-      </c>
-      <c r="C70" s="7">
-        <v>11.621567379120002</v>
-      </c>
-    </row>
-    <row r="71" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="1">
-        <v>134</v>
-      </c>
-      <c r="C71" s="7">
-        <v>12.864511268640001</v>
-      </c>
-    </row>
-    <row r="72" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="1">
-        <v>136</v>
-      </c>
-      <c r="C72" s="7">
-        <v>13.388828106720002</v>
-      </c>
-    </row>
-    <row r="73" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="1">
-        <v>138</v>
-      </c>
-      <c r="C73" s="7">
-        <v>13.154131984800001</v>
-      </c>
-    </row>
-    <row r="74" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="1">
-        <v>140</v>
-      </c>
-      <c r="C74" s="7">
-        <v>12.781726796160001</v>
-      </c>
-    </row>
-    <row r="75" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="1">
-        <v>142</v>
-      </c>
-      <c r="C75" s="7">
-        <v>13.154131984800001</v>
-      </c>
-    </row>
-    <row r="76" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="1">
-        <v>144</v>
-      </c>
-      <c r="C76" s="7">
-        <v>12.232051055279999</v>
-      </c>
-    </row>
-    <row r="77" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="1">
-        <v>146</v>
-      </c>
-      <c r="C77" s="7">
-        <v>12.32531976384</v>
-      </c>
-    </row>
-    <row r="78" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="1">
-        <v>148</v>
-      </c>
-      <c r="C78" s="7">
-        <v>10.866455340960002</v>
-      </c>
-    </row>
-    <row r="79" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="1">
-        <v>150</v>
-      </c>
-      <c r="C79" s="7">
-        <v>11.474226358080001</v>
-      </c>
-    </row>
-    <row r="80" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="1">
-        <v>152</v>
-      </c>
-      <c r="C80" s="7">
-        <v>12.582205264800001</v>
-      </c>
-    </row>
-    <row r="81" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="1">
-        <v>154</v>
-      </c>
-      <c r="C81" s="7">
-        <v>12.0102785448</v>
-      </c>
-    </row>
-    <row r="82" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="1">
-        <v>156</v>
-      </c>
-      <c r="C82" s="7">
-        <v>11.347338758159999</v>
-      </c>
-    </row>
-    <row r="83" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="1">
-        <v>158</v>
-      </c>
-      <c r="C83" s="7">
-        <v>11.399368148640001</v>
-      </c>
-    </row>
-    <row r="84" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="1">
-        <v>160</v>
-      </c>
-      <c r="C84" s="7">
-        <v>10.956005672400002</v>
-      </c>
-    </row>
-    <row r="85" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="1">
-        <v>162</v>
-      </c>
-      <c r="C85" s="7">
-        <v>11.42579327232</v>
-      </c>
-    </row>
-    <row r="86" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="1">
-        <v>164</v>
-      </c>
-      <c r="C86" s="7">
-        <v>10.88172533328</v>
-      </c>
-    </row>
-    <row r="87" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="1">
-        <v>166</v>
-      </c>
-      <c r="C87" s="7">
-        <v>11.969892636239999</v>
-      </c>
-    </row>
-    <row r="88" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="1">
-        <v>168</v>
-      </c>
-      <c r="C88" s="7">
-        <v>12.45357939048</v>
-      </c>
-    </row>
-    <row r="89" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="1">
-        <v>170</v>
-      </c>
-      <c r="C89" s="7">
-        <v>11.282476434239999</v>
-      </c>
-    </row>
-    <row r="90" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="1">
-        <v>172</v>
-      </c>
-      <c r="C90" s="7">
-        <v>9.7935591885599997</v>
-      </c>
-    </row>
-    <row r="91" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="1">
-        <v>174</v>
-      </c>
-      <c r="C91" s="7">
-        <v>10.337627127600001</v>
-      </c>
-    </row>
-    <row r="92" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="1">
-        <v>176</v>
-      </c>
-      <c r="C92" s="7">
-        <v>9.7935591885599997</v>
-      </c>
-    </row>
-    <row r="93" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="1">
-        <v>178</v>
-      </c>
-      <c r="C93" s="7">
-        <v>10.079523127680002</v>
-      </c>
-    </row>
-    <row r="94" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="1">
-        <v>180</v>
-      </c>
-      <c r="C94" s="7">
-        <v>9.2494610133600013</v>
-      </c>
-    </row>
-    <row r="95" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="1">
-        <v>182</v>
-      </c>
-      <c r="C95" s="7">
-        <v>8.0597655923999998</v>
-      </c>
-    </row>
-    <row r="96" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="1">
-        <v>184</v>
-      </c>
-      <c r="C96" s="7">
-        <v>3.8085980419199998</v>
-      </c>
-    </row>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/site316_gcs_analysis/0_SFE_316_RiverBuilder_metrics_v3.xlsx
+++ b/site316_gcs_analysis/0_SFE_316_RiverBuilder_metrics_v3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15765" windowHeight="9060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10770" windowHeight="9060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SFE_316_classmetrics" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="85">
   <si>
     <t>SFE Site 316 River Builder Input data</t>
   </si>
@@ -253,9 +253,6 @@
     <t>1x case</t>
   </si>
   <si>
-    <t>5x case</t>
-  </si>
-  <si>
     <t xml:space="preserve"> amplitude</t>
   </si>
   <si>
@@ -272,6 +269,12 @@
   </si>
   <si>
     <t>min Wall lat offset</t>
+  </si>
+  <si>
+    <t>Wbf/2 (m)</t>
+  </si>
+  <si>
+    <t>Wb/2 (m)</t>
   </si>
 </sst>
 </file>
@@ -457,7 +460,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -527,9 +530,6 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -553,6 +553,10 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2903,7 +2907,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -2928,7 +2932,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
@@ -2953,7 +2957,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -3179,8 +3183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3421,7 +3425,7 @@
       <c r="B22" s="1">
         <v>592.06399999999996</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="33">
         <f>B22*$C$3</f>
         <v>180.46110719999999</v>
       </c>
@@ -3445,16 +3449,16 @@
       <c r="D23" s="27"/>
     </row>
     <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="41" t="s">
-        <v>79</v>
+      <c r="A24" s="40" t="s">
+        <v>78</v>
       </c>
       <c r="B24" s="13"/>
       <c r="C24" s="27"/>
       <c r="D24" s="27"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="42" t="s">
-        <v>78</v>
+      <c r="A25" s="41" t="s">
+        <v>77</v>
       </c>
       <c r="B25" s="28">
         <f>217.98*SIN(RADIANS(13))</f>
@@ -3464,7 +3468,7 @@
         <f>B25*C3</f>
         <v>14.945816435726913</v>
       </c>
-      <c r="D25" s="46">
+      <c r="D25" s="45">
         <f>C25*5</f>
         <v>74.72908217863457</v>
       </c>
@@ -3477,13 +3481,13 @@
         <v>27</v>
       </c>
       <c r="B26" s="28"/>
-      <c r="C26" s="15">
-        <f>C25/2</f>
-        <v>7.4729082178634565</v>
-      </c>
-      <c r="D26" s="40">
+      <c r="C26" s="39">
+        <f>-C25/2</f>
+        <v>-7.4729082178634565</v>
+      </c>
+      <c r="D26" s="39">
         <f>C26*5</f>
-        <v>37.364541089317285</v>
+        <v>-37.364541089317285</v>
       </c>
       <c r="F26" s="1"/>
     </row>
@@ -3494,10 +3498,10 @@
       <c r="B27" s="15">
         <v>0</v>
       </c>
-      <c r="C27" s="49">
+      <c r="C27" s="48">
         <v>0</v>
       </c>
-      <c r="D27" s="49">
+      <c r="D27" s="48">
         <v>0</v>
       </c>
     </row>
@@ -3536,8 +3540,8 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="47" t="s">
-        <v>80</v>
+      <c r="A30" s="46" t="s">
+        <v>79</v>
       </c>
       <c r="B30" s="20">
         <f>(B29-B43)/2</f>
@@ -3547,35 +3551,35 @@
         <f>B30*C3</f>
         <v>13.310448088511311</v>
       </c>
-      <c r="D30" s="50">
+      <c r="D30" s="49">
         <f>C30*5</f>
         <v>66.552240442556553</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K30" s="48" t="s">
-        <v>81</v>
+      <c r="K30" s="47" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="52" t="s">
-        <v>83</v>
+      <c r="A31" s="51" t="s">
+        <v>82</v>
       </c>
       <c r="B31" s="20">
         <f>(B29-B44)/2</f>
         <v>30.010701702393888</v>
       </c>
-      <c r="C31" s="19">
+      <c r="C31" s="43">
         <f>B31*C3</f>
         <v>9.1472618788896582</v>
       </c>
-      <c r="D31" s="44">
+      <c r="D31" s="43">
         <f>C31*5</f>
         <v>45.736309394448291</v>
       </c>
       <c r="F31" s="1"/>
-      <c r="K31" s="48"/>
+      <c r="K31" s="47"/>
     </row>
     <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
@@ -3639,7 +3643,10 @@
       <c r="B36" s="19">
         <v>0.05</v>
       </c>
-      <c r="C36" s="19"/>
+      <c r="C36" s="53">
+        <f>B36*C3</f>
+        <v>1.5240000000000002E-2</v>
+      </c>
       <c r="D36" s="19"/>
       <c r="F36" s="1" t="s">
         <v>38</v>
@@ -3666,7 +3673,10 @@
       <c r="B38" s="24">
         <v>5</v>
       </c>
-      <c r="C38" s="19"/>
+      <c r="C38" s="19">
+        <f>B38*C3</f>
+        <v>1.524</v>
+      </c>
       <c r="D38" s="19"/>
       <c r="F38" s="1" t="s">
         <v>42</v>
@@ -3713,11 +3723,11 @@
       <c r="B42" s="19">
         <v>0.9395</v>
       </c>
-      <c r="C42" s="19">
+      <c r="C42" s="43">
         <f>B42*C3</f>
         <v>0.28635959999999999</v>
       </c>
-      <c r="D42" s="45">
+      <c r="D42" s="44">
         <f>C42*5</f>
         <v>1.4317979999999999</v>
       </c>
@@ -3746,8 +3756,8 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="52" t="s">
-        <v>82</v>
+      <c r="A44" s="51" t="s">
+        <v>81</v>
       </c>
       <c r="B44" s="19">
         <v>80</v>
@@ -3756,7 +3766,7 @@
         <f>B44*C3</f>
         <v>24.384</v>
       </c>
-      <c r="D44" s="51">
+      <c r="D44" s="50">
         <f>C44*5</f>
         <v>121.92</v>
       </c>
@@ -3770,11 +3780,11 @@
         <f>(B43-B37)/2</f>
         <v>17.444882281273664</v>
       </c>
-      <c r="C45" s="19">
+      <c r="C45" s="43">
         <f>B45*C3</f>
         <v>5.3172001193322131</v>
       </c>
-      <c r="D45" s="44">
+      <c r="D45" s="43">
         <f>C45*5</f>
         <v>26.586000596661066</v>
       </c>
@@ -3831,10 +3841,10 @@
       <c r="B50" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C50" s="43" t="s">
+      <c r="C50" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D50" s="43" t="s">
+      <c r="D50" s="42" t="s">
         <v>75</v>
       </c>
     </row>
@@ -4850,10 +4860,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T1000"/>
+  <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4863,34 +4873,26 @@
     <col min="4" max="4" width="5.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.25" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" customWidth="1"/>
-    <col min="8" max="8" width="10.25" customWidth="1"/>
-    <col min="9" max="15" width="7.625" customWidth="1"/>
-    <col min="16" max="16" width="4.875" customWidth="1"/>
-    <col min="17" max="17" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.875" customWidth="1"/>
-    <col min="20" max="20" width="10.25" customWidth="1"/>
+    <col min="7" max="8" width="9.75" customWidth="1"/>
+    <col min="9" max="10" width="10.25" customWidth="1"/>
+    <col min="11" max="17" width="7.625" customWidth="1"/>
+    <col min="18" max="18" width="4.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="38" t="s">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="Q1" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="38"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>73</v>
       </c>
@@ -4902,14 +4904,10 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="Q2" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>61</v>
       </c>
@@ -4925,29 +4923,23 @@
       <c r="E3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="33" t="s">
         <v>65</v>
       </c>
       <c r="G3" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="37" t="s">
+      <c r="H3" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="I3" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="Q3" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="R3" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="S3" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="T3" s="33" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="J3" s="33" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -4973,26 +4965,18 @@
         <v>1.6796673950400003</v>
       </c>
       <c r="H4" s="1">
+        <f>G4/2</f>
+        <v>0.83983369752000014</v>
+      </c>
+      <c r="I4" s="1">
         <v>18.249503516160001</v>
       </c>
-      <c r="Q4" s="1">
-        <f>C4*5</f>
-        <v>920</v>
-      </c>
-      <c r="R4" s="26">
-        <f>F4*5</f>
-        <v>-0.43475505106016499</v>
-      </c>
-      <c r="S4" s="1">
-        <f>G4*5</f>
-        <v>8.3983369752000012</v>
-      </c>
-      <c r="T4" s="1">
-        <f>H4*5</f>
-        <v>91.247517580800007</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="J4" s="1">
+        <f>I4/2</f>
+        <v>9.1247517580800004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -5018,26 +5002,18 @@
         <v>2.38781545296</v>
       </c>
       <c r="H5" s="1">
+        <f t="shared" ref="H5:H68" si="3">G5/2</f>
+        <v>1.19390772648</v>
+      </c>
+      <c r="I5" s="1">
         <v>18.144316914240001</v>
       </c>
-      <c r="Q5" s="1">
-        <f t="shared" ref="Q5:Q68" si="3">C5*5</f>
-        <v>910</v>
-      </c>
-      <c r="R5" s="26">
-        <f t="shared" ref="R5:R68" si="4">F5*5</f>
-        <v>-0.67398205098527342</v>
-      </c>
-      <c r="S5" s="1">
-        <f t="shared" ref="S5:S68" si="5">G5*5</f>
-        <v>11.9390772648</v>
-      </c>
-      <c r="T5" s="1">
-        <f t="shared" ref="T5:T68" si="6">H5*5</f>
-        <v>90.721584571199998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="J5" s="1">
+        <f t="shared" ref="J5:J68" si="4">I5/2</f>
+        <v>9.0721584571200005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -5063,26 +5039,18 @@
         <v>3.8727888914399999</v>
       </c>
       <c r="H6" s="1">
+        <f t="shared" si="3"/>
+        <v>1.93639444572</v>
+      </c>
+      <c r="I6" s="1">
         <v>17.254728182880001</v>
       </c>
-      <c r="Q6" s="1">
-        <f t="shared" si="3"/>
-        <v>900</v>
-      </c>
-      <c r="R6" s="26">
+      <c r="J6" s="1">
         <f t="shared" si="4"/>
-        <v>-0.56586528565503613</v>
-      </c>
-      <c r="S6" s="1">
-        <f t="shared" si="5"/>
-        <v>19.363944457199999</v>
-      </c>
-      <c r="T6" s="1">
-        <f t="shared" si="6"/>
-        <v>86.273640914400005</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+        <v>8.6273640914400005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -5108,26 +5076,18 @@
         <v>4.2696687580799999</v>
       </c>
       <c r="H7" s="1">
+        <f t="shared" si="3"/>
+        <v>2.13483437904</v>
+      </c>
+      <c r="I7" s="1">
         <v>17.6403</v>
       </c>
-      <c r="Q7" s="1">
-        <f t="shared" si="3"/>
-        <v>890</v>
-      </c>
-      <c r="R7" s="26">
+      <c r="J7" s="1">
         <f t="shared" si="4"/>
-        <v>-0.45460511839564788</v>
-      </c>
-      <c r="S7" s="1">
-        <f t="shared" si="5"/>
-        <v>21.348343790400001</v>
-      </c>
-      <c r="T7" s="1">
-        <f t="shared" si="6"/>
-        <v>88.201499999999996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+        <v>8.8201499999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -5153,26 +5113,18 @@
         <v>4.4473366780800001</v>
       </c>
       <c r="H8" s="1">
+        <f t="shared" si="3"/>
+        <v>2.2236683390400001</v>
+      </c>
+      <c r="I8" s="1">
         <v>17.136313321919999</v>
       </c>
-      <c r="Q8" s="1">
-        <f t="shared" si="3"/>
-        <v>880</v>
-      </c>
-      <c r="R8" s="26">
+      <c r="J8" s="1">
         <f t="shared" si="4"/>
-        <v>4.454999831978057E-2</v>
-      </c>
-      <c r="S8" s="1">
-        <f t="shared" si="5"/>
-        <v>22.2366833904</v>
-      </c>
-      <c r="T8" s="1">
-        <f t="shared" si="6"/>
-        <v>85.681566609599997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+        <v>8.5681566609599997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -5198,26 +5150,18 @@
         <v>4.1706698399999995</v>
       </c>
       <c r="H9" s="1">
+        <f t="shared" si="3"/>
+        <v>2.0853349199999998</v>
+      </c>
+      <c r="I9" s="1">
         <v>17.6403</v>
       </c>
-      <c r="Q9" s="1">
-        <f t="shared" si="3"/>
-        <v>870</v>
-      </c>
-      <c r="R9" s="26">
+      <c r="J9" s="1">
         <f t="shared" si="4"/>
-        <v>-7.9929439155534965E-2</v>
-      </c>
-      <c r="S9" s="1">
-        <f t="shared" si="5"/>
-        <v>20.853349199999997</v>
-      </c>
-      <c r="T9" s="1">
-        <f t="shared" si="6"/>
-        <v>88.201499999999996</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+        <v>8.8201499999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -5243,26 +5187,18 @@
         <v>4.80337368</v>
       </c>
       <c r="H10" s="1">
+        <f t="shared" si="3"/>
+        <v>2.40168684</v>
+      </c>
+      <c r="I10" s="1">
         <v>18.144316914240001</v>
       </c>
-      <c r="Q10" s="1">
-        <f t="shared" si="3"/>
-        <v>860</v>
-      </c>
-      <c r="R10" s="26">
+      <c r="J10" s="1">
         <f t="shared" si="4"/>
-        <v>-0.61723429001517616</v>
-      </c>
-      <c r="S10" s="1">
-        <f t="shared" si="5"/>
-        <v>24.0168684</v>
-      </c>
-      <c r="T10" s="1">
-        <f t="shared" si="6"/>
-        <v>90.721584571199998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+        <v>9.0721584571200005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -5288,26 +5224,18 @@
         <v>4.80337368</v>
       </c>
       <c r="H11" s="1">
+        <f t="shared" si="3"/>
+        <v>2.40168684</v>
+      </c>
+      <c r="I11" s="1">
         <v>21.672377127600001</v>
       </c>
-      <c r="Q11" s="1">
-        <f t="shared" si="3"/>
-        <v>850</v>
-      </c>
-      <c r="R11" s="26">
+      <c r="J11" s="1">
         <f t="shared" si="4"/>
-        <v>-0.69656481470985909</v>
-      </c>
-      <c r="S11" s="1">
-        <f t="shared" si="5"/>
-        <v>24.0168684</v>
-      </c>
-      <c r="T11" s="1">
-        <f t="shared" si="6"/>
-        <v>108.361885638</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+        <v>10.8361885638</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -5333,26 +5261,18 @@
         <v>4.2696687580799999</v>
       </c>
       <c r="H12" s="1">
+        <f t="shared" si="3"/>
+        <v>2.13483437904</v>
+      </c>
+      <c r="I12" s="1">
         <v>20.664373565759998</v>
       </c>
-      <c r="Q12" s="1">
-        <f t="shared" si="3"/>
-        <v>840</v>
-      </c>
-      <c r="R12" s="26">
+      <c r="J12" s="1">
         <f t="shared" si="4"/>
-        <v>-0.35854817889969581</v>
-      </c>
-      <c r="S12" s="1">
-        <f t="shared" si="5"/>
-        <v>21.348343790400001</v>
-      </c>
-      <c r="T12" s="1">
-        <f t="shared" si="6"/>
-        <v>103.32186782879999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+        <v>10.332186782879999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -5378,26 +5298,18 @@
         <v>4.6909633790400003</v>
       </c>
       <c r="H13" s="1">
+        <f t="shared" si="3"/>
+        <v>2.3454816895200001</v>
+      </c>
+      <c r="I13" s="1">
         <v>21.168359055120003</v>
       </c>
-      <c r="Q13" s="1">
-        <f t="shared" si="3"/>
-        <v>830</v>
-      </c>
-      <c r="R13" s="26">
+      <c r="J13" s="1">
         <f t="shared" si="4"/>
-        <v>-0.11411534009027946</v>
-      </c>
-      <c r="S13" s="1">
-        <f t="shared" si="5"/>
-        <v>23.4548168952</v>
-      </c>
-      <c r="T13" s="1">
-        <f t="shared" si="6"/>
-        <v>105.84179527560002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+        <v>10.584179527560002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -5423,26 +5335,18 @@
         <v>4.9747934438400003</v>
       </c>
       <c r="H14" s="1">
+        <f t="shared" si="3"/>
+        <v>2.4873967219200002</v>
+      </c>
+      <c r="I14" s="1">
         <v>22.680410956079999</v>
       </c>
-      <c r="Q14" s="1">
-        <f t="shared" si="3"/>
-        <v>820</v>
-      </c>
-      <c r="R14" s="26">
+      <c r="J14" s="1">
         <f t="shared" si="4"/>
-        <v>0.22570358354983</v>
-      </c>
-      <c r="S14" s="1">
-        <f t="shared" si="5"/>
-        <v>24.873967219200001</v>
-      </c>
-      <c r="T14" s="1">
-        <f t="shared" si="6"/>
-        <v>113.40205478039999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+        <v>11.34020547804</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -5468,26 +5372,18 @@
         <v>4.9747934438400003</v>
       </c>
       <c r="H15" s="1">
+        <f t="shared" si="3"/>
+        <v>2.4873967219200002</v>
+      </c>
+      <c r="I15" s="1">
         <v>22.680410956079999</v>
       </c>
-      <c r="Q15" s="1">
-        <f t="shared" si="3"/>
-        <v>810</v>
-      </c>
-      <c r="R15" s="26">
+      <c r="J15" s="1">
         <f t="shared" si="4"/>
-        <v>7.680632289748246E-3</v>
-      </c>
-      <c r="S15" s="1">
-        <f t="shared" si="5"/>
-        <v>24.873967219200001</v>
-      </c>
-      <c r="T15" s="1">
-        <f t="shared" si="6"/>
-        <v>113.40205478039999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+        <v>11.34020547804</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -5513,26 +5409,18 @@
         <v>4.4220385219200002</v>
       </c>
       <c r="H16" s="1">
+        <f t="shared" si="3"/>
+        <v>2.2110192609600001</v>
+      </c>
+      <c r="I16" s="1">
         <v>22.176395200080002</v>
       </c>
-      <c r="Q16" s="1">
-        <f t="shared" si="3"/>
-        <v>800</v>
-      </c>
-      <c r="R16" s="26">
+      <c r="J16" s="1">
         <f t="shared" si="4"/>
-        <v>-0.19916588968499127</v>
-      </c>
-      <c r="S16" s="1">
-        <f t="shared" si="5"/>
-        <v>22.110192609600002</v>
-      </c>
-      <c r="T16" s="1">
-        <f t="shared" si="6"/>
-        <v>110.88197600040002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+        <v>11.088197600040001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -5558,26 +5446,18 @@
         <v>3.8692836000000002</v>
       </c>
       <c r="H17" s="1">
+        <f t="shared" si="3"/>
+        <v>1.9346418000000001</v>
+      </c>
+      <c r="I17" s="1">
         <v>22.680410956079999</v>
       </c>
-      <c r="Q17" s="1">
-        <f t="shared" si="3"/>
-        <v>790</v>
-      </c>
-      <c r="R17" s="26">
+      <c r="J17" s="1">
         <f t="shared" si="4"/>
-        <v>0.44004862395524924</v>
-      </c>
-      <c r="S17" s="1">
-        <f t="shared" si="5"/>
-        <v>19.346418</v>
-      </c>
-      <c r="T17" s="1">
-        <f t="shared" si="6"/>
-        <v>113.40205478039999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+        <v>11.34020547804</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -5603,26 +5483,18 @@
         <v>6.0803027085599997</v>
       </c>
       <c r="H18" s="1">
+        <f t="shared" si="3"/>
+        <v>3.0401513542799998</v>
+      </c>
+      <c r="I18" s="1">
         <v>21.672377127600001</v>
       </c>
-      <c r="Q18" s="1">
-        <f t="shared" si="3"/>
-        <v>780</v>
-      </c>
-      <c r="R18" s="26">
+      <c r="J18" s="1">
         <f t="shared" si="4"/>
-        <v>4.6023445534615348E-2</v>
-      </c>
-      <c r="S18" s="1">
-        <f t="shared" si="5"/>
-        <v>30.401513542799997</v>
-      </c>
-      <c r="T18" s="1">
-        <f t="shared" si="6"/>
-        <v>108.361885638</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+        <v>10.8361885638</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -5648,26 +5520,18 @@
         <v>6.0887155543200002</v>
       </c>
       <c r="H19" s="1">
+        <f t="shared" si="3"/>
+        <v>3.0443577771600001</v>
+      </c>
+      <c r="I19" s="1">
         <v>20.160355493280001</v>
       </c>
-      <c r="Q19" s="1">
-        <f t="shared" si="3"/>
-        <v>770</v>
-      </c>
-      <c r="R19" s="26">
+      <c r="J19" s="1">
         <f t="shared" si="4"/>
-        <v>-0.1041510875251106</v>
-      </c>
-      <c r="S19" s="1">
-        <f t="shared" si="5"/>
-        <v>30.443577771600001</v>
-      </c>
-      <c r="T19" s="1">
-        <f t="shared" si="6"/>
-        <v>100.80177746640001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+        <v>10.08017774664</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -5693,26 +5557,18 @@
         <v>4.9896977676000009</v>
       </c>
       <c r="H20" s="1">
+        <f t="shared" si="3"/>
+        <v>2.4948488838000005</v>
+      </c>
+      <c r="I20" s="1">
         <v>23.201346617280002</v>
       </c>
-      <c r="Q20" s="1">
-        <f t="shared" si="3"/>
-        <v>760</v>
-      </c>
-      <c r="R20" s="26">
+      <c r="J20" s="1">
         <f t="shared" si="4"/>
-        <v>-0.16167146404029609</v>
-      </c>
-      <c r="S20" s="1">
-        <f t="shared" si="5"/>
-        <v>24.948488838000003</v>
-      </c>
-      <c r="T20" s="1">
-        <f t="shared" si="6"/>
-        <v>116.0067330864</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>11.600673308640001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -5738,26 +5594,18 @@
         <v>4.8709782590400001</v>
       </c>
       <c r="H21" s="1">
+        <f t="shared" si="3"/>
+        <v>2.4354891295200001</v>
+      </c>
+      <c r="I21" s="1">
         <v>22.661788834320003</v>
       </c>
-      <c r="Q21" s="1">
-        <f t="shared" si="3"/>
-        <v>750</v>
-      </c>
-      <c r="R21" s="26">
+      <c r="J21" s="1">
         <f t="shared" si="4"/>
-        <v>-7.3894852799867294E-2</v>
-      </c>
-      <c r="S21" s="1">
-        <f t="shared" si="5"/>
-        <v>24.354891295200002</v>
-      </c>
-      <c r="T21" s="1">
-        <f t="shared" si="6"/>
-        <v>113.30894417160002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>11.330894417160001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -5783,26 +5631,18 @@
         <v>5.6148427504800003</v>
       </c>
       <c r="H22" s="1">
+        <f t="shared" si="3"/>
+        <v>2.8074213752400001</v>
+      </c>
+      <c r="I22" s="1">
         <v>22.70763023616</v>
       </c>
-      <c r="Q22" s="1">
-        <f t="shared" si="3"/>
-        <v>740</v>
-      </c>
-      <c r="R22" s="26">
+      <c r="J22" s="1">
         <f t="shared" si="4"/>
-        <v>-0.21102689206998093</v>
-      </c>
-      <c r="S22" s="1">
-        <f t="shared" si="5"/>
-        <v>28.074213752400002</v>
-      </c>
-      <c r="T22" s="1">
-        <f t="shared" si="6"/>
-        <v>113.5381511808</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>11.35381511808</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -5828,26 +5668,18 @@
         <v>7.0285965600000004</v>
       </c>
       <c r="H23" s="1">
+        <f t="shared" si="3"/>
+        <v>3.5142982800000002</v>
+      </c>
+      <c r="I23" s="1">
         <v>23.201346617280002</v>
       </c>
-      <c r="Q23" s="1">
-        <f t="shared" si="3"/>
-        <v>730</v>
-      </c>
-      <c r="R23" s="26">
+      <c r="J23" s="1">
         <f t="shared" si="4"/>
-        <v>-0.45648829465051222</v>
-      </c>
-      <c r="S23" s="1">
-        <f t="shared" si="5"/>
-        <v>35.142982799999999</v>
-      </c>
-      <c r="T23" s="1">
-        <f t="shared" si="6"/>
-        <v>116.0067330864</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>11.600673308640001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -5873,26 +5705,18 @@
         <v>5.84581991616</v>
       </c>
       <c r="H24" s="1">
+        <f t="shared" si="3"/>
+        <v>2.92290995808</v>
+      </c>
+      <c r="I24" s="1">
         <v>24.820047794400004</v>
       </c>
-      <c r="Q24" s="1">
-        <f t="shared" si="3"/>
-        <v>720</v>
-      </c>
-      <c r="R24" s="26">
+      <c r="J24" s="1">
         <f t="shared" si="4"/>
-        <v>-0.92975085941020552</v>
-      </c>
-      <c r="S24" s="1">
-        <f t="shared" si="5"/>
-        <v>29.2290995808</v>
-      </c>
-      <c r="T24" s="1">
-        <f t="shared" si="6"/>
-        <v>124.10023897200003</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12.410023897200002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -5918,26 +5742,18 @@
         <v>5.0294133599999995</v>
       </c>
       <c r="H25" s="1">
+        <f t="shared" si="3"/>
+        <v>2.5147066799999997</v>
+      </c>
+      <c r="I25" s="1">
         <v>24.820047794400004</v>
       </c>
-      <c r="Q25" s="1">
-        <f t="shared" si="3"/>
-        <v>710</v>
-      </c>
-      <c r="R25" s="26">
+      <c r="J25" s="1">
         <f t="shared" si="4"/>
-        <v>-1.5665576382104973</v>
-      </c>
-      <c r="S25" s="1">
-        <f t="shared" si="5"/>
-        <v>25.147066799999997</v>
-      </c>
-      <c r="T25" s="1">
-        <f t="shared" si="6"/>
-        <v>124.10023897200003</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12.410023897200002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -5963,26 +5779,18 @@
         <v>5.86234041144</v>
       </c>
       <c r="H26" s="1">
+        <f t="shared" si="3"/>
+        <v>2.93117020572</v>
+      </c>
+      <c r="I26" s="1">
         <v>25.20001065144</v>
       </c>
-      <c r="Q26" s="1">
-        <f t="shared" si="3"/>
-        <v>700</v>
-      </c>
-      <c r="R26" s="26">
+      <c r="J26" s="1">
         <f t="shared" si="4"/>
-        <v>-1.1909637487849523</v>
-      </c>
-      <c r="S26" s="1">
-        <f t="shared" si="5"/>
-        <v>29.311702057200002</v>
-      </c>
-      <c r="T26" s="1">
-        <f t="shared" si="6"/>
-        <v>126.00005325719999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12.60000532572</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>23</v>
       </c>
@@ -6008,26 +5816,18 @@
         <v>4.4186855085600003</v>
       </c>
       <c r="H27" s="1">
+        <f t="shared" si="3"/>
+        <v>2.2093427542800002</v>
+      </c>
+      <c r="I27" s="1">
         <v>24.820047794400004</v>
       </c>
-      <c r="Q27" s="1">
-        <f t="shared" si="3"/>
-        <v>690</v>
-      </c>
-      <c r="R27" s="26">
+      <c r="J27" s="1">
         <f t="shared" si="4"/>
-        <v>-0.58689335938993281</v>
-      </c>
-      <c r="S27" s="1">
-        <f t="shared" si="5"/>
-        <v>22.093427542800001</v>
-      </c>
-      <c r="T27" s="1">
-        <f t="shared" si="6"/>
-        <v>124.10023897200003</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12.410023897200002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>24</v>
       </c>
@@ -6053,26 +5853,18 @@
         <v>4.9940568038400004</v>
       </c>
       <c r="H28" s="1">
+        <f t="shared" si="3"/>
+        <v>2.4970284019200002</v>
+      </c>
+      <c r="I28" s="1">
         <v>23.740902053280003</v>
       </c>
-      <c r="Q28" s="1">
-        <f t="shared" si="3"/>
-        <v>680</v>
-      </c>
-      <c r="R28" s="26">
+      <c r="J28" s="1">
         <f t="shared" si="4"/>
-        <v>-0.45726465867517163</v>
-      </c>
-      <c r="S28" s="1">
-        <f t="shared" si="5"/>
-        <v>24.970284019200001</v>
-      </c>
-      <c r="T28" s="1">
-        <f t="shared" si="6"/>
-        <v>118.70451026640001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>11.870451026640001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>25</v>
       </c>
@@ -6098,26 +5890,18 @@
         <v>5.4481168761600003</v>
       </c>
       <c r="H29" s="1">
+        <f t="shared" si="3"/>
+        <v>2.7240584380800001</v>
+      </c>
+      <c r="I29" s="1">
         <v>24.28049004192</v>
       </c>
-      <c r="Q29" s="1">
-        <f t="shared" si="3"/>
-        <v>670</v>
-      </c>
-      <c r="R29" s="26">
+      <c r="J29" s="1">
         <f t="shared" si="4"/>
-        <v>9.0836280804751368E-2</v>
-      </c>
-      <c r="S29" s="1">
-        <f t="shared" si="5"/>
-        <v>27.240584380800001</v>
-      </c>
-      <c r="T29" s="1">
-        <f t="shared" si="6"/>
-        <v>121.4024502096</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12.14024502096</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>26</v>
       </c>
@@ -6143,26 +5927,18 @@
         <v>5.2628595885600005</v>
       </c>
       <c r="H30" s="1">
+        <f t="shared" si="3"/>
+        <v>2.6314297942800002</v>
+      </c>
+      <c r="I30" s="1">
         <v>24.883383466560002</v>
       </c>
-      <c r="Q30" s="1">
-        <f t="shared" si="3"/>
-        <v>660</v>
-      </c>
-      <c r="R30" s="26">
+      <c r="J30" s="1">
         <f t="shared" si="4"/>
-        <v>0.26491250297965507</v>
-      </c>
-      <c r="S30" s="1">
-        <f t="shared" si="5"/>
-        <v>26.314297942800003</v>
-      </c>
-      <c r="T30" s="1">
-        <f t="shared" si="6"/>
-        <v>124.41691733280001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12.441691733280001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>27</v>
       </c>
@@ -6188,26 +5964,18 @@
         <v>5.03057141712</v>
       </c>
       <c r="H31" s="1">
+        <f t="shared" si="3"/>
+        <v>2.51528570856</v>
+      </c>
+      <c r="I31" s="1">
         <v>24.013027279919999</v>
       </c>
-      <c r="Q31" s="1">
-        <f t="shared" si="3"/>
-        <v>650</v>
-      </c>
-      <c r="R31" s="26">
+      <c r="J31" s="1">
         <f t="shared" si="4"/>
-        <v>0.5945178595300149</v>
-      </c>
-      <c r="S31" s="1">
-        <f t="shared" si="5"/>
-        <v>25.152857085600001</v>
-      </c>
-      <c r="T31" s="1">
-        <f t="shared" si="6"/>
-        <v>120.06513639959999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12.00651363996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>28</v>
       </c>
@@ -6233,26 +6001,18 @@
         <v>3.9435633600000002</v>
       </c>
       <c r="H32" s="1">
+        <f t="shared" si="3"/>
+        <v>1.9717816800000001</v>
+      </c>
+      <c r="I32" s="1">
         <v>24.28049004192</v>
       </c>
-      <c r="Q32" s="1">
-        <f t="shared" si="3"/>
-        <v>640</v>
-      </c>
-      <c r="R32" s="26">
+      <c r="J32" s="1">
         <f t="shared" si="4"/>
-        <v>0.92807619033976607</v>
-      </c>
-      <c r="S32" s="1">
-        <f t="shared" si="5"/>
-        <v>19.717816800000001</v>
-      </c>
-      <c r="T32" s="1">
-        <f t="shared" si="6"/>
-        <v>121.4024502096</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12.14024502096</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>29</v>
       </c>
@@ -6278,26 +6038,18 @@
         <v>5.2580744114400009</v>
       </c>
       <c r="H33" s="1">
+        <f t="shared" si="3"/>
+        <v>2.6290372057200004</v>
+      </c>
+      <c r="I33" s="1">
         <v>23.897873870399998</v>
       </c>
-      <c r="Q33" s="1">
-        <f t="shared" si="3"/>
-        <v>630</v>
-      </c>
-      <c r="R33" s="26">
+      <c r="J33" s="1">
         <f t="shared" si="4"/>
-        <v>0.88818353713975284</v>
-      </c>
-      <c r="S33" s="1">
-        <f t="shared" si="5"/>
-        <v>26.290372057200003</v>
-      </c>
-      <c r="T33" s="1">
-        <f t="shared" si="6"/>
-        <v>119.48936935199998</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>11.948936935199999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>30</v>
       </c>
@@ -6323,26 +6075,18 @@
         <v>5.2580744114400009</v>
       </c>
       <c r="H34" s="1">
+        <f t="shared" si="3"/>
+        <v>2.6290372057200004</v>
+      </c>
+      <c r="I34" s="1">
         <v>23.897873870399998</v>
       </c>
-      <c r="Q34" s="1">
-        <f t="shared" si="3"/>
-        <v>620</v>
-      </c>
-      <c r="R34" s="26">
+      <c r="J34" s="1">
         <f t="shared" si="4"/>
-        <v>0.96581054502962616</v>
-      </c>
-      <c r="S34" s="1">
-        <f t="shared" si="5"/>
-        <v>26.290372057200003</v>
-      </c>
-      <c r="T34" s="1">
-        <f t="shared" si="6"/>
-        <v>119.48936935199998</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>11.948936935199999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>31</v>
       </c>
@@ -6368,26 +6112,18 @@
         <v>6.1743638361600004</v>
       </c>
       <c r="H35" s="1">
+        <f t="shared" si="3"/>
+        <v>3.0871819180800002</v>
+      </c>
+      <c r="I35" s="1">
         <v>23.3547512076</v>
       </c>
-      <c r="Q35" s="1">
-        <f t="shared" si="3"/>
-        <v>610</v>
-      </c>
-      <c r="R35" s="26">
+      <c r="J35" s="1">
         <f t="shared" si="4"/>
-        <v>1.2064108265047935</v>
-      </c>
-      <c r="S35" s="1">
-        <f t="shared" si="5"/>
-        <v>30.871819180800003</v>
-      </c>
-      <c r="T35" s="1">
-        <f t="shared" si="6"/>
-        <v>116.773756038</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>11.6773756038</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>32</v>
       </c>
@@ -6402,7 +6138,7 @@
         <v>998.50897193170294</v>
       </c>
       <c r="E36" s="1">
-        <f t="shared" ref="E36:E67" si="7">-0.0227478712*B36+999.747562975</f>
+        <f t="shared" ref="E36:E67" si="5">-0.0227478712*B36+999.747562975</f>
         <v>998.29169921820005</v>
       </c>
       <c r="F36" s="26">
@@ -6413,26 +6149,18 @@
         <v>5.6001512075999997</v>
       </c>
       <c r="H36" s="1">
+        <f t="shared" si="3"/>
+        <v>2.8000756037999999</v>
+      </c>
+      <c r="I36" s="1">
         <v>22.811628544800001</v>
       </c>
-      <c r="Q36" s="1">
-        <f t="shared" si="3"/>
-        <v>600</v>
-      </c>
-      <c r="R36" s="26">
+      <c r="J36" s="1">
         <f t="shared" si="4"/>
-        <v>1.0863635675144678</v>
-      </c>
-      <c r="S36" s="1">
-        <f t="shared" si="5"/>
-        <v>28.000756037999999</v>
-      </c>
-      <c r="T36" s="1">
-        <f t="shared" si="6"/>
-        <v>114.05814272400001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>11.405814272400001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>33</v>
       </c>
@@ -6447,7 +6175,7 @@
         <v>998.48091299606904</v>
       </c>
       <c r="E37" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>998.24620347580003</v>
       </c>
       <c r="F37" s="26">
@@ -6458,26 +6186,18 @@
         <v>3.9381378285600004</v>
       </c>
       <c r="H37" s="1">
+        <f t="shared" si="3"/>
+        <v>1.9690689142800002</v>
+      </c>
+      <c r="I37" s="1">
         <v>21.095482137120001</v>
       </c>
-      <c r="Q37" s="1">
-        <f t="shared" si="3"/>
-        <v>590</v>
-      </c>
-      <c r="R37" s="26">
+      <c r="J37" s="1">
         <f t="shared" si="4"/>
-        <v>1.1735476013450352</v>
-      </c>
-      <c r="S37" s="1">
-        <f t="shared" si="5"/>
-        <v>19.690689142800004</v>
-      </c>
-      <c r="T37" s="1">
-        <f t="shared" si="6"/>
-        <v>105.47741068560001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>10.547741068560001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>34</v>
       </c>
@@ -6492,7 +6212,7 @@
         <v>998.43793274045197</v>
       </c>
       <c r="E38" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>998.20070773340001</v>
       </c>
       <c r="F38" s="26">
@@ -6503,26 +6223,18 @@
         <v>6.2947297219199996</v>
       </c>
       <c r="H38" s="1">
+        <f t="shared" si="3"/>
+        <v>3.1473648609599998</v>
+      </c>
+      <c r="I38" s="1">
         <v>20.095952442000002</v>
       </c>
-      <c r="Q38" s="1">
-        <f t="shared" si="3"/>
-        <v>580</v>
-      </c>
-      <c r="R38" s="26">
+      <c r="J38" s="1">
         <f t="shared" si="4"/>
-        <v>1.1861250352598063</v>
-      </c>
-      <c r="S38" s="1">
-        <f t="shared" si="5"/>
-        <v>31.473648609599998</v>
-      </c>
-      <c r="T38" s="1">
-        <f t="shared" si="6"/>
-        <v>100.47976221</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>10.047976221000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>35</v>
       </c>
@@ -6537,7 +6249,7 @@
         <v>998.32268503914804</v>
       </c>
       <c r="E39" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>998.1552119910001</v>
       </c>
       <c r="F39" s="26">
@@ -6548,26 +6260,18 @@
         <v>6.5265911733599999</v>
       </c>
       <c r="H39" s="1">
+        <f t="shared" si="3"/>
+        <v>3.26329558668</v>
+      </c>
+      <c r="I39" s="1">
         <v>17.92339784376</v>
       </c>
-      <c r="Q39" s="1">
-        <f t="shared" si="3"/>
-        <v>570</v>
-      </c>
-      <c r="R39" s="26">
+      <c r="J39" s="1">
         <f t="shared" si="4"/>
-        <v>0.83736524073970031</v>
-      </c>
-      <c r="S39" s="1">
-        <f t="shared" si="5"/>
-        <v>32.632955866800003</v>
-      </c>
-      <c r="T39" s="1">
-        <f t="shared" si="6"/>
-        <v>89.616989218800001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8.9616989218800001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>36</v>
       </c>
@@ -6582,7 +6286,7 @@
         <v>998.36567817215803</v>
       </c>
       <c r="E40" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>998.10971624860008</v>
       </c>
       <c r="F40" s="26">
@@ -6593,26 +6297,18 @@
         <v>5.5903064419200001</v>
       </c>
       <c r="H40" s="1">
+        <f t="shared" si="3"/>
+        <v>2.7951532209600001</v>
+      </c>
+      <c r="I40" s="1">
         <v>17.224948613280002</v>
       </c>
-      <c r="Q40" s="1">
-        <f t="shared" si="3"/>
-        <v>560</v>
-      </c>
-      <c r="R40" s="26">
+      <c r="J40" s="1">
         <f t="shared" si="4"/>
-        <v>1.2798096177897378</v>
-      </c>
-      <c r="S40" s="1">
-        <f t="shared" si="5"/>
-        <v>27.9515322096</v>
-      </c>
-      <c r="T40" s="1">
-        <f t="shared" si="6"/>
-        <v>86.124743066400015</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8.6124743066400011</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>37</v>
       </c>
@@ -6627,7 +6323,7 @@
         <v>998.40657596852304</v>
       </c>
       <c r="E41" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>998.06422050620006</v>
       </c>
       <c r="F41" s="26">
@@ -6638,26 +6334,18 @@
         <v>5.2508504380799996</v>
       </c>
       <c r="H41" s="1">
+        <f t="shared" si="3"/>
+        <v>2.6254252190399998</v>
+      </c>
+      <c r="I41" s="1">
         <v>17.727259805759999</v>
       </c>
-      <c r="Q41" s="1">
-        <f t="shared" si="3"/>
-        <v>550</v>
-      </c>
-      <c r="R41" s="26">
+      <c r="J41" s="1">
         <f t="shared" si="4"/>
-        <v>1.7117773116149237</v>
-      </c>
-      <c r="S41" s="1">
-        <f t="shared" si="5"/>
-        <v>26.254252190399999</v>
-      </c>
-      <c r="T41" s="1">
-        <f t="shared" si="6"/>
-        <v>88.636299028799996</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8.8636299028799996</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>38</v>
       </c>
@@ -6672,7 +6360,7 @@
         <v>998.359410484406</v>
       </c>
       <c r="E42" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>998.01872476380004</v>
       </c>
       <c r="F42" s="26">
@@ -6683,26 +6371,18 @@
         <v>6.4513056343200006</v>
       </c>
       <c r="H42" s="1">
+        <f t="shared" si="3"/>
+        <v>3.2256528171600003</v>
+      </c>
+      <c r="I42" s="1">
         <v>16.370320533360001</v>
       </c>
-      <c r="Q42" s="1">
-        <f t="shared" si="3"/>
-        <v>540</v>
-      </c>
-      <c r="R42" s="26">
+      <c r="J42" s="1">
         <f t="shared" si="4"/>
-        <v>1.7034286030298063</v>
-      </c>
-      <c r="S42" s="1">
-        <f t="shared" si="5"/>
-        <v>32.256528171600003</v>
-      </c>
-      <c r="T42" s="1">
-        <f t="shared" si="6"/>
-        <v>81.851602666800005</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8.1851602666800005</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>39</v>
       </c>
@@ -6717,7 +6397,7 @@
         <v>998.34677527273595</v>
       </c>
       <c r="E43" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>997.97322902140002</v>
       </c>
       <c r="F43" s="26">
@@ -6728,26 +6408,18 @@
         <v>4.6768816800000002</v>
       </c>
       <c r="H43" s="1">
+        <f t="shared" si="3"/>
+        <v>2.3384408400000001</v>
+      </c>
+      <c r="I43" s="1">
         <v>15.342077489520001</v>
       </c>
-      <c r="Q43" s="1">
-        <f t="shared" si="3"/>
-        <v>530</v>
-      </c>
-      <c r="R43" s="26">
+      <c r="J43" s="1">
         <f t="shared" si="4"/>
-        <v>1.86773125667969</v>
-      </c>
-      <c r="S43" s="1">
-        <f t="shared" si="5"/>
-        <v>23.384408400000002</v>
-      </c>
-      <c r="T43" s="1">
-        <f t="shared" si="6"/>
-        <v>76.710387447599999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7.6710387447600006</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>40</v>
       </c>
@@ -6762,7 +6434,7 @@
         <v>998.25138199935304</v>
       </c>
       <c r="E44" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>997.92773327899999</v>
       </c>
       <c r="F44" s="26">
@@ -6773,26 +6445,18 @@
         <v>2.2041490384800002</v>
       </c>
       <c r="H44" s="1">
+        <f t="shared" si="3"/>
+        <v>1.1020745192400001</v>
+      </c>
+      <c r="I44" s="1">
         <v>16.224960803760002</v>
       </c>
-      <c r="Q44" s="1">
-        <f t="shared" si="3"/>
-        <v>520</v>
-      </c>
-      <c r="R44" s="26">
+      <c r="J44" s="1">
         <f t="shared" si="4"/>
-        <v>1.6182436017652435</v>
-      </c>
-      <c r="S44" s="1">
-        <f t="shared" si="5"/>
-        <v>11.020745192400001</v>
-      </c>
-      <c r="T44" s="1">
-        <f t="shared" si="6"/>
-        <v>81.124804018800006</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8.112480401880001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>41</v>
       </c>
@@ -6807,7 +6471,7 @@
         <v>998.21662362720701</v>
       </c>
       <c r="E45" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>997.88223753660009</v>
       </c>
       <c r="F45" s="26">
@@ -6818,26 +6482,18 @@
         <v>2.4360072590400002</v>
       </c>
       <c r="H45" s="1">
+        <f t="shared" si="3"/>
+        <v>1.2180036295200001</v>
+      </c>
+      <c r="I45" s="1">
         <v>16.825874125680002</v>
       </c>
-      <c r="Q45" s="1">
-        <f t="shared" si="3"/>
-        <v>510</v>
-      </c>
-      <c r="R45" s="26">
+      <c r="J45" s="1">
         <f t="shared" si="4"/>
-        <v>1.6719304530346335</v>
-      </c>
-      <c r="S45" s="1">
-        <f t="shared" si="5"/>
-        <v>12.180036295200001</v>
-      </c>
-      <c r="T45" s="1">
-        <f t="shared" si="6"/>
-        <v>84.129370628400011</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8.4129370628400011</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>42</v>
       </c>
@@ -6852,7 +6508,7 @@
         <v>998.15137273320204</v>
       </c>
       <c r="E46" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>997.83674179420007</v>
       </c>
       <c r="F46" s="26">
@@ -6863,26 +6519,18 @@
         <v>4.4606870400000007</v>
       </c>
       <c r="H46" s="1">
+        <f t="shared" si="3"/>
+        <v>2.2303435200000004</v>
+      </c>
+      <c r="I46" s="1">
         <v>15.624017245680001</v>
       </c>
-      <c r="Q46" s="1">
-        <f t="shared" si="3"/>
-        <v>500</v>
-      </c>
-      <c r="R46" s="26">
+      <c r="J46" s="1">
         <f t="shared" si="4"/>
-        <v>1.5731546950098618</v>
-      </c>
-      <c r="S46" s="1">
-        <f t="shared" si="5"/>
-        <v>22.303435200000003</v>
-      </c>
-      <c r="T46" s="1">
-        <f t="shared" si="6"/>
-        <v>78.120086228399998</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7.8120086228400005</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43</v>
       </c>
@@ -6897,7 +6545,7 @@
         <v>998.06839658030901</v>
       </c>
       <c r="E47" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>997.79124605180004</v>
       </c>
       <c r="F47" s="26">
@@ -6908,26 +6556,18 @@
         <v>6.22596647616</v>
       </c>
       <c r="H47" s="1">
+        <f t="shared" si="3"/>
+        <v>3.11298323808</v>
+      </c>
+      <c r="I47" s="1">
         <v>16.224960803760002</v>
       </c>
-      <c r="Q47" s="1">
-        <f t="shared" si="3"/>
-        <v>490</v>
-      </c>
-      <c r="R47" s="26">
+      <c r="J47" s="1">
         <f t="shared" si="4"/>
-        <v>1.3857526425448441</v>
-      </c>
-      <c r="S47" s="1">
-        <f t="shared" si="5"/>
-        <v>31.1298323808</v>
-      </c>
-      <c r="T47" s="1">
-        <f t="shared" si="6"/>
-        <v>81.124804018800006</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8.112480401880001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>44</v>
       </c>
@@ -6942,7 +6582,7 @@
         <v>997.99487307974198</v>
       </c>
       <c r="E48" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>997.74575030940002</v>
       </c>
       <c r="F48" s="26">
@@ -6953,26 +6593,18 @@
         <v>5.6599836000000003</v>
       </c>
       <c r="H48" s="1">
+        <f t="shared" si="3"/>
+        <v>2.8299918000000002</v>
+      </c>
+      <c r="I48" s="1">
         <v>15.323576281919999</v>
       </c>
-      <c r="Q48" s="1">
-        <f t="shared" si="3"/>
-        <v>480</v>
-      </c>
-      <c r="R48" s="26">
+      <c r="J48" s="1">
         <f t="shared" si="4"/>
-        <v>1.245613851709777</v>
-      </c>
-      <c r="S48" s="1">
-        <f t="shared" si="5"/>
-        <v>28.299918000000002</v>
-      </c>
-      <c r="T48" s="1">
-        <f t="shared" si="6"/>
-        <v>76.617881409600002</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7.6617881409599997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>45</v>
       </c>
@@ -6987,7 +6619,7 @@
         <v>997.87972164733299</v>
       </c>
       <c r="E49" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>997.700254567</v>
       </c>
       <c r="F49" s="26">
@@ -6998,26 +6630,18 @@
         <v>7.3579636838399995</v>
       </c>
       <c r="H49" s="1">
+        <f t="shared" si="3"/>
+        <v>3.6789818419199998</v>
+      </c>
+      <c r="I49" s="1">
         <v>14.422190601840001</v>
       </c>
-      <c r="Q49" s="1">
-        <f t="shared" si="3"/>
-        <v>470</v>
-      </c>
-      <c r="R49" s="26">
+      <c r="J49" s="1">
         <f t="shared" si="4"/>
-        <v>0.89733540166491821</v>
-      </c>
-      <c r="S49" s="1">
-        <f t="shared" si="5"/>
-        <v>36.789818419199996</v>
-      </c>
-      <c r="T49" s="1">
-        <f t="shared" si="6"/>
-        <v>72.110953009200003</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7.2110953009200003</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>46</v>
       </c>
@@ -7032,7 +6656,7 @@
         <v>997.80386437664697</v>
       </c>
       <c r="E50" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>997.65475882460009</v>
       </c>
       <c r="F50" s="26">
@@ -7043,26 +6667,18 @@
         <v>7.1752969219200011</v>
       </c>
       <c r="H50" s="1">
+        <f t="shared" si="3"/>
+        <v>3.5876484609600006</v>
+      </c>
+      <c r="I50" s="1">
         <v>14.060027851440001</v>
       </c>
-      <c r="Q50" s="1">
-        <f t="shared" si="3"/>
-        <v>460</v>
-      </c>
-      <c r="R50" s="26">
+      <c r="J50" s="1">
         <f t="shared" si="4"/>
-        <v>0.74552776023438128</v>
-      </c>
-      <c r="S50" s="1">
-        <f t="shared" si="5"/>
-        <v>35.876484609600006</v>
-      </c>
-      <c r="T50" s="1">
-        <f t="shared" si="6"/>
-        <v>70.300139257200001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7.0300139257200005</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>47</v>
       </c>
@@ -7077,7 +6693,7 @@
         <v>997.71900235609803</v>
       </c>
       <c r="E51" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>997.60926308220007</v>
       </c>
       <c r="F51" s="26">
@@ -7088,26 +6704,18 @@
         <v>9.0559431580799998</v>
       </c>
       <c r="H51" s="1">
+        <f t="shared" si="3"/>
+        <v>4.5279715790399999</v>
+      </c>
+      <c r="I51" s="1">
         <v>13.038978544800001</v>
       </c>
-      <c r="Q51" s="1">
-        <f t="shared" si="3"/>
-        <v>450</v>
-      </c>
-      <c r="R51" s="26">
+      <c r="J51" s="1">
         <f t="shared" si="4"/>
-        <v>0.5486963694897895</v>
-      </c>
-      <c r="S51" s="1">
-        <f t="shared" si="5"/>
-        <v>45.279715790399997</v>
-      </c>
-      <c r="T51" s="1">
-        <f t="shared" si="6"/>
-        <v>65.194892723999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6.5194892724000004</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>48</v>
       </c>
@@ -7122,7 +6730,7 @@
         <v>997.61845375013797</v>
       </c>
       <c r="E52" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>997.56376733980005</v>
       </c>
       <c r="F52" s="26">
@@ -7133,26 +6741,18 @@
         <v>9.2788132838400017</v>
       </c>
       <c r="H52" s="1">
+        <f t="shared" si="3"/>
+        <v>4.6394066419200009</v>
+      </c>
+      <c r="I52" s="1">
         <v>13.979499020880001</v>
       </c>
-      <c r="Q52" s="1">
-        <f t="shared" si="3"/>
-        <v>440</v>
-      </c>
-      <c r="R52" s="26">
+      <c r="J52" s="1">
         <f t="shared" si="4"/>
-        <v>0.27343205168961049</v>
-      </c>
-      <c r="S52" s="1">
-        <f t="shared" si="5"/>
-        <v>46.394066419200009</v>
-      </c>
-      <c r="T52" s="1">
-        <f t="shared" si="6"/>
-        <v>69.897495104400008</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6.9897495104400003</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>49</v>
       </c>
@@ -7167,7 +6767,7 @@
         <v>997.41253044899895</v>
       </c>
       <c r="E53" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>997.51827159740003</v>
       </c>
       <c r="F53" s="26">
@@ -7178,26 +6778,18 @@
         <v>9.9360528228000007</v>
       </c>
       <c r="H53" s="1">
+        <f t="shared" si="3"/>
+        <v>4.9680264114000003</v>
+      </c>
+      <c r="I53" s="1">
         <v>11.437772796240001</v>
       </c>
-      <c r="Q53" s="1">
-        <f t="shared" si="3"/>
-        <v>430</v>
-      </c>
-      <c r="R53" s="26">
+      <c r="J53" s="1">
         <f t="shared" si="4"/>
-        <v>-0.52870574200539977</v>
-      </c>
-      <c r="S53" s="1">
-        <f t="shared" si="5"/>
-        <v>49.680264114000003</v>
-      </c>
-      <c r="T53" s="1">
-        <f t="shared" si="6"/>
-        <v>57.188863981200001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5.7188863981200004</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>50</v>
       </c>
@@ -7212,7 +6804,7 @@
         <v>997.18064394553096</v>
       </c>
       <c r="E54" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>997.47277585500001</v>
       </c>
       <c r="F54" s="26">
@@ -7223,26 +6815,18 @@
         <v>9.4131079809600013</v>
       </c>
       <c r="H54" s="1">
+        <f t="shared" si="3"/>
+        <v>4.7065539904800007</v>
+      </c>
+      <c r="I54" s="1">
         <v>11.978304902880001</v>
       </c>
-      <c r="Q54" s="1">
-        <f t="shared" si="3"/>
-        <v>420</v>
-      </c>
-      <c r="R54" s="26">
+      <c r="J54" s="1">
         <f t="shared" si="4"/>
-        <v>-1.4606595473452444</v>
-      </c>
-      <c r="S54" s="1">
-        <f t="shared" si="5"/>
-        <v>47.065539904800005</v>
-      </c>
-      <c r="T54" s="1">
-        <f t="shared" si="6"/>
-        <v>59.891524514400004</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5.9891524514400007</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>51</v>
       </c>
@@ -7257,7 +6841,7 @@
         <v>996.88817521392298</v>
       </c>
       <c r="E55" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>997.4272801126001</v>
       </c>
       <c r="F55" s="26">
@@ -7268,26 +6852,18 @@
         <v>8.8901625904799992</v>
       </c>
       <c r="H55" s="1">
+        <f t="shared" si="3"/>
+        <v>4.4450812952399996</v>
+      </c>
+      <c r="I55" s="1">
         <v>10.50029861328</v>
       </c>
-      <c r="Q55" s="1">
-        <f t="shared" si="3"/>
-        <v>410</v>
-      </c>
-      <c r="R55" s="26">
+      <c r="J55" s="1">
         <f t="shared" si="4"/>
-        <v>-2.6955244933856193</v>
-      </c>
-      <c r="S55" s="1">
-        <f t="shared" si="5"/>
-        <v>44.4508129524</v>
-      </c>
-      <c r="T55" s="1">
-        <f t="shared" si="6"/>
-        <v>52.501493066400002</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5.25014930664</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>52</v>
       </c>
@@ -7302,7 +6878,7 @@
         <v>996.81473311166906</v>
       </c>
       <c r="E56" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>997.38178437020008</v>
       </c>
       <c r="F56" s="26">
@@ -7313,26 +6889,18 @@
         <v>9.9360528228000007</v>
       </c>
       <c r="H56" s="1">
+        <f t="shared" si="3"/>
+        <v>4.9680264114000003</v>
+      </c>
+      <c r="I56" s="1">
         <v>10.65449732952</v>
       </c>
-      <c r="Q56" s="1">
-        <f t="shared" si="3"/>
-        <v>400</v>
-      </c>
-      <c r="R56" s="26">
+      <c r="J56" s="1">
         <f t="shared" si="4"/>
-        <v>-2.8352562926551172</v>
-      </c>
-      <c r="S56" s="1">
-        <f t="shared" si="5"/>
-        <v>49.680264114000003</v>
-      </c>
-      <c r="T56" s="1">
-        <f t="shared" si="6"/>
-        <v>53.272486647599997</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5.3272486647599999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>53</v>
       </c>
@@ -7347,7 +6915,7 @@
         <v>996.79623203971903</v>
       </c>
       <c r="E57" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>997.33628862780006</v>
       </c>
       <c r="F57" s="26">
@@ -7358,26 +6926,18 @@
         <v>6.1463527466400008</v>
       </c>
       <c r="H57" s="1">
+        <f t="shared" si="3"/>
+        <v>3.0731763733200004</v>
+      </c>
+      <c r="I57" s="1">
         <v>11.35764044952</v>
       </c>
-      <c r="Q57" s="1">
-        <f t="shared" si="3"/>
-        <v>390</v>
-      </c>
-      <c r="R57" s="26">
+      <c r="J57" s="1">
         <f t="shared" si="4"/>
-        <v>-2.7002829404051454</v>
-      </c>
-      <c r="S57" s="1">
-        <f t="shared" si="5"/>
-        <v>30.731763733200005</v>
-      </c>
-      <c r="T57" s="1">
-        <f t="shared" si="6"/>
-        <v>56.788202247599997</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5.6788202247599999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>54</v>
       </c>
@@ -7392,7 +6952,7 @@
         <v>996.79130575490501</v>
       </c>
       <c r="E58" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>997.29079288540004</v>
       </c>
       <c r="F58" s="26">
@@ -7403,26 +6963,18 @@
         <v>6.1463527466400008</v>
       </c>
       <c r="H58" s="1">
+        <f t="shared" si="3"/>
+        <v>3.0731763733200004</v>
+      </c>
+      <c r="I58" s="1">
         <v>11.35255007616</v>
       </c>
-      <c r="Q58" s="1">
-        <f t="shared" si="3"/>
-        <v>380</v>
-      </c>
-      <c r="R58" s="26">
+      <c r="J58" s="1">
         <f t="shared" si="4"/>
-        <v>-2.4974356524751329</v>
-      </c>
-      <c r="S58" s="1">
-        <f t="shared" si="5"/>
-        <v>30.731763733200005</v>
-      </c>
-      <c r="T58" s="1">
-        <f t="shared" si="6"/>
-        <v>56.7627503808</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5.67627503808</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>55</v>
       </c>
@@ -7437,7 +6989,7 @@
         <v>996.70813517252498</v>
       </c>
       <c r="E59" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>997.24529714300002</v>
       </c>
       <c r="F59" s="26">
@@ -7448,26 +7000,18 @@
         <v>6.1463527466400008</v>
       </c>
       <c r="H59" s="1">
+        <f t="shared" si="3"/>
+        <v>3.0731763733200004</v>
+      </c>
+      <c r="I59" s="1">
         <v>9.64838316192</v>
       </c>
-      <c r="Q59" s="1">
-        <f t="shared" si="3"/>
-        <v>370</v>
-      </c>
-      <c r="R59" s="26">
+      <c r="J59" s="1">
         <f t="shared" si="4"/>
-        <v>-2.6858098523752005</v>
-      </c>
-      <c r="S59" s="1">
-        <f t="shared" si="5"/>
-        <v>30.731763733200005</v>
-      </c>
-      <c r="T59" s="1">
-        <f t="shared" si="6"/>
-        <v>48.241915809600002</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4.82419158096</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>56</v>
       </c>
@@ -7482,7 +7026,7 @@
         <v>996.65623580577699</v>
       </c>
       <c r="E60" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>997.19980140059999</v>
       </c>
       <c r="F60" s="26">
@@ -7493,26 +7037,18 @@
         <v>6.1463527466400008</v>
       </c>
       <c r="H60" s="1">
+        <f t="shared" si="3"/>
+        <v>3.0731763733200004</v>
+      </c>
+      <c r="I60" s="1">
         <v>10.93485230856</v>
       </c>
-      <c r="Q60" s="1">
-        <f t="shared" si="3"/>
-        <v>360</v>
-      </c>
-      <c r="R60" s="26">
+      <c r="J60" s="1">
         <f t="shared" si="4"/>
-        <v>-2.7178279741150391</v>
-      </c>
-      <c r="S60" s="1">
-        <f t="shared" si="5"/>
-        <v>30.731763733200005</v>
-      </c>
-      <c r="T60" s="1">
-        <f t="shared" si="6"/>
-        <v>54.674261542799997</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5.46742615428</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>57</v>
       </c>
@@ -7527,7 +7063,7 @@
         <v>996.64210770997897</v>
       </c>
       <c r="E61" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>997.15430565820009</v>
       </c>
       <c r="F61" s="26">
@@ -7538,26 +7074,18 @@
         <v>5.6341671314399999</v>
       </c>
       <c r="H61" s="1">
+        <f t="shared" si="3"/>
+        <v>2.81708356572</v>
+      </c>
+      <c r="I61" s="1">
         <v>11.578072358160002</v>
       </c>
-      <c r="Q61" s="1">
-        <f t="shared" si="3"/>
-        <v>350</v>
-      </c>
-      <c r="R61" s="26">
+      <c r="J61" s="1">
         <f t="shared" si="4"/>
-        <v>-2.5609897411055726</v>
-      </c>
-      <c r="S61" s="1">
-        <f t="shared" si="5"/>
-        <v>28.170835657200001</v>
-      </c>
-      <c r="T61" s="1">
-        <f t="shared" si="6"/>
-        <v>57.890361790800007</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5.7890361790800009</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>58</v>
       </c>
@@ -7572,7 +7100,7 @@
         <v>996.72446267731698</v>
       </c>
       <c r="E62" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>997.10880991580007</v>
       </c>
       <c r="F62" s="26">
@@ -7583,26 +7111,18 @@
         <v>5.121950731440001</v>
       </c>
       <c r="H62" s="1">
+        <f t="shared" si="3"/>
+        <v>2.5609753657200005</v>
+      </c>
+      <c r="I62" s="1">
         <v>11.578072358160002</v>
       </c>
-      <c r="Q62" s="1">
-        <f t="shared" si="3"/>
-        <v>340</v>
-      </c>
-      <c r="R62" s="26">
+      <c r="J62" s="1">
         <f t="shared" si="4"/>
-        <v>-1.9217361924154375</v>
-      </c>
-      <c r="S62" s="1">
-        <f t="shared" si="5"/>
-        <v>25.609753657200006</v>
-      </c>
-      <c r="T62" s="1">
-        <f t="shared" si="6"/>
-        <v>57.890361790800007</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5.7890361790800009</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>59</v>
       </c>
@@ -7617,7 +7137,7 @@
         <v>996.78911073871302</v>
       </c>
       <c r="E63" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>997.06331417340004</v>
       </c>
       <c r="F63" s="26">
@@ -7628,26 +7148,18 @@
         <v>4.0844724914399997</v>
       </c>
       <c r="H63" s="1">
+        <f t="shared" si="3"/>
+        <v>2.0422362457199998</v>
+      </c>
+      <c r="I63" s="1">
         <v>11.830294175279999</v>
       </c>
-      <c r="Q63" s="1">
-        <f t="shared" si="3"/>
-        <v>330</v>
-      </c>
-      <c r="R63" s="26">
+      <c r="J63" s="1">
         <f t="shared" si="4"/>
-        <v>-1.3710171734351206</v>
-      </c>
-      <c r="S63" s="1">
-        <f t="shared" si="5"/>
-        <v>20.422362457199998</v>
-      </c>
-      <c r="T63" s="1">
-        <f t="shared" si="6"/>
-        <v>59.151470876399998</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5.9151470876399994</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>60</v>
       </c>
@@ -7662,7 +7174,7 @@
         <v>996.78133163452105</v>
       </c>
       <c r="E64" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>997.01781843100002</v>
       </c>
       <c r="F64" s="26">
@@ -7673,26 +7185,18 @@
         <v>3.8826644724000001</v>
       </c>
       <c r="H64" s="1">
+        <f t="shared" si="3"/>
+        <v>1.9413322362000001</v>
+      </c>
+      <c r="I64" s="1">
         <v>12.84930174864</v>
       </c>
-      <c r="Q64" s="1">
-        <f t="shared" si="3"/>
-        <v>320</v>
-      </c>
-      <c r="R64" s="26">
+      <c r="J64" s="1">
         <f t="shared" si="4"/>
-        <v>-1.1824339823948549</v>
-      </c>
-      <c r="S64" s="1">
-        <f t="shared" si="5"/>
-        <v>19.413322362000002</v>
-      </c>
-      <c r="T64" s="1">
-        <f t="shared" si="6"/>
-        <v>64.246508743199996</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6.4246508743200001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>61</v>
       </c>
@@ -7707,7 +7211,7 @@
         <v>996.784529194078</v>
       </c>
       <c r="E65" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>996.9723226886</v>
       </c>
       <c r="F65" s="26">
@@ -7718,26 +7222,18 @@
         <v>4.0844724914399997</v>
       </c>
       <c r="H65" s="1">
+        <f t="shared" si="3"/>
+        <v>2.0422362457199998</v>
+      </c>
+      <c r="I65" s="1">
         <v>12.487656365759999</v>
       </c>
-      <c r="Q65" s="1">
-        <f t="shared" si="3"/>
-        <v>310</v>
-      </c>
-      <c r="R65" s="26">
+      <c r="J65" s="1">
         <f t="shared" si="4"/>
-        <v>-0.93896747260998836</v>
-      </c>
-      <c r="S65" s="1">
-        <f t="shared" si="5"/>
-        <v>20.422362457199998</v>
-      </c>
-      <c r="T65" s="1">
-        <f t="shared" si="6"/>
-        <v>62.438281828800001</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6.2438281828799997</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>62</v>
       </c>
@@ -7752,7 +7248,7 @@
         <v>996.81885398023405</v>
       </c>
       <c r="E66" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>996.92682694620009</v>
       </c>
       <c r="F66" s="26">
@@ -7763,26 +7259,18 @@
         <v>3.5739019200000004</v>
       </c>
       <c r="H66" s="1">
+        <f t="shared" si="3"/>
+        <v>1.7869509600000002</v>
+      </c>
+      <c r="I66" s="1">
         <v>13.72154732952</v>
       </c>
-      <c r="Q66" s="1">
-        <f t="shared" si="3"/>
-        <v>300</v>
-      </c>
-      <c r="R66" s="26">
+      <c r="J66" s="1">
         <f t="shared" si="4"/>
-        <v>-0.53986482983020778</v>
-      </c>
-      <c r="S66" s="1">
-        <f t="shared" si="5"/>
-        <v>17.869509600000001</v>
-      </c>
-      <c r="T66" s="1">
-        <f t="shared" si="6"/>
-        <v>68.607736647600007</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6.8607736647599999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>63</v>
       </c>
@@ -7797,7 +7285,7 @@
         <v>996.911396988452</v>
       </c>
       <c r="E67" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>996.88133120380007</v>
       </c>
       <c r="F67" s="26">
@@ -7808,26 +7296,18 @@
         <v>3.82377705144</v>
       </c>
       <c r="H67" s="1">
+        <f t="shared" si="3"/>
+        <v>1.91188852572</v>
+      </c>
+      <c r="I67" s="1">
         <v>12.864511268640001</v>
       </c>
-      <c r="Q67" s="1">
-        <f t="shared" si="3"/>
-        <v>290</v>
-      </c>
-      <c r="R67" s="26">
+      <c r="J67" s="1">
         <f t="shared" si="4"/>
-        <v>0.15032892325962166</v>
-      </c>
-      <c r="S67" s="1">
-        <f t="shared" si="5"/>
-        <v>19.118885257199999</v>
-      </c>
-      <c r="T67" s="1">
-        <f t="shared" si="6"/>
-        <v>64.322556343200006</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6.4322556343200006</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>64</v>
       </c>
@@ -7842,7 +7322,7 @@
         <v>996.88809644481796</v>
       </c>
       <c r="E68" s="1">
-        <f t="shared" ref="E68:E96" si="8">-0.0227478712*B68+999.747562975</f>
+        <f t="shared" ref="E68:E96" si="6">-0.0227478712*B68+999.747562975</f>
         <v>996.83583546140005</v>
       </c>
       <c r="F68" s="26">
@@ -7853,26 +7333,18 @@
         <v>4.7173286400000007</v>
       </c>
       <c r="H68" s="1">
+        <f t="shared" si="3"/>
+        <v>2.3586643200000004</v>
+      </c>
+      <c r="I68" s="1">
         <v>12.864511268640001</v>
       </c>
-      <c r="Q68" s="1">
-        <f t="shared" si="3"/>
-        <v>280</v>
-      </c>
-      <c r="R68" s="26">
+      <c r="J68" s="1">
         <f t="shared" si="4"/>
-        <v>0.26130491708954651</v>
-      </c>
-      <c r="S68" s="1">
-        <f t="shared" si="5"/>
-        <v>23.586643200000005</v>
-      </c>
-      <c r="T68" s="1">
-        <f t="shared" si="6"/>
-        <v>64.322556343200006</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6.4322556343200006</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>65</v>
       </c>
@@ -7880,44 +7352,36 @@
         <v>130</v>
       </c>
       <c r="C69" s="1">
-        <f t="shared" ref="C69:C96" si="9">$B$96-B69</f>
+        <f t="shared" ref="C69:C96" si="7">$B$96-B69</f>
         <v>54</v>
       </c>
       <c r="D69" s="25">
         <v>996.90540322839502</v>
       </c>
       <c r="E69" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>996.79033971900003</v>
       </c>
       <c r="F69" s="26">
-        <f t="shared" ref="F69:F96" si="10">D69-E69</f>
+        <f t="shared" ref="F69:F96" si="8">D69-E69</f>
         <v>0.11506350939498589</v>
       </c>
       <c r="G69" s="1">
         <v>4.7173286400000007</v>
       </c>
       <c r="H69" s="1">
+        <f t="shared" ref="H69:H96" si="9">G69/2</f>
+        <v>2.3586643200000004</v>
+      </c>
+      <c r="I69" s="1">
         <v>12.835372358160001</v>
       </c>
-      <c r="Q69" s="1">
-        <f t="shared" ref="Q69:Q96" si="11">C69*5</f>
-        <v>270</v>
-      </c>
-      <c r="R69" s="26">
-        <f t="shared" ref="R69:R96" si="12">F69*5</f>
-        <v>0.57531754697492943</v>
-      </c>
-      <c r="S69" s="1">
-        <f t="shared" ref="S69:S96" si="13">G69*5</f>
-        <v>23.586643200000005</v>
-      </c>
-      <c r="T69" s="1">
-        <f t="shared" ref="T69:T96" si="14">H69*5</f>
-        <v>64.176861790800004</v>
-      </c>
-    </row>
-    <row r="70" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J69" s="1">
+        <f t="shared" ref="J69:J96" si="10">I69/2</f>
+        <v>6.4176861790800004</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>66</v>
       </c>
@@ -7925,44 +7389,36 @@
         <v>132</v>
       </c>
       <c r="C70" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>52</v>
       </c>
       <c r="D70" s="25">
         <v>996.91490232752005</v>
       </c>
       <c r="E70" s="1">
+        <f t="shared" si="6"/>
+        <v>996.74484397660001</v>
+      </c>
+      <c r="F70" s="26">
         <f t="shared" si="8"/>
-        <v>996.74484397660001</v>
-      </c>
-      <c r="F70" s="26">
-        <f t="shared" si="10"/>
         <v>0.17005835092004418</v>
       </c>
       <c r="G70" s="1">
         <v>5.2414626285600008</v>
       </c>
       <c r="H70" s="1">
+        <f t="shared" si="9"/>
+        <v>2.6207313142800004</v>
+      </c>
+      <c r="I70" s="1">
         <v>11.621567379120002</v>
       </c>
-      <c r="Q70" s="1">
-        <f t="shared" si="11"/>
-        <v>260</v>
-      </c>
-      <c r="R70" s="26">
-        <f t="shared" si="12"/>
-        <v>0.85029175460022088</v>
-      </c>
-      <c r="S70" s="1">
-        <f t="shared" si="13"/>
-        <v>26.207313142800004</v>
-      </c>
-      <c r="T70" s="1">
-        <f t="shared" si="14"/>
-        <v>58.107836895600009</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J70" s="1">
+        <f t="shared" si="10"/>
+        <v>5.8107836895600009</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>67</v>
       </c>
@@ -7970,44 +7426,36 @@
         <v>134</v>
       </c>
       <c r="C71" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="D71" s="25">
         <v>996.93001384210095</v>
       </c>
       <c r="E71" s="1">
+        <f t="shared" si="6"/>
+        <v>996.6993482342001</v>
+      </c>
+      <c r="F71" s="26">
         <f t="shared" si="8"/>
-        <v>996.6993482342001</v>
-      </c>
-      <c r="F71" s="26">
-        <f t="shared" si="10"/>
         <v>0.23066560790084623</v>
       </c>
       <c r="G71" s="1">
         <v>4.9291648228800007</v>
       </c>
       <c r="H71" s="1">
+        <f t="shared" si="9"/>
+        <v>2.4645824114400003</v>
+      </c>
+      <c r="I71" s="1">
         <v>12.864511268640001</v>
       </c>
-      <c r="Q71" s="1">
-        <f t="shared" si="11"/>
-        <v>250</v>
-      </c>
-      <c r="R71" s="26">
-        <f t="shared" si="12"/>
-        <v>1.1533280395042311</v>
-      </c>
-      <c r="S71" s="1">
-        <f t="shared" si="13"/>
-        <v>24.645824114400003</v>
-      </c>
-      <c r="T71" s="1">
-        <f t="shared" si="14"/>
-        <v>64.322556343200006</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J71" s="1">
+        <f t="shared" si="10"/>
+        <v>6.4322556343200006</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>68</v>
       </c>
@@ -8015,44 +7463,36 @@
         <v>136</v>
       </c>
       <c r="C72" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>48</v>
       </c>
       <c r="D72" s="25">
         <v>996.90236093524902</v>
       </c>
       <c r="E72" s="1">
+        <f t="shared" si="6"/>
+        <v>996.65385249180008</v>
+      </c>
+      <c r="F72" s="26">
         <f t="shared" si="8"/>
-        <v>996.65385249180008</v>
-      </c>
-      <c r="F72" s="26">
-        <f t="shared" si="10"/>
         <v>0.24850844344894085</v>
       </c>
       <c r="G72" s="1">
         <v>5.5453179009599998</v>
       </c>
       <c r="H72" s="1">
+        <f t="shared" si="9"/>
+        <v>2.7726589504799999</v>
+      </c>
+      <c r="I72" s="1">
         <v>13.388828106720002</v>
       </c>
-      <c r="Q72" s="1">
-        <f t="shared" si="11"/>
-        <v>240</v>
-      </c>
-      <c r="R72" s="26">
-        <f t="shared" si="12"/>
-        <v>1.2425422172447043</v>
-      </c>
-      <c r="S72" s="1">
-        <f t="shared" si="13"/>
-        <v>27.7265895048</v>
-      </c>
-      <c r="T72" s="1">
-        <f t="shared" si="14"/>
-        <v>66.944140533600006</v>
-      </c>
-    </row>
-    <row r="73" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J72" s="1">
+        <f t="shared" si="10"/>
+        <v>6.6944140533600009</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>69</v>
       </c>
@@ -8060,44 +7500,36 @@
         <v>138</v>
       </c>
       <c r="C73" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>46</v>
       </c>
       <c r="D73" s="25">
         <v>996.89474024707897</v>
       </c>
       <c r="E73" s="1">
+        <f t="shared" si="6"/>
+        <v>996.60835674940006</v>
+      </c>
+      <c r="F73" s="26">
         <f t="shared" si="8"/>
-        <v>996.60835674940006</v>
-      </c>
-      <c r="F73" s="26">
-        <f t="shared" si="10"/>
         <v>0.28638349767891214</v>
       </c>
       <c r="G73" s="1">
         <v>5.3842922743199999</v>
       </c>
       <c r="H73" s="1">
+        <f t="shared" si="9"/>
+        <v>2.69214613716</v>
+      </c>
+      <c r="I73" s="1">
         <v>13.154131984800001</v>
       </c>
-      <c r="Q73" s="1">
-        <f t="shared" si="11"/>
-        <v>230</v>
-      </c>
-      <c r="R73" s="26">
-        <f t="shared" si="12"/>
-        <v>1.4319174883945607</v>
-      </c>
-      <c r="S73" s="1">
-        <f t="shared" si="13"/>
-        <v>26.9214613716</v>
-      </c>
-      <c r="T73" s="1">
-        <f t="shared" si="14"/>
-        <v>65.770659924</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J73" s="1">
+        <f t="shared" si="10"/>
+        <v>6.5770659924000006</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>70</v>
       </c>
@@ -8105,44 +7537,36 @@
         <v>140</v>
       </c>
       <c r="C74" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>44</v>
       </c>
       <c r="D74" s="25">
         <v>996.90924566582703</v>
       </c>
       <c r="E74" s="1">
+        <f t="shared" si="6"/>
+        <v>996.56286100700004</v>
+      </c>
+      <c r="F74" s="26">
         <f t="shared" si="8"/>
-        <v>996.56286100700004</v>
-      </c>
-      <c r="F74" s="26">
-        <f t="shared" si="10"/>
         <v>0.34638465882699165</v>
       </c>
       <c r="G74" s="1">
         <v>5.8026603580800007</v>
       </c>
       <c r="H74" s="1">
+        <f t="shared" si="9"/>
+        <v>2.9013301790400003</v>
+      </c>
+      <c r="I74" s="1">
         <v>12.781726796160001</v>
       </c>
-      <c r="Q74" s="1">
-        <f t="shared" si="11"/>
-        <v>220</v>
-      </c>
-      <c r="R74" s="26">
-        <f t="shared" si="12"/>
-        <v>1.7319232941349583</v>
-      </c>
-      <c r="S74" s="1">
-        <f t="shared" si="13"/>
-        <v>29.013301790400003</v>
-      </c>
-      <c r="T74" s="1">
-        <f t="shared" si="14"/>
-        <v>63.908633980800005</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J74" s="1">
+        <f t="shared" si="10"/>
+        <v>6.3908633980800005</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>71</v>
       </c>
@@ -8150,44 +7574,36 @@
         <v>142</v>
       </c>
       <c r="C75" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>42</v>
       </c>
       <c r="D75" s="25">
         <v>996.84478887428804</v>
       </c>
       <c r="E75" s="1">
+        <f t="shared" si="6"/>
+        <v>996.51736526460002</v>
+      </c>
+      <c r="F75" s="26">
         <f t="shared" si="8"/>
-        <v>996.51736526460002</v>
-      </c>
-      <c r="F75" s="26">
-        <f t="shared" si="10"/>
         <v>0.32742360968802586</v>
       </c>
       <c r="G75" s="1">
         <v>4.9291648228800007</v>
       </c>
       <c r="H75" s="1">
+        <f t="shared" si="9"/>
+        <v>2.4645824114400003</v>
+      </c>
+      <c r="I75" s="1">
         <v>13.154131984800001</v>
       </c>
-      <c r="Q75" s="1">
-        <f t="shared" si="11"/>
-        <v>210</v>
-      </c>
-      <c r="R75" s="26">
-        <f t="shared" si="12"/>
-        <v>1.6371180484401293</v>
-      </c>
-      <c r="S75" s="1">
-        <f t="shared" si="13"/>
-        <v>24.645824114400003</v>
-      </c>
-      <c r="T75" s="1">
-        <f t="shared" si="14"/>
-        <v>65.770659924</v>
-      </c>
-    </row>
-    <row r="76" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J75" s="1">
+        <f t="shared" si="10"/>
+        <v>6.5770659924000006</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>72</v>
       </c>
@@ -8195,44 +7611,36 @@
         <v>144</v>
       </c>
       <c r="C76" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>40</v>
       </c>
       <c r="D76" s="25">
         <v>996.75371275445696</v>
       </c>
       <c r="E76" s="1">
+        <f t="shared" si="6"/>
+        <v>996.4718695222</v>
+      </c>
+      <c r="F76" s="26">
         <f t="shared" si="8"/>
-        <v>996.4718695222</v>
-      </c>
-      <c r="F76" s="26">
-        <f t="shared" si="10"/>
         <v>0.28184323225696062</v>
       </c>
       <c r="G76" s="1">
         <v>5.5453179009599998</v>
       </c>
       <c r="H76" s="1">
+        <f t="shared" si="9"/>
+        <v>2.7726589504799999</v>
+      </c>
+      <c r="I76" s="1">
         <v>12.232051055279999</v>
       </c>
-      <c r="Q76" s="1">
-        <f t="shared" si="11"/>
-        <v>200</v>
-      </c>
-      <c r="R76" s="26">
-        <f t="shared" si="12"/>
-        <v>1.4092161612848031</v>
-      </c>
-      <c r="S76" s="1">
-        <f t="shared" si="13"/>
-        <v>27.7265895048</v>
-      </c>
-      <c r="T76" s="1">
-        <f t="shared" si="14"/>
-        <v>61.160255276399994</v>
-      </c>
-    </row>
-    <row r="77" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J76" s="1">
+        <f t="shared" si="10"/>
+        <v>6.1160255276399997</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>73</v>
       </c>
@@ -8240,44 +7648,36 @@
         <v>146</v>
       </c>
       <c r="C77" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>38</v>
       </c>
       <c r="D77" s="25">
         <v>996.61583071493806</v>
       </c>
       <c r="E77" s="1">
+        <f t="shared" si="6"/>
+        <v>996.42637377980009</v>
+      </c>
+      <c r="F77" s="26">
         <f t="shared" si="8"/>
-        <v>996.42637377980009</v>
-      </c>
-      <c r="F77" s="26">
-        <f t="shared" si="10"/>
         <v>0.18945693513796869</v>
       </c>
       <c r="G77" s="1">
         <v>3.9692885409600001</v>
       </c>
       <c r="H77" s="1">
+        <f t="shared" si="9"/>
+        <v>1.98464427048</v>
+      </c>
+      <c r="I77" s="1">
         <v>12.32531976384</v>
       </c>
-      <c r="Q77" s="1">
-        <f t="shared" si="11"/>
-        <v>190</v>
-      </c>
-      <c r="R77" s="26">
-        <f t="shared" si="12"/>
-        <v>0.94728467568984343</v>
-      </c>
-      <c r="S77" s="1">
-        <f t="shared" si="13"/>
-        <v>19.846442704800001</v>
-      </c>
-      <c r="T77" s="1">
-        <f t="shared" si="14"/>
-        <v>61.626598819199998</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J77" s="1">
+        <f t="shared" si="10"/>
+        <v>6.1626598819199998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>74</v>
       </c>
@@ -8285,44 +7685,36 @@
         <v>148</v>
       </c>
       <c r="C78" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>36</v>
       </c>
       <c r="D78" s="25">
         <v>996.53121111995301</v>
       </c>
       <c r="E78" s="1">
+        <f t="shared" si="6"/>
+        <v>996.38087803740007</v>
+      </c>
+      <c r="F78" s="26">
         <f t="shared" si="8"/>
-        <v>996.38087803740007</v>
-      </c>
-      <c r="F78" s="26">
-        <f t="shared" si="10"/>
         <v>0.15033308255294742</v>
       </c>
       <c r="G78" s="1">
         <v>4.2227904876000002</v>
       </c>
       <c r="H78" s="1">
+        <f t="shared" si="9"/>
+        <v>2.1113952438000001</v>
+      </c>
+      <c r="I78" s="1">
         <v>10.866455340960002</v>
       </c>
-      <c r="Q78" s="1">
-        <f t="shared" si="11"/>
-        <v>180</v>
-      </c>
-      <c r="R78" s="26">
-        <f t="shared" si="12"/>
-        <v>0.75166541276473708</v>
-      </c>
-      <c r="S78" s="1">
-        <f t="shared" si="13"/>
-        <v>21.113952438000002</v>
-      </c>
-      <c r="T78" s="1">
-        <f t="shared" si="14"/>
-        <v>54.332276704800009</v>
-      </c>
-    </row>
-    <row r="79" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J78" s="1">
+        <f t="shared" si="10"/>
+        <v>5.4332276704800009</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>75</v>
       </c>
@@ -8330,44 +7722,36 @@
         <v>150</v>
       </c>
       <c r="C79" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>34</v>
       </c>
       <c r="D79" s="25">
         <v>996.45930624789798</v>
       </c>
       <c r="E79" s="1">
+        <f t="shared" si="6"/>
+        <v>996.33538229500004</v>
+      </c>
+      <c r="F79" s="26">
         <f t="shared" si="8"/>
-        <v>996.33538229500004</v>
-      </c>
-      <c r="F79" s="26">
-        <f t="shared" si="10"/>
         <v>0.12392395289793967</v>
       </c>
       <c r="G79" s="1">
         <v>4.7896271085600004</v>
       </c>
       <c r="H79" s="1">
+        <f t="shared" si="9"/>
+        <v>2.3948135542800002</v>
+      </c>
+      <c r="I79" s="1">
         <v>11.474226358080001</v>
       </c>
-      <c r="Q79" s="1">
-        <f t="shared" si="11"/>
-        <v>170</v>
-      </c>
-      <c r="R79" s="26">
-        <f t="shared" si="12"/>
-        <v>0.61961976448969835</v>
-      </c>
-      <c r="S79" s="1">
-        <f t="shared" si="13"/>
-        <v>23.948135542800003</v>
-      </c>
-      <c r="T79" s="1">
-        <f t="shared" si="14"/>
-        <v>57.371131790400007</v>
-      </c>
-    </row>
-    <row r="80" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J79" s="1">
+        <f t="shared" si="10"/>
+        <v>5.7371131790400005</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>76</v>
       </c>
@@ -8375,44 +7759,36 @@
         <v>152</v>
       </c>
       <c r="C80" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>32</v>
       </c>
       <c r="D80" s="25">
         <v>996.37945960279899</v>
       </c>
       <c r="E80" s="1">
+        <f t="shared" si="6"/>
+        <v>996.28988655260002</v>
+      </c>
+      <c r="F80" s="26">
         <f t="shared" si="8"/>
-        <v>996.28988655260002</v>
-      </c>
-      <c r="F80" s="26">
-        <f t="shared" si="10"/>
         <v>8.9573050198964665E-2</v>
       </c>
       <c r="G80" s="1">
         <v>4.80233739048</v>
       </c>
       <c r="H80" s="1">
+        <f t="shared" si="9"/>
+        <v>2.40116869524</v>
+      </c>
+      <c r="I80" s="1">
         <v>12.582205264800001</v>
       </c>
-      <c r="Q80" s="1">
-        <f t="shared" si="11"/>
-        <v>160</v>
-      </c>
-      <c r="R80" s="26">
-        <f t="shared" si="12"/>
-        <v>0.44786525099482333</v>
-      </c>
-      <c r="S80" s="1">
-        <f t="shared" si="13"/>
-        <v>24.011686952399998</v>
-      </c>
-      <c r="T80" s="1">
-        <f t="shared" si="14"/>
-        <v>62.911026324000005</v>
-      </c>
-    </row>
-    <row r="81" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J80" s="1">
+        <f t="shared" si="10"/>
+        <v>6.2911026324000003</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>77</v>
       </c>
@@ -8420,44 +7796,36 @@
         <v>154</v>
       </c>
       <c r="C81" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>30</v>
       </c>
       <c r="D81" s="25">
         <v>996.30197912127005</v>
       </c>
       <c r="E81" s="1">
+        <f t="shared" si="6"/>
+        <v>996.2443908102</v>
+      </c>
+      <c r="F81" s="26">
         <f t="shared" si="8"/>
-        <v>996.2443908102</v>
-      </c>
-      <c r="F81" s="26">
-        <f t="shared" si="10"/>
         <v>5.7588311070048803E-2</v>
       </c>
       <c r="G81" s="1">
         <v>5.3359504761600007</v>
       </c>
       <c r="H81" s="1">
+        <f t="shared" si="9"/>
+        <v>2.6679752380800004</v>
+      </c>
+      <c r="I81" s="1">
         <v>12.0102785448</v>
       </c>
-      <c r="Q81" s="1">
-        <f t="shared" si="11"/>
-        <v>150</v>
-      </c>
-      <c r="R81" s="26">
-        <f t="shared" si="12"/>
-        <v>0.28794155535024402</v>
-      </c>
-      <c r="S81" s="1">
-        <f t="shared" si="13"/>
-        <v>26.679752380800004</v>
-      </c>
-      <c r="T81" s="1">
-        <f t="shared" si="14"/>
-        <v>60.051392724000003</v>
-      </c>
-    </row>
-    <row r="82" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J81" s="1">
+        <f t="shared" si="10"/>
+        <v>6.0051392724000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>78</v>
       </c>
@@ -8465,44 +7833,36 @@
         <v>156</v>
       </c>
       <c r="C82" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>28</v>
       </c>
       <c r="D82" s="25">
         <v>996.288694483585</v>
       </c>
       <c r="E82" s="1">
+        <f t="shared" si="6"/>
+        <v>996.19889506780009</v>
+      </c>
+      <c r="F82" s="26">
         <f t="shared" si="8"/>
-        <v>996.19889506780009</v>
-      </c>
-      <c r="F82" s="26">
-        <f t="shared" si="10"/>
         <v>8.9799415784909797E-2</v>
       </c>
       <c r="G82" s="1">
         <v>4.80233739048</v>
       </c>
       <c r="H82" s="1">
+        <f t="shared" si="9"/>
+        <v>2.40116869524</v>
+      </c>
+      <c r="I82" s="1">
         <v>11.347338758159999</v>
       </c>
-      <c r="Q82" s="1">
-        <f t="shared" si="11"/>
-        <v>140</v>
-      </c>
-      <c r="R82" s="26">
-        <f t="shared" si="12"/>
-        <v>0.44899707892454899</v>
-      </c>
-      <c r="S82" s="1">
-        <f t="shared" si="13"/>
-        <v>24.011686952399998</v>
-      </c>
-      <c r="T82" s="1">
-        <f t="shared" si="14"/>
-        <v>56.736693790799997</v>
-      </c>
-    </row>
-    <row r="83" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J82" s="1">
+        <f t="shared" si="10"/>
+        <v>5.6736693790799997</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>79</v>
       </c>
@@ -8510,44 +7870,36 @@
         <v>158</v>
       </c>
       <c r="C83" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="D83" s="25">
         <v>996.225505873271</v>
       </c>
       <c r="E83" s="1">
+        <f t="shared" si="6"/>
+        <v>996.15339932540007</v>
+      </c>
+      <c r="F83" s="26">
         <f t="shared" si="8"/>
-        <v>996.15339932540007</v>
-      </c>
-      <c r="F83" s="26">
-        <f t="shared" si="10"/>
         <v>7.2106547870930626E-2</v>
       </c>
       <c r="G83" s="1">
         <v>6.9367300838400006</v>
       </c>
       <c r="H83" s="1">
+        <f t="shared" si="9"/>
+        <v>3.4683650419200003</v>
+      </c>
+      <c r="I83" s="1">
         <v>11.399368148640001</v>
       </c>
-      <c r="Q83" s="1">
-        <f t="shared" si="11"/>
-        <v>130</v>
-      </c>
-      <c r="R83" s="26">
-        <f t="shared" si="12"/>
-        <v>0.36053273935465313</v>
-      </c>
-      <c r="S83" s="1">
-        <f t="shared" si="13"/>
-        <v>34.683650419200006</v>
-      </c>
-      <c r="T83" s="1">
-        <f t="shared" si="14"/>
-        <v>56.996840743200003</v>
-      </c>
-    </row>
-    <row r="84" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J83" s="1">
+        <f t="shared" si="10"/>
+        <v>5.6996840743200003</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>80</v>
       </c>
@@ -8555,44 +7907,36 @@
         <v>160</v>
       </c>
       <c r="C84" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
       <c r="D84" s="25">
         <v>996.15964052017102</v>
       </c>
       <c r="E84" s="1">
+        <f t="shared" si="6"/>
+        <v>996.10790358300005</v>
+      </c>
+      <c r="F84" s="26">
         <f t="shared" si="8"/>
-        <v>996.10790358300005</v>
-      </c>
-      <c r="F84" s="26">
-        <f t="shared" si="10"/>
         <v>5.1736937170971942E-2</v>
       </c>
       <c r="G84" s="1">
         <v>5.8695336000000005</v>
       </c>
       <c r="H84" s="1">
+        <f t="shared" si="9"/>
+        <v>2.9347668000000002</v>
+      </c>
+      <c r="I84" s="1">
         <v>10.956005672400002</v>
       </c>
-      <c r="Q84" s="1">
-        <f t="shared" si="11"/>
-        <v>120</v>
-      </c>
-      <c r="R84" s="26">
-        <f t="shared" si="12"/>
-        <v>0.25868468585485971</v>
-      </c>
-      <c r="S84" s="1">
-        <f t="shared" si="13"/>
-        <v>29.347668000000002</v>
-      </c>
-      <c r="T84" s="1">
-        <f t="shared" si="14"/>
-        <v>54.78002836200001</v>
-      </c>
-    </row>
-    <row r="85" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J84" s="1">
+        <f t="shared" si="10"/>
+        <v>5.4780028362000008</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>81</v>
       </c>
@@ -8600,44 +7944,36 @@
         <v>162</v>
       </c>
       <c r="C85" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
       <c r="D85" s="25">
         <v>996.06469064735495</v>
       </c>
       <c r="E85" s="1">
+        <f t="shared" si="6"/>
+        <v>996.06240784060003</v>
+      </c>
+      <c r="F85" s="26">
         <f t="shared" si="8"/>
-        <v>996.06240784060003</v>
-      </c>
-      <c r="F85" s="26">
-        <f t="shared" si="10"/>
         <v>2.2828067549198749E-3</v>
       </c>
       <c r="G85" s="1">
         <v>8.0038957524000001</v>
       </c>
       <c r="H85" s="1">
+        <f t="shared" si="9"/>
+        <v>4.0019478762</v>
+      </c>
+      <c r="I85" s="1">
         <v>11.42579327232</v>
       </c>
-      <c r="Q85" s="1">
-        <f t="shared" si="11"/>
-        <v>110</v>
-      </c>
-      <c r="R85" s="26">
-        <f t="shared" si="12"/>
-        <v>1.1414033774599375E-2</v>
-      </c>
-      <c r="S85" s="1">
-        <f t="shared" si="13"/>
-        <v>40.019478761999999</v>
-      </c>
-      <c r="T85" s="1">
-        <f t="shared" si="14"/>
-        <v>57.1289663616</v>
-      </c>
-    </row>
-    <row r="86" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J85" s="1">
+        <f t="shared" si="10"/>
+        <v>5.71289663616</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>82</v>
       </c>
@@ -8645,44 +7981,36 @@
         <v>164</v>
       </c>
       <c r="C86" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="D86" s="25">
         <v>996.04185432057602</v>
       </c>
       <c r="E86" s="1">
+        <f t="shared" si="6"/>
+        <v>996.01691209820001</v>
+      </c>
+      <c r="F86" s="26">
         <f t="shared" si="8"/>
-        <v>996.01691209820001</v>
-      </c>
-      <c r="F86" s="26">
-        <f t="shared" si="10"/>
         <v>2.4942222376012069E-2</v>
       </c>
       <c r="G86" s="1">
         <v>9.0129359085600012</v>
       </c>
       <c r="H86" s="1">
+        <f t="shared" si="9"/>
+        <v>4.5064679542800006</v>
+      </c>
+      <c r="I86" s="1">
         <v>10.88172533328</v>
       </c>
-      <c r="Q86" s="1">
-        <f t="shared" si="11"/>
-        <v>100</v>
-      </c>
-      <c r="R86" s="26">
-        <f t="shared" si="12"/>
-        <v>0.12471111188006034</v>
-      </c>
-      <c r="S86" s="1">
-        <f t="shared" si="13"/>
-        <v>45.064679542800008</v>
-      </c>
-      <c r="T86" s="1">
-        <f t="shared" si="14"/>
-        <v>54.408626666400004</v>
-      </c>
-    </row>
-    <row r="87" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J86" s="1">
+        <f t="shared" si="10"/>
+        <v>5.4408626666400002</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>83</v>
       </c>
@@ -8690,44 +8018,36 @@
         <v>166</v>
       </c>
       <c r="C87" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="D87" s="25">
         <v>995.99366267877599</v>
       </c>
       <c r="E87" s="1">
+        <f t="shared" si="6"/>
+        <v>995.9714163558001</v>
+      </c>
+      <c r="F87" s="26">
         <f t="shared" si="8"/>
-        <v>995.9714163558001</v>
-      </c>
-      <c r="F87" s="26">
-        <f t="shared" si="10"/>
         <v>2.2246322975888688E-2</v>
       </c>
       <c r="G87" s="1">
         <v>5.0071931961600002</v>
       </c>
       <c r="H87" s="1">
+        <f t="shared" si="9"/>
+        <v>2.5035965980800001</v>
+      </c>
+      <c r="I87" s="1">
         <v>11.969892636239999</v>
       </c>
-      <c r="Q87" s="1">
-        <f t="shared" si="11"/>
-        <v>90</v>
-      </c>
-      <c r="R87" s="26">
-        <f t="shared" si="12"/>
-        <v>0.11123161487944344</v>
-      </c>
-      <c r="S87" s="1">
-        <f t="shared" si="13"/>
-        <v>25.0359659808</v>
-      </c>
-      <c r="T87" s="1">
-        <f t="shared" si="14"/>
-        <v>59.849463181199994</v>
-      </c>
-    </row>
-    <row r="88" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J87" s="1">
+        <f t="shared" si="10"/>
+        <v>5.9849463181199996</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>84</v>
       </c>
@@ -8735,44 +8055,36 @@
         <v>168</v>
       </c>
       <c r="C88" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="D88" s="25">
         <v>995.93178982204802</v>
       </c>
       <c r="E88" s="1">
+        <f t="shared" si="6"/>
+        <v>995.92592061340008</v>
+      </c>
+      <c r="F88" s="26">
         <f t="shared" si="8"/>
-        <v>995.92592061340008</v>
-      </c>
-      <c r="F88" s="26">
-        <f t="shared" si="10"/>
         <v>5.8692086479368299E-3</v>
       </c>
       <c r="G88" s="1">
         <v>6.5093393104799997</v>
       </c>
       <c r="H88" s="1">
+        <f t="shared" si="9"/>
+        <v>3.2546696552399998</v>
+      </c>
+      <c r="I88" s="1">
         <v>12.45357939048</v>
       </c>
-      <c r="Q88" s="1">
-        <f t="shared" si="11"/>
-        <v>80</v>
-      </c>
-      <c r="R88" s="26">
-        <f t="shared" si="12"/>
-        <v>2.934604323968415E-2</v>
-      </c>
-      <c r="S88" s="1">
-        <f t="shared" si="13"/>
-        <v>32.5466965524</v>
-      </c>
-      <c r="T88" s="1">
-        <f t="shared" si="14"/>
-        <v>62.267896952400001</v>
-      </c>
-    </row>
-    <row r="89" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J88" s="1">
+        <f t="shared" si="10"/>
+        <v>6.2267896952399999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>85</v>
       </c>
@@ -8780,44 +8092,36 @@
         <v>170</v>
       </c>
       <c r="C89" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="D89" s="25">
         <v>995.85402439934205</v>
       </c>
       <c r="E89" s="1">
+        <f t="shared" si="6"/>
+        <v>995.88042487100006</v>
+      </c>
+      <c r="F89" s="26">
         <f t="shared" si="8"/>
-        <v>995.88042487100006</v>
-      </c>
-      <c r="F89" s="26">
-        <f t="shared" si="10"/>
         <v>-2.6400471658007518E-2</v>
       </c>
       <c r="G89" s="1">
         <v>5.5100526323999999</v>
       </c>
       <c r="H89" s="1">
+        <f t="shared" si="9"/>
+        <v>2.7550263161999999</v>
+      </c>
+      <c r="I89" s="1">
         <v>11.282476434239999</v>
       </c>
-      <c r="Q89" s="1">
-        <f t="shared" si="11"/>
-        <v>70</v>
-      </c>
-      <c r="R89" s="26">
-        <f t="shared" si="12"/>
-        <v>-0.13200235829003759</v>
-      </c>
-      <c r="S89" s="1">
-        <f t="shared" si="13"/>
-        <v>27.550263162</v>
-      </c>
-      <c r="T89" s="1">
-        <f t="shared" si="14"/>
-        <v>56.412382171199994</v>
-      </c>
-    </row>
-    <row r="90" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J89" s="1">
+        <f t="shared" si="10"/>
+        <v>5.6412382171199997</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>86</v>
       </c>
@@ -8825,44 +8129,36 @@
         <v>172</v>
       </c>
       <c r="C90" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="D90" s="25">
         <v>995.705319471091</v>
       </c>
       <c r="E90" s="1">
+        <f t="shared" si="6"/>
+        <v>995.83492912860004</v>
+      </c>
+      <c r="F90" s="26">
         <f t="shared" si="8"/>
-        <v>995.83492912860004</v>
-      </c>
-      <c r="F90" s="26">
-        <f t="shared" si="10"/>
         <v>-0.12960965750903597</v>
       </c>
       <c r="G90" s="1">
         <v>4.0073274895200006</v>
       </c>
       <c r="H90" s="1">
+        <f t="shared" si="9"/>
+        <v>2.0036637447600003</v>
+      </c>
+      <c r="I90" s="1">
         <v>9.7935591885599997</v>
       </c>
-      <c r="Q90" s="1">
-        <f t="shared" si="11"/>
-        <v>60</v>
-      </c>
-      <c r="R90" s="26">
-        <f t="shared" si="12"/>
-        <v>-0.64804828754517985</v>
-      </c>
-      <c r="S90" s="1">
-        <f t="shared" si="13"/>
-        <v>20.036637447600004</v>
-      </c>
-      <c r="T90" s="1">
-        <f t="shared" si="14"/>
-        <v>48.967795942799995</v>
-      </c>
-    </row>
-    <row r="91" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J90" s="1">
+        <f t="shared" si="10"/>
+        <v>4.8967795942799999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>87</v>
       </c>
@@ -8870,44 +8166,36 @@
         <v>174</v>
       </c>
       <c r="C91" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="D91" s="25">
         <v>995.62142258055405</v>
       </c>
       <c r="E91" s="1">
+        <f t="shared" si="6"/>
+        <v>995.78943338620002</v>
+      </c>
+      <c r="F91" s="26">
         <f t="shared" si="8"/>
-        <v>995.78943338620002</v>
-      </c>
-      <c r="F91" s="26">
-        <f t="shared" si="10"/>
         <v>-0.16801080564596305</v>
       </c>
       <c r="G91" s="1">
         <v>5.5100526323999999</v>
       </c>
       <c r="H91" s="1">
+        <f t="shared" si="9"/>
+        <v>2.7550263161999999</v>
+      </c>
+      <c r="I91" s="1">
         <v>10.337627127600001</v>
       </c>
-      <c r="Q91" s="1">
-        <f t="shared" si="11"/>
-        <v>50</v>
-      </c>
-      <c r="R91" s="26">
-        <f t="shared" si="12"/>
-        <v>-0.84005402822981523</v>
-      </c>
-      <c r="S91" s="1">
-        <f t="shared" si="13"/>
-        <v>27.550263162</v>
-      </c>
-      <c r="T91" s="1">
-        <f t="shared" si="14"/>
-        <v>51.688135638000006</v>
-      </c>
-    </row>
-    <row r="92" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J91" s="1">
+        <f t="shared" si="10"/>
+        <v>5.1688135638000006</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>88</v>
       </c>
@@ -8915,44 +8203,36 @@
         <v>176</v>
       </c>
       <c r="C92" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="D92" s="25">
         <v>995.57916754088603</v>
       </c>
       <c r="E92" s="1">
+        <f t="shared" si="6"/>
+        <v>995.7439376438</v>
+      </c>
+      <c r="F92" s="26">
         <f t="shared" si="8"/>
-        <v>995.7439376438</v>
-      </c>
-      <c r="F92" s="26">
-        <f t="shared" si="10"/>
         <v>-0.16477010291396255</v>
       </c>
       <c r="G92" s="1">
         <v>5.5100526323999999</v>
       </c>
       <c r="H92" s="1">
+        <f t="shared" si="9"/>
+        <v>2.7550263161999999</v>
+      </c>
+      <c r="I92" s="1">
         <v>9.7935591885599997</v>
       </c>
-      <c r="Q92" s="1">
-        <f t="shared" si="11"/>
-        <v>40</v>
-      </c>
-      <c r="R92" s="26">
-        <f t="shared" si="12"/>
-        <v>-0.82385051456981273</v>
-      </c>
-      <c r="S92" s="1">
-        <f t="shared" si="13"/>
-        <v>27.550263162</v>
-      </c>
-      <c r="T92" s="1">
-        <f t="shared" si="14"/>
-        <v>48.967795942799995</v>
-      </c>
-    </row>
-    <row r="93" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J92" s="1">
+        <f t="shared" si="10"/>
+        <v>4.8967795942799999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>89</v>
       </c>
@@ -8960,44 +8240,36 @@
         <v>178</v>
       </c>
       <c r="C93" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="D93" s="25">
         <v>995.52607544802902</v>
       </c>
       <c r="E93" s="1">
+        <f t="shared" si="6"/>
+        <v>995.69844190140009</v>
+      </c>
+      <c r="F93" s="26">
         <f t="shared" si="8"/>
-        <v>995.69844190140009</v>
-      </c>
-      <c r="F93" s="26">
-        <f t="shared" si="10"/>
         <v>-0.17236645337106893</v>
       </c>
       <c r="G93" s="1">
         <v>4.0073274895200006</v>
       </c>
       <c r="H93" s="1">
+        <f t="shared" si="9"/>
+        <v>2.0036637447600003</v>
+      </c>
+      <c r="I93" s="1">
         <v>10.079523127680002</v>
       </c>
-      <c r="Q93" s="1">
-        <f t="shared" si="11"/>
-        <v>30</v>
-      </c>
-      <c r="R93" s="26">
-        <f t="shared" si="12"/>
-        <v>-0.86183226685534464</v>
-      </c>
-      <c r="S93" s="1">
-        <f t="shared" si="13"/>
-        <v>20.036637447600004</v>
-      </c>
-      <c r="T93" s="1">
-        <f t="shared" si="14"/>
-        <v>50.397615638400012</v>
-      </c>
-    </row>
-    <row r="94" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J93" s="1">
+        <f t="shared" si="10"/>
+        <v>5.0397615638400008</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>90</v>
       </c>
@@ -9005,44 +8277,36 @@
         <v>180</v>
       </c>
       <c r="C94" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="D94" s="25">
         <v>995.53788775089902</v>
       </c>
       <c r="E94" s="1">
+        <f t="shared" si="6"/>
+        <v>995.65294615900007</v>
+      </c>
+      <c r="F94" s="26">
         <f t="shared" si="8"/>
-        <v>995.65294615900007</v>
-      </c>
-      <c r="F94" s="26">
-        <f t="shared" si="10"/>
         <v>-0.11505840810104928</v>
       </c>
       <c r="G94" s="1">
         <v>5.5100526323999999</v>
       </c>
       <c r="H94" s="1">
+        <f t="shared" si="9"/>
+        <v>2.7550263161999999</v>
+      </c>
+      <c r="I94" s="1">
         <v>9.2494610133600013</v>
       </c>
-      <c r="Q94" s="1">
-        <f t="shared" si="11"/>
-        <v>20</v>
-      </c>
-      <c r="R94" s="26">
-        <f t="shared" si="12"/>
-        <v>-0.5752920405052464</v>
-      </c>
-      <c r="S94" s="1">
-        <f t="shared" si="13"/>
-        <v>27.550263162</v>
-      </c>
-      <c r="T94" s="1">
-        <f t="shared" si="14"/>
-        <v>46.24730506680001</v>
-      </c>
-    </row>
-    <row r="95" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J94" s="1">
+        <f t="shared" si="10"/>
+        <v>4.6247305066800006</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>91</v>
       </c>
@@ -9050,44 +8314,36 @@
         <v>182</v>
       </c>
       <c r="C95" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="D95" s="25">
         <v>995.46713930765702</v>
       </c>
       <c r="E95" s="1">
+        <f t="shared" si="6"/>
+        <v>995.60745041660005</v>
+      </c>
+      <c r="F95" s="26">
         <f t="shared" si="8"/>
-        <v>995.60745041660005</v>
-      </c>
-      <c r="F95" s="26">
-        <f t="shared" si="10"/>
         <v>-0.14031110894302401</v>
       </c>
       <c r="G95" s="1">
         <v>5.5100526323999999</v>
       </c>
       <c r="H95" s="1">
+        <f t="shared" si="9"/>
+        <v>2.7550263161999999</v>
+      </c>
+      <c r="I95" s="1">
         <v>8.0597655923999998</v>
       </c>
-      <c r="Q95" s="1">
-        <f t="shared" si="11"/>
-        <v>10</v>
-      </c>
-      <c r="R95" s="26">
-        <f t="shared" si="12"/>
-        <v>-0.70155554471512005</v>
-      </c>
-      <c r="S95" s="1">
-        <f t="shared" si="13"/>
-        <v>27.550263162</v>
-      </c>
-      <c r="T95" s="1">
-        <f t="shared" si="14"/>
-        <v>40.298827961999997</v>
-      </c>
-    </row>
-    <row r="96" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J95" s="1">
+        <f t="shared" si="10"/>
+        <v>4.0298827961999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>92</v>
       </c>
@@ -9095,41 +8351,33 @@
         <v>184</v>
       </c>
       <c r="C96" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D96" s="25">
         <v>995.52223561909295</v>
       </c>
       <c r="E96" s="1">
+        <f t="shared" si="6"/>
+        <v>995.56195467420002</v>
+      </c>
+      <c r="F96" s="26">
         <f t="shared" si="8"/>
-        <v>995.56195467420002</v>
-      </c>
-      <c r="F96" s="26">
-        <f t="shared" si="10"/>
         <v>-3.9719055107070744E-2</v>
       </c>
       <c r="G96" s="1">
         <v>3.5063885980800005</v>
       </c>
       <c r="H96" s="1">
+        <f t="shared" si="9"/>
+        <v>1.7531942990400002</v>
+      </c>
+      <c r="I96" s="1">
         <v>3.8085980419199998</v>
       </c>
-      <c r="Q96" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="R96" s="26">
-        <f t="shared" si="12"/>
-        <v>-0.19859527553535372</v>
-      </c>
-      <c r="S96" s="1">
-        <f t="shared" si="13"/>
-        <v>17.531942990400001</v>
-      </c>
-      <c r="T96" s="1">
-        <f t="shared" si="14"/>
-        <v>19.042990209599999</v>
+      <c r="J96" s="1">
+        <f t="shared" si="10"/>
+        <v>1.9042990209599999</v>
       </c>
     </row>
     <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10037,9 +9285,8 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="Q1:T1"/>
+  <mergeCells count="1">
+    <mergeCell ref="B1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/site316_gcs_analysis/0_SFE_316_RiverBuilder_metrics_v3.xlsx
+++ b/site316_gcs_analysis/0_SFE_316_RiverBuilder_metrics_v3.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Anzy\Github\usu-RiverBuilder\site316_gcs_analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waterlab\Documents\usu-RiverBuilder\site316_gcs_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677A4E60-F8E6-4F0A-BF20-9EF0E0AA0962}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10770" windowHeight="9060" activeTab="1"/>
+    <workbookView xWindow="330" yWindow="2295" windowWidth="12735" windowHeight="8835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SFE_316_classmetrics" sheetId="1" r:id="rId1"/>
     <sheet name="spatial_series" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -280,7 +281,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -553,15 +554,15 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="3" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -584,7 +585,6 @@
   <c:style val="2"/>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1259,7 +1259,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1313,7 +1312,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
@@ -1378,7 +1376,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2039,7 +2036,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2093,7 +2089,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
@@ -2807,7 +2802,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2861,7 +2855,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2915,7 +2908,13 @@
     <xdr:ext cx="4371975" cy="2876550"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1217673354" name="Chart 1"/>
+        <xdr:cNvPr id="1217673354" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00008A389448}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2940,7 +2939,13 @@
     <xdr:ext cx="4371975" cy="2886075"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1946575297" name="Chart 2"/>
+        <xdr:cNvPr id="1946575297" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000C1610674}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2965,7 +2970,13 @@
     <xdr:ext cx="4371975" cy="2876550"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="619515202" name="Chart 3"/>
+        <xdr:cNvPr id="619515202" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000420DED24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3180,10 +3191,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1004"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
@@ -3643,7 +3654,7 @@
       <c r="B36" s="19">
         <v>0.05</v>
       </c>
-      <c r="C36" s="53">
+      <c r="C36" s="52">
         <f>B36*C3</f>
         <v>1.5240000000000002E-2</v>
       </c>
@@ -4859,11 +4870,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4880,23 +4891,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
       <c r="J1" s="38"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="33" t="s">
         <v>60</v>
       </c>
       <c r="D2" s="1"/>
@@ -4914,7 +4925,7 @@
       <c r="B3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="33" t="s">
         <v>74</v>
       </c>
       <c r="D3" s="1" t="s">

--- a/site316_gcs_analysis/0_SFE_316_RiverBuilder_metrics_v3.xlsx
+++ b/site316_gcs_analysis/0_SFE_316_RiverBuilder_metrics_v3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waterlab\Documents\usu-RiverBuilder\site316_gcs_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677A4E60-F8E6-4F0A-BF20-9EF0E0AA0962}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCB5139-9B9D-405A-9F4E-CD4E232BBAE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="330" yWindow="2295" windowWidth="12735" windowHeight="8835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3075" yWindow="3075" windowWidth="17820" windowHeight="8835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SFE_316_classmetrics" sheetId="1" r:id="rId1"/>
@@ -461,7 +461,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -558,6 +558,7 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2146,9 +2147,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>W (m)</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln>
               <a:noFill/>
@@ -2473,288 +2471,288 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>spatial_series!$G$4:$G$96</c:f>
+              <c:f>spatial_series!$J$4:$J$96</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="93"/>
                 <c:pt idx="0">
-                  <c:v>1.6796673950400003</c:v>
+                  <c:v>9.1247517580800004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.38781545296</c:v>
+                  <c:v>9.0721584571200005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.8727888914399999</c:v>
+                  <c:v>8.6273640914400005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.2696687580799999</c:v>
+                  <c:v>8.8201499999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.4473366780800001</c:v>
+                  <c:v>8.5681566609599997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1706698399999995</c:v>
+                  <c:v>8.8201499999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.80337368</c:v>
+                  <c:v>9.0721584571200005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.80337368</c:v>
+                  <c:v>10.8361885638</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.2696687580799999</c:v>
+                  <c:v>10.332186782879999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.6909633790400003</c:v>
+                  <c:v>10.584179527560002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.9747934438400003</c:v>
+                  <c:v>11.34020547804</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.9747934438400003</c:v>
+                  <c:v>11.34020547804</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.4220385219200002</c:v>
+                  <c:v>11.088197600040001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.8692836000000002</c:v>
+                  <c:v>11.34020547804</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.0803027085599997</c:v>
+                  <c:v>10.8361885638</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.0887155543200002</c:v>
+                  <c:v>10.08017774664</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.9896977676000009</c:v>
+                  <c:v>11.600673308640001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.8709782590400001</c:v>
+                  <c:v>11.330894417160001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.6148427504800003</c:v>
+                  <c:v>11.35381511808</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.0285965600000004</c:v>
+                  <c:v>11.600673308640001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.84581991616</c:v>
+                  <c:v>12.410023897200002</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.0294133599999995</c:v>
+                  <c:v>12.410023897200002</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.86234041144</c:v>
+                  <c:v>12.60000532572</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.4186855085600003</c:v>
+                  <c:v>12.410023897200002</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.9940568038400004</c:v>
+                  <c:v>11.870451026640001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.4481168761600003</c:v>
+                  <c:v>12.14024502096</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5.2628595885600005</c:v>
+                  <c:v>12.441691733280001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.03057141712</c:v>
+                  <c:v>12.00651363996</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.9435633600000002</c:v>
+                  <c:v>12.14024502096</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.2580744114400009</c:v>
+                  <c:v>11.948936935199999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.2580744114400009</c:v>
+                  <c:v>11.948936935199999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6.1743638361600004</c:v>
+                  <c:v>11.6773756038</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5.6001512075999997</c:v>
+                  <c:v>11.405814272400001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.9381378285600004</c:v>
+                  <c:v>10.547741068560001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6.2947297219199996</c:v>
+                  <c:v>10.047976221000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6.5265911733599999</c:v>
+                  <c:v>8.9616989218800001</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5.5903064419200001</c:v>
+                  <c:v>8.6124743066400011</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5.2508504380799996</c:v>
+                  <c:v>8.8636299028799996</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>6.4513056343200006</c:v>
+                  <c:v>8.1851602666800005</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4.6768816800000002</c:v>
+                  <c:v>7.6710387447600006</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.2041490384800002</c:v>
+                  <c:v>8.112480401880001</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2.4360072590400002</c:v>
+                  <c:v>8.4129370628400011</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.4606870400000007</c:v>
+                  <c:v>7.8120086228400005</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>6.22596647616</c:v>
+                  <c:v>8.112480401880001</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>5.6599836000000003</c:v>
+                  <c:v>7.6617881409599997</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>7.3579636838399995</c:v>
+                  <c:v>7.2110953009200003</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>7.1752969219200011</c:v>
+                  <c:v>7.0300139257200005</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>9.0559431580799998</c:v>
+                  <c:v>6.5194892724000004</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>9.2788132838400017</c:v>
+                  <c:v>6.9897495104400003</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>9.9360528228000007</c:v>
+                  <c:v>5.7188863981200004</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>9.4131079809600013</c:v>
+                  <c:v>5.9891524514400007</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>8.8901625904799992</c:v>
+                  <c:v>5.25014930664</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>9.9360528228000007</c:v>
+                  <c:v>5.3272486647599999</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>6.1463527466400008</c:v>
+                  <c:v>5.6788202247599999</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>6.1463527466400008</c:v>
+                  <c:v>5.67627503808</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>6.1463527466400008</c:v>
+                  <c:v>4.82419158096</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>6.1463527466400008</c:v>
+                  <c:v>5.46742615428</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>5.6341671314399999</c:v>
+                  <c:v>5.7890361790800009</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5.121950731440001</c:v>
+                  <c:v>5.7890361790800009</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>4.0844724914399997</c:v>
+                  <c:v>5.9151470876399994</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3.8826644724000001</c:v>
+                  <c:v>6.4246508743200001</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>4.0844724914399997</c:v>
+                  <c:v>6.2438281828799997</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3.5739019200000004</c:v>
+                  <c:v>6.8607736647599999</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>3.82377705144</c:v>
+                  <c:v>6.4322556343200006</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>4.7173286400000007</c:v>
+                  <c:v>6.4322556343200006</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>4.7173286400000007</c:v>
+                  <c:v>6.4176861790800004</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>5.2414626285600008</c:v>
+                  <c:v>5.8107836895600009</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>4.9291648228800007</c:v>
+                  <c:v>6.4322556343200006</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>5.5453179009599998</c:v>
+                  <c:v>6.6944140533600009</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>5.3842922743199999</c:v>
+                  <c:v>6.5770659924000006</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>5.8026603580800007</c:v>
+                  <c:v>6.3908633980800005</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>4.9291648228800007</c:v>
+                  <c:v>6.5770659924000006</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>5.5453179009599998</c:v>
+                  <c:v>6.1160255276399997</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>3.9692885409600001</c:v>
+                  <c:v>6.1626598819199998</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>4.2227904876000002</c:v>
+                  <c:v>5.4332276704800009</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>4.7896271085600004</c:v>
+                  <c:v>5.7371131790400005</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>4.80233739048</c:v>
+                  <c:v>6.2911026324000003</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>5.3359504761600007</c:v>
+                  <c:v>6.0051392724000001</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>4.80233739048</c:v>
+                  <c:v>5.6736693790799997</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>6.9367300838400006</c:v>
+                  <c:v>5.6996840743200003</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>5.8695336000000005</c:v>
+                  <c:v>5.4780028362000008</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>8.0038957524000001</c:v>
+                  <c:v>5.71289663616</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>9.0129359085600012</c:v>
+                  <c:v>5.4408626666400002</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>5.0071931961600002</c:v>
+                  <c:v>5.9849463181199996</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>6.5093393104799997</c:v>
+                  <c:v>6.2267896952399999</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>5.5100526323999999</c:v>
+                  <c:v>5.6412382171199997</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>4.0073274895200006</c:v>
+                  <c:v>4.8967795942799999</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>5.5100526323999999</c:v>
+                  <c:v>5.1688135638000006</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>5.5100526323999999</c:v>
+                  <c:v>4.8967795942799999</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>4.0073274895200006</c:v>
+                  <c:v>5.0397615638400008</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>5.5100526323999999</c:v>
+                  <c:v>4.6247305066800006</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>5.5100526323999999</c:v>
+                  <c:v>4.0298827961999999</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>3.5063885980800005</c:v>
+                  <c:v>1.9042990209599999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3194,8 +3192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1004"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3493,12 +3491,12 @@
       </c>
       <c r="B26" s="28"/>
       <c r="C26" s="39">
-        <f>-C25/2</f>
-        <v>-7.4729082178634565</v>
+        <f>C25/2</f>
+        <v>7.4729082178634565</v>
       </c>
       <c r="D26" s="39">
         <f>C26*5</f>
-        <v>-37.364541089317285</v>
+        <v>37.364541089317285</v>
       </c>
       <c r="F26" s="1"/>
     </row>
@@ -4874,7 +4872,7 @@
   <dimension ref="A1:J1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="Q67" sqref="Q67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4904,10 +4902,10 @@
       <c r="J1" s="38"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="54" t="s">
         <v>60</v>
       </c>
       <c r="D2" s="1"/>
@@ -4922,10 +4920,10 @@
       <c r="A3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="54" t="s">
         <v>74</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -4957,7 +4955,7 @@
       <c r="B4" s="1">
         <v>0</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="54">
         <f>$B$96-B4</f>
         <v>184</v>
       </c>

--- a/site316_gcs_analysis/0_SFE_316_RiverBuilder_metrics_v3.xlsx
+++ b/site316_gcs_analysis/0_SFE_316_RiverBuilder_metrics_v3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waterlab\Documents\usu-RiverBuilder\site316_gcs_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCB5139-9B9D-405A-9F4E-CD4E232BBAE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B86B2D5E-4BE4-40BF-8B25-B8C104245973}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3075" windowWidth="17820" windowHeight="8835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SFE_316_classmetrics" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="86">
   <si>
     <t>SFE Site 316 River Builder Input data</t>
   </si>
@@ -277,6 +277,9 @@
   <si>
     <t>Wb/2 (m)</t>
   </si>
+  <si>
+    <t>WSE_base</t>
+  </si>
 </sst>
 </file>
 
@@ -297,22 +300,26 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -461,7 +468,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -555,10 +562,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -936,280 +945,280 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="93"/>
                 <c:pt idx="0">
-                  <c:v>999.66061196478802</c:v>
+                  <c:v>999.6796875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>999.56727082240297</c:v>
+                  <c:v>999.47308349599996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>999.543398433069</c:v>
+                  <c:v>999.51696777300003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>999.52015472412097</c:v>
+                  <c:v>999.40985107400002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>999.57449000506404</c:v>
+                  <c:v>999.59631347699997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>999.50409837516895</c:v>
+                  <c:v>999.38470458999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>999.351141662597</c:v>
+                  <c:v>999.32366943399995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>999.28977981525804</c:v>
+                  <c:v>999.31988525400004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>999.31188740002005</c:v>
+                  <c:v>999.30316162099996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>999.31527822538203</c:v>
+                  <c:v>999.23358154300001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>999.33774626771003</c:v>
+                  <c:v>999.25720214800003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>999.24864593505799</c:v>
+                  <c:v>999.26373291000004</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>999.16178088826302</c:v>
+                  <c:v>999.20996093799999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>999.24412804859105</c:v>
+                  <c:v>999.104003906</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>999.11982727050702</c:v>
+                  <c:v>999.05548095699999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>999.04429662149505</c:v>
+                  <c:v>998.995605469</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>998.98729680379199</c:v>
+                  <c:v>998.87902831999997</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>998.95935638364006</c:v>
+                  <c:v>998.85784912099996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>998.88643423338601</c:v>
+                  <c:v>998.88842773399995</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>998.79184621047</c:v>
+                  <c:v>998.74987793000003</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>998.65169795511804</c:v>
+                  <c:v>998.49139404300001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>998.47884085695796</c:v>
+                  <c:v>998.32586669900002</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>998.50846389244305</c:v>
+                  <c:v>998.27697753899997</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>998.58378222792203</c:v>
+                  <c:v>998.66717529300001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>998.56421222566496</c:v>
+                  <c:v>998.31860351600005</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>998.62833667116104</c:v>
+                  <c:v>998.50128173799999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>998.617656173196</c:v>
+                  <c:v>998.51385498000002</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>998.63808150210605</c:v>
+                  <c:v>998.65692138700001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>998.65929742586798</c:v>
+                  <c:v>998.61602783199999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>998.60582315282795</c:v>
+                  <c:v>998.60968017599998</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>998.57585281200602</c:v>
+                  <c:v>998.46008300799997</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>998.57847712590103</c:v>
+                  <c:v>998.52722168000003</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>998.50897193170294</c:v>
+                  <c:v>998.49676513700001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>998.48091299606904</c:v>
+                  <c:v>998.37982177699996</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>998.43793274045197</c:v>
+                  <c:v>998.35296630899995</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>998.32268503914804</c:v>
+                  <c:v>998.24566650400004</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>998.36567817215803</c:v>
+                  <c:v>998.26776123000002</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>998.40657596852304</c:v>
+                  <c:v>998.39251708999996</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>998.359410484406</c:v>
+                  <c:v>998.36468505899995</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>998.34677527273595</c:v>
+                  <c:v>998.30859375</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>998.25138199935304</c:v>
+                  <c:v>998.27655029300001</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>998.21662362720701</c:v>
+                  <c:v>998.27478027300003</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>998.15137273320204</c:v>
+                  <c:v>998.11816406299999</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>998.06839658030901</c:v>
+                  <c:v>998.12835693399995</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>997.99487307974198</c:v>
+                  <c:v>997.93566894499997</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>997.87972164733299</c:v>
+                  <c:v>997.77313232400002</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>997.80386437664697</c:v>
+                  <c:v>997.77453613299997</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>997.71900235609803</c:v>
+                  <c:v>997.71441650400004</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>997.61845375013797</c:v>
+                  <c:v>997.65747070299994</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>997.41253044899895</c:v>
+                  <c:v>997.44671630899995</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>997.18064394553096</c:v>
+                  <c:v>997.09106445299994</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>996.88817521392298</c:v>
+                  <c:v>996.69470214800003</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>996.81473311166906</c:v>
+                  <c:v>996.87084960899995</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>996.79623203971903</c:v>
+                  <c:v>996.51507568399995</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>996.79130575490501</c:v>
+                  <c:v>996.45324706999997</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>996.70813517252498</c:v>
+                  <c:v>996.61364746100003</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>996.65623580577699</c:v>
+                  <c:v>996.47576904300001</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>996.64210770997897</c:v>
+                  <c:v>996.44604492200006</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>996.72446267731698</c:v>
+                  <c:v>996.552246094</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>996.78911073871302</c:v>
+                  <c:v>997.04748535199997</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>996.78133163452105</c:v>
+                  <c:v>996.49261474599996</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>996.784529194078</c:v>
+                  <c:v>996.57025146499996</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>996.81885398023405</c:v>
+                  <c:v>996.730957031</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>996.911396988452</c:v>
+                  <c:v>996.84869384800004</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>996.88809644481796</c:v>
+                  <c:v>996.854980469</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>996.90540322839502</c:v>
+                  <c:v>996.918457031</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>996.91490232752005</c:v>
+                  <c:v>996.91546630899995</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>996.93001384210095</c:v>
+                  <c:v>996.89660644499997</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>996.90236093524902</c:v>
+                  <c:v>996.88189697300004</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>996.89474024707897</c:v>
+                  <c:v>996.85784912099996</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>996.90924566582703</c:v>
+                  <c:v>996.87597656299999</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>996.84478887428804</c:v>
+                  <c:v>996.77276611299999</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>996.75371275445696</c:v>
+                  <c:v>996.707519531</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>996.61583071493806</c:v>
+                  <c:v>996.49932861299999</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>996.53121111995301</c:v>
+                  <c:v>996.42297363299997</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>996.45930624789798</c:v>
+                  <c:v>996.38006591800001</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>996.37945960279899</c:v>
+                  <c:v>996.32818603500004</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>996.30197912127005</c:v>
+                  <c:v>996.20239257799994</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>996.288694483585</c:v>
+                  <c:v>996.20709228500004</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>996.225505873271</c:v>
+                  <c:v>996.16375732400002</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>996.15964052017102</c:v>
+                  <c:v>996.11517333999996</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>996.06469064735495</c:v>
+                  <c:v>996.09527587900004</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>996.04185432057602</c:v>
+                  <c:v>996.05194091800001</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>995.99366267877599</c:v>
+                  <c:v>995.94567871100003</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>995.93178982204802</c:v>
+                  <c:v>995.94793701200001</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>995.85402439934205</c:v>
+                  <c:v>995.90991210899995</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>995.705319471091</c:v>
+                  <c:v>995.69567871100003</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>995.62142258055405</c:v>
+                  <c:v>995.57287597699997</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>995.57916754088603</c:v>
+                  <c:v>995.48333740199996</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>995.52607544802902</c:v>
+                  <c:v>995.48608398399995</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>995.53788775089902</c:v>
+                  <c:v>995.54071044900002</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>995.46713930765702</c:v>
+                  <c:v>995.44708251999998</c:v>
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>995.52223561909295</c:v>
@@ -1713,283 +1722,283 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="93"/>
                 <c:pt idx="0">
-                  <c:v>-8.6951010212032998E-2</c:v>
+                  <c:v>-1.8849256000521564E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.13479641019705468</c:v>
+                  <c:v>-0.16316199720006352</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.11317305713100723</c:v>
+                  <c:v>-7.3950787800072249E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-9.0921023679129576E-2</c:v>
+                  <c:v>-0.1357405544000585</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.9099996639561141E-3</c:v>
+                  <c:v>9.6048780999922201E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.5985887831106993E-2</c:v>
+                  <c:v>-7.0233173600058763E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.12344685800303523</c:v>
+                  <c:v>-8.594139720014482E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.13931296294197182</c:v>
+                  <c:v>-4.4398644800025977E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-7.1709635779939163E-2</c:v>
+                  <c:v>-1.5795345400078986E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-2.2823068018055892E-2</c:v>
+                  <c:v>-4.0048490999993192E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.5140716709966E-2</c:v>
+                  <c:v>2.8899046399942563E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.5361264579496492E-3</c:v>
+                  <c:v>8.0756740799984073E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-3.9833177936998254E-2</c:v>
+                  <c:v>7.2311701199964773E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.8009724791049848E-2</c:v>
+                  <c:v>1.1681601600002978E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.2046891069230696E-3</c:v>
+                  <c:v>8.4855849999030397E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-2.0830217505022119E-2</c:v>
+                  <c:v>-6.0629706000554506E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-3.2334292808059217E-2</c:v>
+                  <c:v>-7.7313187200047651E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-1.4778970559973459E-2</c:v>
+                  <c:v>-5.3165453800147588E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-4.2205378413996186E-2</c:v>
+                  <c:v>2.2740091599871448E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-9.1297658930102443E-2</c:v>
+                  <c:v>-7.0482780000020284E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.1859501718820411</c:v>
+                  <c:v>-0.28363973460000125</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.31331152764209946</c:v>
+                  <c:v>-0.40384014620008202</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.23819274975699045</c:v>
+                  <c:v>-0.40740237380009603</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.11737867187798656</c:v>
+                  <c:v>2.8122312599975885E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-9.1452931735034326E-2</c:v>
+                  <c:v>-0.27512253199995484</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.8167256160950274E-2</c:v>
+                  <c:v>-4.7117377600102373E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5.2982500595931015E-2</c:v>
+                  <c:v>1.0782796799958305E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.11890357190600298</c:v>
+                  <c:v>0.19917613619998065</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.18561523806795321</c:v>
+                  <c:v>0.2036095135999858</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.17763670742795057</c:v>
+                  <c:v>0.24258878999989975</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.19316210900592523</c:v>
+                  <c:v>0.13831855439991614</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.2412821653009587</c:v>
+                  <c:v>0.25078415880000193</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.21727271350289357</c:v>
+                  <c:v>0.26565454819990464</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.23470952026900704</c:v>
+                  <c:v>0.19403812059988468</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.23722500705196126</c:v>
+                  <c:v>0.21250958499990702</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.16747304814794006</c:v>
+                  <c:v>0.15053671240002586</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.25596192355794756</c:v>
+                  <c:v>0.21795837079991998</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.34235546232298475</c:v>
+                  <c:v>0.3880411631998868</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.34068572060596125</c:v>
+                  <c:v>0.40553606459991443</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.373546251335938</c:v>
+                  <c:v>0.39477168799999163</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.3236487203530487</c:v>
+                  <c:v>0.40805516339992209</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.3343860906069267</c:v>
+                  <c:v>0.45161207579997154</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.31463093900197237</c:v>
+                  <c:v>0.34032279819996347</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.27715052850896882</c:v>
+                  <c:v>0.3958426015999521</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.2491227703419554</c:v>
+                  <c:v>0.2484815449998905</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.17946708033298364</c:v>
+                  <c:v>0.13127185639996242</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.14910555204687626</c:v>
+                  <c:v>0.17800259779994576</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.1097392738979579</c:v>
+                  <c:v>0.16320990119993439</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>5.4686410337922098E-2</c:v>
+                  <c:v>0.1515910325998675</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-0.10574114840107995</c:v>
+                  <c:v>-1.3836429000093631E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-0.29213190946904888</c:v>
+                  <c:v>-0.32416135260007195</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-0.53910489867712386</c:v>
+                  <c:v>-0.67519672520006679</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-0.56705125853102345</c:v>
+                  <c:v>-0.45372233180012245</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-0.54005658808102908</c:v>
+                  <c:v>-0.76416932440008623</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-0.49948713049502658</c:v>
+                  <c:v>-0.78067100600003414</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-0.53716197047504011</c:v>
+                  <c:v>-0.57494368260006468</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-0.54356559482300781</c:v>
+                  <c:v>-0.66749516820004828</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-0.51219794822111453</c:v>
+                  <c:v>-0.65189235679997637</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-0.38434723848308749</c:v>
+                  <c:v>-0.50036425240000426</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-0.27420343468702413</c:v>
+                  <c:v>4.020193799988192E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-0.23648679647897097</c:v>
+                  <c:v>-0.4693417356000964</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-0.18779349452199767</c:v>
+                  <c:v>-0.34637808420006877</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-0.10797296596604156</c:v>
+                  <c:v>-0.14034558580010525</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>3.0065784651924332E-2</c:v>
+                  <c:v>2.2718163599961372E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>5.2260983417909301E-2</c:v>
+                  <c:v>7.4331716999950004E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.11506350939498589</c:v>
+                  <c:v>0.18313521139998556</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.17005835092004418</c:v>
+                  <c:v>0.22547142179985258</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.23066560790084623</c:v>
+                  <c:v>0.25193849019990466</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.24850844344894085</c:v>
+                  <c:v>0.28255595059999905</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.28638349767891214</c:v>
+                  <c:v>0.30383503099994869</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.34638465882699165</c:v>
+                  <c:v>0.36728940539990163</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.32742360968802586</c:v>
+                  <c:v>0.30940588779992595</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.28184323225696062</c:v>
+                  <c:v>0.2894862381999701</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.18945693513796869</c:v>
+                  <c:v>0.1266222525999865</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.15033308255294742</c:v>
+                  <c:v>9.5594204999883914E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.12392395289793967</c:v>
+                  <c:v>9.8013422399958472E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>8.9573050198964665E-2</c:v>
+                  <c:v>9.146047180001915E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>5.7588311070048803E-2</c:v>
+                  <c:v>1.0993947199835929E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>8.9799415784909797E-2</c:v>
+                  <c:v>6.1020586599966009E-2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>7.2106547870930626E-2</c:v>
+                  <c:v>6.3012557999968521E-2</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>5.1736937170971942E-2</c:v>
+                  <c:v>5.9755506399937985E-2</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2.2828067549198749E-3</c:v>
+                  <c:v>8.5184977799940498E-2</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2.4942222376012069E-2</c:v>
+                  <c:v>8.717694919994301E-2</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2.2246322975888688E-2</c:v>
+                  <c:v>2.6241674599987164E-2</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>5.8692086479368299E-3</c:v>
+                  <c:v>7.3826908000000913E-2</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-2.6400471658007518E-2</c:v>
+                  <c:v>8.1128937399853385E-2</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-0.12960965750903597</c:v>
+                  <c:v>-8.7777528200035704E-2</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-0.16801080564596305</c:v>
+                  <c:v>-0.16525332980006624</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-0.16477010291396255</c:v>
+                  <c:v>-0.20946497240004192</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-0.17236645337106893</c:v>
+                  <c:v>-0.16139145800013921</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-0.11505840810104928</c:v>
+                  <c:v>-6.1438060600039535E-2</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-0.14031110894302401</c:v>
+                  <c:v>-0.10973905720004495</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-3.9719055107070744E-2</c:v>
+                  <c:v>1.0740974292957617E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2471,7 +2480,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>spatial_series!$J$4:$J$96</c:f>
+              <c:f>spatial_series!$K$4:$K$96</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="93"/>
@@ -2898,7 +2907,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -2929,7 +2938,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
@@ -2960,7 +2969,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -3192,8 +3201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1004"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4869,43 +4878,45 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J1000"/>
+  <dimension ref="A1:K1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q67" sqref="Q67"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.375" customWidth="1"/>
     <col min="2" max="3" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.375" customWidth="1"/>
     <col min="5" max="5" width="10.25" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.75" customWidth="1"/>
-    <col min="9" max="10" width="10.25" customWidth="1"/>
-    <col min="11" max="17" width="7.625" customWidth="1"/>
-    <col min="18" max="18" width="4.875" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="9" width="9.75" customWidth="1"/>
+    <col min="10" max="11" width="10.25" customWidth="1"/>
+    <col min="12" max="18" width="7.625" customWidth="1"/>
+    <col min="19" max="19" width="4.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="53" t="s">
+    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="38"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="38"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="53" t="s">
         <v>60</v>
       </c>
       <c r="D2" s="1"/>
@@ -4915,15 +4926,16 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B3" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="53" t="s">
         <v>74</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -4935,57 +4947,63 @@
       <c r="F3" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="H3" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="I3" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="I3" s="37" t="s">
+      <c r="J3" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="J3" s="33" t="s">
+      <c r="K3" s="33" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
       </c>
-      <c r="C4" s="54">
+      <c r="C4" s="53">
         <f>$B$96-B4</f>
         <v>184</v>
       </c>
-      <c r="D4" s="25">
-        <v>999.66061196478802</v>
+      <c r="D4" s="56">
+        <v>999.6796875</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E35" si="0">-0.0227478712*B4+999.747562975</f>
-        <v>999.74756297500005</v>
+        <f>-0.0226634662*B4+999.6815724256</f>
+        <v>999.68157242560005</v>
       </c>
       <c r="F4" s="26">
         <f>D4-E4</f>
-        <v>-8.6951010212032998E-2</v>
-      </c>
-      <c r="G4" s="1">
+        <v>-1.8849256000521564E-3</v>
+      </c>
+      <c r="G4" s="55">
+        <v>999.84901853099996</v>
+      </c>
+      <c r="H4" s="1">
         <v>1.6796673950400003</v>
       </c>
-      <c r="H4" s="1">
-        <f>G4/2</f>
+      <c r="I4" s="1">
+        <f>H4/2</f>
         <v>0.83983369752000014</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>18.249503516160001</v>
       </c>
-      <c r="J4" s="1">
-        <f>I4/2</f>
+      <c r="K4" s="1">
+        <f>J4/2</f>
         <v>9.1247517580800004</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -4993,36 +5011,39 @@
         <v>2</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" ref="C5:C68" si="1">$B$96-B5</f>
+        <f t="shared" ref="C5:C68" si="0">$B$96-B5</f>
         <v>182</v>
       </c>
-      <c r="D5" s="25">
-        <v>999.56727082240297</v>
+      <c r="D5" s="56">
+        <v>999.47308349599996</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="0"/>
-        <v>999.70206723260003</v>
+        <f t="shared" ref="E5:E68" si="1">-0.0226634662*B5+999.6815724256</f>
+        <v>999.63624549320002</v>
       </c>
       <c r="F5" s="26">
         <f t="shared" ref="F5:F68" si="2">D5-E5</f>
-        <v>-0.13479641019705468</v>
-      </c>
-      <c r="G5" s="1">
+        <v>-0.16316199720006352</v>
+      </c>
+      <c r="G5" s="55">
+        <v>999.70655216099999</v>
+      </c>
+      <c r="H5" s="1">
         <v>2.38781545296</v>
       </c>
-      <c r="H5" s="1">
-        <f t="shared" ref="H5:H68" si="3">G5/2</f>
+      <c r="I5" s="1">
+        <f t="shared" ref="I5:I68" si="3">H5/2</f>
         <v>1.19390772648</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>18.144316914240001</v>
       </c>
-      <c r="J5" s="1">
-        <f t="shared" ref="J5:J68" si="4">I5/2</f>
+      <c r="K5" s="1">
+        <f t="shared" ref="K5:K68" si="4">J5/2</f>
         <v>9.0721584571200005</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -5030,36 +5051,39 @@
         <v>4</v>
       </c>
       <c r="C6" s="1">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="D6" s="56">
+        <v>999.51696777300003</v>
+      </c>
+      <c r="E6" s="1">
         <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
-      <c r="D6" s="25">
-        <v>999.543398433069</v>
-      </c>
-      <c r="E6" s="1">
-        <f t="shared" si="0"/>
-        <v>999.65657149020001</v>
+        <v>999.59091856080011</v>
       </c>
       <c r="F6" s="26">
         <f t="shared" si="2"/>
-        <v>-0.11317305713100723</v>
-      </c>
-      <c r="G6" s="1">
+        <v>-7.3950787800072249E-2</v>
+      </c>
+      <c r="G6" s="55">
+        <v>999.74011581000002</v>
+      </c>
+      <c r="H6" s="1">
         <v>3.8727888914399999</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <f t="shared" si="3"/>
         <v>1.93639444572</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>17.254728182880001</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <f t="shared" si="4"/>
         <v>8.6273640914400005</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -5067,36 +5091,39 @@
         <v>6</v>
       </c>
       <c r="C7" s="1">
+        <f t="shared" si="0"/>
+        <v>178</v>
+      </c>
+      <c r="D7" s="56">
+        <v>999.40985107400002</v>
+      </c>
+      <c r="E7" s="1">
         <f t="shared" si="1"/>
-        <v>178</v>
-      </c>
-      <c r="D7" s="25">
-        <v>999.52015472412097</v>
-      </c>
-      <c r="E7" s="1">
-        <f t="shared" si="0"/>
-        <v>999.6110757478001</v>
+        <v>999.54559162840008</v>
       </c>
       <c r="F7" s="26">
         <f t="shared" si="2"/>
-        <v>-9.0921023679129576E-2</v>
-      </c>
-      <c r="G7" s="1">
+        <v>-0.1357405544000585</v>
+      </c>
+      <c r="G7" s="55">
+        <v>999.62598439500005</v>
+      </c>
+      <c r="H7" s="1">
         <v>4.2696687580799999</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <f t="shared" si="3"/>
         <v>2.13483437904</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <v>17.6403</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="1">
         <f t="shared" si="4"/>
         <v>8.8201499999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -5104,36 +5131,39 @@
         <v>8</v>
       </c>
       <c r="C8" s="1">
+        <f t="shared" si="0"/>
+        <v>176</v>
+      </c>
+      <c r="D8" s="56">
+        <v>999.59631347699997</v>
+      </c>
+      <c r="E8" s="1">
         <f t="shared" si="1"/>
-        <v>176</v>
-      </c>
-      <c r="D8" s="25">
-        <v>999.57449000506404</v>
-      </c>
-      <c r="E8" s="1">
-        <f t="shared" si="0"/>
-        <v>999.56558000540008</v>
+        <v>999.50026469600004</v>
       </c>
       <c r="F8" s="26">
         <f t="shared" si="2"/>
-        <v>8.9099996639561141E-3</v>
-      </c>
-      <c r="G8" s="1">
+        <v>9.6048780999922201E-2</v>
+      </c>
+      <c r="G8" s="55">
+        <v>999.661891631</v>
+      </c>
+      <c r="H8" s="1">
         <v>4.4473366780800001</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <f t="shared" si="3"/>
         <v>2.2236683390400001</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="1">
         <v>17.136313321919999</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K8" s="1">
         <f t="shared" si="4"/>
         <v>8.5681566609599997</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -5141,36 +5171,39 @@
         <v>10</v>
       </c>
       <c r="C9" s="1">
+        <f t="shared" si="0"/>
+        <v>174</v>
+      </c>
+      <c r="D9" s="56">
+        <v>999.38470458999996</v>
+      </c>
+      <c r="E9" s="1">
         <f t="shared" si="1"/>
-        <v>174</v>
-      </c>
-      <c r="D9" s="25">
-        <v>999.50409837516895</v>
-      </c>
-      <c r="E9" s="1">
-        <f t="shared" si="0"/>
-        <v>999.52008426300006</v>
+        <v>999.45493776360001</v>
       </c>
       <c r="F9" s="26">
         <f t="shared" si="2"/>
-        <v>-1.5985887831106993E-2</v>
-      </c>
-      <c r="G9" s="1">
+        <v>-7.0233173600058763E-2</v>
+      </c>
+      <c r="G9" s="55">
+        <v>999.50723971100001</v>
+      </c>
+      <c r="H9" s="1">
         <v>4.1706698399999995</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <f t="shared" si="3"/>
         <v>2.0853349199999998</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J9" s="1">
         <v>17.6403</v>
       </c>
-      <c r="J9" s="1">
+      <c r="K9" s="1">
         <f t="shared" si="4"/>
         <v>8.8201499999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -5178,36 +5211,39 @@
         <v>12</v>
       </c>
       <c r="C10" s="1">
+        <f t="shared" si="0"/>
+        <v>172</v>
+      </c>
+      <c r="D10" s="56">
+        <v>999.32366943399995</v>
+      </c>
+      <c r="E10" s="1">
         <f t="shared" si="1"/>
-        <v>172</v>
-      </c>
-      <c r="D10" s="25">
-        <v>999.351141662597</v>
-      </c>
-      <c r="E10" s="1">
-        <f t="shared" si="0"/>
-        <v>999.47458852060004</v>
+        <v>999.4096108312001</v>
       </c>
       <c r="F10" s="26">
         <f t="shared" si="2"/>
-        <v>-0.12344685800303523</v>
-      </c>
-      <c r="G10" s="1">
+        <v>-8.594139720014482E-2</v>
+      </c>
+      <c r="G10" s="55">
+        <v>999.45852196600003</v>
+      </c>
+      <c r="H10" s="1">
         <v>4.80337368</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
         <f t="shared" si="3"/>
         <v>2.40168684</v>
       </c>
-      <c r="I10" s="1">
+      <c r="J10" s="1">
         <v>18.144316914240001</v>
       </c>
-      <c r="J10" s="1">
+      <c r="K10" s="1">
         <f t="shared" si="4"/>
         <v>9.0721584571200005</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -5215,36 +5251,39 @@
         <v>14</v>
       </c>
       <c r="C11" s="1">
+        <f t="shared" si="0"/>
+        <v>170</v>
+      </c>
+      <c r="D11" s="56">
+        <v>999.31988525400004</v>
+      </c>
+      <c r="E11" s="1">
         <f t="shared" si="1"/>
-        <v>170</v>
-      </c>
-      <c r="D11" s="25">
-        <v>999.28977981525804</v>
-      </c>
-      <c r="E11" s="1">
-        <f t="shared" si="0"/>
-        <v>999.42909277820002</v>
+        <v>999.36428389880007</v>
       </c>
       <c r="F11" s="26">
         <f t="shared" si="2"/>
-        <v>-0.13931296294197182</v>
-      </c>
-      <c r="G11" s="1">
+        <v>-4.4398644800025977E-2</v>
+      </c>
+      <c r="G11" s="55">
+        <v>999.46886736700003</v>
+      </c>
+      <c r="H11" s="1">
         <v>4.80337368</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11" s="1">
         <f t="shared" si="3"/>
         <v>2.40168684</v>
       </c>
-      <c r="I11" s="1">
+      <c r="J11" s="1">
         <v>21.672377127600001</v>
       </c>
-      <c r="J11" s="1">
+      <c r="K11" s="1">
         <f t="shared" si="4"/>
         <v>10.8361885638</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -5252,36 +5291,39 @@
         <v>16</v>
       </c>
       <c r="C12" s="1">
+        <f t="shared" si="0"/>
+        <v>168</v>
+      </c>
+      <c r="D12" s="56">
+        <v>999.30316162099996</v>
+      </c>
+      <c r="E12" s="1">
         <f t="shared" si="1"/>
-        <v>168</v>
-      </c>
-      <c r="D12" s="25">
-        <v>999.31188740002005</v>
-      </c>
-      <c r="E12" s="1">
-        <f t="shared" si="0"/>
-        <v>999.38359703579999</v>
+        <v>999.31895696640004</v>
       </c>
       <c r="F12" s="26">
         <f t="shared" si="2"/>
-        <v>-7.1709635779939163E-2</v>
-      </c>
-      <c r="G12" s="1">
+        <v>-1.5795345400078986E-2</v>
+      </c>
+      <c r="G12" s="55">
+        <v>999.50891920699996</v>
+      </c>
+      <c r="H12" s="1">
         <v>4.2696687580799999</v>
       </c>
-      <c r="H12" s="1">
+      <c r="I12" s="1">
         <f t="shared" si="3"/>
         <v>2.13483437904</v>
       </c>
-      <c r="I12" s="1">
+      <c r="J12" s="1">
         <v>20.664373565759998</v>
       </c>
-      <c r="J12" s="1">
+      <c r="K12" s="1">
         <f t="shared" si="4"/>
         <v>10.332186782879999</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -5289,36 +5331,39 @@
         <v>18</v>
       </c>
       <c r="C13" s="1">
+        <f t="shared" si="0"/>
+        <v>166</v>
+      </c>
+      <c r="D13" s="56">
+        <v>999.23358154300001</v>
+      </c>
+      <c r="E13" s="1">
         <f t="shared" si="1"/>
-        <v>166</v>
-      </c>
-      <c r="D13" s="25">
-        <v>999.31527822538203</v>
-      </c>
-      <c r="E13" s="1">
-        <f t="shared" si="0"/>
-        <v>999.33810129340009</v>
+        <v>999.27363003400001</v>
       </c>
       <c r="F13" s="26">
         <f t="shared" si="2"/>
-        <v>-2.2823068018055892E-2</v>
-      </c>
-      <c r="G13" s="1">
+        <v>-4.0048490999993192E-2</v>
+      </c>
+      <c r="G13" s="55">
+        <v>999.437511255</v>
+      </c>
+      <c r="H13" s="1">
         <v>4.6909633790400003</v>
       </c>
-      <c r="H13" s="1">
+      <c r="I13" s="1">
         <f t="shared" si="3"/>
         <v>2.3454816895200001</v>
       </c>
-      <c r="I13" s="1">
+      <c r="J13" s="1">
         <v>21.168359055120003</v>
       </c>
-      <c r="J13" s="1">
+      <c r="K13" s="1">
         <f t="shared" si="4"/>
         <v>10.584179527560002</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -5326,36 +5371,39 @@
         <v>20</v>
       </c>
       <c r="C14" s="1">
+        <f t="shared" si="0"/>
+        <v>164</v>
+      </c>
+      <c r="D14" s="56">
+        <v>999.25720214800003</v>
+      </c>
+      <c r="E14" s="1">
         <f t="shared" si="1"/>
-        <v>164</v>
-      </c>
-      <c r="D14" s="25">
-        <v>999.33774626771003</v>
-      </c>
-      <c r="E14" s="1">
-        <f t="shared" si="0"/>
-        <v>999.29260555100007</v>
+        <v>999.22830310160009</v>
       </c>
       <c r="F14" s="26">
         <f t="shared" si="2"/>
-        <v>4.5140716709966E-2</v>
-      </c>
-      <c r="G14" s="1">
+        <v>2.8899046399942563E-2</v>
+      </c>
+      <c r="G14" s="55">
+        <v>999.39089948499998</v>
+      </c>
+      <c r="H14" s="1">
         <v>4.9747934438400003</v>
       </c>
-      <c r="H14" s="1">
+      <c r="I14" s="1">
         <f t="shared" si="3"/>
         <v>2.4873967219200002</v>
       </c>
-      <c r="I14" s="1">
+      <c r="J14" s="1">
         <v>22.680410956079999</v>
       </c>
-      <c r="J14" s="1">
+      <c r="K14" s="1">
         <f t="shared" si="4"/>
         <v>11.34020547804</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -5363,36 +5411,39 @@
         <v>22</v>
       </c>
       <c r="C15" s="1">
+        <f t="shared" si="0"/>
+        <v>162</v>
+      </c>
+      <c r="D15" s="56">
+        <v>999.26373291000004</v>
+      </c>
+      <c r="E15" s="1">
         <f t="shared" si="1"/>
-        <v>162</v>
-      </c>
-      <c r="D15" s="25">
-        <v>999.24864593505799</v>
-      </c>
-      <c r="E15" s="1">
-        <f t="shared" si="0"/>
-        <v>999.24710980860004</v>
+        <v>999.18297616920006</v>
       </c>
       <c r="F15" s="26">
         <f t="shared" si="2"/>
-        <v>1.5361264579496492E-3</v>
-      </c>
-      <c r="G15" s="1">
+        <v>8.0756740799984073E-2</v>
+      </c>
+      <c r="G15" s="55">
+        <v>999.38799468100001</v>
+      </c>
+      <c r="H15" s="1">
         <v>4.9747934438400003</v>
       </c>
-      <c r="H15" s="1">
+      <c r="I15" s="1">
         <f t="shared" si="3"/>
         <v>2.4873967219200002</v>
       </c>
-      <c r="I15" s="1">
+      <c r="J15" s="1">
         <v>22.680410956079999</v>
       </c>
-      <c r="J15" s="1">
+      <c r="K15" s="1">
         <f t="shared" si="4"/>
         <v>11.34020547804</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -5400,36 +5451,39 @@
         <v>24</v>
       </c>
       <c r="C16" s="1">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="D16" s="56">
+        <v>999.20996093799999</v>
+      </c>
+      <c r="E16" s="1">
         <f t="shared" si="1"/>
-        <v>160</v>
-      </c>
-      <c r="D16" s="25">
-        <v>999.16178088826302</v>
-      </c>
-      <c r="E16" s="1">
-        <f t="shared" si="0"/>
-        <v>999.20161406620002</v>
+        <v>999.13764923680003</v>
       </c>
       <c r="F16" s="26">
         <f t="shared" si="2"/>
-        <v>-3.9833177936998254E-2</v>
-      </c>
-      <c r="G16" s="1">
+        <v>7.2311701199964773E-2</v>
+      </c>
+      <c r="G16" s="55">
+        <v>999.345348844</v>
+      </c>
+      <c r="H16" s="1">
         <v>4.4220385219200002</v>
       </c>
-      <c r="H16" s="1">
+      <c r="I16" s="1">
         <f t="shared" si="3"/>
         <v>2.2110192609600001</v>
       </c>
-      <c r="I16" s="1">
+      <c r="J16" s="1">
         <v>22.176395200080002</v>
       </c>
-      <c r="J16" s="1">
+      <c r="K16" s="1">
         <f t="shared" si="4"/>
         <v>11.088197600040001</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -5437,36 +5491,39 @@
         <v>26</v>
       </c>
       <c r="C17" s="1">
+        <f t="shared" si="0"/>
+        <v>158</v>
+      </c>
+      <c r="D17" s="56">
+        <v>999.104003906</v>
+      </c>
+      <c r="E17" s="1">
         <f t="shared" si="1"/>
-        <v>158</v>
-      </c>
-      <c r="D17" s="25">
-        <v>999.24412804859105</v>
-      </c>
-      <c r="E17" s="1">
-        <f t="shared" si="0"/>
-        <v>999.1561183238</v>
+        <v>999.0923223044</v>
       </c>
       <c r="F17" s="26">
         <f t="shared" si="2"/>
-        <v>8.8009724791049848E-2</v>
-      </c>
-      <c r="G17" s="1">
+        <v>1.1681601600002978E-2</v>
+      </c>
+      <c r="G17" s="55">
+        <v>999.25295507400006</v>
+      </c>
+      <c r="H17" s="1">
         <v>3.8692836000000002</v>
       </c>
-      <c r="H17" s="1">
+      <c r="I17" s="1">
         <f t="shared" si="3"/>
         <v>1.9346418000000001</v>
       </c>
-      <c r="I17" s="1">
+      <c r="J17" s="1">
         <v>22.680410956079999</v>
       </c>
-      <c r="J17" s="1">
+      <c r="K17" s="1">
         <f t="shared" si="4"/>
         <v>11.34020547804</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -5474,36 +5531,39 @@
         <v>28</v>
       </c>
       <c r="C18" s="1">
+        <f t="shared" si="0"/>
+        <v>156</v>
+      </c>
+      <c r="D18" s="56">
+        <v>999.05548095699999</v>
+      </c>
+      <c r="E18" s="1">
         <f t="shared" si="1"/>
-        <v>156</v>
-      </c>
-      <c r="D18" s="25">
-        <v>999.11982727050702</v>
-      </c>
-      <c r="E18" s="1">
-        <f t="shared" si="0"/>
-        <v>999.11062258140009</v>
+        <v>999.04699537200008</v>
       </c>
       <c r="F18" s="26">
         <f t="shared" si="2"/>
-        <v>9.2046891069230696E-3</v>
-      </c>
-      <c r="G18" s="1">
+        <v>8.4855849999030397E-3</v>
+      </c>
+      <c r="G18" s="55">
+        <v>999.17506207999998</v>
+      </c>
+      <c r="H18" s="1">
         <v>6.0803027085599997</v>
       </c>
-      <c r="H18" s="1">
+      <c r="I18" s="1">
         <f t="shared" si="3"/>
         <v>3.0401513542799998</v>
       </c>
-      <c r="I18" s="1">
+      <c r="J18" s="1">
         <v>21.672377127600001</v>
       </c>
-      <c r="J18" s="1">
+      <c r="K18" s="1">
         <f t="shared" si="4"/>
         <v>10.8361885638</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -5511,36 +5571,39 @@
         <v>30</v>
       </c>
       <c r="C19" s="1">
+        <f t="shared" si="0"/>
+        <v>154</v>
+      </c>
+      <c r="D19" s="56">
+        <v>998.995605469</v>
+      </c>
+      <c r="E19" s="1">
         <f t="shared" si="1"/>
-        <v>154</v>
-      </c>
-      <c r="D19" s="25">
-        <v>999.04429662149505</v>
-      </c>
-      <c r="E19" s="1">
-        <f t="shared" si="0"/>
-        <v>999.06512683900007</v>
+        <v>999.00166843960005</v>
       </c>
       <c r="F19" s="26">
         <f t="shared" si="2"/>
-        <v>-2.0830217505022119E-2</v>
-      </c>
-      <c r="G19" s="1">
+        <v>-6.0629706000554506E-3</v>
+      </c>
+      <c r="G19" s="55">
+        <v>999.07489294100003</v>
+      </c>
+      <c r="H19" s="1">
         <v>6.0887155543200002</v>
       </c>
-      <c r="H19" s="1">
+      <c r="I19" s="1">
         <f t="shared" si="3"/>
         <v>3.0443577771600001</v>
       </c>
-      <c r="I19" s="1">
+      <c r="J19" s="1">
         <v>20.160355493280001</v>
       </c>
-      <c r="J19" s="1">
+      <c r="K19" s="1">
         <f t="shared" si="4"/>
         <v>10.08017774664</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -5548,36 +5611,39 @@
         <v>32</v>
       </c>
       <c r="C20" s="1">
+        <f t="shared" si="0"/>
+        <v>152</v>
+      </c>
+      <c r="D20" s="56">
+        <v>998.87902831999997</v>
+      </c>
+      <c r="E20" s="1">
         <f t="shared" si="1"/>
-        <v>152</v>
-      </c>
-      <c r="D20" s="25">
-        <v>998.98729680379199</v>
-      </c>
-      <c r="E20" s="1">
-        <f t="shared" si="0"/>
-        <v>999.01963109660005</v>
+        <v>998.95634150720002</v>
       </c>
       <c r="F20" s="26">
         <f t="shared" si="2"/>
-        <v>-3.2334292808059217E-2</v>
-      </c>
-      <c r="G20" s="1">
+        <v>-7.7313187200047651E-2</v>
+      </c>
+      <c r="G20" s="55">
+        <v>999.07348169900001</v>
+      </c>
+      <c r="H20" s="1">
         <v>4.9896977676000009</v>
       </c>
-      <c r="H20" s="1">
+      <c r="I20" s="1">
         <f t="shared" si="3"/>
         <v>2.4948488838000005</v>
       </c>
-      <c r="I20" s="1">
+      <c r="J20" s="1">
         <v>23.201346617280002</v>
       </c>
-      <c r="J20" s="1">
+      <c r="K20" s="1">
         <f t="shared" si="4"/>
         <v>11.600673308640001</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -5585,36 +5651,39 @@
         <v>34</v>
       </c>
       <c r="C21" s="1">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="D21" s="56">
+        <v>998.85784912099996</v>
+      </c>
+      <c r="E21" s="1">
         <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-      <c r="D21" s="25">
-        <v>998.95935638364006</v>
-      </c>
-      <c r="E21" s="1">
-        <f t="shared" si="0"/>
-        <v>998.97413535420003</v>
+        <v>998.91101457480011</v>
       </c>
       <c r="F21" s="26">
         <f t="shared" si="2"/>
-        <v>-1.4778970559973459E-2</v>
-      </c>
-      <c r="G21" s="1">
+        <v>-5.3165453800147588E-2</v>
+      </c>
+      <c r="G21" s="55">
+        <v>999.00029653599995</v>
+      </c>
+      <c r="H21" s="1">
         <v>4.8709782590400001</v>
       </c>
-      <c r="H21" s="1">
+      <c r="I21" s="1">
         <f t="shared" si="3"/>
         <v>2.4354891295200001</v>
       </c>
-      <c r="I21" s="1">
+      <c r="J21" s="1">
         <v>22.661788834320003</v>
       </c>
-      <c r="J21" s="1">
+      <c r="K21" s="1">
         <f t="shared" si="4"/>
         <v>11.330894417160001</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -5622,36 +5691,39 @@
         <v>36</v>
       </c>
       <c r="C22" s="1">
+        <f t="shared" si="0"/>
+        <v>148</v>
+      </c>
+      <c r="D22" s="56">
+        <v>998.88842773399995</v>
+      </c>
+      <c r="E22" s="1">
         <f t="shared" si="1"/>
-        <v>148</v>
-      </c>
-      <c r="D22" s="25">
-        <v>998.88643423338601</v>
-      </c>
-      <c r="E22" s="1">
-        <f t="shared" si="0"/>
-        <v>998.92863961180001</v>
+        <v>998.86568764240008</v>
       </c>
       <c r="F22" s="26">
         <f t="shared" si="2"/>
-        <v>-4.2205378413996186E-2</v>
-      </c>
-      <c r="G22" s="1">
+        <v>2.2740091599871448E-2</v>
+      </c>
+      <c r="G22" s="55">
+        <v>998.97553768600005</v>
+      </c>
+      <c r="H22" s="1">
         <v>5.6148427504800003</v>
       </c>
-      <c r="H22" s="1">
+      <c r="I22" s="1">
         <f t="shared" si="3"/>
         <v>2.8074213752400001</v>
       </c>
-      <c r="I22" s="1">
+      <c r="J22" s="1">
         <v>22.70763023616</v>
       </c>
-      <c r="J22" s="1">
+      <c r="K22" s="1">
         <f t="shared" si="4"/>
         <v>11.35381511808</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -5659,36 +5731,39 @@
         <v>38</v>
       </c>
       <c r="C23" s="1">
+        <f t="shared" si="0"/>
+        <v>146</v>
+      </c>
+      <c r="D23" s="56">
+        <v>998.74987793000003</v>
+      </c>
+      <c r="E23" s="1">
         <f t="shared" si="1"/>
-        <v>146</v>
-      </c>
-      <c r="D23" s="25">
-        <v>998.79184621047</v>
-      </c>
-      <c r="E23" s="1">
-        <f t="shared" si="0"/>
-        <v>998.8831438694001</v>
+        <v>998.82036071000005</v>
       </c>
       <c r="F23" s="26">
         <f t="shared" si="2"/>
-        <v>-9.1297658930102443E-2</v>
-      </c>
-      <c r="G23" s="1">
+        <v>-7.0482780000020284E-2</v>
+      </c>
+      <c r="G23" s="55">
+        <v>998.80885842500004</v>
+      </c>
+      <c r="H23" s="1">
         <v>7.0285965600000004</v>
       </c>
-      <c r="H23" s="1">
+      <c r="I23" s="1">
         <f t="shared" si="3"/>
         <v>3.5142982800000002</v>
       </c>
-      <c r="I23" s="1">
+      <c r="J23" s="1">
         <v>23.201346617280002</v>
       </c>
-      <c r="J23" s="1">
+      <c r="K23" s="1">
         <f t="shared" si="4"/>
         <v>11.600673308640001</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -5696,36 +5771,39 @@
         <v>40</v>
       </c>
       <c r="C24" s="1">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="D24" s="56">
+        <v>998.49139404300001</v>
+      </c>
+      <c r="E24" s="1">
         <f t="shared" si="1"/>
-        <v>144</v>
-      </c>
-      <c r="D24" s="25">
-        <v>998.65169795511804</v>
-      </c>
-      <c r="E24" s="1">
-        <f t="shared" si="0"/>
-        <v>998.83764812700008</v>
+        <v>998.77503377760002</v>
       </c>
       <c r="F24" s="26">
         <f t="shared" si="2"/>
-        <v>-0.1859501718820411</v>
-      </c>
-      <c r="G24" s="1">
+        <v>-0.28363973460000125</v>
+      </c>
+      <c r="G24" s="55">
+        <v>998.79163769700006</v>
+      </c>
+      <c r="H24" s="1">
         <v>5.84581991616</v>
       </c>
-      <c r="H24" s="1">
+      <c r="I24" s="1">
         <f t="shared" si="3"/>
         <v>2.92290995808</v>
       </c>
-      <c r="I24" s="1">
+      <c r="J24" s="1">
         <v>24.820047794400004</v>
       </c>
-      <c r="J24" s="1">
+      <c r="K24" s="1">
         <f t="shared" si="4"/>
         <v>12.410023897200002</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -5733,36 +5811,39 @@
         <v>42</v>
       </c>
       <c r="C25" s="1">
+        <f t="shared" si="0"/>
+        <v>142</v>
+      </c>
+      <c r="D25" s="56">
+        <v>998.32586669900002</v>
+      </c>
+      <c r="E25" s="1">
         <f t="shared" si="1"/>
-        <v>142</v>
-      </c>
-      <c r="D25" s="25">
-        <v>998.47884085695796</v>
-      </c>
-      <c r="E25" s="1">
-        <f t="shared" si="0"/>
-        <v>998.79215238460006</v>
+        <v>998.7297068452001</v>
       </c>
       <c r="F25" s="26">
         <f t="shared" si="2"/>
-        <v>-0.31331152764209946</v>
-      </c>
-      <c r="G25" s="1">
+        <v>-0.40384014620008202</v>
+      </c>
+      <c r="G25" s="55">
+        <v>998.79170431499995</v>
+      </c>
+      <c r="H25" s="1">
         <v>5.0294133599999995</v>
       </c>
-      <c r="H25" s="1">
+      <c r="I25" s="1">
         <f t="shared" si="3"/>
         <v>2.5147066799999997</v>
       </c>
-      <c r="I25" s="1">
+      <c r="J25" s="1">
         <v>24.820047794400004</v>
       </c>
-      <c r="J25" s="1">
+      <c r="K25" s="1">
         <f t="shared" si="4"/>
         <v>12.410023897200002</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -5770,36 +5851,39 @@
         <v>44</v>
       </c>
       <c r="C26" s="1">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="D26" s="56">
+        <v>998.27697753899997</v>
+      </c>
+      <c r="E26" s="1">
         <f t="shared" si="1"/>
-        <v>140</v>
-      </c>
-      <c r="D26" s="25">
-        <v>998.50846389244305</v>
-      </c>
-      <c r="E26" s="1">
-        <f t="shared" si="0"/>
-        <v>998.74665664220004</v>
+        <v>998.68437991280007</v>
       </c>
       <c r="F26" s="26">
         <f t="shared" si="2"/>
-        <v>-0.23819274975699045</v>
-      </c>
-      <c r="G26" s="1">
+        <v>-0.40740237380009603</v>
+      </c>
+      <c r="G26" s="55">
+        <v>998.73502935800002</v>
+      </c>
+      <c r="H26" s="1">
         <v>5.86234041144</v>
       </c>
-      <c r="H26" s="1">
+      <c r="I26" s="1">
         <f t="shared" si="3"/>
         <v>2.93117020572</v>
       </c>
-      <c r="I26" s="1">
+      <c r="J26" s="1">
         <v>25.20001065144</v>
       </c>
-      <c r="J26" s="1">
+      <c r="K26" s="1">
         <f t="shared" si="4"/>
         <v>12.60000532572</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>23</v>
       </c>
@@ -5807,36 +5891,39 @@
         <v>46</v>
       </c>
       <c r="C27" s="1">
+        <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+      <c r="D27" s="56">
+        <v>998.66717529300001</v>
+      </c>
+      <c r="E27" s="1">
         <f t="shared" si="1"/>
-        <v>138</v>
-      </c>
-      <c r="D27" s="25">
-        <v>998.58378222792203</v>
-      </c>
-      <c r="E27" s="1">
-        <f t="shared" si="0"/>
-        <v>998.70116089980002</v>
+        <v>998.63905298040004</v>
       </c>
       <c r="F27" s="26">
         <f t="shared" si="2"/>
-        <v>-0.11737867187798656</v>
-      </c>
-      <c r="G27" s="1">
+        <v>2.8122312599975885E-2</v>
+      </c>
+      <c r="G27" s="55">
+        <v>998.96281560900002</v>
+      </c>
+      <c r="H27" s="1">
         <v>4.4186855085600003</v>
       </c>
-      <c r="H27" s="1">
+      <c r="I27" s="1">
         <f t="shared" si="3"/>
         <v>2.2093427542800002</v>
       </c>
-      <c r="I27" s="1">
+      <c r="J27" s="1">
         <v>24.820047794400004</v>
       </c>
-      <c r="J27" s="1">
+      <c r="K27" s="1">
         <f t="shared" si="4"/>
         <v>12.410023897200002</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>24</v>
       </c>
@@ -5844,36 +5931,39 @@
         <v>48</v>
       </c>
       <c r="C28" s="1">
+        <f t="shared" si="0"/>
+        <v>136</v>
+      </c>
+      <c r="D28" s="56">
+        <v>998.31860351600005</v>
+      </c>
+      <c r="E28" s="1">
         <f t="shared" si="1"/>
-        <v>136</v>
-      </c>
-      <c r="D28" s="25">
-        <v>998.56421222566496</v>
-      </c>
-      <c r="E28" s="1">
-        <f t="shared" si="0"/>
-        <v>998.65566515739999</v>
+        <v>998.59372604800001</v>
       </c>
       <c r="F28" s="26">
         <f t="shared" si="2"/>
-        <v>-9.1452931735034326E-2</v>
-      </c>
-      <c r="G28" s="1">
+        <v>-0.27512253199995484</v>
+      </c>
+      <c r="G28" s="55">
+        <v>998.71739845000002</v>
+      </c>
+      <c r="H28" s="1">
         <v>4.9940568038400004</v>
       </c>
-      <c r="H28" s="1">
+      <c r="I28" s="1">
         <f t="shared" si="3"/>
         <v>2.4970284019200002</v>
       </c>
-      <c r="I28" s="1">
+      <c r="J28" s="1">
         <v>23.740902053280003</v>
       </c>
-      <c r="J28" s="1">
+      <c r="K28" s="1">
         <f t="shared" si="4"/>
         <v>11.870451026640001</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>25</v>
       </c>
@@ -5881,36 +5971,39 @@
         <v>50</v>
       </c>
       <c r="C29" s="1">
+        <f t="shared" si="0"/>
+        <v>134</v>
+      </c>
+      <c r="D29" s="56">
+        <v>998.50128173799999</v>
+      </c>
+      <c r="E29" s="1">
         <f t="shared" si="1"/>
-        <v>134</v>
-      </c>
-      <c r="D29" s="25">
-        <v>998.62833667116104</v>
-      </c>
-      <c r="E29" s="1">
-        <f t="shared" si="0"/>
-        <v>998.61016941500009</v>
+        <v>998.54839911560009</v>
       </c>
       <c r="F29" s="26">
         <f t="shared" si="2"/>
-        <v>1.8167256160950274E-2</v>
-      </c>
-      <c r="G29" s="1">
+        <v>-4.7117377600102373E-2</v>
+      </c>
+      <c r="G29" s="55">
+        <v>998.80027655000004</v>
+      </c>
+      <c r="H29" s="1">
         <v>5.4481168761600003</v>
       </c>
-      <c r="H29" s="1">
+      <c r="I29" s="1">
         <f t="shared" si="3"/>
         <v>2.7240584380800001</v>
       </c>
-      <c r="I29" s="1">
+      <c r="J29" s="1">
         <v>24.28049004192</v>
       </c>
-      <c r="J29" s="1">
+      <c r="K29" s="1">
         <f t="shared" si="4"/>
         <v>12.14024502096</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>26</v>
       </c>
@@ -5918,36 +6011,39 @@
         <v>52</v>
       </c>
       <c r="C30" s="1">
+        <f t="shared" si="0"/>
+        <v>132</v>
+      </c>
+      <c r="D30" s="56">
+        <v>998.51385498000002</v>
+      </c>
+      <c r="E30" s="1">
         <f t="shared" si="1"/>
-        <v>132</v>
-      </c>
-      <c r="D30" s="25">
-        <v>998.617656173196</v>
-      </c>
-      <c r="E30" s="1">
-        <f t="shared" si="0"/>
-        <v>998.56467367260007</v>
+        <v>998.50307218320006</v>
       </c>
       <c r="F30" s="26">
         <f t="shared" si="2"/>
-        <v>5.2982500595931015E-2</v>
-      </c>
-      <c r="G30" s="1">
+        <v>1.0782796799958305E-2</v>
+      </c>
+      <c r="G30" s="55">
+        <v>998.76681613799997</v>
+      </c>
+      <c r="H30" s="1">
         <v>5.2628595885600005</v>
       </c>
-      <c r="H30" s="1">
+      <c r="I30" s="1">
         <f t="shared" si="3"/>
         <v>2.6314297942800002</v>
       </c>
-      <c r="I30" s="1">
+      <c r="J30" s="1">
         <v>24.883383466560002</v>
       </c>
-      <c r="J30" s="1">
+      <c r="K30" s="1">
         <f t="shared" si="4"/>
         <v>12.441691733280001</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>27</v>
       </c>
@@ -5955,36 +6051,39 @@
         <v>54</v>
       </c>
       <c r="C31" s="1">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="D31" s="56">
+        <v>998.65692138700001</v>
+      </c>
+      <c r="E31" s="1">
         <f t="shared" si="1"/>
-        <v>130</v>
-      </c>
-      <c r="D31" s="25">
-        <v>998.63808150210605</v>
-      </c>
-      <c r="E31" s="1">
-        <f t="shared" si="0"/>
-        <v>998.51917793020004</v>
+        <v>998.45774525080003</v>
       </c>
       <c r="F31" s="26">
         <f t="shared" si="2"/>
-        <v>0.11890357190600298</v>
-      </c>
-      <c r="G31" s="1">
+        <v>0.19917613619998065</v>
+      </c>
+      <c r="G31" s="55">
+        <v>998.811982769</v>
+      </c>
+      <c r="H31" s="1">
         <v>5.03057141712</v>
       </c>
-      <c r="H31" s="1">
+      <c r="I31" s="1">
         <f t="shared" si="3"/>
         <v>2.51528570856</v>
       </c>
-      <c r="I31" s="1">
+      <c r="J31" s="1">
         <v>24.013027279919999</v>
       </c>
-      <c r="J31" s="1">
+      <c r="K31" s="1">
         <f t="shared" si="4"/>
         <v>12.00651363996</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>28</v>
       </c>
@@ -5992,36 +6091,39 @@
         <v>56</v>
       </c>
       <c r="C32" s="1">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="D32" s="56">
+        <v>998.61602783199999</v>
+      </c>
+      <c r="E32" s="1">
         <f t="shared" si="1"/>
-        <v>128</v>
-      </c>
-      <c r="D32" s="25">
-        <v>998.65929742586798</v>
-      </c>
-      <c r="E32" s="1">
-        <f t="shared" si="0"/>
-        <v>998.47368218780002</v>
+        <v>998.4124183184</v>
       </c>
       <c r="F32" s="26">
         <f t="shared" si="2"/>
-        <v>0.18561523806795321</v>
-      </c>
-      <c r="G32" s="1">
+        <v>0.2036095135999858</v>
+      </c>
+      <c r="G32" s="55">
+        <v>998.78522649900003</v>
+      </c>
+      <c r="H32" s="1">
         <v>3.9435633600000002</v>
       </c>
-      <c r="H32" s="1">
+      <c r="I32" s="1">
         <f t="shared" si="3"/>
         <v>1.9717816800000001</v>
       </c>
-      <c r="I32" s="1">
+      <c r="J32" s="1">
         <v>24.28049004192</v>
       </c>
-      <c r="J32" s="1">
+      <c r="K32" s="1">
         <f t="shared" si="4"/>
         <v>12.14024502096</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>29</v>
       </c>
@@ -6029,36 +6131,39 @@
         <v>58</v>
       </c>
       <c r="C33" s="1">
+        <f t="shared" si="0"/>
+        <v>126</v>
+      </c>
+      <c r="D33" s="56">
+        <v>998.60968017599998</v>
+      </c>
+      <c r="E33" s="1">
         <f t="shared" si="1"/>
-        <v>126</v>
-      </c>
-      <c r="D33" s="25">
-        <v>998.60582315282795</v>
-      </c>
-      <c r="E33" s="1">
-        <f t="shared" si="0"/>
-        <v>998.4281864454</v>
+        <v>998.36709138600008</v>
       </c>
       <c r="F33" s="26">
         <f t="shared" si="2"/>
-        <v>0.17763670742795057</v>
-      </c>
-      <c r="G33" s="1">
+        <v>0.24258878999989975</v>
+      </c>
+      <c r="G33" s="55">
+        <v>998.73215684800005</v>
+      </c>
+      <c r="H33" s="1">
         <v>5.2580744114400009</v>
       </c>
-      <c r="H33" s="1">
+      <c r="I33" s="1">
         <f t="shared" si="3"/>
         <v>2.6290372057200004</v>
       </c>
-      <c r="I33" s="1">
+      <c r="J33" s="1">
         <v>23.897873870399998</v>
       </c>
-      <c r="J33" s="1">
+      <c r="K33" s="1">
         <f t="shared" si="4"/>
         <v>11.948936935199999</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>30</v>
       </c>
@@ -6066,36 +6171,39 @@
         <v>60</v>
       </c>
       <c r="C34" s="1">
+        <f t="shared" si="0"/>
+        <v>124</v>
+      </c>
+      <c r="D34" s="56">
+        <v>998.46008300799997</v>
+      </c>
+      <c r="E34" s="1">
         <f t="shared" si="1"/>
-        <v>124</v>
-      </c>
-      <c r="D34" s="25">
-        <v>998.57585281200602</v>
-      </c>
-      <c r="E34" s="1">
-        <f t="shared" si="0"/>
-        <v>998.38269070300009</v>
+        <v>998.32176445360005</v>
       </c>
       <c r="F34" s="26">
         <f t="shared" si="2"/>
-        <v>0.19316210900592523</v>
-      </c>
-      <c r="G34" s="1">
+        <v>0.13831855439991614</v>
+      </c>
+      <c r="G34" s="55">
+        <v>998.68861578300005</v>
+      </c>
+      <c r="H34" s="1">
         <v>5.2580744114400009</v>
       </c>
-      <c r="H34" s="1">
+      <c r="I34" s="1">
         <f t="shared" si="3"/>
         <v>2.6290372057200004</v>
       </c>
-      <c r="I34" s="1">
+      <c r="J34" s="1">
         <v>23.897873870399998</v>
       </c>
-      <c r="J34" s="1">
+      <c r="K34" s="1">
         <f t="shared" si="4"/>
         <v>11.948936935199999</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>31</v>
       </c>
@@ -6103,36 +6211,39 @@
         <v>62</v>
       </c>
       <c r="C35" s="1">
+        <f t="shared" si="0"/>
+        <v>122</v>
+      </c>
+      <c r="D35" s="56">
+        <v>998.52722168000003</v>
+      </c>
+      <c r="E35" s="1">
         <f t="shared" si="1"/>
-        <v>122</v>
-      </c>
-      <c r="D35" s="25">
-        <v>998.57847712590103</v>
-      </c>
-      <c r="E35" s="1">
-        <f t="shared" si="0"/>
-        <v>998.33719496060007</v>
+        <v>998.27643752120002</v>
       </c>
       <c r="F35" s="26">
         <f t="shared" si="2"/>
-        <v>0.2412821653009587</v>
-      </c>
-      <c r="G35" s="1">
+        <v>0.25078415880000193</v>
+      </c>
+      <c r="G35" s="55">
+        <v>998.68143431700003</v>
+      </c>
+      <c r="H35" s="1">
         <v>6.1743638361600004</v>
       </c>
-      <c r="H35" s="1">
+      <c r="I35" s="1">
         <f t="shared" si="3"/>
         <v>3.0871819180800002</v>
       </c>
-      <c r="I35" s="1">
+      <c r="J35" s="1">
         <v>23.3547512076</v>
       </c>
-      <c r="J35" s="1">
+      <c r="K35" s="1">
         <f t="shared" si="4"/>
         <v>11.6773756038</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>32</v>
       </c>
@@ -6140,36 +6251,39 @@
         <v>64</v>
       </c>
       <c r="C36" s="1">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="D36" s="56">
+        <v>998.49676513700001</v>
+      </c>
+      <c r="E36" s="1">
         <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="D36" s="25">
-        <v>998.50897193170294</v>
-      </c>
-      <c r="E36" s="1">
-        <f t="shared" ref="E36:E67" si="5">-0.0227478712*B36+999.747562975</f>
-        <v>998.29169921820005</v>
+        <v>998.23111058880011</v>
       </c>
       <c r="F36" s="26">
         <f t="shared" si="2"/>
-        <v>0.21727271350289357</v>
-      </c>
-      <c r="G36" s="1">
+        <v>0.26565454819990464</v>
+      </c>
+      <c r="G36" s="55">
+        <v>998.62977175000003</v>
+      </c>
+      <c r="H36" s="1">
         <v>5.6001512075999997</v>
       </c>
-      <c r="H36" s="1">
+      <c r="I36" s="1">
         <f t="shared" si="3"/>
         <v>2.8000756037999999</v>
       </c>
-      <c r="I36" s="1">
+      <c r="J36" s="1">
         <v>22.811628544800001</v>
       </c>
-      <c r="J36" s="1">
+      <c r="K36" s="1">
         <f t="shared" si="4"/>
         <v>11.405814272400001</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>33</v>
       </c>
@@ -6177,36 +6291,39 @@
         <v>66</v>
       </c>
       <c r="C37" s="1">
+        <f t="shared" si="0"/>
+        <v>118</v>
+      </c>
+      <c r="D37" s="56">
+        <v>998.37982177699996</v>
+      </c>
+      <c r="E37" s="1">
         <f t="shared" si="1"/>
-        <v>118</v>
-      </c>
-      <c r="D37" s="25">
-        <v>998.48091299606904</v>
-      </c>
-      <c r="E37" s="1">
-        <f t="shared" si="5"/>
-        <v>998.24620347580003</v>
+        <v>998.18578365640008</v>
       </c>
       <c r="F37" s="26">
         <f t="shared" si="2"/>
-        <v>0.23470952026900704</v>
-      </c>
-      <c r="G37" s="1">
+        <v>0.19403812059988468</v>
+      </c>
+      <c r="G37" s="55">
+        <v>998.55600872399998</v>
+      </c>
+      <c r="H37" s="1">
         <v>3.9381378285600004</v>
       </c>
-      <c r="H37" s="1">
+      <c r="I37" s="1">
         <f t="shared" si="3"/>
         <v>1.9690689142800002</v>
       </c>
-      <c r="I37" s="1">
+      <c r="J37" s="1">
         <v>21.095482137120001</v>
       </c>
-      <c r="J37" s="1">
+      <c r="K37" s="1">
         <f t="shared" si="4"/>
         <v>10.547741068560001</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>34</v>
       </c>
@@ -6214,36 +6331,39 @@
         <v>68</v>
       </c>
       <c r="C38" s="1">
+        <f t="shared" si="0"/>
+        <v>116</v>
+      </c>
+      <c r="D38" s="56">
+        <v>998.35296630899995</v>
+      </c>
+      <c r="E38" s="1">
         <f t="shared" si="1"/>
-        <v>116</v>
-      </c>
-      <c r="D38" s="25">
-        <v>998.43793274045197</v>
-      </c>
-      <c r="E38" s="1">
-        <f t="shared" si="5"/>
-        <v>998.20070773340001</v>
+        <v>998.14045672400005</v>
       </c>
       <c r="F38" s="26">
         <f t="shared" si="2"/>
-        <v>0.23722500705196126</v>
-      </c>
-      <c r="G38" s="1">
+        <v>0.21250958499990702</v>
+      </c>
+      <c r="G38" s="55">
+        <v>998.49284580200003</v>
+      </c>
+      <c r="H38" s="1">
         <v>6.2947297219199996</v>
       </c>
-      <c r="H38" s="1">
+      <c r="I38" s="1">
         <f t="shared" si="3"/>
         <v>3.1473648609599998</v>
       </c>
-      <c r="I38" s="1">
+      <c r="J38" s="1">
         <v>20.095952442000002</v>
       </c>
-      <c r="J38" s="1">
+      <c r="K38" s="1">
         <f t="shared" si="4"/>
         <v>10.047976221000001</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>35</v>
       </c>
@@ -6251,36 +6371,39 @@
         <v>70</v>
       </c>
       <c r="C39" s="1">
+        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="D39" s="56">
+        <v>998.24566650400004</v>
+      </c>
+      <c r="E39" s="1">
         <f t="shared" si="1"/>
-        <v>114</v>
-      </c>
-      <c r="D39" s="25">
-        <v>998.32268503914804</v>
-      </c>
-      <c r="E39" s="1">
-        <f t="shared" si="5"/>
-        <v>998.1552119910001</v>
+        <v>998.09512979160002</v>
       </c>
       <c r="F39" s="26">
         <f t="shared" si="2"/>
-        <v>0.16747304814794006</v>
-      </c>
-      <c r="G39" s="1">
+        <v>0.15053671240002586</v>
+      </c>
+      <c r="G39" s="55">
+        <v>998.50206760699996</v>
+      </c>
+      <c r="H39" s="1">
         <v>6.5265911733599999</v>
       </c>
-      <c r="H39" s="1">
+      <c r="I39" s="1">
         <f t="shared" si="3"/>
         <v>3.26329558668</v>
       </c>
-      <c r="I39" s="1">
+      <c r="J39" s="1">
         <v>17.92339784376</v>
       </c>
-      <c r="J39" s="1">
+      <c r="K39" s="1">
         <f t="shared" si="4"/>
         <v>8.9616989218800001</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>36</v>
       </c>
@@ -6288,36 +6411,39 @@
         <v>72</v>
       </c>
       <c r="C40" s="1">
+        <f t="shared" si="0"/>
+        <v>112</v>
+      </c>
+      <c r="D40" s="56">
+        <v>998.26776123000002</v>
+      </c>
+      <c r="E40" s="1">
         <f t="shared" si="1"/>
-        <v>112</v>
-      </c>
-      <c r="D40" s="25">
-        <v>998.36567817215803</v>
-      </c>
-      <c r="E40" s="1">
-        <f t="shared" si="5"/>
-        <v>998.10971624860008</v>
+        <v>998.0498028592001</v>
       </c>
       <c r="F40" s="26">
         <f t="shared" si="2"/>
-        <v>0.25596192355794756</v>
-      </c>
-      <c r="G40" s="1">
+        <v>0.21795837079991998</v>
+      </c>
+      <c r="G40" s="55">
+        <v>998.48495201799994</v>
+      </c>
+      <c r="H40" s="1">
         <v>5.5903064419200001</v>
       </c>
-      <c r="H40" s="1">
+      <c r="I40" s="1">
         <f t="shared" si="3"/>
         <v>2.7951532209600001</v>
       </c>
-      <c r="I40" s="1">
+      <c r="J40" s="1">
         <v>17.224948613280002</v>
       </c>
-      <c r="J40" s="1">
+      <c r="K40" s="1">
         <f t="shared" si="4"/>
         <v>8.6124743066400011</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>37</v>
       </c>
@@ -6325,36 +6451,39 @@
         <v>74</v>
       </c>
       <c r="C41" s="1">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="D41" s="56">
+        <v>998.39251708999996</v>
+      </c>
+      <c r="E41" s="1">
         <f t="shared" si="1"/>
-        <v>110</v>
-      </c>
-      <c r="D41" s="25">
-        <v>998.40657596852304</v>
-      </c>
-      <c r="E41" s="1">
-        <f t="shared" si="5"/>
-        <v>998.06422050620006</v>
+        <v>998.00447592680007</v>
       </c>
       <c r="F41" s="26">
         <f t="shared" si="2"/>
-        <v>0.34235546232298475</v>
-      </c>
-      <c r="G41" s="1">
+        <v>0.3880411631998868</v>
+      </c>
+      <c r="G41" s="55">
+        <v>998.49378360499998</v>
+      </c>
+      <c r="H41" s="1">
         <v>5.2508504380799996</v>
       </c>
-      <c r="H41" s="1">
+      <c r="I41" s="1">
         <f t="shared" si="3"/>
         <v>2.6254252190399998</v>
       </c>
-      <c r="I41" s="1">
+      <c r="J41" s="1">
         <v>17.727259805759999</v>
       </c>
-      <c r="J41" s="1">
+      <c r="K41" s="1">
         <f t="shared" si="4"/>
         <v>8.8636299028799996</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>38</v>
       </c>
@@ -6362,36 +6491,39 @@
         <v>76</v>
       </c>
       <c r="C42" s="1">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="D42" s="56">
+        <v>998.36468505899995</v>
+      </c>
+      <c r="E42" s="1">
         <f t="shared" si="1"/>
-        <v>108</v>
-      </c>
-      <c r="D42" s="25">
-        <v>998.359410484406</v>
-      </c>
-      <c r="E42" s="1">
-        <f t="shared" si="5"/>
-        <v>998.01872476380004</v>
+        <v>997.95914899440004</v>
       </c>
       <c r="F42" s="26">
         <f t="shared" si="2"/>
-        <v>0.34068572060596125</v>
-      </c>
-      <c r="G42" s="1">
+        <v>0.40553606459991443</v>
+      </c>
+      <c r="G42" s="55">
+        <v>998.44360322199998</v>
+      </c>
+      <c r="H42" s="1">
         <v>6.4513056343200006</v>
       </c>
-      <c r="H42" s="1">
+      <c r="I42" s="1">
         <f t="shared" si="3"/>
         <v>3.2256528171600003</v>
       </c>
-      <c r="I42" s="1">
+      <c r="J42" s="1">
         <v>16.370320533360001</v>
       </c>
-      <c r="J42" s="1">
+      <c r="K42" s="1">
         <f t="shared" si="4"/>
         <v>8.1851602666800005</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>39</v>
       </c>
@@ -6399,36 +6531,39 @@
         <v>78</v>
       </c>
       <c r="C43" s="1">
+        <f t="shared" si="0"/>
+        <v>106</v>
+      </c>
+      <c r="D43" s="56">
+        <v>998.30859375</v>
+      </c>
+      <c r="E43" s="1">
         <f t="shared" si="1"/>
-        <v>106</v>
-      </c>
-      <c r="D43" s="25">
-        <v>998.34677527273595</v>
-      </c>
-      <c r="E43" s="1">
-        <f t="shared" si="5"/>
-        <v>997.97322902140002</v>
+        <v>997.91382206200001</v>
       </c>
       <c r="F43" s="26">
         <f t="shared" si="2"/>
-        <v>0.373546251335938</v>
-      </c>
-      <c r="G43" s="1">
+        <v>0.39477168799999163</v>
+      </c>
+      <c r="G43" s="55">
+        <v>998.42176692299995</v>
+      </c>
+      <c r="H43" s="1">
         <v>4.6768816800000002</v>
       </c>
-      <c r="H43" s="1">
+      <c r="I43" s="1">
         <f t="shared" si="3"/>
         <v>2.3384408400000001</v>
       </c>
-      <c r="I43" s="1">
+      <c r="J43" s="1">
         <v>15.342077489520001</v>
       </c>
-      <c r="J43" s="1">
+      <c r="K43" s="1">
         <f t="shared" si="4"/>
         <v>7.6710387447600006</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>40</v>
       </c>
@@ -6436,36 +6571,39 @@
         <v>80</v>
       </c>
       <c r="C44" s="1">
+        <f t="shared" si="0"/>
+        <v>104</v>
+      </c>
+      <c r="D44" s="56">
+        <v>998.27655029300001</v>
+      </c>
+      <c r="E44" s="1">
         <f t="shared" si="1"/>
-        <v>104</v>
-      </c>
-      <c r="D44" s="25">
-        <v>998.25138199935304</v>
-      </c>
-      <c r="E44" s="1">
-        <f t="shared" si="5"/>
-        <v>997.92773327899999</v>
+        <v>997.86849512960009</v>
       </c>
       <c r="F44" s="26">
         <f t="shared" si="2"/>
-        <v>0.3236487203530487</v>
-      </c>
-      <c r="G44" s="1">
+        <v>0.40805516339992209</v>
+      </c>
+      <c r="G44" s="55">
+        <v>998.36809554800004</v>
+      </c>
+      <c r="H44" s="1">
         <v>2.2041490384800002</v>
       </c>
-      <c r="H44" s="1">
+      <c r="I44" s="1">
         <f t="shared" si="3"/>
         <v>1.1020745192400001</v>
       </c>
-      <c r="I44" s="1">
+      <c r="J44" s="1">
         <v>16.224960803760002</v>
       </c>
-      <c r="J44" s="1">
+      <c r="K44" s="1">
         <f t="shared" si="4"/>
         <v>8.112480401880001</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>41</v>
       </c>
@@ -6473,36 +6611,39 @@
         <v>82</v>
       </c>
       <c r="C45" s="1">
+        <f t="shared" si="0"/>
+        <v>102</v>
+      </c>
+      <c r="D45" s="56">
+        <v>998.27478027300003</v>
+      </c>
+      <c r="E45" s="1">
         <f t="shared" si="1"/>
-        <v>102</v>
-      </c>
-      <c r="D45" s="25">
-        <v>998.21662362720701</v>
-      </c>
-      <c r="E45" s="1">
-        <f t="shared" si="5"/>
-        <v>997.88223753660009</v>
+        <v>997.82316819720006</v>
       </c>
       <c r="F45" s="26">
         <f t="shared" si="2"/>
-        <v>0.3343860906069267</v>
-      </c>
-      <c r="G45" s="1">
+        <v>0.45161207579997154</v>
+      </c>
+      <c r="G45" s="55">
+        <v>998.31855800699998</v>
+      </c>
+      <c r="H45" s="1">
         <v>2.4360072590400002</v>
       </c>
-      <c r="H45" s="1">
+      <c r="I45" s="1">
         <f t="shared" si="3"/>
         <v>1.2180036295200001</v>
       </c>
-      <c r="I45" s="1">
+      <c r="J45" s="1">
         <v>16.825874125680002</v>
       </c>
-      <c r="J45" s="1">
+      <c r="K45" s="1">
         <f t="shared" si="4"/>
         <v>8.4129370628400011</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>42</v>
       </c>
@@ -6510,36 +6651,39 @@
         <v>84</v>
       </c>
       <c r="C46" s="1">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D46" s="56">
+        <v>998.11816406299999</v>
+      </c>
+      <c r="E46" s="1">
         <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="D46" s="25">
-        <v>998.15137273320204</v>
-      </c>
-      <c r="E46" s="1">
-        <f t="shared" si="5"/>
-        <v>997.83674179420007</v>
+        <v>997.77784126480003</v>
       </c>
       <c r="F46" s="26">
         <f t="shared" si="2"/>
-        <v>0.31463093900197237</v>
-      </c>
-      <c r="G46" s="1">
+        <v>0.34032279819996347</v>
+      </c>
+      <c r="G46" s="55">
+        <v>998.20020198199995</v>
+      </c>
+      <c r="H46" s="1">
         <v>4.4606870400000007</v>
       </c>
-      <c r="H46" s="1">
+      <c r="I46" s="1">
         <f t="shared" si="3"/>
         <v>2.2303435200000004</v>
       </c>
-      <c r="I46" s="1">
+      <c r="J46" s="1">
         <v>15.624017245680001</v>
       </c>
-      <c r="J46" s="1">
+      <c r="K46" s="1">
         <f t="shared" si="4"/>
         <v>7.8120086228400005</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43</v>
       </c>
@@ -6547,36 +6691,39 @@
         <v>86</v>
       </c>
       <c r="C47" s="1">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="D47" s="56">
+        <v>998.12835693399995</v>
+      </c>
+      <c r="E47" s="1">
         <f t="shared" si="1"/>
-        <v>98</v>
-      </c>
-      <c r="D47" s="25">
-        <v>998.06839658030901</v>
-      </c>
-      <c r="E47" s="1">
-        <f t="shared" si="5"/>
-        <v>997.79124605180004</v>
+        <v>997.7325143324</v>
       </c>
       <c r="F47" s="26">
         <f t="shared" si="2"/>
-        <v>0.27715052850896882</v>
-      </c>
-      <c r="G47" s="1">
+        <v>0.3958426015999521</v>
+      </c>
+      <c r="G47" s="55">
+        <v>998.17784604500002</v>
+      </c>
+      <c r="H47" s="1">
         <v>6.22596647616</v>
       </c>
-      <c r="H47" s="1">
+      <c r="I47" s="1">
         <f t="shared" si="3"/>
         <v>3.11298323808</v>
       </c>
-      <c r="I47" s="1">
+      <c r="J47" s="1">
         <v>16.224960803760002</v>
       </c>
-      <c r="J47" s="1">
+      <c r="K47" s="1">
         <f t="shared" si="4"/>
         <v>8.112480401880001</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>44</v>
       </c>
@@ -6584,36 +6731,39 @@
         <v>88</v>
       </c>
       <c r="C48" s="1">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="D48" s="56">
+        <v>997.93566894499997</v>
+      </c>
+      <c r="E48" s="1">
         <f t="shared" si="1"/>
-        <v>96</v>
-      </c>
-      <c r="D48" s="25">
-        <v>997.99487307974198</v>
-      </c>
-      <c r="E48" s="1">
-        <f t="shared" si="5"/>
-        <v>997.74575030940002</v>
+        <v>997.68718740000008</v>
       </c>
       <c r="F48" s="26">
         <f t="shared" si="2"/>
-        <v>0.2491227703419554</v>
-      </c>
-      <c r="G48" s="1">
+        <v>0.2484815449998905</v>
+      </c>
+      <c r="G48" s="55">
+        <v>998.00156731699997</v>
+      </c>
+      <c r="H48" s="1">
         <v>5.6599836000000003</v>
       </c>
-      <c r="H48" s="1">
+      <c r="I48" s="1">
         <f t="shared" si="3"/>
         <v>2.8299918000000002</v>
       </c>
-      <c r="I48" s="1">
+      <c r="J48" s="1">
         <v>15.323576281919999</v>
       </c>
-      <c r="J48" s="1">
+      <c r="K48" s="1">
         <f t="shared" si="4"/>
         <v>7.6617881409599997</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>45</v>
       </c>
@@ -6621,36 +6771,39 @@
         <v>90</v>
       </c>
       <c r="C49" s="1">
+        <f t="shared" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="D49" s="56">
+        <v>997.77313232400002</v>
+      </c>
+      <c r="E49" s="1">
         <f t="shared" si="1"/>
-        <v>94</v>
-      </c>
-      <c r="D49" s="25">
-        <v>997.87972164733299</v>
-      </c>
-      <c r="E49" s="1">
-        <f t="shared" si="5"/>
-        <v>997.700254567</v>
+        <v>997.64186046760005</v>
       </c>
       <c r="F49" s="26">
         <f t="shared" si="2"/>
-        <v>0.17946708033298364</v>
-      </c>
-      <c r="G49" s="1">
+        <v>0.13127185639996242</v>
+      </c>
+      <c r="G49" s="55">
+        <v>997.90277660699996</v>
+      </c>
+      <c r="H49" s="1">
         <v>7.3579636838399995</v>
       </c>
-      <c r="H49" s="1">
+      <c r="I49" s="1">
         <f t="shared" si="3"/>
         <v>3.6789818419199998</v>
       </c>
-      <c r="I49" s="1">
+      <c r="J49" s="1">
         <v>14.422190601840001</v>
       </c>
-      <c r="J49" s="1">
+      <c r="K49" s="1">
         <f t="shared" si="4"/>
         <v>7.2110953009200003</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>46</v>
       </c>
@@ -6658,36 +6811,39 @@
         <v>92</v>
       </c>
       <c r="C50" s="1">
+        <f t="shared" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="D50" s="56">
+        <v>997.77453613299997</v>
+      </c>
+      <c r="E50" s="1">
         <f t="shared" si="1"/>
-        <v>92</v>
-      </c>
-      <c r="D50" s="25">
-        <v>997.80386437664697</v>
-      </c>
-      <c r="E50" s="1">
-        <f t="shared" si="5"/>
-        <v>997.65475882460009</v>
+        <v>997.59653353520002</v>
       </c>
       <c r="F50" s="26">
         <f t="shared" si="2"/>
-        <v>0.14910555204687626</v>
-      </c>
-      <c r="G50" s="1">
+        <v>0.17800259779994576</v>
+      </c>
+      <c r="G50" s="55">
+        <v>997.85193018300004</v>
+      </c>
+      <c r="H50" s="1">
         <v>7.1752969219200011</v>
       </c>
-      <c r="H50" s="1">
+      <c r="I50" s="1">
         <f t="shared" si="3"/>
         <v>3.5876484609600006</v>
       </c>
-      <c r="I50" s="1">
+      <c r="J50" s="1">
         <v>14.060027851440001</v>
       </c>
-      <c r="J50" s="1">
+      <c r="K50" s="1">
         <f t="shared" si="4"/>
         <v>7.0300139257200005</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>47</v>
       </c>
@@ -6695,36 +6851,39 @@
         <v>94</v>
       </c>
       <c r="C51" s="1">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="D51" s="56">
+        <v>997.71441650400004</v>
+      </c>
+      <c r="E51" s="1">
         <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-      <c r="D51" s="25">
-        <v>997.71900235609803</v>
-      </c>
-      <c r="E51" s="1">
-        <f t="shared" si="5"/>
-        <v>997.60926308220007</v>
+        <v>997.55120660280011</v>
       </c>
       <c r="F51" s="26">
         <f t="shared" si="2"/>
-        <v>0.1097392738979579</v>
-      </c>
-      <c r="G51" s="1">
+        <v>0.16320990119993439</v>
+      </c>
+      <c r="G51" s="55">
+        <v>997.76539519200003</v>
+      </c>
+      <c r="H51" s="1">
         <v>9.0559431580799998</v>
       </c>
-      <c r="H51" s="1">
+      <c r="I51" s="1">
         <f t="shared" si="3"/>
         <v>4.5279715790399999</v>
       </c>
-      <c r="I51" s="1">
+      <c r="J51" s="1">
         <v>13.038978544800001</v>
       </c>
-      <c r="J51" s="1">
+      <c r="K51" s="1">
         <f t="shared" si="4"/>
         <v>6.5194892724000004</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>48</v>
       </c>
@@ -6732,36 +6891,39 @@
         <v>96</v>
       </c>
       <c r="C52" s="1">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="D52" s="56">
+        <v>997.65747070299994</v>
+      </c>
+      <c r="E52" s="1">
         <f t="shared" si="1"/>
-        <v>88</v>
-      </c>
-      <c r="D52" s="25">
-        <v>997.61845375013797</v>
-      </c>
-      <c r="E52" s="1">
-        <f t="shared" si="5"/>
-        <v>997.56376733980005</v>
+        <v>997.50587967040008</v>
       </c>
       <c r="F52" s="26">
         <f t="shared" si="2"/>
-        <v>5.4686410337922098E-2</v>
-      </c>
-      <c r="G52" s="1">
+        <v>0.1515910325998675</v>
+      </c>
+      <c r="G52" s="55">
+        <v>997.68376785800001</v>
+      </c>
+      <c r="H52" s="1">
         <v>9.2788132838400017</v>
       </c>
-      <c r="H52" s="1">
+      <c r="I52" s="1">
         <f t="shared" si="3"/>
         <v>4.6394066419200009</v>
       </c>
-      <c r="I52" s="1">
+      <c r="J52" s="1">
         <v>13.979499020880001</v>
       </c>
-      <c r="J52" s="1">
+      <c r="K52" s="1">
         <f t="shared" si="4"/>
         <v>6.9897495104400003</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>49</v>
       </c>
@@ -6769,36 +6931,39 @@
         <v>98</v>
       </c>
       <c r="C53" s="1">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="D53" s="56">
+        <v>997.44671630899995</v>
+      </c>
+      <c r="E53" s="1">
         <f t="shared" si="1"/>
-        <v>86</v>
-      </c>
-      <c r="D53" s="25">
-        <v>997.41253044899895</v>
-      </c>
-      <c r="E53" s="1">
-        <f t="shared" si="5"/>
-        <v>997.51827159740003</v>
+        <v>997.46055273800005</v>
       </c>
       <c r="F53" s="26">
         <f t="shared" si="2"/>
-        <v>-0.10574114840107995</v>
-      </c>
-      <c r="G53" s="1">
+        <v>-1.3836429000093631E-2</v>
+      </c>
+      <c r="G53" s="55">
+        <v>997.47370346399998</v>
+      </c>
+      <c r="H53" s="1">
         <v>9.9360528228000007</v>
       </c>
-      <c r="H53" s="1">
+      <c r="I53" s="1">
         <f t="shared" si="3"/>
         <v>4.9680264114000003</v>
       </c>
-      <c r="I53" s="1">
+      <c r="J53" s="1">
         <v>11.437772796240001</v>
       </c>
-      <c r="J53" s="1">
+      <c r="K53" s="1">
         <f t="shared" si="4"/>
         <v>5.7188863981200004</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>50</v>
       </c>
@@ -6806,36 +6971,39 @@
         <v>100</v>
       </c>
       <c r="C54" s="1">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="D54" s="56">
+        <v>997.09106445299994</v>
+      </c>
+      <c r="E54" s="1">
         <f t="shared" si="1"/>
-        <v>84</v>
-      </c>
-      <c r="D54" s="25">
-        <v>997.18064394553096</v>
-      </c>
-      <c r="E54" s="1">
-        <f t="shared" si="5"/>
-        <v>997.47277585500001</v>
+        <v>997.41522580560002</v>
       </c>
       <c r="F54" s="26">
         <f t="shared" si="2"/>
-        <v>-0.29213190946904888</v>
-      </c>
-      <c r="G54" s="1">
+        <v>-0.32416135260007195</v>
+      </c>
+      <c r="G54" s="55">
+        <v>997.20739055900003</v>
+      </c>
+      <c r="H54" s="1">
         <v>9.4131079809600013</v>
       </c>
-      <c r="H54" s="1">
+      <c r="I54" s="1">
         <f t="shared" si="3"/>
         <v>4.7065539904800007</v>
       </c>
-      <c r="I54" s="1">
+      <c r="J54" s="1">
         <v>11.978304902880001</v>
       </c>
-      <c r="J54" s="1">
+      <c r="K54" s="1">
         <f t="shared" si="4"/>
         <v>5.9891524514400007</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>51</v>
       </c>
@@ -6843,36 +7011,39 @@
         <v>102</v>
       </c>
       <c r="C55" s="1">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="D55" s="56">
+        <v>996.69470214800003</v>
+      </c>
+      <c r="E55" s="1">
         <f t="shared" si="1"/>
-        <v>82</v>
-      </c>
-      <c r="D55" s="25">
-        <v>996.88817521392298</v>
-      </c>
-      <c r="E55" s="1">
-        <f t="shared" si="5"/>
-        <v>997.4272801126001</v>
+        <v>997.3698988732001</v>
       </c>
       <c r="F55" s="26">
         <f t="shared" si="2"/>
-        <v>-0.53910489867712386</v>
-      </c>
-      <c r="G55" s="1">
+        <v>-0.67519672520006679</v>
+      </c>
+      <c r="G55" s="55">
+        <v>996.88826785000003</v>
+      </c>
+      <c r="H55" s="1">
         <v>8.8901625904799992</v>
       </c>
-      <c r="H55" s="1">
+      <c r="I55" s="1">
         <f t="shared" si="3"/>
         <v>4.4450812952399996</v>
       </c>
-      <c r="I55" s="1">
+      <c r="J55" s="1">
         <v>10.50029861328</v>
       </c>
-      <c r="J55" s="1">
+      <c r="K55" s="1">
         <f t="shared" si="4"/>
         <v>5.25014930664</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>52</v>
       </c>
@@ -6880,36 +7051,39 @@
         <v>104</v>
       </c>
       <c r="C56" s="1">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="D56" s="56">
+        <v>996.87084960899995</v>
+      </c>
+      <c r="E56" s="1">
         <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="D56" s="25">
-        <v>996.81473311166906</v>
-      </c>
-      <c r="E56" s="1">
-        <f t="shared" si="5"/>
-        <v>997.38178437020008</v>
+        <v>997.32457194080007</v>
       </c>
       <c r="F56" s="26">
         <f t="shared" si="2"/>
-        <v>-0.56705125853102345</v>
-      </c>
-      <c r="G56" s="1">
+        <v>-0.45372233180012245</v>
+      </c>
+      <c r="G56" s="55">
+        <v>997.09526121399995</v>
+      </c>
+      <c r="H56" s="1">
         <v>9.9360528228000007</v>
       </c>
-      <c r="H56" s="1">
+      <c r="I56" s="1">
         <f t="shared" si="3"/>
         <v>4.9680264114000003</v>
       </c>
-      <c r="I56" s="1">
+      <c r="J56" s="1">
         <v>10.65449732952</v>
       </c>
-      <c r="J56" s="1">
+      <c r="K56" s="1">
         <f t="shared" si="4"/>
         <v>5.3272486647599999</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>53</v>
       </c>
@@ -6917,36 +7091,39 @@
         <v>106</v>
       </c>
       <c r="C57" s="1">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="D57" s="56">
+        <v>996.51507568399995</v>
+      </c>
+      <c r="E57" s="1">
         <f t="shared" si="1"/>
-        <v>78</v>
-      </c>
-      <c r="D57" s="25">
-        <v>996.79623203971903</v>
-      </c>
-      <c r="E57" s="1">
-        <f t="shared" si="5"/>
-        <v>997.33628862780006</v>
+        <v>997.27924500840004</v>
       </c>
       <c r="F57" s="26">
         <f t="shared" si="2"/>
-        <v>-0.54005658808102908</v>
-      </c>
-      <c r="G57" s="1">
+        <v>-0.76416932440008623</v>
+      </c>
+      <c r="G57" s="55">
+        <v>997.01873478899995</v>
+      </c>
+      <c r="H57" s="1">
         <v>6.1463527466400008</v>
       </c>
-      <c r="H57" s="1">
+      <c r="I57" s="1">
         <f t="shared" si="3"/>
         <v>3.0731763733200004</v>
       </c>
-      <c r="I57" s="1">
+      <c r="J57" s="1">
         <v>11.35764044952</v>
       </c>
-      <c r="J57" s="1">
+      <c r="K57" s="1">
         <f t="shared" si="4"/>
         <v>5.6788202247599999</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>54</v>
       </c>
@@ -6954,36 +7131,39 @@
         <v>108</v>
       </c>
       <c r="C58" s="1">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="D58" s="56">
+        <v>996.45324706999997</v>
+      </c>
+      <c r="E58" s="1">
         <f t="shared" si="1"/>
-        <v>76</v>
-      </c>
-      <c r="D58" s="25">
-        <v>996.79130575490501</v>
-      </c>
-      <c r="E58" s="1">
-        <f t="shared" si="5"/>
-        <v>997.29079288540004</v>
+        <v>997.23391807600001</v>
       </c>
       <c r="F58" s="26">
         <f t="shared" si="2"/>
-        <v>-0.49948713049502658</v>
-      </c>
-      <c r="G58" s="1">
+        <v>-0.78067100600003414</v>
+      </c>
+      <c r="G58" s="55">
+        <v>997.00522618699995</v>
+      </c>
+      <c r="H58" s="1">
         <v>6.1463527466400008</v>
       </c>
-      <c r="H58" s="1">
+      <c r="I58" s="1">
         <f t="shared" si="3"/>
         <v>3.0731763733200004</v>
       </c>
-      <c r="I58" s="1">
+      <c r="J58" s="1">
         <v>11.35255007616</v>
       </c>
-      <c r="J58" s="1">
+      <c r="K58" s="1">
         <f t="shared" si="4"/>
         <v>5.67627503808</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>55</v>
       </c>
@@ -6991,36 +7171,39 @@
         <v>110</v>
       </c>
       <c r="C59" s="1">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="D59" s="56">
+        <v>996.61364746100003</v>
+      </c>
+      <c r="E59" s="1">
         <f t="shared" si="1"/>
-        <v>74</v>
-      </c>
-      <c r="D59" s="25">
-        <v>996.70813517252498</v>
-      </c>
-      <c r="E59" s="1">
-        <f t="shared" si="5"/>
-        <v>997.24529714300002</v>
+        <v>997.18859114360009</v>
       </c>
       <c r="F59" s="26">
         <f t="shared" si="2"/>
-        <v>-0.53716197047504011</v>
-      </c>
-      <c r="G59" s="1">
+        <v>-0.57494368260006468</v>
+      </c>
+      <c r="G59" s="55">
+        <v>997.07177251799999</v>
+      </c>
+      <c r="H59" s="1">
         <v>6.1463527466400008</v>
       </c>
-      <c r="H59" s="1">
+      <c r="I59" s="1">
         <f t="shared" si="3"/>
         <v>3.0731763733200004</v>
       </c>
-      <c r="I59" s="1">
+      <c r="J59" s="1">
         <v>9.64838316192</v>
       </c>
-      <c r="J59" s="1">
+      <c r="K59" s="1">
         <f t="shared" si="4"/>
         <v>4.82419158096</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>56</v>
       </c>
@@ -7028,36 +7211,39 @@
         <v>112</v>
       </c>
       <c r="C60" s="1">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="D60" s="56">
+        <v>996.47576904300001</v>
+      </c>
+      <c r="E60" s="1">
         <f t="shared" si="1"/>
-        <v>72</v>
-      </c>
-      <c r="D60" s="25">
-        <v>996.65623580577699</v>
-      </c>
-      <c r="E60" s="1">
-        <f t="shared" si="5"/>
-        <v>997.19980140059999</v>
+        <v>997.14326421120006</v>
       </c>
       <c r="F60" s="26">
         <f t="shared" si="2"/>
-        <v>-0.54356559482300781</v>
-      </c>
-      <c r="G60" s="1">
+        <v>-0.66749516820004828</v>
+      </c>
+      <c r="G60" s="55">
+        <v>997.07299007500001</v>
+      </c>
+      <c r="H60" s="1">
         <v>6.1463527466400008</v>
       </c>
-      <c r="H60" s="1">
+      <c r="I60" s="1">
         <f t="shared" si="3"/>
         <v>3.0731763733200004</v>
       </c>
-      <c r="I60" s="1">
+      <c r="J60" s="1">
         <v>10.93485230856</v>
       </c>
-      <c r="J60" s="1">
+      <c r="K60" s="1">
         <f t="shared" si="4"/>
         <v>5.46742615428</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>57</v>
       </c>
@@ -7065,36 +7251,39 @@
         <v>114</v>
       </c>
       <c r="C61" s="1">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="D61" s="56">
+        <v>996.44604492200006</v>
+      </c>
+      <c r="E61" s="1">
         <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-      <c r="D61" s="25">
-        <v>996.64210770997897</v>
-      </c>
-      <c r="E61" s="1">
-        <f t="shared" si="5"/>
-        <v>997.15430565820009</v>
+        <v>997.09793727880003</v>
       </c>
       <c r="F61" s="26">
         <f t="shared" si="2"/>
-        <v>-0.51219794822111453</v>
-      </c>
-      <c r="G61" s="1">
+        <v>-0.65189235679997637</v>
+      </c>
+      <c r="G61" s="55">
+        <v>997.08109516800005</v>
+      </c>
+      <c r="H61" s="1">
         <v>5.6341671314399999</v>
       </c>
-      <c r="H61" s="1">
+      <c r="I61" s="1">
         <f t="shared" si="3"/>
         <v>2.81708356572</v>
       </c>
-      <c r="I61" s="1">
+      <c r="J61" s="1">
         <v>11.578072358160002</v>
       </c>
-      <c r="J61" s="1">
+      <c r="K61" s="1">
         <f t="shared" si="4"/>
         <v>5.7890361790800009</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>58</v>
       </c>
@@ -7102,36 +7291,39 @@
         <v>116</v>
       </c>
       <c r="C62" s="1">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="D62" s="56">
+        <v>996.552246094</v>
+      </c>
+      <c r="E62" s="1">
         <f t="shared" si="1"/>
-        <v>68</v>
-      </c>
-      <c r="D62" s="25">
-        <v>996.72446267731698</v>
-      </c>
-      <c r="E62" s="1">
-        <f t="shared" si="5"/>
-        <v>997.10880991580007</v>
+        <v>997.0526103464</v>
       </c>
       <c r="F62" s="26">
         <f t="shared" si="2"/>
-        <v>-0.38434723848308749</v>
-      </c>
-      <c r="G62" s="1">
+        <v>-0.50036425240000426</v>
+      </c>
+      <c r="G62" s="55">
+        <v>997.04836530900002</v>
+      </c>
+      <c r="H62" s="1">
         <v>5.121950731440001</v>
       </c>
-      <c r="H62" s="1">
+      <c r="I62" s="1">
         <f t="shared" si="3"/>
         <v>2.5609753657200005</v>
       </c>
-      <c r="I62" s="1">
+      <c r="J62" s="1">
         <v>11.578072358160002</v>
       </c>
-      <c r="J62" s="1">
+      <c r="K62" s="1">
         <f t="shared" si="4"/>
         <v>5.7890361790800009</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>59</v>
       </c>
@@ -7139,36 +7331,39 @@
         <v>118</v>
       </c>
       <c r="C63" s="1">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="D63" s="56">
+        <v>997.04748535199997</v>
+      </c>
+      <c r="E63" s="1">
         <f t="shared" si="1"/>
-        <v>66</v>
-      </c>
-      <c r="D63" s="25">
-        <v>996.78911073871302</v>
-      </c>
-      <c r="E63" s="1">
-        <f t="shared" si="5"/>
-        <v>997.06331417340004</v>
+        <v>997.00728341400009</v>
       </c>
       <c r="F63" s="26">
         <f t="shared" si="2"/>
-        <v>-0.27420343468702413</v>
-      </c>
-      <c r="G63" s="1">
+        <v>4.020193799988192E-2</v>
+      </c>
+      <c r="G63" s="55">
+        <v>997.23704107599997</v>
+      </c>
+      <c r="H63" s="1">
         <v>4.0844724914399997</v>
       </c>
-      <c r="H63" s="1">
+      <c r="I63" s="1">
         <f t="shared" si="3"/>
         <v>2.0422362457199998</v>
       </c>
-      <c r="I63" s="1">
+      <c r="J63" s="1">
         <v>11.830294175279999</v>
       </c>
-      <c r="J63" s="1">
+      <c r="K63" s="1">
         <f t="shared" si="4"/>
         <v>5.9151470876399994</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>60</v>
       </c>
@@ -7176,36 +7371,39 @@
         <v>120</v>
       </c>
       <c r="C64" s="1">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="D64" s="56">
+        <v>996.49261474599996</v>
+      </c>
+      <c r="E64" s="1">
         <f t="shared" si="1"/>
-        <v>64</v>
-      </c>
-      <c r="D64" s="25">
-        <v>996.78133163452105</v>
-      </c>
-      <c r="E64" s="1">
-        <f t="shared" si="5"/>
-        <v>997.01781843100002</v>
+        <v>996.96195648160005</v>
       </c>
       <c r="F64" s="26">
         <f t="shared" si="2"/>
-        <v>-0.23648679647897097</v>
-      </c>
-      <c r="G64" s="1">
+        <v>-0.4693417356000964</v>
+      </c>
+      <c r="G64" s="55">
+        <v>996.97599705200003</v>
+      </c>
+      <c r="H64" s="1">
         <v>3.8826644724000001</v>
       </c>
-      <c r="H64" s="1">
+      <c r="I64" s="1">
         <f t="shared" si="3"/>
         <v>1.9413322362000001</v>
       </c>
-      <c r="I64" s="1">
+      <c r="J64" s="1">
         <v>12.84930174864</v>
       </c>
-      <c r="J64" s="1">
+      <c r="K64" s="1">
         <f t="shared" si="4"/>
         <v>6.4246508743200001</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>61</v>
       </c>
@@ -7213,36 +7411,39 @@
         <v>122</v>
       </c>
       <c r="C65" s="1">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="D65" s="56">
+        <v>996.57025146499996</v>
+      </c>
+      <c r="E65" s="1">
         <f t="shared" si="1"/>
-        <v>62</v>
-      </c>
-      <c r="D65" s="25">
-        <v>996.784529194078</v>
-      </c>
-      <c r="E65" s="1">
-        <f t="shared" si="5"/>
-        <v>996.9723226886</v>
+        <v>996.91662954920002</v>
       </c>
       <c r="F65" s="26">
         <f t="shared" si="2"/>
-        <v>-0.18779349452199767</v>
-      </c>
-      <c r="G65" s="1">
+        <v>-0.34637808420006877</v>
+      </c>
+      <c r="G65" s="55">
+        <v>997.05408714400005</v>
+      </c>
+      <c r="H65" s="1">
         <v>4.0844724914399997</v>
       </c>
-      <c r="H65" s="1">
+      <c r="I65" s="1">
         <f t="shared" si="3"/>
         <v>2.0422362457199998</v>
       </c>
-      <c r="I65" s="1">
+      <c r="J65" s="1">
         <v>12.487656365759999</v>
       </c>
-      <c r="J65" s="1">
+      <c r="K65" s="1">
         <f t="shared" si="4"/>
         <v>6.2438281828799997</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>62</v>
       </c>
@@ -7250,36 +7451,39 @@
         <v>124</v>
       </c>
       <c r="C66" s="1">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="D66" s="56">
+        <v>996.730957031</v>
+      </c>
+      <c r="E66" s="1">
         <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="D66" s="25">
-        <v>996.81885398023405</v>
-      </c>
-      <c r="E66" s="1">
-        <f t="shared" si="5"/>
-        <v>996.92682694620009</v>
+        <v>996.87130261680011</v>
       </c>
       <c r="F66" s="26">
         <f t="shared" si="2"/>
-        <v>-0.10797296596604156</v>
-      </c>
-      <c r="G66" s="1">
+        <v>-0.14034558580010525</v>
+      </c>
+      <c r="G66" s="55">
+        <v>997.07245436200003</v>
+      </c>
+      <c r="H66" s="1">
         <v>3.5739019200000004</v>
       </c>
-      <c r="H66" s="1">
+      <c r="I66" s="1">
         <f t="shared" si="3"/>
         <v>1.7869509600000002</v>
       </c>
-      <c r="I66" s="1">
+      <c r="J66" s="1">
         <v>13.72154732952</v>
       </c>
-      <c r="J66" s="1">
+      <c r="K66" s="1">
         <f t="shared" si="4"/>
         <v>6.8607736647599999</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>63</v>
       </c>
@@ -7287,36 +7491,39 @@
         <v>126</v>
       </c>
       <c r="C67" s="1">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="D67" s="56">
+        <v>996.84869384800004</v>
+      </c>
+      <c r="E67" s="1">
         <f t="shared" si="1"/>
-        <v>58</v>
-      </c>
-      <c r="D67" s="25">
-        <v>996.911396988452</v>
-      </c>
-      <c r="E67" s="1">
-        <f t="shared" si="5"/>
-        <v>996.88133120380007</v>
+        <v>996.82597568440008</v>
       </c>
       <c r="F67" s="26">
         <f t="shared" si="2"/>
-        <v>3.0065784651924332E-2</v>
-      </c>
-      <c r="G67" s="1">
+        <v>2.2718163599961372E-2</v>
+      </c>
+      <c r="G67" s="55">
+        <v>997.07928538099998</v>
+      </c>
+      <c r="H67" s="1">
         <v>3.82377705144</v>
       </c>
-      <c r="H67" s="1">
+      <c r="I67" s="1">
         <f t="shared" si="3"/>
         <v>1.91188852572</v>
       </c>
-      <c r="I67" s="1">
+      <c r="J67" s="1">
         <v>12.864511268640001</v>
       </c>
-      <c r="J67" s="1">
+      <c r="K67" s="1">
         <f t="shared" si="4"/>
         <v>6.4322556343200006</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>64</v>
       </c>
@@ -7324,36 +7531,39 @@
         <v>128</v>
       </c>
       <c r="C68" s="1">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="D68" s="56">
+        <v>996.854980469</v>
+      </c>
+      <c r="E68" s="1">
         <f t="shared" si="1"/>
-        <v>56</v>
-      </c>
-      <c r="D68" s="25">
-        <v>996.88809644481796</v>
-      </c>
-      <c r="E68" s="1">
-        <f t="shared" ref="E68:E96" si="6">-0.0227478712*B68+999.747562975</f>
-        <v>996.83583546140005</v>
+        <v>996.78064875200005</v>
       </c>
       <c r="F68" s="26">
         <f t="shared" si="2"/>
-        <v>5.2260983417909301E-2</v>
-      </c>
-      <c r="G68" s="1">
+        <v>7.4331716999950004E-2</v>
+      </c>
+      <c r="G68" s="55">
+        <v>997.06460681199997</v>
+      </c>
+      <c r="H68" s="1">
         <v>4.7173286400000007</v>
       </c>
-      <c r="H68" s="1">
+      <c r="I68" s="1">
         <f t="shared" si="3"/>
         <v>2.3586643200000004</v>
       </c>
-      <c r="I68" s="1">
+      <c r="J68" s="1">
         <v>12.864511268640001</v>
       </c>
-      <c r="J68" s="1">
+      <c r="K68" s="1">
         <f t="shared" si="4"/>
         <v>6.4322556343200006</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>65</v>
       </c>
@@ -7361,36 +7571,39 @@
         <v>130</v>
       </c>
       <c r="C69" s="1">
-        <f t="shared" ref="C69:C96" si="7">$B$96-B69</f>
+        <f t="shared" ref="C69:C96" si="5">$B$96-B69</f>
         <v>54</v>
       </c>
-      <c r="D69" s="25">
-        <v>996.90540322839502</v>
+      <c r="D69" s="56">
+        <v>996.918457031</v>
       </c>
       <c r="E69" s="1">
-        <f t="shared" si="6"/>
-        <v>996.79033971900003</v>
+        <f t="shared" ref="E69:E96" si="6">-0.0226634662*B69+999.6815724256</f>
+        <v>996.73532181960002</v>
       </c>
       <c r="F69" s="26">
-        <f t="shared" ref="F69:F96" si="8">D69-E69</f>
-        <v>0.11506350939498589</v>
-      </c>
-      <c r="G69" s="1">
+        <f t="shared" ref="F69:F96" si="7">D69-E69</f>
+        <v>0.18313521139998556</v>
+      </c>
+      <c r="G69" s="55">
+        <v>997.08281013099997</v>
+      </c>
+      <c r="H69" s="1">
         <v>4.7173286400000007</v>
       </c>
-      <c r="H69" s="1">
-        <f t="shared" ref="H69:H96" si="9">G69/2</f>
+      <c r="I69" s="1">
+        <f t="shared" ref="I69:I96" si="8">H69/2</f>
         <v>2.3586643200000004</v>
       </c>
-      <c r="I69" s="1">
+      <c r="J69" s="1">
         <v>12.835372358160001</v>
       </c>
-      <c r="J69" s="1">
-        <f t="shared" ref="J69:J96" si="10">I69/2</f>
+      <c r="K69" s="1">
+        <f t="shared" ref="K69:K96" si="9">J69/2</f>
         <v>6.4176861790800004</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>66</v>
       </c>
@@ -7398,36 +7611,39 @@
         <v>132</v>
       </c>
       <c r="C70" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>52</v>
       </c>
-      <c r="D70" s="25">
-        <v>996.91490232752005</v>
+      <c r="D70" s="56">
+        <v>996.91546630899995</v>
       </c>
       <c r="E70" s="1">
         <f t="shared" si="6"/>
-        <v>996.74484397660001</v>
+        <v>996.6899948872001</v>
       </c>
       <c r="F70" s="26">
+        <f t="shared" si="7"/>
+        <v>0.22547142179985258</v>
+      </c>
+      <c r="G70" s="55">
+        <v>997.07011327500004</v>
+      </c>
+      <c r="H70" s="1">
+        <v>5.2414626285600008</v>
+      </c>
+      <c r="I70" s="1">
         <f t="shared" si="8"/>
-        <v>0.17005835092004418</v>
-      </c>
-      <c r="G70" s="1">
-        <v>5.2414626285600008</v>
-      </c>
-      <c r="H70" s="1">
+        <v>2.6207313142800004</v>
+      </c>
+      <c r="J70" s="1">
+        <v>11.621567379120002</v>
+      </c>
+      <c r="K70" s="1">
         <f t="shared" si="9"/>
-        <v>2.6207313142800004</v>
-      </c>
-      <c r="I70" s="1">
-        <v>11.621567379120002</v>
-      </c>
-      <c r="J70" s="1">
-        <f t="shared" si="10"/>
         <v>5.8107836895600009</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>67</v>
       </c>
@@ -7435,36 +7651,39 @@
         <v>134</v>
       </c>
       <c r="C71" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="D71" s="25">
-        <v>996.93001384210095</v>
+      <c r="D71" s="56">
+        <v>996.89660644499997</v>
       </c>
       <c r="E71" s="1">
         <f t="shared" si="6"/>
-        <v>996.6993482342001</v>
+        <v>996.64466795480007</v>
       </c>
       <c r="F71" s="26">
+        <f t="shared" si="7"/>
+        <v>0.25193849019990466</v>
+      </c>
+      <c r="G71" s="55">
+        <v>997.03609181700006</v>
+      </c>
+      <c r="H71" s="1">
+        <v>4.9291648228800007</v>
+      </c>
+      <c r="I71" s="1">
         <f t="shared" si="8"/>
-        <v>0.23066560790084623</v>
-      </c>
-      <c r="G71" s="1">
-        <v>4.9291648228800007</v>
-      </c>
-      <c r="H71" s="1">
+        <v>2.4645824114400003</v>
+      </c>
+      <c r="J71" s="1">
+        <v>12.864511268640001</v>
+      </c>
+      <c r="K71" s="1">
         <f t="shared" si="9"/>
-        <v>2.4645824114400003</v>
-      </c>
-      <c r="I71" s="1">
-        <v>12.864511268640001</v>
-      </c>
-      <c r="J71" s="1">
-        <f t="shared" si="10"/>
         <v>6.4322556343200006</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>68</v>
       </c>
@@ -7472,36 +7691,39 @@
         <v>136</v>
       </c>
       <c r="C72" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>48</v>
       </c>
-      <c r="D72" s="25">
-        <v>996.90236093524902</v>
+      <c r="D72" s="56">
+        <v>996.88189697300004</v>
       </c>
       <c r="E72" s="1">
         <f t="shared" si="6"/>
-        <v>996.65385249180008</v>
+        <v>996.59934102240004</v>
       </c>
       <c r="F72" s="26">
+        <f t="shared" si="7"/>
+        <v>0.28255595059999905</v>
+      </c>
+      <c r="G72" s="55">
+        <v>997.04323853599999</v>
+      </c>
+      <c r="H72" s="1">
+        <v>5.5453179009599998</v>
+      </c>
+      <c r="I72" s="1">
         <f t="shared" si="8"/>
-        <v>0.24850844344894085</v>
-      </c>
-      <c r="G72" s="1">
-        <v>5.5453179009599998</v>
-      </c>
-      <c r="H72" s="1">
+        <v>2.7726589504799999</v>
+      </c>
+      <c r="J72" s="1">
+        <v>13.388828106720002</v>
+      </c>
+      <c r="K72" s="1">
         <f t="shared" si="9"/>
-        <v>2.7726589504799999</v>
-      </c>
-      <c r="I72" s="1">
-        <v>13.388828106720002</v>
-      </c>
-      <c r="J72" s="1">
-        <f t="shared" si="10"/>
         <v>6.6944140533600009</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>69</v>
       </c>
@@ -7509,36 +7731,39 @@
         <v>138</v>
       </c>
       <c r="C73" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>46</v>
       </c>
-      <c r="D73" s="25">
-        <v>996.89474024707897</v>
+      <c r="D73" s="56">
+        <v>996.85784912099996</v>
       </c>
       <c r="E73" s="1">
         <f t="shared" si="6"/>
-        <v>996.60835674940006</v>
+        <v>996.55401409000001</v>
       </c>
       <c r="F73" s="26">
+        <f t="shared" si="7"/>
+        <v>0.30383503099994869</v>
+      </c>
+      <c r="G73" s="55">
+        <v>996.99697784700004</v>
+      </c>
+      <c r="H73" s="1">
+        <v>5.3842922743199999</v>
+      </c>
+      <c r="I73" s="1">
         <f t="shared" si="8"/>
-        <v>0.28638349767891214</v>
-      </c>
-      <c r="G73" s="1">
-        <v>5.3842922743199999</v>
-      </c>
-      <c r="H73" s="1">
+        <v>2.69214613716</v>
+      </c>
+      <c r="J73" s="1">
+        <v>13.154131984800001</v>
+      </c>
+      <c r="K73" s="1">
         <f t="shared" si="9"/>
-        <v>2.69214613716</v>
-      </c>
-      <c r="I73" s="1">
-        <v>13.154131984800001</v>
-      </c>
-      <c r="J73" s="1">
-        <f t="shared" si="10"/>
         <v>6.5770659924000006</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>70</v>
       </c>
@@ -7546,36 +7771,39 @@
         <v>140</v>
       </c>
       <c r="C74" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>44</v>
       </c>
-      <c r="D74" s="25">
-        <v>996.90924566582703</v>
+      <c r="D74" s="56">
+        <v>996.87597656299999</v>
       </c>
       <c r="E74" s="1">
         <f t="shared" si="6"/>
-        <v>996.56286100700004</v>
+        <v>996.50868715760009</v>
       </c>
       <c r="F74" s="26">
+        <f t="shared" si="7"/>
+        <v>0.36728940539990163</v>
+      </c>
+      <c r="G74" s="55">
+        <v>996.99680069299995</v>
+      </c>
+      <c r="H74" s="1">
+        <v>5.8026603580800007</v>
+      </c>
+      <c r="I74" s="1">
         <f t="shared" si="8"/>
-        <v>0.34638465882699165</v>
-      </c>
-      <c r="G74" s="1">
-        <v>5.8026603580800007</v>
-      </c>
-      <c r="H74" s="1">
+        <v>2.9013301790400003</v>
+      </c>
+      <c r="J74" s="1">
+        <v>12.781726796160001</v>
+      </c>
+      <c r="K74" s="1">
         <f t="shared" si="9"/>
-        <v>2.9013301790400003</v>
-      </c>
-      <c r="I74" s="1">
-        <v>12.781726796160001</v>
-      </c>
-      <c r="J74" s="1">
-        <f t="shared" si="10"/>
         <v>6.3908633980800005</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>71</v>
       </c>
@@ -7583,36 +7811,39 @@
         <v>142</v>
       </c>
       <c r="C75" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>42</v>
       </c>
-      <c r="D75" s="25">
-        <v>996.84478887428804</v>
+      <c r="D75" s="56">
+        <v>996.77276611299999</v>
       </c>
       <c r="E75" s="1">
         <f t="shared" si="6"/>
-        <v>996.51736526460002</v>
+        <v>996.46336022520006</v>
       </c>
       <c r="F75" s="26">
+        <f t="shared" si="7"/>
+        <v>0.30940588779992595</v>
+      </c>
+      <c r="G75" s="55">
+        <v>996.87565624800004</v>
+      </c>
+      <c r="H75" s="1">
+        <v>4.9291648228800007</v>
+      </c>
+      <c r="I75" s="1">
         <f t="shared" si="8"/>
-        <v>0.32742360968802586</v>
-      </c>
-      <c r="G75" s="1">
-        <v>4.9291648228800007</v>
-      </c>
-      <c r="H75" s="1">
+        <v>2.4645824114400003</v>
+      </c>
+      <c r="J75" s="1">
+        <v>13.154131984800001</v>
+      </c>
+      <c r="K75" s="1">
         <f t="shared" si="9"/>
-        <v>2.4645824114400003</v>
-      </c>
-      <c r="I75" s="1">
-        <v>13.154131984800001</v>
-      </c>
-      <c r="J75" s="1">
-        <f t="shared" si="10"/>
         <v>6.5770659924000006</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>72</v>
       </c>
@@ -7620,36 +7851,39 @@
         <v>144</v>
       </c>
       <c r="C76" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
-      <c r="D76" s="25">
-        <v>996.75371275445696</v>
+      <c r="D76" s="56">
+        <v>996.707519531</v>
       </c>
       <c r="E76" s="1">
         <f t="shared" si="6"/>
-        <v>996.4718695222</v>
+        <v>996.41803329280003</v>
       </c>
       <c r="F76" s="26">
+        <f t="shared" si="7"/>
+        <v>0.2894862381999701</v>
+      </c>
+      <c r="G76" s="55">
+        <v>996.76803570200002</v>
+      </c>
+      <c r="H76" s="1">
+        <v>5.5453179009599998</v>
+      </c>
+      <c r="I76" s="1">
         <f t="shared" si="8"/>
-        <v>0.28184323225696062</v>
-      </c>
-      <c r="G76" s="1">
-        <v>5.5453179009599998</v>
-      </c>
-      <c r="H76" s="1">
+        <v>2.7726589504799999</v>
+      </c>
+      <c r="J76" s="1">
+        <v>12.232051055279999</v>
+      </c>
+      <c r="K76" s="1">
         <f t="shared" si="9"/>
-        <v>2.7726589504799999</v>
-      </c>
-      <c r="I76" s="1">
-        <v>12.232051055279999</v>
-      </c>
-      <c r="J76" s="1">
-        <f t="shared" si="10"/>
         <v>6.1160255276399997</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>73</v>
       </c>
@@ -7657,36 +7891,39 @@
         <v>146</v>
       </c>
       <c r="C77" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>38</v>
       </c>
-      <c r="D77" s="25">
-        <v>996.61583071493806</v>
+      <c r="D77" s="56">
+        <v>996.49932861299999</v>
       </c>
       <c r="E77" s="1">
         <f t="shared" si="6"/>
-        <v>996.42637377980009</v>
+        <v>996.3727063604</v>
       </c>
       <c r="F77" s="26">
+        <f t="shared" si="7"/>
+        <v>0.1266222525999865</v>
+      </c>
+      <c r="G77" s="55">
+        <v>996.62614132399995</v>
+      </c>
+      <c r="H77" s="1">
+        <v>3.9692885409600001</v>
+      </c>
+      <c r="I77" s="1">
         <f t="shared" si="8"/>
-        <v>0.18945693513796869</v>
-      </c>
-      <c r="G77" s="1">
-        <v>3.9692885409600001</v>
-      </c>
-      <c r="H77" s="1">
+        <v>1.98464427048</v>
+      </c>
+      <c r="J77" s="1">
+        <v>12.32531976384</v>
+      </c>
+      <c r="K77" s="1">
         <f t="shared" si="9"/>
-        <v>1.98464427048</v>
-      </c>
-      <c r="I77" s="1">
-        <v>12.32531976384</v>
-      </c>
-      <c r="J77" s="1">
-        <f t="shared" si="10"/>
         <v>6.1626598819199998</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>74</v>
       </c>
@@ -7694,36 +7931,39 @@
         <v>148</v>
       </c>
       <c r="C78" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
-      <c r="D78" s="25">
-        <v>996.53121111995301</v>
+      <c r="D78" s="56">
+        <v>996.42297363299997</v>
       </c>
       <c r="E78" s="1">
         <f t="shared" si="6"/>
-        <v>996.38087803740007</v>
+        <v>996.32737942800009</v>
       </c>
       <c r="F78" s="26">
+        <f t="shared" si="7"/>
+        <v>9.5594204999883914E-2</v>
+      </c>
+      <c r="G78" s="55">
+        <v>996.551508614</v>
+      </c>
+      <c r="H78" s="1">
+        <v>4.2227904876000002</v>
+      </c>
+      <c r="I78" s="1">
         <f t="shared" si="8"/>
-        <v>0.15033308255294742</v>
-      </c>
-      <c r="G78" s="1">
-        <v>4.2227904876000002</v>
-      </c>
-      <c r="H78" s="1">
+        <v>2.1113952438000001</v>
+      </c>
+      <c r="J78" s="1">
+        <v>10.866455340960002</v>
+      </c>
+      <c r="K78" s="1">
         <f t="shared" si="9"/>
-        <v>2.1113952438000001</v>
-      </c>
-      <c r="I78" s="1">
-        <v>10.866455340960002</v>
-      </c>
-      <c r="J78" s="1">
-        <f t="shared" si="10"/>
         <v>5.4332276704800009</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>75</v>
       </c>
@@ -7731,36 +7971,39 @@
         <v>150</v>
       </c>
       <c r="C79" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
-      <c r="D79" s="25">
-        <v>996.45930624789798</v>
+      <c r="D79" s="56">
+        <v>996.38006591800001</v>
       </c>
       <c r="E79" s="1">
         <f t="shared" si="6"/>
-        <v>996.33538229500004</v>
+        <v>996.28205249560006</v>
       </c>
       <c r="F79" s="26">
+        <f t="shared" si="7"/>
+        <v>9.8013422399958472E-2</v>
+      </c>
+      <c r="G79" s="55">
+        <v>996.47187463199998</v>
+      </c>
+      <c r="H79" s="1">
+        <v>4.7896271085600004</v>
+      </c>
+      <c r="I79" s="1">
         <f t="shared" si="8"/>
-        <v>0.12392395289793967</v>
-      </c>
-      <c r="G79" s="1">
-        <v>4.7896271085600004</v>
-      </c>
-      <c r="H79" s="1">
+        <v>2.3948135542800002</v>
+      </c>
+      <c r="J79" s="1">
+        <v>11.474226358080001</v>
+      </c>
+      <c r="K79" s="1">
         <f t="shared" si="9"/>
-        <v>2.3948135542800002</v>
-      </c>
-      <c r="I79" s="1">
-        <v>11.474226358080001</v>
-      </c>
-      <c r="J79" s="1">
-        <f t="shared" si="10"/>
         <v>5.7371131790400005</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>76</v>
       </c>
@@ -7768,36 +8011,39 @@
         <v>152</v>
       </c>
       <c r="C80" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
-      <c r="D80" s="25">
-        <v>996.37945960279899</v>
+      <c r="D80" s="56">
+        <v>996.32818603500004</v>
       </c>
       <c r="E80" s="1">
         <f t="shared" si="6"/>
-        <v>996.28988655260002</v>
+        <v>996.23672556320003</v>
       </c>
       <c r="F80" s="26">
+        <f t="shared" si="7"/>
+        <v>9.146047180001915E-2</v>
+      </c>
+      <c r="G80" s="55">
+        <v>996.43806752499995</v>
+      </c>
+      <c r="H80" s="1">
+        <v>4.80233739048</v>
+      </c>
+      <c r="I80" s="1">
         <f t="shared" si="8"/>
-        <v>8.9573050198964665E-2</v>
-      </c>
-      <c r="G80" s="1">
-        <v>4.80233739048</v>
-      </c>
-      <c r="H80" s="1">
+        <v>2.40116869524</v>
+      </c>
+      <c r="J80" s="1">
+        <v>12.582205264800001</v>
+      </c>
+      <c r="K80" s="1">
         <f t="shared" si="9"/>
-        <v>2.40116869524</v>
-      </c>
-      <c r="I80" s="1">
-        <v>12.582205264800001</v>
-      </c>
-      <c r="J80" s="1">
-        <f t="shared" si="10"/>
         <v>6.2911026324000003</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>77</v>
       </c>
@@ -7805,36 +8051,39 @@
         <v>154</v>
       </c>
       <c r="C81" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="D81" s="25">
-        <v>996.30197912127005</v>
+      <c r="D81" s="56">
+        <v>996.20239257799994</v>
       </c>
       <c r="E81" s="1">
         <f t="shared" si="6"/>
-        <v>996.2443908102</v>
+        <v>996.19139863080011</v>
       </c>
       <c r="F81" s="26">
+        <f t="shared" si="7"/>
+        <v>1.0993947199835929E-2</v>
+      </c>
+      <c r="G81" s="55">
+        <v>996.37424938000004</v>
+      </c>
+      <c r="H81" s="1">
+        <v>5.3359504761600007</v>
+      </c>
+      <c r="I81" s="1">
         <f t="shared" si="8"/>
-        <v>5.7588311070048803E-2</v>
-      </c>
-      <c r="G81" s="1">
-        <v>5.3359504761600007</v>
-      </c>
-      <c r="H81" s="1">
+        <v>2.6679752380800004</v>
+      </c>
+      <c r="J81" s="1">
+        <v>12.0102785448</v>
+      </c>
+      <c r="K81" s="1">
         <f t="shared" si="9"/>
-        <v>2.6679752380800004</v>
-      </c>
-      <c r="I81" s="1">
-        <v>12.0102785448</v>
-      </c>
-      <c r="J81" s="1">
-        <f t="shared" si="10"/>
         <v>6.0051392724000001</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>78</v>
       </c>
@@ -7842,36 +8091,39 @@
         <v>156</v>
       </c>
       <c r="C82" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="D82" s="25">
-        <v>996.288694483585</v>
+      <c r="D82" s="56">
+        <v>996.20709228500004</v>
       </c>
       <c r="E82" s="1">
         <f t="shared" si="6"/>
-        <v>996.19889506780009</v>
+        <v>996.14607169840008</v>
       </c>
       <c r="F82" s="26">
+        <f t="shared" si="7"/>
+        <v>6.1020586599966009E-2</v>
+      </c>
+      <c r="G82" s="55">
+        <v>996.35026734300004</v>
+      </c>
+      <c r="H82" s="1">
+        <v>4.80233739048</v>
+      </c>
+      <c r="I82" s="1">
         <f t="shared" si="8"/>
-        <v>8.9799415784909797E-2</v>
-      </c>
-      <c r="G82" s="1">
-        <v>4.80233739048</v>
-      </c>
-      <c r="H82" s="1">
+        <v>2.40116869524</v>
+      </c>
+      <c r="J82" s="1">
+        <v>11.347338758159999</v>
+      </c>
+      <c r="K82" s="1">
         <f t="shared" si="9"/>
-        <v>2.40116869524</v>
-      </c>
-      <c r="I82" s="1">
-        <v>11.347338758159999</v>
-      </c>
-      <c r="J82" s="1">
-        <f t="shared" si="10"/>
         <v>5.6736693790799997</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>79</v>
       </c>
@@ -7879,36 +8131,39 @@
         <v>158</v>
       </c>
       <c r="C83" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
-      <c r="D83" s="25">
-        <v>996.225505873271</v>
+      <c r="D83" s="56">
+        <v>996.16375732400002</v>
       </c>
       <c r="E83" s="1">
         <f t="shared" si="6"/>
-        <v>996.15339932540007</v>
+        <v>996.10074476600005</v>
       </c>
       <c r="F83" s="26">
+        <f t="shared" si="7"/>
+        <v>6.3012557999968521E-2</v>
+      </c>
+      <c r="G83" s="55">
+        <v>996.29943547000005</v>
+      </c>
+      <c r="H83" s="1">
+        <v>6.9367300838400006</v>
+      </c>
+      <c r="I83" s="1">
         <f t="shared" si="8"/>
-        <v>7.2106547870930626E-2</v>
-      </c>
-      <c r="G83" s="1">
-        <v>6.9367300838400006</v>
-      </c>
-      <c r="H83" s="1">
+        <v>3.4683650419200003</v>
+      </c>
+      <c r="J83" s="1">
+        <v>11.399368148640001</v>
+      </c>
+      <c r="K83" s="1">
         <f t="shared" si="9"/>
-        <v>3.4683650419200003</v>
-      </c>
-      <c r="I83" s="1">
-        <v>11.399368148640001</v>
-      </c>
-      <c r="J83" s="1">
-        <f t="shared" si="10"/>
         <v>5.6996840743200003</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>80</v>
       </c>
@@ -7916,36 +8171,39 @@
         <v>160</v>
       </c>
       <c r="C84" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
-      <c r="D84" s="25">
-        <v>996.15964052017102</v>
+      <c r="D84" s="56">
+        <v>996.11517333999996</v>
       </c>
       <c r="E84" s="1">
         <f t="shared" si="6"/>
-        <v>996.10790358300005</v>
+        <v>996.05541783360002</v>
       </c>
       <c r="F84" s="26">
+        <f t="shared" si="7"/>
+        <v>5.9755506399937985E-2</v>
+      </c>
+      <c r="G84" s="55">
+        <v>996.21756811900002</v>
+      </c>
+      <c r="H84" s="1">
+        <v>5.8695336000000005</v>
+      </c>
+      <c r="I84" s="1">
         <f t="shared" si="8"/>
-        <v>5.1736937170971942E-2</v>
-      </c>
-      <c r="G84" s="1">
-        <v>5.8695336000000005</v>
-      </c>
-      <c r="H84" s="1">
+        <v>2.9347668000000002</v>
+      </c>
+      <c r="J84" s="1">
+        <v>10.956005672400002</v>
+      </c>
+      <c r="K84" s="1">
         <f t="shared" si="9"/>
-        <v>2.9347668000000002</v>
-      </c>
-      <c r="I84" s="1">
-        <v>10.956005672400002</v>
-      </c>
-      <c r="J84" s="1">
-        <f t="shared" si="10"/>
         <v>5.4780028362000008</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>81</v>
       </c>
@@ -7953,36 +8211,39 @@
         <v>162</v>
       </c>
       <c r="C85" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
-      <c r="D85" s="25">
-        <v>996.06469064735495</v>
+      <c r="D85" s="56">
+        <v>996.09527587900004</v>
       </c>
       <c r="E85" s="1">
         <f t="shared" si="6"/>
-        <v>996.06240784060003</v>
+        <v>996.0100909012001</v>
       </c>
       <c r="F85" s="26">
+        <f t="shared" si="7"/>
+        <v>8.5184977799940498E-2</v>
+      </c>
+      <c r="G85" s="55">
+        <v>996.16175925000005</v>
+      </c>
+      <c r="H85" s="1">
+        <v>8.0038957524000001</v>
+      </c>
+      <c r="I85" s="1">
         <f t="shared" si="8"/>
-        <v>2.2828067549198749E-3</v>
-      </c>
-      <c r="G85" s="1">
-        <v>8.0038957524000001</v>
-      </c>
-      <c r="H85" s="1">
+        <v>4.0019478762</v>
+      </c>
+      <c r="J85" s="1">
+        <v>11.42579327232</v>
+      </c>
+      <c r="K85" s="1">
         <f t="shared" si="9"/>
-        <v>4.0019478762</v>
-      </c>
-      <c r="I85" s="1">
-        <v>11.42579327232</v>
-      </c>
-      <c r="J85" s="1">
-        <f t="shared" si="10"/>
         <v>5.71289663616</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>82</v>
       </c>
@@ -7990,36 +8251,39 @@
         <v>164</v>
       </c>
       <c r="C86" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="D86" s="25">
-        <v>996.04185432057602</v>
+      <c r="D86" s="56">
+        <v>996.05194091800001</v>
       </c>
       <c r="E86" s="1">
         <f t="shared" si="6"/>
-        <v>996.01691209820001</v>
+        <v>995.96476396880007</v>
       </c>
       <c r="F86" s="26">
+        <f t="shared" si="7"/>
+        <v>8.717694919994301E-2</v>
+      </c>
+      <c r="G86" s="55">
+        <v>996.160549844</v>
+      </c>
+      <c r="H86" s="1">
+        <v>9.0129359085600012</v>
+      </c>
+      <c r="I86" s="1">
         <f t="shared" si="8"/>
-        <v>2.4942222376012069E-2</v>
-      </c>
-      <c r="G86" s="1">
-        <v>9.0129359085600012</v>
-      </c>
-      <c r="H86" s="1">
+        <v>4.5064679542800006</v>
+      </c>
+      <c r="J86" s="1">
+        <v>10.88172533328</v>
+      </c>
+      <c r="K86" s="1">
         <f t="shared" si="9"/>
-        <v>4.5064679542800006</v>
-      </c>
-      <c r="I86" s="1">
-        <v>10.88172533328</v>
-      </c>
-      <c r="J86" s="1">
-        <f t="shared" si="10"/>
         <v>5.4408626666400002</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>83</v>
       </c>
@@ -8027,36 +8291,39 @@
         <v>166</v>
       </c>
       <c r="C87" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
-      <c r="D87" s="25">
-        <v>995.99366267877599</v>
+      <c r="D87" s="56">
+        <v>995.94567871100003</v>
       </c>
       <c r="E87" s="1">
         <f t="shared" si="6"/>
-        <v>995.9714163558001</v>
+        <v>995.91943703640004</v>
       </c>
       <c r="F87" s="26">
+        <f t="shared" si="7"/>
+        <v>2.6241674599987164E-2</v>
+      </c>
+      <c r="G87" s="55">
+        <v>996.06221786100002</v>
+      </c>
+      <c r="H87" s="1">
+        <v>5.0071931961600002</v>
+      </c>
+      <c r="I87" s="1">
         <f t="shared" si="8"/>
-        <v>2.2246322975888688E-2</v>
-      </c>
-      <c r="G87" s="1">
-        <v>5.0071931961600002</v>
-      </c>
-      <c r="H87" s="1">
+        <v>2.5035965980800001</v>
+      </c>
+      <c r="J87" s="1">
+        <v>11.969892636239999</v>
+      </c>
+      <c r="K87" s="1">
         <f t="shared" si="9"/>
-        <v>2.5035965980800001</v>
-      </c>
-      <c r="I87" s="1">
-        <v>11.969892636239999</v>
-      </c>
-      <c r="J87" s="1">
-        <f t="shared" si="10"/>
         <v>5.9849463181199996</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>84</v>
       </c>
@@ -8064,36 +8331,39 @@
         <v>168</v>
       </c>
       <c r="C88" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
-      <c r="D88" s="25">
-        <v>995.93178982204802</v>
+      <c r="D88" s="56">
+        <v>995.94793701200001</v>
       </c>
       <c r="E88" s="1">
         <f t="shared" si="6"/>
-        <v>995.92592061340008</v>
+        <v>995.87411010400001</v>
       </c>
       <c r="F88" s="26">
+        <f t="shared" si="7"/>
+        <v>7.3826908000000913E-2</v>
+      </c>
+      <c r="G88" s="55">
+        <v>996.02122130500004</v>
+      </c>
+      <c r="H88" s="1">
+        <v>6.5093393104799997</v>
+      </c>
+      <c r="I88" s="1">
         <f t="shared" si="8"/>
-        <v>5.8692086479368299E-3</v>
-      </c>
-      <c r="G88" s="1">
-        <v>6.5093393104799997</v>
-      </c>
-      <c r="H88" s="1">
+        <v>3.2546696552399998</v>
+      </c>
+      <c r="J88" s="1">
+        <v>12.45357939048</v>
+      </c>
+      <c r="K88" s="1">
         <f t="shared" si="9"/>
-        <v>3.2546696552399998</v>
-      </c>
-      <c r="I88" s="1">
-        <v>12.45357939048</v>
-      </c>
-      <c r="J88" s="1">
-        <f t="shared" si="10"/>
         <v>6.2267896952399999</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>85</v>
       </c>
@@ -8101,36 +8371,39 @@
         <v>170</v>
       </c>
       <c r="C89" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="D89" s="25">
-        <v>995.85402439934205</v>
+      <c r="D89" s="56">
+        <v>995.90991210899995</v>
       </c>
       <c r="E89" s="1">
         <f t="shared" si="6"/>
-        <v>995.88042487100006</v>
+        <v>995.82878317160009</v>
       </c>
       <c r="F89" s="26">
+        <f t="shared" si="7"/>
+        <v>8.1128937399853385E-2</v>
+      </c>
+      <c r="G89" s="55">
+        <v>995.95246412699998</v>
+      </c>
+      <c r="H89" s="1">
+        <v>5.5100526323999999</v>
+      </c>
+      <c r="I89" s="1">
         <f t="shared" si="8"/>
-        <v>-2.6400471658007518E-2</v>
-      </c>
-      <c r="G89" s="1">
-        <v>5.5100526323999999</v>
-      </c>
-      <c r="H89" s="1">
+        <v>2.7550263161999999</v>
+      </c>
+      <c r="J89" s="1">
+        <v>11.282476434239999</v>
+      </c>
+      <c r="K89" s="1">
         <f t="shared" si="9"/>
-        <v>2.7550263161999999</v>
-      </c>
-      <c r="I89" s="1">
-        <v>11.282476434239999</v>
-      </c>
-      <c r="J89" s="1">
-        <f t="shared" si="10"/>
         <v>5.6412382171199997</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>86</v>
       </c>
@@ -8138,36 +8411,39 @@
         <v>172</v>
       </c>
       <c r="C90" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="D90" s="25">
-        <v>995.705319471091</v>
+      <c r="D90" s="56">
+        <v>995.69567871100003</v>
       </c>
       <c r="E90" s="1">
         <f t="shared" si="6"/>
-        <v>995.83492912860004</v>
+        <v>995.78345623920006</v>
       </c>
       <c r="F90" s="26">
+        <f t="shared" si="7"/>
+        <v>-8.7777528200035704E-2</v>
+      </c>
+      <c r="G90" s="55">
+        <v>995.77907986499997</v>
+      </c>
+      <c r="H90" s="1">
+        <v>4.0073274895200006</v>
+      </c>
+      <c r="I90" s="1">
         <f t="shared" si="8"/>
-        <v>-0.12960965750903597</v>
-      </c>
-      <c r="G90" s="1">
-        <v>4.0073274895200006</v>
-      </c>
-      <c r="H90" s="1">
+        <v>2.0036637447600003</v>
+      </c>
+      <c r="J90" s="1">
+        <v>9.7935591885599997</v>
+      </c>
+      <c r="K90" s="1">
         <f t="shared" si="9"/>
-        <v>2.0036637447600003</v>
-      </c>
-      <c r="I90" s="1">
-        <v>9.7935591885599997</v>
-      </c>
-      <c r="J90" s="1">
-        <f t="shared" si="10"/>
         <v>4.8967795942799999</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>87</v>
       </c>
@@ -8175,36 +8451,39 @@
         <v>174</v>
       </c>
       <c r="C91" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="D91" s="25">
-        <v>995.62142258055405</v>
+      <c r="D91" s="56">
+        <v>995.57287597699997</v>
       </c>
       <c r="E91" s="1">
         <f t="shared" si="6"/>
-        <v>995.78943338620002</v>
+        <v>995.73812930680003</v>
       </c>
       <c r="F91" s="26">
+        <f t="shared" si="7"/>
+        <v>-0.16525332980006624</v>
+      </c>
+      <c r="G91" s="55">
+        <v>995.72127093999995</v>
+      </c>
+      <c r="H91" s="1">
+        <v>5.5100526323999999</v>
+      </c>
+      <c r="I91" s="1">
         <f t="shared" si="8"/>
-        <v>-0.16801080564596305</v>
-      </c>
-      <c r="G91" s="1">
-        <v>5.5100526323999999</v>
-      </c>
-      <c r="H91" s="1">
+        <v>2.7550263161999999</v>
+      </c>
+      <c r="J91" s="1">
+        <v>10.337627127600001</v>
+      </c>
+      <c r="K91" s="1">
         <f t="shared" si="9"/>
-        <v>2.7550263161999999</v>
-      </c>
-      <c r="I91" s="1">
-        <v>10.337627127600001</v>
-      </c>
-      <c r="J91" s="1">
-        <f t="shared" si="10"/>
         <v>5.1688135638000006</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>88</v>
       </c>
@@ -8212,36 +8491,39 @@
         <v>176</v>
       </c>
       <c r="C92" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="D92" s="25">
-        <v>995.57916754088603</v>
+      <c r="D92" s="56">
+        <v>995.48333740199996</v>
       </c>
       <c r="E92" s="1">
         <f t="shared" si="6"/>
-        <v>995.7439376438</v>
+        <v>995.6928023744</v>
       </c>
       <c r="F92" s="26">
+        <f t="shared" si="7"/>
+        <v>-0.20946497240004192</v>
+      </c>
+      <c r="G92" s="55">
+        <v>995.63115517000006</v>
+      </c>
+      <c r="H92" s="1">
+        <v>5.5100526323999999</v>
+      </c>
+      <c r="I92" s="1">
         <f t="shared" si="8"/>
-        <v>-0.16477010291396255</v>
-      </c>
-      <c r="G92" s="1">
-        <v>5.5100526323999999</v>
-      </c>
-      <c r="H92" s="1">
+        <v>2.7550263161999999</v>
+      </c>
+      <c r="J92" s="1">
+        <v>9.7935591885599997</v>
+      </c>
+      <c r="K92" s="1">
         <f t="shared" si="9"/>
-        <v>2.7550263161999999</v>
-      </c>
-      <c r="I92" s="1">
-        <v>9.7935591885599997</v>
-      </c>
-      <c r="J92" s="1">
-        <f t="shared" si="10"/>
         <v>4.8967795942799999</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>89</v>
       </c>
@@ -8249,36 +8531,39 @@
         <v>178</v>
       </c>
       <c r="C93" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="D93" s="25">
-        <v>995.52607544802902</v>
+      <c r="D93" s="56">
+        <v>995.48608398399995</v>
       </c>
       <c r="E93" s="1">
         <f t="shared" si="6"/>
-        <v>995.69844190140009</v>
+        <v>995.64747544200009</v>
       </c>
       <c r="F93" s="26">
+        <f t="shared" si="7"/>
+        <v>-0.16139145800013921</v>
+      </c>
+      <c r="G93" s="55">
+        <v>995.63139977499998</v>
+      </c>
+      <c r="H93" s="1">
+        <v>4.0073274895200006</v>
+      </c>
+      <c r="I93" s="1">
         <f t="shared" si="8"/>
-        <v>-0.17236645337106893</v>
-      </c>
-      <c r="G93" s="1">
-        <v>4.0073274895200006</v>
-      </c>
-      <c r="H93" s="1">
+        <v>2.0036637447600003</v>
+      </c>
+      <c r="J93" s="1">
+        <v>10.079523127680002</v>
+      </c>
+      <c r="K93" s="1">
         <f t="shared" si="9"/>
-        <v>2.0036637447600003</v>
-      </c>
-      <c r="I93" s="1">
-        <v>10.079523127680002</v>
-      </c>
-      <c r="J93" s="1">
-        <f t="shared" si="10"/>
         <v>5.0397615638400008</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>90</v>
       </c>
@@ -8286,36 +8571,39 @@
         <v>180</v>
       </c>
       <c r="C94" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="D94" s="25">
-        <v>995.53788775089902</v>
+      <c r="D94" s="56">
+        <v>995.54071044900002</v>
       </c>
       <c r="E94" s="1">
         <f t="shared" si="6"/>
-        <v>995.65294615900007</v>
+        <v>995.60214850960006</v>
       </c>
       <c r="F94" s="26">
+        <f t="shared" si="7"/>
+        <v>-6.1438060600039535E-2</v>
+      </c>
+      <c r="G94" s="55">
+        <v>995.60644724899998</v>
+      </c>
+      <c r="H94" s="1">
+        <v>5.5100526323999999</v>
+      </c>
+      <c r="I94" s="1">
         <f t="shared" si="8"/>
-        <v>-0.11505840810104928</v>
-      </c>
-      <c r="G94" s="1">
-        <v>5.5100526323999999</v>
-      </c>
-      <c r="H94" s="1">
+        <v>2.7550263161999999</v>
+      </c>
+      <c r="J94" s="1">
+        <v>9.2494610133600013</v>
+      </c>
+      <c r="K94" s="1">
         <f t="shared" si="9"/>
-        <v>2.7550263161999999</v>
-      </c>
-      <c r="I94" s="1">
-        <v>9.2494610133600013</v>
-      </c>
-      <c r="J94" s="1">
-        <f t="shared" si="10"/>
         <v>4.6247305066800006</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>91</v>
       </c>
@@ -8323,36 +8611,39 @@
         <v>182</v>
       </c>
       <c r="C95" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="D95" s="25">
-        <v>995.46713930765702</v>
+      <c r="D95" s="56">
+        <v>995.44708251999998</v>
       </c>
       <c r="E95" s="1">
         <f t="shared" si="6"/>
-        <v>995.60745041660005</v>
+        <v>995.55682157720003</v>
       </c>
       <c r="F95" s="26">
+        <f t="shared" si="7"/>
+        <v>-0.10973905720004495</v>
+      </c>
+      <c r="G95" s="55">
+        <v>995.49275027099998</v>
+      </c>
+      <c r="H95" s="1">
+        <v>5.5100526323999999</v>
+      </c>
+      <c r="I95" s="1">
         <f t="shared" si="8"/>
-        <v>-0.14031110894302401</v>
-      </c>
-      <c r="G95" s="1">
-        <v>5.5100526323999999</v>
-      </c>
-      <c r="H95" s="1">
+        <v>2.7550263161999999</v>
+      </c>
+      <c r="J95" s="1">
+        <v>8.0597655923999998</v>
+      </c>
+      <c r="K95" s="1">
         <f t="shared" si="9"/>
-        <v>2.7550263161999999</v>
-      </c>
-      <c r="I95" s="1">
-        <v>8.0597655923999998</v>
-      </c>
-      <c r="J95" s="1">
-        <f t="shared" si="10"/>
         <v>4.0298827961999999</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>92</v>
       </c>
@@ -8360,7 +8651,7 @@
         <v>184</v>
       </c>
       <c r="C96" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D96" s="25">
@@ -8368,24 +8659,25 @@
       </c>
       <c r="E96" s="1">
         <f t="shared" si="6"/>
-        <v>995.56195467420002</v>
+        <v>995.5114946448</v>
       </c>
       <c r="F96" s="26">
+        <f t="shared" si="7"/>
+        <v>1.0740974292957617E-2</v>
+      </c>
+      <c r="G96" s="26"/>
+      <c r="H96" s="1">
+        <v>3.5063885980800005</v>
+      </c>
+      <c r="I96" s="1">
         <f t="shared" si="8"/>
-        <v>-3.9719055107070744E-2</v>
-      </c>
-      <c r="G96" s="1">
-        <v>3.5063885980800005</v>
-      </c>
-      <c r="H96" s="1">
+        <v>1.7531942990400002</v>
+      </c>
+      <c r="J96" s="1">
+        <v>3.8085980419199998</v>
+      </c>
+      <c r="K96" s="1">
         <f t="shared" si="9"/>
-        <v>1.7531942990400002</v>
-      </c>
-      <c r="I96" s="1">
-        <v>3.8085980419199998</v>
-      </c>
-      <c r="J96" s="1">
-        <f t="shared" si="10"/>
         <v>1.9042990209599999</v>
       </c>
     </row>
@@ -9295,7 +9587,7 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
